--- a/output.xlsx
+++ b/output.xlsx
@@ -847,31 +847,31 @@
         <v>1047</v>
       </c>
       <c r="E2" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="G2" s="2">
         <v>1047</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2">
-        <v>0.001249399996595457</v>
+        <v>0.001572399996803142</v>
       </c>
       <c r="L2" s="2">
-        <v>0.01352429999678861</v>
+        <v>0.01454109999758657</v>
       </c>
       <c r="M2" s="2">
-        <v>0.001720800006296486</v>
+        <v>0.002626400004373863</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -888,31 +888,31 @@
         <v>1151</v>
       </c>
       <c r="E3" s="2">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F3" s="2">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="G3" s="2">
         <v>1151</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
         <v>4</v>
       </c>
       <c r="K3" s="2">
-        <v>0.001739600003929809</v>
+        <v>0.001407999996445142</v>
       </c>
       <c r="L3" s="2">
-        <v>0.001802300001145341</v>
+        <v>0.001465399996959604</v>
       </c>
       <c r="M3" s="2">
-        <v>0.002302399996551685</v>
+        <v>0.002229999998235144</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -929,31 +929,31 @@
         <v>1226</v>
       </c>
       <c r="E4" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="F4" s="2">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="G4" s="2">
         <v>1226</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2">
-        <v>0.001513099996373057</v>
+        <v>0.001694000005954877</v>
       </c>
       <c r="L4" s="2">
-        <v>0.001501999999163672</v>
+        <v>0.00185050000436604</v>
       </c>
       <c r="M4" s="2">
-        <v>0.001776699995389208</v>
+        <v>0.002186199999414384</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -970,31 +970,31 @@
         <v>1074</v>
       </c>
       <c r="E5" s="2">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="F5" s="2">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="G5" s="2">
         <v>1074</v>
       </c>
       <c r="H5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>14</v>
-      </c>
       <c r="K5" s="2">
-        <v>0.002326700006960891</v>
+        <v>0.003800299993599765</v>
       </c>
       <c r="L5" s="2">
-        <v>0.002690299996174872</v>
+        <v>0.004363600004580803</v>
       </c>
       <c r="M5" s="2">
-        <v>0.004917600002954714</v>
+        <v>0.003490900009637699</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1011,31 +1011,31 @@
         <v>1086</v>
       </c>
       <c r="E6" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F6" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G6" s="2">
         <v>1086</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>0.001722700006212108</v>
+        <v>0.002022300002863631</v>
       </c>
       <c r="L6" s="2">
-        <v>0.001914300009957515</v>
+        <v>0.00221429999510292</v>
       </c>
       <c r="M6" s="2">
-        <v>0.002217299988842569</v>
+        <v>0.002628100002766587</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1052,31 +1052,31 @@
         <v>1081</v>
       </c>
       <c r="E7" s="2">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="F7" s="2">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="G7" s="2">
         <v>1081</v>
       </c>
       <c r="H7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>0.001955700005055405</v>
+        <v>0.001281300006667152</v>
       </c>
       <c r="L7" s="2">
-        <v>0.002173100001527928</v>
+        <v>0.001279599993722513</v>
       </c>
       <c r="M7" s="2">
-        <v>0.002497400011634454</v>
+        <v>0.001436800012015738</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1093,31 +1093,31 @@
         <v>1166</v>
       </c>
       <c r="E8" s="2">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="F8" s="2">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="G8" s="2">
         <v>1166</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
-        <v>0.001624700002139434</v>
+        <v>0.001773099997080863</v>
       </c>
       <c r="L8" s="2">
-        <v>0.00174759999208618</v>
+        <v>0.002020500003709458</v>
       </c>
       <c r="M8" s="2">
-        <v>0.002054500000667758</v>
+        <v>0.002324100001715124</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1134,31 +1134,31 @@
         <v>1119</v>
       </c>
       <c r="E9" s="2">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F9" s="2">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G9" s="2">
         <v>1119</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2">
-        <v>0.001842899990151636</v>
+        <v>0.001817099997424521</v>
       </c>
       <c r="L9" s="2">
-        <v>0.002104300001519732</v>
+        <v>0.002031200012424961</v>
       </c>
       <c r="M9" s="2">
-        <v>0.002487999998265877</v>
+        <v>0.002339099999517202</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1175,10 +1175,10 @@
         <v>1136</v>
       </c>
       <c r="E10" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F10" s="2">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G10" s="2">
         <v>1136</v>
@@ -1193,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="K10" s="2">
-        <v>0.001461199994082563</v>
+        <v>0.001517600001534447</v>
       </c>
       <c r="L10" s="2">
-        <v>0.001518900011433288</v>
+        <v>0.001639399997657165</v>
       </c>
       <c r="M10" s="2">
-        <v>0.001666299998760223</v>
+        <v>0.001775299999280833</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1216,31 +1216,31 @@
         <v>1142</v>
       </c>
       <c r="E11" s="2">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="2">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G11" s="2">
         <v>1142</v>
       </c>
       <c r="H11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="2">
-        <v>0.00174229999538511</v>
+        <v>0.001449499992304482</v>
       </c>
       <c r="L11" s="2">
-        <v>0.001738999999361113</v>
+        <v>0.001486199995269999</v>
       </c>
       <c r="M11" s="2">
-        <v>0.002175300003727898</v>
+        <v>0.001699599990388379</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1257,10 +1257,10 @@
         <v>1130</v>
       </c>
       <c r="E12" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F12" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G12" s="2">
         <v>1130</v>
@@ -1275,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="2">
-        <v>0.001883899996755645</v>
+        <v>0.001926199998706579</v>
       </c>
       <c r="L12" s="2">
-        <v>0.002040399995166808</v>
+        <v>0.002052499999990687</v>
       </c>
       <c r="M12" s="2">
-        <v>0.002581299995654263</v>
+        <v>0.002510199992684647</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1298,31 +1298,31 @@
         <v>1047</v>
       </c>
       <c r="E13" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="F13" s="2">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="G13" s="2">
         <v>1047</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2">
-        <v>0.001096099993446842</v>
+        <v>0.001451400006772019</v>
       </c>
       <c r="L13" s="2">
-        <v>0.001109799995901994</v>
+        <v>0.001558799995109439</v>
       </c>
       <c r="M13" s="2">
-        <v>0.001173900003777817</v>
+        <v>0.002016800004639663</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1339,31 +1339,31 @@
         <v>1141</v>
       </c>
       <c r="E14" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F14" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G14" s="2">
         <v>1141</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="2">
-        <v>0.001591099993675016</v>
+        <v>0.001850300002843142</v>
       </c>
       <c r="L14" s="2">
-        <v>0.001810599991586059</v>
+        <v>0.001987399999052286</v>
       </c>
       <c r="M14" s="2">
-        <v>0.00214609999966342</v>
+        <v>0.002702900004805997</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1389,22 +1389,22 @@
         <v>1127</v>
       </c>
       <c r="H15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>0.001637299996218644</v>
+        <v>0.001563400001032278</v>
       </c>
       <c r="L15" s="2">
-        <v>0.001794700001482852</v>
+        <v>0.001632100000279024</v>
       </c>
       <c r="M15" s="2">
-        <v>0.002692299996851943</v>
+        <v>0.002433799993013963</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1421,10 +1421,10 @@
         <v>1132</v>
       </c>
       <c r="E16" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F16" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G16" s="2">
         <v>1132</v>
@@ -1439,13 +1439,13 @@
         <v>6</v>
       </c>
       <c r="K16" s="2">
-        <v>0.002024500005063601</v>
+        <v>0.002164399993489496</v>
       </c>
       <c r="L16" s="2">
-        <v>0.002298099992913194</v>
+        <v>0.002423500001896173</v>
       </c>
       <c r="M16" s="2">
-        <v>0.002801599999656901</v>
+        <v>0.002856899998732843</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1471,22 +1471,22 @@
         <v>1125</v>
       </c>
       <c r="H17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
         <v>7</v>
       </c>
       <c r="K17" s="2">
-        <v>0.001907600002596155</v>
+        <v>0.002549500000895932</v>
       </c>
       <c r="L17" s="2">
-        <v>0.002400500001385808</v>
+        <v>0.002776100009214133</v>
       </c>
       <c r="M17" s="2">
-        <v>0.003609599996707402</v>
+        <v>0.003361199997016229</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1503,31 +1503,31 @@
         <v>1169</v>
       </c>
       <c r="E18" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F18" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G18" s="2">
         <v>1169</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="2">
         <v>4</v>
       </c>
       <c r="K18" s="2">
-        <v>0.005161900000530295</v>
+        <v>0.001524000006611459</v>
       </c>
       <c r="L18" s="2">
-        <v>0.003459300001850352</v>
+        <v>0.001595000008819625</v>
       </c>
       <c r="M18" s="2">
-        <v>0.005094599997391924</v>
+        <v>0.002109000008204021</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1544,31 +1544,31 @@
         <v>1141</v>
       </c>
       <c r="E19" s="2">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="F19" s="2">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G19" s="2">
         <v>1141</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2">
-        <v>0.002214099993580021</v>
+        <v>0.001298999995924532</v>
       </c>
       <c r="L19" s="2">
-        <v>0.001617799993255176</v>
+        <v>0.001334600005066022</v>
       </c>
       <c r="M19" s="2">
-        <v>0.001897199996165</v>
+        <v>0.0015653000009479</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1585,10 +1585,10 @@
         <v>1151</v>
       </c>
       <c r="E20" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="2">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G20" s="2">
         <v>1151</v>
@@ -1603,13 +1603,13 @@
         <v>2</v>
       </c>
       <c r="K20" s="2">
-        <v>0.001306099991779774</v>
+        <v>0.001325700010056607</v>
       </c>
       <c r="L20" s="2">
-        <v>0.001331100007519126</v>
+        <v>0.001349800004391</v>
       </c>
       <c r="M20" s="2">
-        <v>0.00154449998808559</v>
+        <v>0.001569900006870739</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1644,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0009380999981658533</v>
+        <v>0.0009571999980835244</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0009109999955398962</v>
+        <v>0.0009621999925002456</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0009171999990940094</v>
+        <v>0.0009583000064594671</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1667,10 +1667,10 @@
         <v>1141</v>
       </c>
       <c r="E22" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F22" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G22" s="2">
         <v>1141</v>
@@ -1685,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="K22" s="2">
-        <v>0.00150009999924805</v>
+        <v>0.001585199992405251</v>
       </c>
       <c r="L22" s="2">
-        <v>0.00166380000882782</v>
+        <v>0.001707899995381013</v>
       </c>
       <c r="M22" s="2">
-        <v>0.001933799998369068</v>
+        <v>0.002021599997533485</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1708,10 +1708,10 @@
         <v>1141</v>
       </c>
       <c r="E23" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F23" s="2">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G23" s="2">
         <v>1141</v>
@@ -1726,13 +1726,13 @@
         <v>3</v>
       </c>
       <c r="K23" s="2">
-        <v>0.00150160001066979</v>
+        <v>0.001589499996043742</v>
       </c>
       <c r="L23" s="2">
-        <v>0.001639100009924732</v>
+        <v>0.001703299989458174</v>
       </c>
       <c r="M23" s="2">
-        <v>0.001887699996586889</v>
+        <v>0.00200379999296274</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1749,31 +1749,31 @@
         <v>1121</v>
       </c>
       <c r="E24" s="2">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F24" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G24" s="2">
         <v>1121</v>
       </c>
       <c r="H24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2">
-        <v>0.001561700002639554</v>
+        <v>0.001460500003304332</v>
       </c>
       <c r="L24" s="2">
-        <v>0.001646000004257075</v>
+        <v>0.001495799995609559</v>
       </c>
       <c r="M24" s="2">
-        <v>0.001958000008016825</v>
+        <v>0.001742100008414127</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1790,31 +1790,31 @@
         <v>2574</v>
       </c>
       <c r="E25" s="2">
-        <v>2604</v>
+        <v>2596</v>
       </c>
       <c r="F25" s="2">
-        <v>2604</v>
+        <v>2596</v>
       </c>
       <c r="G25" s="2">
         <v>2574</v>
       </c>
       <c r="H25" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2">
-        <v>0.006261800008360296</v>
+        <v>0.004874099991866387</v>
       </c>
       <c r="L25" s="2">
-        <v>0.006810700011556037</v>
+        <v>0.00532559999555815</v>
       </c>
       <c r="M25" s="2">
-        <v>0.009433600003831089</v>
+        <v>0.006506799996714108</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1831,31 +1831,31 @@
         <v>2497</v>
       </c>
       <c r="E26" s="2">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="F26" s="2">
-        <v>2522</v>
+        <v>2512</v>
       </c>
       <c r="G26" s="2">
         <v>2497</v>
       </c>
       <c r="H26" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J26" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2">
-        <v>0.005389099998865277</v>
+        <v>0.004427899999427609</v>
       </c>
       <c r="L26" s="2">
-        <v>0.006158899996080436</v>
+        <v>0.004857499996433035</v>
       </c>
       <c r="M26" s="2">
-        <v>0.00933699999586679</v>
+        <v>0.006365399996866472</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1872,10 +1872,10 @@
         <v>2555</v>
       </c>
       <c r="E27" s="2">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="F27" s="2">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="G27" s="2">
         <v>2555</v>
@@ -1887,16 +1887,16 @@
         <v>4</v>
       </c>
       <c r="J27" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K27" s="2">
-        <v>0.004375400007120334</v>
+        <v>0.003900199997588061</v>
       </c>
       <c r="L27" s="2">
-        <v>0.004339699997217394</v>
+        <v>0.004253800012520514</v>
       </c>
       <c r="M27" s="2">
-        <v>0.00524849999055732</v>
+        <v>0.008866300006047823</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1913,10 +1913,10 @@
         <v>2505</v>
       </c>
       <c r="E28" s="2">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="F28" s="2">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="G28" s="2">
         <v>2505</v>
@@ -1931,13 +1931,13 @@
         <v>5</v>
       </c>
       <c r="K28" s="2">
-        <v>0.005913499990128912</v>
+        <v>0.004373200004920363</v>
       </c>
       <c r="L28" s="2">
-        <v>0.005038499992224388</v>
+        <v>0.004696799995144829</v>
       </c>
       <c r="M28" s="2">
-        <v>0.006445799997891299</v>
+        <v>0.005884800004423596</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1954,31 +1954,31 @@
         <v>2565</v>
       </c>
       <c r="E29" s="2">
-        <v>2589</v>
+        <v>2595</v>
       </c>
       <c r="F29" s="2">
-        <v>2588</v>
+        <v>2594</v>
       </c>
       <c r="G29" s="2">
         <v>2565</v>
       </c>
       <c r="H29" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2">
-        <v>0.004749099985929206</v>
+        <v>0.005746599999838509</v>
       </c>
       <c r="L29" s="2">
-        <v>0.005182200009585358</v>
+        <v>0.006637400001636706</v>
       </c>
       <c r="M29" s="2">
-        <v>0.006646800000453368</v>
+        <v>0.007736100000329316</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1995,10 +1995,10 @@
         <v>2429</v>
       </c>
       <c r="E30" s="2">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="F30" s="2">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="G30" s="2">
         <v>2429</v>
@@ -2010,16 +2010,16 @@
         <v>12</v>
       </c>
       <c r="J30" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K30" s="2">
-        <v>0.006520299997646362</v>
+        <v>0.00630210000963416</v>
       </c>
       <c r="L30" s="2">
-        <v>0.007786999995005317</v>
+        <v>0.00763770000776276</v>
       </c>
       <c r="M30" s="2">
-        <v>0.01522069999191444</v>
+        <v>0.01358670000627171</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2039,7 +2039,7 @@
         <v>2574</v>
       </c>
       <c r="F31" s="2">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="G31" s="2">
         <v>2560</v>
@@ -2054,13 +2054,13 @@
         <v>4</v>
       </c>
       <c r="K31" s="2">
-        <v>0.004684500003349967</v>
+        <v>0.004572199992253445</v>
       </c>
       <c r="L31" s="2">
-        <v>0.005042899996624328</v>
+        <v>0.0048945000016829</v>
       </c>
       <c r="M31" s="2">
-        <v>0.006002299996907823</v>
+        <v>0.005798700003651902</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2077,31 +2077,31 @@
         <v>2500</v>
       </c>
       <c r="E32" s="2">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="F32" s="2">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="G32" s="2">
         <v>2500</v>
       </c>
       <c r="H32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" s="2">
-        <v>0.004045699999551289</v>
+        <v>0.004020600012154318</v>
       </c>
       <c r="L32" s="2">
-        <v>0.004176800008281134</v>
+        <v>0.004330600000685081</v>
       </c>
       <c r="M32" s="2">
-        <v>0.01702710000972729</v>
+        <v>0.01925159999518655</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2118,31 +2118,31 @@
         <v>2489</v>
       </c>
       <c r="E33" s="2">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="F33" s="2">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="G33" s="2">
         <v>2489</v>
       </c>
       <c r="H33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2">
-        <v>0.003902399999788031</v>
+        <v>0.00362920000043232</v>
       </c>
       <c r="L33" s="2">
-        <v>0.004240700000082143</v>
+        <v>0.00385209999512881</v>
       </c>
       <c r="M33" s="2">
-        <v>0.005188499999349006</v>
+        <v>0.004554099999950267</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2159,31 +2159,31 @@
         <v>2576</v>
       </c>
       <c r="E34" s="2">
-        <v>2594</v>
+        <v>2608</v>
       </c>
       <c r="F34" s="2">
-        <v>2594</v>
+        <v>2608</v>
       </c>
       <c r="G34" s="2">
         <v>2576</v>
       </c>
       <c r="H34" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I34" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K34" s="2">
-        <v>0.004993399998056702</v>
+        <v>0.00572039998951368</v>
       </c>
       <c r="L34" s="2">
-        <v>0.00560929998755455</v>
+        <v>0.006669099995633587</v>
       </c>
       <c r="M34" s="2">
-        <v>0.01639229999273084</v>
+        <v>0.01211219999822788</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2200,10 +2200,10 @@
         <v>4640</v>
       </c>
       <c r="E35" s="2">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="F35" s="2">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="G35" s="2">
         <v>4640</v>
@@ -2218,13 +2218,13 @@
         <v>4</v>
       </c>
       <c r="K35" s="2">
-        <v>0.006720599994878285</v>
+        <v>0.006793799999286421</v>
       </c>
       <c r="L35" s="2">
-        <v>0.007725999996182509</v>
+        <v>0.007471600009012036</v>
       </c>
       <c r="M35" s="2">
-        <v>0.009376099988003261</v>
+        <v>0.009209399999235757</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2241,10 +2241,10 @@
         <v>4406</v>
       </c>
       <c r="E36" s="2">
-        <v>4434</v>
+        <v>4438</v>
       </c>
       <c r="F36" s="2">
-        <v>4434</v>
+        <v>4438</v>
       </c>
       <c r="G36" s="2">
         <v>4406</v>
@@ -2259,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="2">
-        <v>0.01054799999110401</v>
+        <v>0.009818600010476075</v>
       </c>
       <c r="L36" s="2">
-        <v>0.01181769999675453</v>
+        <v>0.01109519999590702</v>
       </c>
       <c r="M36" s="2">
-        <v>0.0158341000060318</v>
+        <v>0.01500359999772627</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2282,31 +2282,31 @@
         <v>4585</v>
       </c>
       <c r="E37" s="2">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="F37" s="2">
-        <v>4597</v>
+        <v>4596</v>
       </c>
       <c r="G37" s="2">
         <v>4585</v>
       </c>
       <c r="H37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" s="2">
-        <v>0.00648640000144951</v>
+        <v>0.00571900000795722</v>
       </c>
       <c r="L37" s="2">
-        <v>0.007227900001453236</v>
+        <v>0.006179899995913729</v>
       </c>
       <c r="M37" s="2">
-        <v>0.008730500005185604</v>
+        <v>0.006961200007935986</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2323,31 +2323,31 @@
         <v>4590</v>
       </c>
       <c r="E38" s="2">
-        <v>4604</v>
+        <v>4595</v>
       </c>
       <c r="F38" s="2">
-        <v>4603</v>
+        <v>4595</v>
       </c>
       <c r="G38" s="2">
         <v>4590</v>
       </c>
       <c r="H38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38" s="2">
-        <v>0.006806200006394647</v>
+        <v>0.005510300004971214</v>
       </c>
       <c r="L38" s="2">
-        <v>0.007434099999954924</v>
+        <v>0.005564400009461679</v>
       </c>
       <c r="M38" s="2">
-        <v>0.01066379999974743</v>
+        <v>0.006400400001439266</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2364,31 +2364,31 @@
         <v>4585</v>
       </c>
       <c r="E39" s="2">
-        <v>4616</v>
+        <v>4628</v>
       </c>
       <c r="F39" s="2">
-        <v>4616</v>
+        <v>4628</v>
       </c>
       <c r="G39" s="2">
         <v>4585</v>
       </c>
       <c r="H39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K39" s="2">
-        <v>0.009731800004374236</v>
+        <v>0.009564300009515136</v>
       </c>
       <c r="L39" s="2">
-        <v>0.01099219999741763</v>
+        <v>0.01118589998804964</v>
       </c>
       <c r="M39" s="2">
-        <v>0.01444059998902958</v>
+        <v>0.01472590000776108</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2405,10 +2405,10 @@
         <v>4770</v>
       </c>
       <c r="E40" s="2">
-        <v>4797</v>
+        <v>4794</v>
       </c>
       <c r="F40" s="2">
-        <v>4797</v>
+        <v>4793</v>
       </c>
       <c r="G40" s="2">
         <v>4770</v>
@@ -2420,16 +2420,16 @@
         <v>5</v>
       </c>
       <c r="J40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" s="2">
-        <v>0.007649599996511824</v>
+        <v>0.007454999999026768</v>
       </c>
       <c r="L40" s="2">
-        <v>0.008607199997641146</v>
+        <v>0.008405000000493601</v>
       </c>
       <c r="M40" s="2">
-        <v>0.01259539999591652</v>
+        <v>0.01061900000786409</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2446,31 +2446,31 @@
         <v>4400</v>
       </c>
       <c r="E41" s="2">
-        <v>4447</v>
+        <v>4454</v>
       </c>
       <c r="F41" s="2">
-        <v>4447</v>
+        <v>4454</v>
       </c>
       <c r="G41" s="2">
         <v>4400</v>
       </c>
       <c r="H41" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2">
-        <v>0.01198049999948125</v>
+        <v>0.01190640000277199</v>
       </c>
       <c r="L41" s="2">
-        <v>0.02139249999891035</v>
+        <v>0.01404380000894889</v>
       </c>
       <c r="M41" s="2">
-        <v>0.02695230000244919</v>
+        <v>0.03017320000799373</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2487,31 +2487,31 @@
         <v>4515</v>
       </c>
       <c r="E42" s="2">
-        <v>4550</v>
+        <v>4553</v>
       </c>
       <c r="F42" s="2">
-        <v>4550</v>
+        <v>4553</v>
       </c>
       <c r="G42" s="2">
         <v>4515</v>
       </c>
       <c r="H42" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I42" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J42" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K42" s="2">
-        <v>0.009632399989641272</v>
+        <v>0.01015430000552442</v>
       </c>
       <c r="L42" s="2">
-        <v>0.01038720000360627</v>
+        <v>0.01188919998821802</v>
       </c>
       <c r="M42" s="2">
-        <v>0.01306119999208022</v>
+        <v>0.01475360000040382</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2528,31 +2528,31 @@
         <v>4514</v>
       </c>
       <c r="E43" s="2">
-        <v>4548</v>
+        <v>4551</v>
       </c>
       <c r="F43" s="2">
-        <v>4548</v>
+        <v>4551</v>
       </c>
       <c r="G43" s="2">
         <v>4514</v>
       </c>
       <c r="H43" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I43" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K43" s="2">
-        <v>0.01132789999246597</v>
+        <v>0.0119806000002427</v>
       </c>
       <c r="L43" s="2">
-        <v>0.0127723000041442</v>
+        <v>0.01406020000285935</v>
       </c>
       <c r="M43" s="2">
-        <v>0.01735259999986738</v>
+        <v>0.02134390000719577</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2569,31 +2569,31 @@
         <v>4500</v>
       </c>
       <c r="E44" s="2">
-        <v>4520</v>
+        <v>4547</v>
       </c>
       <c r="F44" s="2">
-        <v>4520</v>
+        <v>4547</v>
       </c>
       <c r="G44" s="2">
         <v>4500</v>
       </c>
       <c r="H44" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I44" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J44" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K44" s="2">
-        <v>0.009321599995018914</v>
+        <v>0.01489820001006592</v>
       </c>
       <c r="L44" s="2">
-        <v>0.01030670000181999</v>
+        <v>0.01665489999868441</v>
       </c>
       <c r="M44" s="2">
-        <v>0.01265419999253936</v>
+        <v>0.01903539999329951</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2610,31 +2610,31 @@
         <v>6652</v>
       </c>
       <c r="E45" s="2">
-        <v>6706</v>
+        <v>6722</v>
       </c>
       <c r="F45" s="2">
-        <v>6706</v>
+        <v>6722</v>
       </c>
       <c r="G45" s="2">
         <v>6652</v>
       </c>
       <c r="H45" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I45" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J45" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K45" s="2">
-        <v>0.03100120001181494</v>
+        <v>0.01992510000127368</v>
       </c>
       <c r="L45" s="2">
-        <v>0.02169059999869205</v>
+        <v>0.02406929999415297</v>
       </c>
       <c r="M45" s="2">
-        <v>0.03271280000626575</v>
+        <v>0.04658129999006633</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2651,31 +2651,31 @@
         <v>6652</v>
       </c>
       <c r="E46" s="2">
-        <v>6723</v>
+        <v>6744</v>
       </c>
       <c r="F46" s="2">
-        <v>6723</v>
+        <v>6744</v>
       </c>
       <c r="G46" s="2">
         <v>6652</v>
       </c>
       <c r="H46" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J46" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K46" s="2">
-        <v>0.01999139999679755</v>
+        <v>0.02354870000272058</v>
       </c>
       <c r="L46" s="2">
-        <v>0.0226457999960985</v>
+        <v>0.04099759999371599</v>
       </c>
       <c r="M46" s="2">
-        <v>0.04464310000184923</v>
+        <v>0.04854760000307579</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2692,31 +2692,31 @@
         <v>8412</v>
       </c>
       <c r="E47" s="2">
-        <v>8469</v>
+        <v>8478</v>
       </c>
       <c r="F47" s="2">
-        <v>8469</v>
+        <v>8478</v>
       </c>
       <c r="G47" s="2">
         <v>8412</v>
       </c>
       <c r="H47" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I47" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J47" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K47" s="2">
-        <v>0.0235221999901114</v>
+        <v>0.02865409999503754</v>
       </c>
       <c r="L47" s="2">
-        <v>0.02611500000057276</v>
+        <v>0.03148109999892768</v>
       </c>
       <c r="M47" s="2">
-        <v>0.03261189999466296</v>
+        <v>0.03506399999605492</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2733,31 +2733,31 @@
         <v>8437</v>
       </c>
       <c r="E48" s="2">
-        <v>8473</v>
+        <v>8472</v>
       </c>
       <c r="F48" s="2">
-        <v>8473</v>
+        <v>8472</v>
       </c>
       <c r="G48" s="2">
         <v>8437</v>
       </c>
       <c r="H48" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" s="2">
-        <v>0.01950799999758601</v>
+        <v>0.01804169999377336</v>
       </c>
       <c r="L48" s="2">
-        <v>0.02224759999080561</v>
+        <v>0.02101380001113284</v>
       </c>
       <c r="M48" s="2">
-        <v>0.02491239999653772</v>
+        <v>0.02622840000549331</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2774,31 +2774,31 @@
         <v>8530</v>
       </c>
       <c r="E49" s="2">
-        <v>8579</v>
+        <v>8599</v>
       </c>
       <c r="F49" s="2">
-        <v>8579</v>
+        <v>8599</v>
       </c>
       <c r="G49" s="2">
         <v>8530</v>
       </c>
       <c r="H49" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J49" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K49" s="2">
-        <v>0.04487559999688528</v>
+        <v>0.02639989998715464</v>
       </c>
       <c r="L49" s="2">
-        <v>0.02597830000740942</v>
+        <v>0.03035169999930076</v>
       </c>
       <c r="M49" s="2">
-        <v>0.03221810000832193</v>
+        <v>0.05377779999980703</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2815,31 +2815,31 @@
         <v>8374</v>
       </c>
       <c r="E50" s="2">
-        <v>8432</v>
+        <v>8426</v>
       </c>
       <c r="F50" s="2">
-        <v>8431</v>
+        <v>8426</v>
       </c>
       <c r="G50" s="2">
         <v>8374</v>
       </c>
       <c r="H50" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J50" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K50" s="2">
-        <v>0.02708759999950416</v>
+        <v>0.02364480000687763</v>
       </c>
       <c r="L50" s="2">
-        <v>0.03315170000132639</v>
+        <v>0.02807790000224486</v>
       </c>
       <c r="M50" s="2">
-        <v>0.03933880000840873</v>
+        <v>0.03514449999784119</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2856,31 +2856,31 @@
         <v>8310</v>
       </c>
       <c r="E51" s="2">
-        <v>8381</v>
+        <v>8373</v>
       </c>
       <c r="F51" s="2">
-        <v>8381</v>
+        <v>8373</v>
       </c>
       <c r="G51" s="2">
         <v>8310</v>
       </c>
       <c r="H51" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I51" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J51" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K51" s="2">
-        <v>0.02348059999349061</v>
+        <v>0.02074090001406148</v>
       </c>
       <c r="L51" s="2">
-        <v>0.03256190000684001</v>
+        <v>0.02370710000104737</v>
       </c>
       <c r="M51" s="2">
-        <v>0.03638529998715967</v>
+        <v>0.04022940000868402</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2897,31 +2897,31 @@
         <v>8396</v>
       </c>
       <c r="E52" s="2">
-        <v>8445</v>
+        <v>8460</v>
       </c>
       <c r="F52" s="2">
-        <v>8445</v>
+        <v>8460</v>
       </c>
       <c r="G52" s="2">
         <v>8396</v>
       </c>
       <c r="H52" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I52" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J52" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K52" s="2">
-        <v>0.01945500000147149</v>
+        <v>0.02275309999822639</v>
       </c>
       <c r="L52" s="2">
-        <v>0.02352249999239575</v>
+        <v>0.02695080000557937</v>
       </c>
       <c r="M52" s="2">
-        <v>0.0324038999970071</v>
+        <v>0.03365879999182653</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2938,31 +2938,31 @@
         <v>8615</v>
       </c>
       <c r="E53" s="2">
-        <v>8664</v>
+        <v>8677</v>
       </c>
       <c r="F53" s="2">
-        <v>8664</v>
+        <v>8677</v>
       </c>
       <c r="G53" s="2">
         <v>8615</v>
       </c>
       <c r="H53" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I53" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J53" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K53" s="2">
-        <v>0.0333773000020301</v>
+        <v>0.01951199999894015</v>
       </c>
       <c r="L53" s="2">
-        <v>0.02043820000835694</v>
+        <v>0.02639420000195969</v>
       </c>
       <c r="M53" s="2">
-        <v>0.02752290001080837</v>
+        <v>0.05537760000152048</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2979,31 +2979,31 @@
         <v>8611</v>
       </c>
       <c r="E54" s="2">
-        <v>8685</v>
+        <v>8671</v>
       </c>
       <c r="F54" s="2">
-        <v>8685</v>
+        <v>8671</v>
       </c>
       <c r="G54" s="2">
         <v>8611</v>
       </c>
       <c r="H54" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K54" s="2">
-        <v>0.02084529999410734</v>
+        <v>0.02010869998775888</v>
       </c>
       <c r="L54" s="2">
-        <v>0.02376720000756904</v>
+        <v>0.02617369999643415</v>
       </c>
       <c r="M54" s="2">
-        <v>0.03542580000066664</v>
+        <v>0.0301744000025792</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3038,13 +3038,13 @@
         <v>4</v>
       </c>
       <c r="K55" s="2">
-        <v>0.01314209999691229</v>
+        <v>0.01757470000302419</v>
       </c>
       <c r="L55" s="2">
-        <v>0.01498900000296999</v>
+        <v>0.01783959999738727</v>
       </c>
       <c r="M55" s="2">
-        <v>0.01868329998978879</v>
+        <v>0.01916669998900034</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3061,10 +3061,10 @@
         <v>8700</v>
       </c>
       <c r="E56" s="2">
-        <v>8752</v>
+        <v>8746</v>
       </c>
       <c r="F56" s="2">
-        <v>8752</v>
+        <v>8746</v>
       </c>
       <c r="G56" s="2">
         <v>8700</v>
@@ -3076,16 +3076,16 @@
         <v>7</v>
       </c>
       <c r="J56" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K56" s="2">
-        <v>0.01821919999201782</v>
+        <v>0.01989619999949355</v>
       </c>
       <c r="L56" s="2">
-        <v>0.03448590000334661</v>
+        <v>0.02141190000111237</v>
       </c>
       <c r="M56" s="2">
-        <v>0.02866950001043733</v>
+        <v>0.0311706999927992</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3102,7 +3102,7 @@
         <v>8699</v>
       </c>
       <c r="E57" s="2">
-        <v>8714</v>
+        <v>8712</v>
       </c>
       <c r="F57" s="2">
         <v>8712</v>
@@ -3111,22 +3111,22 @@
         <v>8699</v>
       </c>
       <c r="H57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" s="2">
-        <v>0.01301609999791253</v>
+        <v>0.0282493999984581</v>
       </c>
       <c r="L57" s="2">
-        <v>0.01419000000169035</v>
+        <v>0.01291540000238456</v>
       </c>
       <c r="M57" s="2">
-        <v>0.01786019999417476</v>
+        <v>0.01564500000677072</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3143,31 +3143,31 @@
         <v>8412</v>
       </c>
       <c r="E58" s="2">
-        <v>8469</v>
+        <v>8478</v>
       </c>
       <c r="F58" s="2">
-        <v>8469</v>
+        <v>8478</v>
       </c>
       <c r="G58" s="2">
         <v>8412</v>
       </c>
       <c r="H58" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I58" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J58" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K58" s="2">
-        <v>0.02361850001034327</v>
+        <v>0.02783160000399221</v>
       </c>
       <c r="L58" s="2">
-        <v>0.02740419999463484</v>
+        <v>0.03184609999880195</v>
       </c>
       <c r="M58" s="2">
-        <v>0.0337197000044398</v>
+        <v>0.03594259999226779</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3184,31 +3184,31 @@
         <v>8550</v>
       </c>
       <c r="E59" s="2">
-        <v>8589</v>
+        <v>8614</v>
       </c>
       <c r="F59" s="2">
-        <v>8589</v>
+        <v>8614</v>
       </c>
       <c r="G59" s="2">
         <v>8550</v>
       </c>
       <c r="H59" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I59" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J59" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K59" s="2">
-        <v>0.02215699999942444</v>
+        <v>0.02903850001166575</v>
       </c>
       <c r="L59" s="2">
-        <v>0.02423909999197349</v>
+        <v>0.03557430001092143</v>
       </c>
       <c r="M59" s="2">
-        <v>0.03990610000619199</v>
+        <v>0.03218660000129603</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3225,31 +3225,31 @@
         <v>8666</v>
       </c>
       <c r="E60" s="2">
-        <v>8709</v>
+        <v>8695</v>
       </c>
       <c r="F60" s="2">
-        <v>8709</v>
+        <v>8695</v>
       </c>
       <c r="G60" s="2">
         <v>8666</v>
       </c>
       <c r="H60" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I60" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J60" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K60" s="2">
-        <v>0.01896460000716615</v>
+        <v>0.0148536999913631</v>
       </c>
       <c r="L60" s="2">
-        <v>0.03420389999519102</v>
+        <v>0.01821340000606142</v>
       </c>
       <c r="M60" s="2">
-        <v>0.0290584000031231</v>
+        <v>0.02015789999859408</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3266,31 +3266,31 @@
         <v>8641</v>
       </c>
       <c r="E61" s="2">
-        <v>8677</v>
+        <v>8694</v>
       </c>
       <c r="F61" s="2">
-        <v>8677</v>
+        <v>8694</v>
       </c>
       <c r="G61" s="2">
         <v>8641</v>
       </c>
       <c r="H61" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I61" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J61" s="2">
         <v>9</v>
       </c>
       <c r="K61" s="2">
-        <v>0.01786029999493621</v>
+        <v>0.04350030000205152</v>
       </c>
       <c r="L61" s="2">
-        <v>0.02136969999992289</v>
+        <v>0.02703219999966677</v>
       </c>
       <c r="M61" s="2">
-        <v>0.03191270001116209</v>
+        <v>0.03608069999609143</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3307,10 +3307,10 @@
         <v>8649</v>
       </c>
       <c r="E62" s="2">
-        <v>8711</v>
+        <v>8703</v>
       </c>
       <c r="F62" s="2">
-        <v>8711</v>
+        <v>8703</v>
       </c>
       <c r="G62" s="2">
         <v>8649</v>
@@ -3325,13 +3325,13 @@
         <v>9</v>
       </c>
       <c r="K62" s="2">
-        <v>0.01979220000794157</v>
+        <v>0.02249090000987053</v>
       </c>
       <c r="L62" s="2">
-        <v>0.02319020000868477</v>
+        <v>0.0267489999969257</v>
       </c>
       <c r="M62" s="2">
-        <v>0.03208410000661388</v>
+        <v>0.03342329998849891</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3348,31 +3348,31 @@
         <v>8647</v>
       </c>
       <c r="E63" s="2">
-        <v>8695</v>
+        <v>8686</v>
       </c>
       <c r="F63" s="2">
-        <v>8695</v>
+        <v>8686</v>
       </c>
       <c r="G63" s="2">
         <v>8647</v>
       </c>
       <c r="H63" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I63" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J63" s="2">
         <v>7</v>
       </c>
       <c r="K63" s="2">
-        <v>0.01881670000148006</v>
+        <v>0.0178518000029726</v>
       </c>
       <c r="L63" s="2">
-        <v>0.02362930000526831</v>
+        <v>0.02055810000456404</v>
       </c>
       <c r="M63" s="2">
-        <v>0.02636550000170246</v>
+        <v>0.02723160000459757</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3389,31 +3389,31 @@
         <v>8382</v>
       </c>
       <c r="E64" s="2">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="F64" s="2">
-        <v>8429</v>
+        <v>8430</v>
       </c>
       <c r="G64" s="2">
         <v>8382</v>
       </c>
       <c r="H64" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I64" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J64" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K64" s="2">
-        <v>0.02176410000538453</v>
+        <v>0.02351739999721758</v>
       </c>
       <c r="L64" s="2">
-        <v>0.02502169999934267</v>
+        <v>0.02692899999965448</v>
       </c>
       <c r="M64" s="2">
-        <v>0.03727220000291709</v>
+        <v>0.03362269999342971</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3430,31 +3430,31 @@
         <v>8422</v>
       </c>
       <c r="E65" s="2">
-        <v>8480</v>
+        <v>8467</v>
       </c>
       <c r="F65" s="2">
-        <v>8480</v>
+        <v>8467</v>
       </c>
       <c r="G65" s="2">
         <v>8422</v>
       </c>
       <c r="H65" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I65" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J65" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K65" s="2">
-        <v>0.03417329999501817</v>
+        <v>0.02048599999397993</v>
       </c>
       <c r="L65" s="2">
-        <v>0.02564819999679457</v>
+        <v>0.02639899999485351</v>
       </c>
       <c r="M65" s="2">
-        <v>0.0339871000032872</v>
+        <v>0.04762169999594335</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3471,31 +3471,31 @@
         <v>8415</v>
       </c>
       <c r="E66" s="2">
-        <v>8465</v>
+        <v>8457</v>
       </c>
       <c r="F66" s="2">
-        <v>8465</v>
+        <v>8457</v>
       </c>
       <c r="G66" s="2">
         <v>8415</v>
       </c>
       <c r="H66" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J66" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K66" s="2">
-        <v>0.02094299999589566</v>
+        <v>0.02142129999992903</v>
       </c>
       <c r="L66" s="2">
-        <v>0.02367799999774434</v>
+        <v>0.02347859999281354</v>
       </c>
       <c r="M66" s="2">
-        <v>0.03156259999377653</v>
+        <v>0.03353190000052564</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3512,31 +3512,31 @@
         <v>8453</v>
       </c>
       <c r="E67" s="2">
-        <v>8512</v>
+        <v>8520</v>
       </c>
       <c r="F67" s="2">
-        <v>8512</v>
+        <v>8519</v>
       </c>
       <c r="G67" s="2">
         <v>8453</v>
       </c>
       <c r="H67" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I67" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J67" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K67" s="2">
-        <v>0.02219789999071509</v>
+        <v>0.02967390000412706</v>
       </c>
       <c r="L67" s="2">
-        <v>0.02535840000200551</v>
+        <v>0.03513170000223909</v>
       </c>
       <c r="M67" s="2">
-        <v>0.03845159999036696</v>
+        <v>0.04209480001009069</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3553,31 +3553,31 @@
         <v>8426</v>
       </c>
       <c r="E68" s="2">
-        <v>8506</v>
+        <v>8498</v>
       </c>
       <c r="F68" s="2">
-        <v>8506</v>
+        <v>8498</v>
       </c>
       <c r="G68" s="2">
         <v>8426</v>
       </c>
       <c r="H68" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I68" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J68" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K68" s="2">
-        <v>0.03443099999276455</v>
+        <v>0.03315989999100566</v>
       </c>
       <c r="L68" s="2">
-        <v>0.05637330000172369</v>
+        <v>0.0353880000038771</v>
       </c>
       <c r="M68" s="2">
-        <v>0.04294500000833068</v>
+        <v>0.05297479999717325</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3594,31 +3594,31 @@
         <v>8384</v>
       </c>
       <c r="E69" s="2">
-        <v>8429</v>
+        <v>8441</v>
       </c>
       <c r="F69" s="2">
-        <v>8429</v>
+        <v>8441</v>
       </c>
       <c r="G69" s="2">
         <v>8384</v>
       </c>
       <c r="H69" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I69" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2">
         <v>10</v>
       </c>
       <c r="K69" s="2">
-        <v>0.02381230000173673</v>
+        <v>0.03430179999850225</v>
       </c>
       <c r="L69" s="2">
-        <v>0.0256978999968851</v>
+        <v>0.02396599999337923</v>
       </c>
       <c r="M69" s="2">
-        <v>0.04018729999370407</v>
+        <v>0.03952830001071561</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3635,31 +3635,31 @@
         <v>8199</v>
       </c>
       <c r="E70" s="2">
-        <v>8272</v>
+        <v>8263</v>
       </c>
       <c r="F70" s="2">
-        <v>8272</v>
+        <v>8263</v>
       </c>
       <c r="G70" s="2">
         <v>8199</v>
       </c>
       <c r="H70" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I70" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J70" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K70" s="2">
-        <v>0.02257239999016747</v>
+        <v>0.02235319999454077</v>
       </c>
       <c r="L70" s="2">
-        <v>0.02637669999967329</v>
+        <v>0.023968599998625</v>
       </c>
       <c r="M70" s="2">
-        <v>0.03987849999975879</v>
+        <v>0.03034379999735393</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3694,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="K71" s="2">
-        <v>0.01273089999449439</v>
+        <v>0.01317689999996219</v>
       </c>
       <c r="L71" s="2">
-        <v>0.01453399998717941</v>
+        <v>0.01342789999034721</v>
       </c>
       <c r="M71" s="2">
-        <v>0.01393570000072941</v>
+        <v>0.01421020000998396</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3717,31 +3717,31 @@
         <v>15121</v>
       </c>
       <c r="E72" s="2">
-        <v>15242</v>
+        <v>15235</v>
       </c>
       <c r="F72" s="2">
-        <v>15242</v>
+        <v>15235</v>
       </c>
       <c r="G72" s="2">
         <v>15121</v>
       </c>
       <c r="H72" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I72" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J72" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K72" s="2">
-        <v>0.08507390000158921</v>
+        <v>0.0870543000055477</v>
       </c>
       <c r="L72" s="2">
-        <v>0.08358890000090469</v>
+        <v>0.08432690000336152</v>
       </c>
       <c r="M72" s="2">
-        <v>0.1029818000097293</v>
+        <v>0.09707079999498092</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3776,13 +3776,13 @@
         <v>3</v>
       </c>
       <c r="K73" s="2">
-        <v>0.0001708000054350123</v>
+        <v>0.000219000008655712</v>
       </c>
       <c r="L73" s="2">
-        <v>0.0001441000058548525</v>
+        <v>0.0001812999980757013</v>
       </c>
       <c r="M73" s="2">
-        <v>0.000229199999012053</v>
+        <v>0.0002580000000307336</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3799,10 +3799,10 @@
         <v>13929</v>
       </c>
       <c r="E74" s="2">
-        <v>14011</v>
+        <v>14001</v>
       </c>
       <c r="F74" s="2">
-        <v>14011</v>
+        <v>14001</v>
       </c>
       <c r="G74" s="2">
         <v>13929</v>
@@ -3814,16 +3814,16 @@
         <v>8</v>
       </c>
       <c r="J74" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K74" s="2">
-        <v>0.03354030000627972</v>
+        <v>0.03532799999811687</v>
       </c>
       <c r="L74" s="2">
-        <v>0.03937820000282954</v>
+        <v>0.03913940000347793</v>
       </c>
       <c r="M74" s="2">
-        <v>0.04631240000890102</v>
+        <v>0.05708949999825563</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3840,31 +3840,31 @@
         <v>15121</v>
       </c>
       <c r="E75" s="2">
-        <v>15232</v>
+        <v>15197</v>
       </c>
       <c r="F75" s="2">
-        <v>15232</v>
+        <v>15197</v>
       </c>
       <c r="G75" s="2">
         <v>15121</v>
       </c>
       <c r="H75" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I75" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J75" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K75" s="2">
-        <v>0.08259400000679307</v>
+        <v>0.0606543000030797</v>
       </c>
       <c r="L75" s="2">
-        <v>0.07943530000920873</v>
+        <v>0.06800469999143388</v>
       </c>
       <c r="M75" s="2">
-        <v>0.08331469999393448</v>
+        <v>0.1072350999893388</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3899,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="K76" s="2">
-        <v>0.0003653000021586195</v>
+        <v>0.0003661999944597483</v>
       </c>
       <c r="L76" s="2">
-        <v>0.0002902999985963106</v>
+        <v>0.0003140000044368207</v>
       </c>
       <c r="M76" s="2">
-        <v>0.0003408000047784299</v>
+        <v>0.0003620000061346218</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3940,13 +3940,13 @@
         <v>1</v>
       </c>
       <c r="K77" s="2">
-        <v>0.0003281999961473048</v>
+        <v>0.00034149999555666</v>
       </c>
       <c r="L77" s="2">
-        <v>0.0003196000034222379</v>
+        <v>0.0003265999985160306</v>
       </c>
       <c r="M77" s="2">
-        <v>0.0003563999925972894</v>
+        <v>0.0003615000023273751</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3981,13 +3981,13 @@
         <v>1</v>
       </c>
       <c r="K78" s="2">
-        <v>0.0002892999909818172</v>
+        <v>0.0003928999940399081</v>
       </c>
       <c r="L78" s="2">
-        <v>0.0002804999967338517</v>
+        <v>0.000305800000205636</v>
       </c>
       <c r="M78" s="2">
-        <v>0.000309800001559779</v>
+        <v>0.000378400000045076</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4022,13 +4022,13 @@
         <v>1</v>
       </c>
       <c r="K79" s="2">
-        <v>0.0002882999979192391</v>
+        <v>0.0003090999962296337</v>
       </c>
       <c r="L79" s="2">
-        <v>0.0002836000057868659</v>
+        <v>0.0002975000097649172</v>
       </c>
       <c r="M79" s="2">
-        <v>0.0003184000088367611</v>
+        <v>0.0003324999997857958</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4063,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="K80" s="2">
-        <v>0.0003097000007983297</v>
+        <v>0.0003201999934390187</v>
       </c>
       <c r="L80" s="2">
-        <v>0.000309199996991083</v>
+        <v>0.0003122000052826479</v>
       </c>
       <c r="M80" s="2">
-        <v>0.0003470999945420772</v>
+        <v>0.000345499996910803</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4104,13 +4104,13 @@
         <v>1</v>
       </c>
       <c r="K81" s="2">
-        <v>0.0002946999884443358</v>
+        <v>0.0002985000028274953</v>
       </c>
       <c r="L81" s="2">
-        <v>0.0002730999985942617</v>
+        <v>0.0002925000007962808</v>
       </c>
       <c r="M81" s="2">
-        <v>0.0003078999870922416</v>
+        <v>0.0003305999998701736</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4145,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="K82" s="2">
-        <v>0.000336200013407506</v>
+        <v>0.0003489999944576994</v>
       </c>
       <c r="L82" s="2">
-        <v>0.0003379999980097637</v>
+        <v>0.0003402000002097338</v>
       </c>
       <c r="M82" s="2">
-        <v>0.0003855000104522333</v>
+        <v>0.0003733999910764396</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4186,13 +4186,13 @@
         <v>2</v>
       </c>
       <c r="K83" s="2">
-        <v>0.0003410000063013285</v>
+        <v>0.0003749999887077138</v>
       </c>
       <c r="L83" s="2">
-        <v>0.0003974999999627471</v>
+        <v>0.0003821999998763204</v>
       </c>
       <c r="M83" s="2">
-        <v>0.0004168000014033169</v>
+        <v>0.0005148000054759905</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4227,13 +4227,13 @@
         <v>2</v>
       </c>
       <c r="K84" s="2">
-        <v>0.0003453999961493537</v>
+        <v>0.0003662000090116635</v>
       </c>
       <c r="L84" s="2">
-        <v>0.0003538000019034371</v>
+        <v>0.000371600006474182</v>
       </c>
       <c r="M84" s="2">
-        <v>0.0004275999963283539</v>
+        <v>0.0004399999888846651</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4268,13 +4268,13 @@
         <v>4</v>
       </c>
       <c r="K85" s="2">
-        <v>0.0004059000057168305</v>
+        <v>0.0004231000057188794</v>
       </c>
       <c r="L85" s="2">
-        <v>0.0004634999932022765</v>
+        <v>0.0005680000031134114</v>
       </c>
       <c r="M85" s="2">
-        <v>0.0005591999943135306</v>
+        <v>0.0005721000052290037</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4309,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="K86" s="2">
-        <v>0.0003253000031691045</v>
+        <v>0.0003467999922577292</v>
       </c>
       <c r="L86" s="2">
-        <v>0.000309499999275431</v>
+        <v>0.0003444000030867755</v>
       </c>
       <c r="M86" s="2">
-        <v>0.000342100000125356</v>
+        <v>0.0003596000024117529</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4350,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>0.000331300005200319</v>
+        <v>0.0003578999894671142</v>
       </c>
       <c r="L87" s="2">
-        <v>0.0003426000039326027</v>
+        <v>0.0003331000043544918</v>
       </c>
       <c r="M87" s="2">
-        <v>0.0003565000079106539</v>
+        <v>0.0004126999992877245</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4391,13 +4391,13 @@
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>0.0003008000057889149</v>
+        <v>0.0003354999935254455</v>
       </c>
       <c r="L88" s="2">
-        <v>0.0002932000061264262</v>
+        <v>0.0003238000062992796</v>
       </c>
       <c r="M88" s="2">
-        <v>0.0003258000069763511</v>
+        <v>0.0003550999972503632</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4432,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="K89" s="2">
-        <v>0.0004368999943835661</v>
+        <v>0.0004532000020844862</v>
       </c>
       <c r="L89" s="2">
-        <v>0.000444200006313622</v>
+        <v>0.0004794999986188486</v>
       </c>
       <c r="M89" s="2">
-        <v>0.000512800004798919</v>
+        <v>0.0005458000086946413</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4473,13 +4473,13 @@
         <v>2</v>
       </c>
       <c r="K90" s="2">
-        <v>0.0006505999917862937</v>
+        <v>0.0006695000047329813</v>
       </c>
       <c r="L90" s="2">
-        <v>0.000672800000756979</v>
+        <v>0.0007264000014401972</v>
       </c>
       <c r="M90" s="2">
-        <v>0.000793100000009872</v>
+        <v>0.0007993000035639852</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4496,10 +4496,10 @@
         <v>543</v>
       </c>
       <c r="E91" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F91" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G91" s="2">
         <v>543</v>
@@ -4514,13 +4514,13 @@
         <v>2</v>
       </c>
       <c r="K91" s="2">
-        <v>0.0006338999955914915</v>
+        <v>0.0007334000110859051</v>
       </c>
       <c r="L91" s="2">
-        <v>0.000727599996025674</v>
+        <v>0.0006826000026194379</v>
       </c>
       <c r="M91" s="2">
-        <v>0.0007921000069472939</v>
+        <v>0.0008117999968817458</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4537,31 +4537,31 @@
         <v>572</v>
       </c>
       <c r="E92" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F92" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G92" s="2">
         <v>572</v>
       </c>
       <c r="H92" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="2">
-        <v>0.0007303000020328909</v>
+        <v>0.0007821999897714704</v>
       </c>
       <c r="L92" s="2">
-        <v>0.000723599994671531</v>
+        <v>0.0008463999984087422</v>
       </c>
       <c r="M92" s="2">
-        <v>0.00100160000147298</v>
+        <v>0.001141200002166443</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4596,13 +4596,13 @@
         <v>2</v>
       </c>
       <c r="K93" s="2">
-        <v>0.0006503000040538609</v>
+        <v>0.0006759999960195273</v>
       </c>
       <c r="L93" s="2">
-        <v>0.0006647000118391588</v>
+        <v>0.0006859999994048849</v>
       </c>
       <c r="M93" s="2">
-        <v>0.000785399999585934</v>
+        <v>0.0007893000001786277</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4619,31 +4619,31 @@
         <v>518</v>
       </c>
       <c r="E94" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F94" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G94" s="2">
         <v>518</v>
       </c>
       <c r="H94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J94" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K94" s="2">
-        <v>0.0009125999931711704</v>
+        <v>0.001015100002405234</v>
       </c>
       <c r="L94" s="2">
-        <v>0.001040899995132349</v>
+        <v>0.001211800001328811</v>
       </c>
       <c r="M94" s="2">
-        <v>0.001429299998562783</v>
+        <v>0.002959899997222237</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4660,31 +4660,31 @@
         <v>544</v>
       </c>
       <c r="E95" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F95" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G95" s="2">
         <v>544</v>
       </c>
       <c r="H95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" s="2">
-        <v>0.0006098000012570992</v>
+        <v>0.0007099999929778278</v>
       </c>
       <c r="L95" s="2">
-        <v>0.0006028000061633065</v>
+        <v>0.0007152000034693629</v>
       </c>
       <c r="M95" s="2">
-        <v>0.0006774999928893521</v>
+        <v>0.0008091000054264441</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4719,13 +4719,13 @@
         <v>5</v>
       </c>
       <c r="K96" s="2">
-        <v>0.00086600000213366</v>
+        <v>0.0008784000092418864</v>
       </c>
       <c r="L96" s="2">
-        <v>0.000975200004177168</v>
+        <v>0.001047300000209361</v>
       </c>
       <c r="M96" s="2">
-        <v>0.00120009999955073</v>
+        <v>0.001190299997688271</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4742,16 +4742,16 @@
         <v>531</v>
       </c>
       <c r="E97" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F97" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G97" s="2">
         <v>531</v>
       </c>
       <c r="H97" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97" s="2">
         <v>4</v>
@@ -4760,13 +4760,13 @@
         <v>4</v>
       </c>
       <c r="K97" s="2">
-        <v>0.0006675000040559098</v>
+        <v>0.0008112999930744991</v>
       </c>
       <c r="L97" s="2">
-        <v>0.0008629999938420951</v>
+        <v>0.0008603000023867935</v>
       </c>
       <c r="M97" s="2">
-        <v>0.001098199994885363</v>
+        <v>0.001029000006383285</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4783,31 +4783,31 @@
         <v>561</v>
       </c>
       <c r="E98" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F98" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G98" s="2">
         <v>561</v>
       </c>
       <c r="H98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" s="2">
-        <v>0.0008414000039920211</v>
+        <v>0.0006916000129422173</v>
       </c>
       <c r="L98" s="2">
-        <v>0.0008820000075502321</v>
+        <v>0.0007075000030454248</v>
       </c>
       <c r="M98" s="2">
-        <v>0.001036000001477078</v>
+        <v>0.0008107000030577183</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4842,13 +4842,13 @@
         <v>2</v>
       </c>
       <c r="K99" s="2">
-        <v>0.0006554999999934807</v>
+        <v>0.0006797999958507717</v>
       </c>
       <c r="L99" s="2">
-        <v>0.0006760999967809767</v>
+        <v>0.0006842999864602461</v>
       </c>
       <c r="M99" s="2">
-        <v>0.0007996000058483332</v>
+        <v>0.0008103000000119209</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4865,31 +4865,31 @@
         <v>570</v>
       </c>
       <c r="E100" s="2">
+        <v>574</v>
+      </c>
+      <c r="F100" s="2">
         <v>572</v>
-      </c>
-      <c r="F100" s="2">
-        <v>571</v>
       </c>
       <c r="G100" s="2">
         <v>570</v>
       </c>
       <c r="H100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100" s="2">
-        <v>0.0006380999984685332</v>
+        <v>0.0007069999992381781</v>
       </c>
       <c r="L100" s="2">
-        <v>0.0006559000030392781</v>
+        <v>0.0007593999907840043</v>
       </c>
       <c r="M100" s="2">
-        <v>0.0007685000018682331</v>
+        <v>0.0009188999974867329</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4924,13 +4924,13 @@
         <v>7</v>
       </c>
       <c r="K101" s="2">
-        <v>0.0007728000055067241</v>
+        <v>0.0008118999976431951</v>
       </c>
       <c r="L101" s="2">
-        <v>0.0008955999946920201</v>
+        <v>0.0009091000101761892</v>
       </c>
       <c r="M101" s="2">
-        <v>0.001559000011184253</v>
+        <v>0.001530800000182353</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4947,10 +4947,10 @@
         <v>583</v>
       </c>
       <c r="E102" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F102" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G102" s="2">
         <v>583</v>
@@ -4965,13 +4965,13 @@
         <v>2</v>
       </c>
       <c r="K102" s="2">
-        <v>0.0007285000028787181</v>
+        <v>0.0007234999939100817</v>
       </c>
       <c r="L102" s="2">
-        <v>0.0007348999934038147</v>
+        <v>0.0007350999949267134</v>
       </c>
       <c r="M102" s="2">
-        <v>0.0008591000078013167</v>
+        <v>0.0008513999928254634</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5006,13 +5006,13 @@
         <v>3</v>
       </c>
       <c r="K103" s="2">
-        <v>0.0006453000096371397</v>
+        <v>0.0006563999922946095</v>
       </c>
       <c r="L103" s="2">
-        <v>0.0006930000090505928</v>
+        <v>0.0007093000021995977</v>
       </c>
       <c r="M103" s="2">
-        <v>0.0009501000022282824</v>
+        <v>0.0009717000066302717</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5047,13 +5047,13 @@
         <v>1</v>
       </c>
       <c r="K104" s="2">
-        <v>0.0006639000057475641</v>
+        <v>0.0006305999995674938</v>
       </c>
       <c r="L104" s="2">
-        <v>0.0006449999928008765</v>
+        <v>0.0006182000070111826</v>
       </c>
       <c r="M104" s="2">
-        <v>0.0007052000000840053</v>
+        <v>0.0006747000006726012</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5088,13 +5088,13 @@
         <v>1</v>
       </c>
       <c r="K105" s="2">
-        <v>0.0006385000015143305</v>
+        <v>0.0006406000029528514</v>
       </c>
       <c r="L105" s="2">
-        <v>0.0006265000120038167</v>
+        <v>0.0006379000114975497</v>
       </c>
       <c r="M105" s="2">
-        <v>0.0007048999977996573</v>
+        <v>0.0006999000033829361</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5111,31 +5111,31 @@
         <v>557</v>
       </c>
       <c r="E106" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F106" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G106" s="2">
         <v>557</v>
       </c>
       <c r="H106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J106" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K106" s="2">
-        <v>0.0009424999880138785</v>
+        <v>0.0008851000020513311</v>
       </c>
       <c r="L106" s="2">
-        <v>0.001061800008756109</v>
+        <v>0.0009798999963095412</v>
       </c>
       <c r="M106" s="2">
-        <v>0.001316900001256727</v>
+        <v>0.001216799995745532</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5152,10 +5152,10 @@
         <v>665</v>
       </c>
       <c r="E107" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F107" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G107" s="2">
         <v>665</v>
@@ -5170,13 +5170,13 @@
         <v>3</v>
       </c>
       <c r="K107" s="2">
-        <v>0.0009212000004481524</v>
+        <v>0.0009579999896232039</v>
       </c>
       <c r="L107" s="2">
-        <v>0.0009696999914012849</v>
+        <v>0.001031399995554239</v>
       </c>
       <c r="M107" s="2">
-        <v>0.00117859999591019</v>
+        <v>0.001215600001160055</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5193,31 +5193,31 @@
         <v>1135</v>
       </c>
       <c r="E108" s="2">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="F108" s="2">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="G108" s="2">
         <v>1135</v>
       </c>
       <c r="H108" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I108" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J108" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K108" s="2">
-        <v>0.0015313000039896</v>
+        <v>0.002014600002439693</v>
       </c>
       <c r="L108" s="2">
-        <v>0.001602400006959215</v>
+        <v>0.002198900008806959</v>
       </c>
       <c r="M108" s="2">
-        <v>0.001952500009792857</v>
+        <v>0.002689600005396642</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5252,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="K109" s="2">
-        <v>0.001288100000238046</v>
+        <v>0.001337599998805672</v>
       </c>
       <c r="L109" s="2">
-        <v>0.00133349999669008</v>
+        <v>0.001350799997453578</v>
       </c>
       <c r="M109" s="2">
-        <v>0.001530499997898005</v>
+        <v>0.001596700007212348</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5275,31 +5275,31 @@
         <v>2516</v>
       </c>
       <c r="E110" s="2">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="F110" s="2">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="G110" s="2">
         <v>2516</v>
       </c>
       <c r="H110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K110" s="2">
-        <v>0.004515099994023331</v>
+        <v>0.004892500001005828</v>
       </c>
       <c r="L110" s="2">
-        <v>0.004767299993545748</v>
+        <v>0.005503100008354522</v>
       </c>
       <c r="M110" s="2">
-        <v>0.005739700005506165</v>
+        <v>0.006339900006423704</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5316,31 +5316,31 @@
         <v>2620</v>
       </c>
       <c r="E111" s="2">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="F111" s="2">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="G111" s="2">
         <v>2620</v>
       </c>
       <c r="H111" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I111" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K111" s="2">
-        <v>0.004223600000841543</v>
+        <v>0.004776100002345629</v>
       </c>
       <c r="L111" s="2">
-        <v>0.00487680001242552</v>
+        <v>0.00585980000323616</v>
       </c>
       <c r="M111" s="2">
-        <v>0.006374800010235049</v>
+        <v>0.00723610000568442</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5357,31 +5357,31 @@
         <v>4388</v>
       </c>
       <c r="E112" s="2">
-        <v>4405</v>
+        <v>4423</v>
       </c>
       <c r="F112" s="2">
-        <v>4405</v>
+        <v>4423</v>
       </c>
       <c r="G112" s="2">
         <v>4388</v>
       </c>
       <c r="H112" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I112" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J112" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K112" s="2">
-        <v>0.007839900004910305</v>
+        <v>0.01064880000194535</v>
       </c>
       <c r="L112" s="2">
-        <v>0.008402599996770732</v>
+        <v>0.01393679999455344</v>
       </c>
       <c r="M112" s="2">
-        <v>0.009722800008603372</v>
+        <v>0.02151130000129342</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5398,31 +5398,31 @@
         <v>4649</v>
       </c>
       <c r="E113" s="2">
-        <v>4671</v>
+        <v>4679</v>
       </c>
       <c r="F113" s="2">
-        <v>4671</v>
+        <v>4679</v>
       </c>
       <c r="G113" s="2">
         <v>4649</v>
       </c>
       <c r="H113" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I113" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J113" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K113" s="2">
-        <v>0.009170700010145083</v>
+        <v>0.01063710000016727</v>
       </c>
       <c r="L113" s="2">
-        <v>0.0101377999963006</v>
+        <v>0.01138979999814183</v>
       </c>
       <c r="M113" s="2">
-        <v>0.02556280000135303</v>
+        <v>0.01858820000779815</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5439,10 +5439,10 @@
         <v>8475</v>
       </c>
       <c r="E114" s="2">
-        <v>8504</v>
+        <v>8497</v>
       </c>
       <c r="F114" s="2">
-        <v>8504</v>
+        <v>8497</v>
       </c>
       <c r="G114" s="2">
         <v>8475</v>
@@ -5457,13 +5457,13 @@
         <v>5</v>
       </c>
       <c r="K114" s="2">
-        <v>0.01874829998996574</v>
+        <v>0.02360400000179652</v>
       </c>
       <c r="L114" s="2">
-        <v>0.03228139999555424</v>
+        <v>0.02099299999827053</v>
       </c>
       <c r="M114" s="2">
-        <v>0.02555590000702068</v>
+        <v>0.02517740000621416</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5480,31 +5480,31 @@
         <v>8756</v>
       </c>
       <c r="E115" s="2">
-        <v>8790</v>
+        <v>8797</v>
       </c>
       <c r="F115" s="2">
-        <v>8790</v>
+        <v>8797</v>
       </c>
       <c r="G115" s="2">
         <v>8756</v>
       </c>
       <c r="H115" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I115" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J115" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K115" s="2">
-        <v>0.01867730000230949</v>
+        <v>0.02974610000092071</v>
       </c>
       <c r="L115" s="2">
-        <v>0.02224199999182019</v>
+        <v>0.01947250000375789</v>
       </c>
       <c r="M115" s="2">
-        <v>0.02923839999129996</v>
+        <v>0.02339210000354797</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5521,31 +5521,31 @@
         <v>22259</v>
       </c>
       <c r="E116" s="2">
-        <v>22584</v>
+        <v>22607</v>
       </c>
       <c r="F116" s="2">
-        <v>22584</v>
+        <v>22607</v>
       </c>
       <c r="G116" s="2">
         <v>22259</v>
       </c>
       <c r="H116" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I116" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J116" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K116" s="2">
-        <v>0.2021820000081789</v>
+        <v>0.2196404999995138</v>
       </c>
       <c r="L116" s="2">
-        <v>0.2459437000070466</v>
+        <v>0.2475163000053726</v>
       </c>
       <c r="M116" s="2">
-        <v>0.3795045999868307</v>
+        <v>0.3213771000009729</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -5580,13 +5580,13 @@
         <v>1</v>
       </c>
       <c r="K117" s="2">
-        <v>0.0003731999895535409</v>
+        <v>0.0003785000008065253</v>
       </c>
       <c r="L117" s="2">
-        <v>0.0003217000048607588</v>
+        <v>0.0003224999964004382</v>
       </c>
       <c r="M117" s="2">
-        <v>0.0003675000043585896</v>
+        <v>0.0003758999955607578</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -5606,7 +5606,7 @@
         <v>284</v>
       </c>
       <c r="F118" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G118" s="2">
         <v>280</v>
@@ -5615,19 +5615,19 @@
         <v>3</v>
       </c>
       <c r="I118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K118" s="2">
-        <v>0.0003873000096064061</v>
+        <v>0.0004163999983575195</v>
       </c>
       <c r="L118" s="2">
-        <v>0.0005084000003989786</v>
+        <v>0.0004896000027656555</v>
       </c>
       <c r="M118" s="2">
-        <v>0.0006570999976247549</v>
+        <v>0.0006276999920373783</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -5644,31 +5644,31 @@
         <v>543</v>
       </c>
       <c r="E119" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F119" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G119" s="2">
         <v>543</v>
       </c>
       <c r="H119" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I119" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J119" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K119" s="2">
-        <v>0.0007914000016171485</v>
+        <v>0.0009617000032449141</v>
       </c>
       <c r="L119" s="2">
-        <v>0.0007977000059327111</v>
+        <v>0.000912199990125373</v>
       </c>
       <c r="M119" s="2">
-        <v>0.0009748000011313707</v>
+        <v>0.001122700006817468</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5703,13 +5703,13 @@
         <v>7</v>
       </c>
       <c r="K120" s="2">
-        <v>0.001003400000627153</v>
+        <v>0.001032200001645833</v>
       </c>
       <c r="L120" s="2">
-        <v>0.001171300013083965</v>
+        <v>0.001208900008350611</v>
       </c>
       <c r="M120" s="2">
-        <v>0.001502200000686571</v>
+        <v>0.001508899993496016</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -5726,31 +5726,31 @@
         <v>444346</v>
       </c>
       <c r="E121" s="3">
-        <v>447233</v>
+        <v>447366</v>
       </c>
       <c r="F121" s="3">
-        <v>447219</v>
+        <v>447342</v>
       </c>
       <c r="G121" s="3">
         <v>444346</v>
       </c>
       <c r="H121" s="3">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="I121" s="3">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="J121" s="3">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="K121" s="3">
-        <v>1.293875999952434</v>
+        <v>1.335692599997856</v>
       </c>
       <c r="L121" s="3">
-        <v>1.465739900057088</v>
+        <v>1.457568000056199</v>
       </c>
       <c r="M121" s="3">
-        <v>1.91179560002638</v>
+        <v>1.957305400079349</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Source\MySlitherLink\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>file_test</t>
   </si>
@@ -401,13 +406,19 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>is_all_loop_best</t>
+  </si>
+  <si>
+    <t>is_all_loop_with_empty_best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,19 +470,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -550,9 +575,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,6 +610,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -759,25 +786,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F94" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,8 +837,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,13 +867,21 @@
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>0.00158089998876676</v>
+        <v>1.5808999887667601E-3</v>
       </c>
       <c r="I2" s="2">
-        <v>0.001965700008440763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.9657000084407632E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <f>IF(H2=MIN(H2,I2), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>IF(I2=MIN(H2,I2), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -858,13 +904,21 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>0.01353070000186563</v>
+        <v>1.3530700001865631E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>0.001377200009301305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.377200009301305E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J66" si="0">IF(H3=MIN(H3,I3), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="1">IF(I3=MIN(H3,I3), 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -887,13 +941,21 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>0.001716300001135096</v>
+        <v>1.716300001135096E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>0.001709000003756955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.709000003756955E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -916,13 +978,21 @@
         <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>0.003678599983686581</v>
+        <v>3.6785999836865808E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>0.003694899991387501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.6948999913875009E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -945,13 +1015,21 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>0.002007300005061552</v>
+        <v>2.0073000050615519E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>0.001989499985938892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.9894999859388922E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -974,13 +1052,21 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.001348499994492158</v>
+        <v>1.3484999944921581E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>0.001300300005823374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.300300005823374E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1003,13 +1089,21 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>0.001833599992096424</v>
+        <v>1.8335999920964241E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>0.00180170001112856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1.8017000111285599E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1032,13 +1126,21 @@
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>0.001869100000476465</v>
+        <v>1.8691000004764651E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>0.001838900003349409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>1.8389000033494089E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1061,13 +1163,21 @@
         <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0.00152600000728853</v>
+        <v>1.52600000728853E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>0.001502200000686571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.502200000686571E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1090,13 +1200,21 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>0.001419899985194206</v>
+        <v>1.419899985194206E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>0.001431099983165041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.431099983165041E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1119,13 +1237,21 @@
         <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>0.001809500012313947</v>
+        <v>1.8095000123139471E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>0.001801999984309077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1.801999984309077E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1148,13 +1274,21 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>0.001402000023517758</v>
+        <v>1.4020000235177581E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>0.001435400015907362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1.4354000159073621E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1177,13 +1311,21 @@
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <v>0.001800300000468269</v>
+        <v>1.800300000468269E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>0.0017496999935247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1.7496999935247E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1206,13 +1348,21 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>0.001562899997225031</v>
+        <v>1.562899997225031E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>0.001529300003312528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>1.5293000033125279E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1235,13 +1385,21 @@
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>0.002150499989511445</v>
+        <v>2.1504999895114452E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>0.002153099980205297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>2.153099980205297E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1264,13 +1422,21 @@
         <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>0.002570300013758242</v>
+        <v>2.5703000137582421E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>0.002519200003007427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.5192000030074269E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1293,13 +1459,21 @@
         <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>0.001494099997216836</v>
+        <v>1.4940999972168361E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>0.001519200013717636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1.519200013717636E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1322,13 +1496,21 @@
         <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>0.00133199998526834</v>
+        <v>1.3319999852683399E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>0.001296699978411198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1.2966999784111981E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1351,13 +1533,21 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>0.001305200014030561</v>
+        <v>1.3052000140305611E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>0.001366799988318235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>1.3667999883182349E-3</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1380,13 +1570,21 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>0.000978900003246963</v>
+        <v>9.7890000324696302E-4</v>
       </c>
       <c r="I21" s="2">
-        <v>0.000977999996393919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>9.7799999639391899E-4</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1409,13 +1607,21 @@
         <v>3</v>
       </c>
       <c r="H22" s="2">
-        <v>0.00159709999570623</v>
+        <v>1.59709999570623E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>0.001577599992742762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1.577599992742762E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1438,13 +1644,21 @@
         <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>0.001591900014318526</v>
+        <v>1.591900014318526E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>0.001585399993928149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>1.5853999939281489E-3</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1467,13 +1681,21 @@
         <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>0.001488099980633706</v>
+        <v>1.4880999806337061E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>0.001456700003473088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>1.4567000034730879E-3</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1496,13 +1718,21 @@
         <v>5</v>
       </c>
       <c r="H25" s="2">
-        <v>0.00198239999008365</v>
+        <v>1.9823999900836502E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>0.001955399988219142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>1.955399988219142E-3</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1525,13 +1755,21 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>0.001277500006835908</v>
+        <v>1.2775000068359079E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>0.001279200019780546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>1.279200019780546E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1554,13 +1792,21 @@
         <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>0.004832299979170784</v>
+        <v>4.8322999791707844E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>0.004790400009369478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>4.7904000093694776E-3</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1583,13 +1829,21 @@
         <v>4</v>
       </c>
       <c r="H28" s="2">
-        <v>0.004453600005945191</v>
+        <v>4.4536000059451908E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>0.004453499976079911</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>4.453499976079911E-3</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1612,13 +1866,21 @@
         <v>4</v>
       </c>
       <c r="H29" s="2">
-        <v>0.003929500002413988</v>
+        <v>3.9295000024139881E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>0.003867399995215237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>3.8673999952152371E-3</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1641,13 +1903,21 @@
         <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>0.004345800000010058</v>
+        <v>4.3458000000100583E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>0.004339900013292208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>4.3399000132922083E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1670,13 +1940,21 @@
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>0.00564640000811778</v>
+        <v>5.6464000081177801E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>0.005673400009982288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>5.6734000099822879E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1699,13 +1977,21 @@
         <v>12</v>
       </c>
       <c r="H32" s="2">
-        <v>0.006391399976564571</v>
+        <v>6.3913999765645713E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.006357200007187203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>6.3572000071872026E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1728,13 +2014,21 @@
         <v>4</v>
       </c>
       <c r="H33" s="2">
-        <v>0.004457799979718402</v>
+        <v>4.457799979718402E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.004471699998248369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>4.4716999982483694E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1757,13 +2051,21 @@
         <v>4</v>
       </c>
       <c r="H34" s="2">
-        <v>0.003962200018577278</v>
+        <v>3.9622000185772777E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.003988099982962012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>3.9880999829620123E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1786,13 +2088,21 @@
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <v>0.003672799997730181</v>
+        <v>3.6727999977301811E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.003596199996536598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>3.596199996536598E-3</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -1815,13 +2125,21 @@
         <v>8</v>
       </c>
       <c r="H36" s="2">
-        <v>0.005802900006528944</v>
+        <v>5.8029000065289438E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.00586859998293221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>5.86859998293221E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -1844,13 +2162,21 @@
         <v>5</v>
       </c>
       <c r="H37" s="2">
-        <v>0.004754599998705089</v>
+        <v>4.7545999987050891E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.004823700000997633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>4.8237000009976327E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -1873,13 +2199,21 @@
         <v>7</v>
       </c>
       <c r="H38" s="2">
-        <v>0.004836699983570725</v>
+        <v>4.8366999835707247E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.004876799997873604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>4.8767999978736043E-3</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -1902,13 +2236,21 @@
         <v>4</v>
       </c>
       <c r="H39" s="2">
-        <v>0.007007900014286861</v>
+        <v>7.0079000142868608E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.00676950000342913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>6.7695000034291297E-3</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1931,13 +2273,21 @@
         <v>6</v>
       </c>
       <c r="H40" s="2">
-        <v>0.01012469999841414</v>
+        <v>1.012469999841414E-2</v>
       </c>
       <c r="I40" s="2">
-        <v>0.009978400019463152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>9.9784000194631517E-3</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1960,13 +2310,21 @@
         <v>3</v>
       </c>
       <c r="H41" s="2">
-        <v>0.005776500009233132</v>
+        <v>5.776500009233132E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.005682800023350865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>5.6828000233508646E-3</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -1989,13 +2347,21 @@
         <v>2</v>
       </c>
       <c r="H42" s="2">
-        <v>0.005288600019412115</v>
+        <v>5.2886000194121152E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.005257099983282387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>5.2570999832823873E-3</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -2018,13 +2384,21 @@
         <v>8</v>
       </c>
       <c r="H43" s="2">
-        <v>0.009542699990561232</v>
+        <v>9.542699990561232E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.009517200000118464</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>9.5172000001184642E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -2047,13 +2421,21 @@
         <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>0.007466199982445687</v>
+        <v>7.4661999824456871E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.007451999990735203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>7.451999990735203E-3</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -2076,13 +2458,21 @@
         <v>10</v>
       </c>
       <c r="H45" s="2">
-        <v>0.01199860000633635</v>
+        <v>1.199860000633635E-2</v>
       </c>
       <c r="I45" s="2">
-        <v>0.01199040000210516</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>1.199040000210516E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2105,13 +2495,21 @@
         <v>7</v>
       </c>
       <c r="H46" s="2">
-        <v>0.0102758000139147</v>
+        <v>1.0275800013914701E-2</v>
       </c>
       <c r="I46" s="2">
-        <v>0.01026579999597743</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>1.026579999597743E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
@@ -2134,13 +2532,21 @@
         <v>8</v>
       </c>
       <c r="H47" s="2">
-        <v>0.02402270000311546</v>
+        <v>2.402270000311546E-2</v>
       </c>
       <c r="I47" s="2">
-        <v>0.01188029997865669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>1.1880299978656691E-2</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -2163,13 +2569,21 @@
         <v>11</v>
       </c>
       <c r="H48" s="2">
-        <v>0.01382570000714622</v>
+        <v>1.3825700007146219E-2</v>
       </c>
       <c r="I48" s="2">
-        <v>0.01382079999893904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>1.3820799998939041E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -2192,13 +2606,21 @@
         <v>6</v>
       </c>
       <c r="H49" s="2">
-        <v>0.01020200000493787</v>
+        <v>1.0202000004937871E-2</v>
       </c>
       <c r="I49" s="2">
-        <v>0.01015919999917969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>1.0159199999179689E-2</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2221,13 +2643,21 @@
         <v>6</v>
       </c>
       <c r="H50" s="2">
-        <v>0.009236900019459426</v>
+        <v>9.2369000194594264E-3</v>
       </c>
       <c r="I50" s="2">
-        <v>0.009124799980781972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>9.1247999807819724E-3</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2250,13 +2680,21 @@
         <v>11</v>
       </c>
       <c r="H51" s="2">
-        <v>0.01991289999568835</v>
+        <v>1.9912899995688349E-2</v>
       </c>
       <c r="I51" s="2">
-        <v>0.01956760001485236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>1.956760001485236E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
@@ -2279,13 +2717,21 @@
         <v>14</v>
       </c>
       <c r="H52" s="2">
-        <v>0.02243489999091253</v>
+        <v>2.243489999091253E-2</v>
       </c>
       <c r="I52" s="2">
-        <v>0.02222730001085438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>2.2227300010854378E-2</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
@@ -2308,13 +2754,21 @@
         <v>10</v>
       </c>
       <c r="H53" s="2">
-        <v>0.02729850000469014</v>
+        <v>2.729850000469014E-2</v>
       </c>
       <c r="I53" s="2">
-        <v>0.02747699999599718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>2.7476999995997179E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -2337,13 +2791,21 @@
         <v>6</v>
       </c>
       <c r="H54" s="2">
-        <v>0.01786640001228079</v>
+        <v>1.7866400012280789E-2</v>
       </c>
       <c r="I54" s="2">
-        <v>0.01758439998957328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>1.7584399989573282E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
@@ -2366,13 +2828,21 @@
         <v>8</v>
       </c>
       <c r="H55" s="2">
-        <v>0.03994600000442006</v>
+        <v>3.9946000004420057E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>0.02573429999756627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>2.5734299997566271E-2</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2395,13 +2865,21 @@
         <v>9</v>
       </c>
       <c r="H56" s="2">
-        <v>0.02316499999142252</v>
+        <v>2.3164999991422519E-2</v>
       </c>
       <c r="I56" s="2">
-        <v>0.02339089999441057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>2.3390899994410571E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -2424,13 +2902,21 @@
         <v>8</v>
       </c>
       <c r="H57" s="2">
-        <v>0.02047660000971518</v>
+        <v>2.0476600009715181E-2</v>
       </c>
       <c r="I57" s="2">
-        <v>0.02089290000731125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>2.0892900007311251E-2</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2453,13 +2939,21 @@
         <v>9</v>
       </c>
       <c r="H58" s="2">
-        <v>0.02342360001057386</v>
+        <v>2.3423600010573861E-2</v>
       </c>
       <c r="I58" s="2">
-        <v>0.02327070001047105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>2.3270700010471049E-2</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -2482,13 +2976,21 @@
         <v>9</v>
       </c>
       <c r="H59" s="2">
-        <v>0.0192176999989897</v>
+        <v>1.9217699998989701E-2</v>
       </c>
       <c r="I59" s="2">
-        <v>0.01946030001272447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>1.9460300012724471E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -2511,13 +3013,21 @@
         <v>8</v>
       </c>
       <c r="H60" s="2">
-        <v>0.01945220000925474</v>
+        <v>1.9452200009254739E-2</v>
       </c>
       <c r="I60" s="2">
-        <v>0.0328010999946855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>3.2801099994685501E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
@@ -2540,13 +3050,21 @@
         <v>4</v>
       </c>
       <c r="H61" s="2">
-        <v>0.01289760001236573</v>
+        <v>1.289760001236573E-2</v>
       </c>
       <c r="I61" s="2">
-        <v>0.01286170000093989</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>1.2861700000939891E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -2569,13 +3087,21 @@
         <v>7</v>
       </c>
       <c r="H62" s="2">
-        <v>0.01777000000583939</v>
+        <v>1.7770000005839389E-2</v>
       </c>
       <c r="I62" s="2">
-        <v>0.01896169999963604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>1.8961699999636039E-2</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -2598,13 +3124,21 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <v>0.01223870000103489</v>
+        <v>1.2238700001034891E-2</v>
       </c>
       <c r="I63" s="2">
-        <v>0.01340629998594522</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>1.340629998594522E-2</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
@@ -2627,13 +3161,21 @@
         <v>10</v>
       </c>
       <c r="H64" s="2">
-        <v>0.02771399999619462</v>
+        <v>2.7713999996194619E-2</v>
       </c>
       <c r="I64" s="2">
-        <v>0.02698489997419529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>2.698489997419529E-2</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
@@ -2656,13 +3198,21 @@
         <v>16</v>
       </c>
       <c r="H65" s="2">
-        <v>0.02802769999834709</v>
+        <v>2.8027699998347089E-2</v>
       </c>
       <c r="I65" s="2">
-        <v>0.02806120002060197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>2.8061200020601969E-2</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -2685,13 +3235,21 @@
         <v>4</v>
       </c>
       <c r="H66" s="2">
-        <v>0.0139861999778077</v>
+        <v>1.3986199977807701E-2</v>
       </c>
       <c r="I66" s="2">
-        <v>0.0261737999971956</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>2.6173799997195601E-2</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -2714,13 +3272,21 @@
         <v>9</v>
       </c>
       <c r="H67" s="2">
-        <v>0.02203210000880063</v>
+        <v>2.2032100008800629E-2</v>
       </c>
       <c r="I67" s="2">
-        <v>0.02205689999391325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>2.2056899993913252E-2</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J120" si="2">IF(H67=MIN(H67,I67), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K120" si="3">IF(I67=MIN(H67,I67), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
@@ -2743,13 +3309,21 @@
         <v>9</v>
       </c>
       <c r="H68" s="2">
-        <v>0.02123339998070151</v>
+        <v>2.123339998070151E-2</v>
       </c>
       <c r="I68" s="2">
-        <v>0.02147599999443628</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>2.1475999994436279E-2</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -2772,13 +3346,21 @@
         <v>7</v>
       </c>
       <c r="H69" s="2">
-        <v>0.01690989997587167</v>
+        <v>1.6909899975871671E-2</v>
       </c>
       <c r="I69" s="2">
-        <v>0.01678090001223609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>1.6780900012236089E-2</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -2801,13 +3383,21 @@
         <v>7</v>
       </c>
       <c r="H70" s="2">
-        <v>0.0221589999855496</v>
+        <v>2.2158999985549599E-2</v>
       </c>
       <c r="I70" s="2">
-        <v>0.02244910001172684</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>2.2449100011726841E-2</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -2830,13 +3420,21 @@
         <v>7</v>
       </c>
       <c r="H71" s="2">
-        <v>0.01988850001362152</v>
+        <v>1.9888500013621521E-2</v>
       </c>
       <c r="I71" s="2">
-        <v>0.01999400000204332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>1.9994000002043322E-2</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -2859,13 +3457,21 @@
         <v>6</v>
       </c>
       <c r="H72" s="2">
-        <v>0.034247100003995</v>
+        <v>3.4247100003995001E-2</v>
       </c>
       <c r="I72" s="2">
-        <v>0.02032490001874976</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>2.0324900018749759E-2</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
@@ -2888,13 +3494,21 @@
         <v>11</v>
       </c>
       <c r="H73" s="2">
-        <v>0.02819599999929778</v>
+        <v>2.8195999999297779E-2</v>
       </c>
       <c r="I73" s="2">
-        <v>0.02810569998109713</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>2.8105699981097128E-2</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
@@ -2917,13 +3531,21 @@
         <v>11</v>
       </c>
       <c r="H74" s="2">
-        <v>0.02882860001409426</v>
+        <v>2.882860001409426E-2</v>
       </c>
       <c r="I74" s="2">
-        <v>0.02908800001023337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>2.9088000010233369E-2</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
@@ -2946,13 +3568,21 @@
         <v>5</v>
       </c>
       <c r="H75" s="2">
-        <v>0.02069249999476597</v>
+        <v>2.0692499994765971E-2</v>
       </c>
       <c r="I75" s="2">
-        <v>0.02136360001168214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>2.1363600011682141E-2</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
@@ -2975,13 +3605,21 @@
         <v>6</v>
       </c>
       <c r="H76" s="2">
-        <v>0.02165740000782534</v>
+        <v>2.1657400007825341E-2</v>
       </c>
       <c r="I76" s="2">
-        <v>0.02118830001563765</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>2.1188300015637651E-2</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -3004,13 +3642,21 @@
         <v>5</v>
       </c>
       <c r="H77" s="2">
-        <v>0.0191243999870494</v>
+        <v>1.9124399987049401E-2</v>
       </c>
       <c r="I77" s="2">
-        <v>0.01936619999469258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1.9366199994692579E-2</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
@@ -3033,13 +3679,21 @@
         <v>5</v>
       </c>
       <c r="H78" s="2">
-        <v>0.02994180002133362</v>
+        <v>2.994180002133362E-2</v>
       </c>
       <c r="I78" s="2">
-        <v>0.0154014999861829</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>1.54014999861829E-2</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -3062,13 +3716,21 @@
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>0.01295180001761764</v>
+        <v>1.2951800017617639E-2</v>
       </c>
       <c r="I79" s="2">
-        <v>0.01286899999831803</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>1.286899999831803E-2</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -3091,13 +3753,21 @@
         <v>14</v>
       </c>
       <c r="H80" s="2">
-        <v>0.0701485000026878</v>
+        <v>7.0148500002687797E-2</v>
       </c>
       <c r="I80" s="2">
-        <v>0.07067020001704805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>7.0670200017048046E-2</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3120,13 +3790,21 @@
         <v>2</v>
       </c>
       <c r="H81" s="2">
-        <v>0.0001799000019673258</v>
+        <v>1.7990000196732581E-4</v>
       </c>
       <c r="I81" s="2">
-        <v>0.0001436999882571399</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>1.4369998825713989E-4</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
@@ -3149,13 +3827,21 @@
         <v>8</v>
       </c>
       <c r="H82" s="2">
-        <v>0.03263010000227951</v>
+        <v>3.2630100002279512E-2</v>
       </c>
       <c r="I82" s="2">
-        <v>0.04740939999464899</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>4.7409399994648993E-2</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -3178,13 +3864,21 @@
         <v>8</v>
       </c>
       <c r="H83" s="2">
-        <v>0.06029470000066794</v>
+        <v>6.0294700000667938E-2</v>
       </c>
       <c r="I83" s="2">
-        <v>0.06178439999348484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>6.178439999348484E-2</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
@@ -3210,10 +3904,18 @@
         <v>0.2158280000148807</v>
       </c>
       <c r="I84" s="2">
-        <v>0.2131109000183642</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.21311090001836419</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -3236,13 +3938,21 @@
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>0.0003702999965753406</v>
+        <v>3.7029999657534057E-4</v>
       </c>
       <c r="I85" s="2">
-        <v>0.0003303000121377409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>3.303000121377409E-4</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -3265,13 +3975,21 @@
         <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>0.0003392999933566898</v>
+        <v>3.3929999335668981E-4</v>
       </c>
       <c r="I86" s="2">
-        <v>0.0003261000092606992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>3.2610000926069921E-4</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -3294,13 +4012,21 @@
         <v>1</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0003133999998681247</v>
+        <v>3.1339999986812472E-4</v>
       </c>
       <c r="I87" s="2">
-        <v>0.000308899994706735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>3.0889999470673501E-4</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -3323,13 +4049,21 @@
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>0.0003053999971598387</v>
+        <v>3.0539999715983868E-4</v>
       </c>
       <c r="I88" s="2">
-        <v>0.0002973999944515526</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>2.9739999445155258E-4</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -3352,13 +4086,21 @@
         <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>0.0003158999898005277</v>
+        <v>3.1589998980052769E-4</v>
       </c>
       <c r="I89" s="2">
-        <v>0.0003088000230491161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>3.0880002304911608E-4</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>97</v>
       </c>
@@ -3381,13 +4123,21 @@
         <v>1</v>
       </c>
       <c r="H90" s="2">
-        <v>0.0003055999986827374</v>
+        <v>3.055999986827374E-4</v>
       </c>
       <c r="I90" s="2">
-        <v>0.0003030999796465039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>3.0309997964650393E-4</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>98</v>
       </c>
@@ -3410,13 +4160,21 @@
         <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>0.0003461999876890332</v>
+        <v>3.461999876890332E-4</v>
       </c>
       <c r="I91" s="2">
-        <v>0.0003427000192459673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>3.4270001924596732E-4</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>99</v>
       </c>
@@ -3439,13 +4197,21 @@
         <v>2</v>
       </c>
       <c r="H92" s="2">
-        <v>0.0003511999966576695</v>
+        <v>3.5119999665766949E-4</v>
       </c>
       <c r="I92" s="2">
-        <v>0.0003549999964889139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>3.5499999648891389E-4</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
@@ -3468,13 +4234,21 @@
         <v>2</v>
       </c>
       <c r="H93" s="2">
-        <v>0.0003683999821078032</v>
+        <v>3.6839998210780323E-4</v>
       </c>
       <c r="I93" s="2">
-        <v>0.0003803000145126134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>3.8030001451261342E-4</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
@@ -3497,13 +4271,21 @@
         <v>4</v>
       </c>
       <c r="H94" s="2">
-        <v>0.0004109000146854669</v>
+        <v>4.1090001468546689E-4</v>
       </c>
       <c r="I94" s="2">
-        <v>0.0004124999977648258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>4.1249999776482582E-4</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>102</v>
       </c>
@@ -3526,13 +4308,21 @@
         <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>0.0003455000114627182</v>
+        <v>3.4550001146271819E-4</v>
       </c>
       <c r="I95" s="2">
-        <v>0.0003291000030003488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>3.2910000300034881E-4</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
@@ -3555,13 +4345,21 @@
         <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>0.0003345999866724014</v>
+        <v>3.3459998667240137E-4</v>
       </c>
       <c r="I96" s="2">
-        <v>0.0003247999993618578</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>3.2479999936185783E-4</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
@@ -3584,13 +4382,21 @@
         <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>0.0003197999903932214</v>
+        <v>3.1979999039322138E-4</v>
       </c>
       <c r="I97" s="2">
-        <v>0.0003201999934390187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>3.2019999343901873E-4</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>105</v>
       </c>
@@ -3613,13 +4419,21 @@
         <v>1</v>
       </c>
       <c r="H98" s="2">
-        <v>0.0003263000107835978</v>
+        <v>3.2630001078359783E-4</v>
       </c>
       <c r="I98" s="2">
-        <v>0.000323099986417219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>3.2309998641721899E-4</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
@@ -3642,13 +4456,21 @@
         <v>3</v>
       </c>
       <c r="H99" s="2">
-        <v>0.0004098999779671431</v>
+        <v>4.0989997796714311E-4</v>
       </c>
       <c r="I99" s="2">
-        <v>0.0004035999882034957</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>4.0359998820349569E-4</v>
+      </c>
+      <c r="J99" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>107</v>
       </c>
@@ -3671,13 +4493,21 @@
         <v>2</v>
       </c>
       <c r="H100" s="2">
-        <v>0.0004592000041157007</v>
+        <v>4.5920000411570072E-4</v>
       </c>
       <c r="I100" s="2">
-        <v>0.0004529000143520534</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>4.529000143520534E-4</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>108</v>
       </c>
@@ -3700,13 +4530,21 @@
         <v>2</v>
       </c>
       <c r="H101" s="2">
-        <v>0.0006733000045642257</v>
+        <v>6.7330000456422567E-4</v>
       </c>
       <c r="I101" s="2">
-        <v>0.0006637000187765807</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>6.6370001877658069E-4</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>109</v>
       </c>
@@ -3729,13 +4567,21 @@
         <v>2</v>
       </c>
       <c r="H102" s="2">
-        <v>0.0006786000158172101</v>
+        <v>6.7860001581721008E-4</v>
       </c>
       <c r="I102" s="2">
-        <v>0.0006513000116683543</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>6.5130001166835427E-4</v>
+      </c>
+      <c r="J102" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
@@ -3758,13 +4604,21 @@
         <v>3</v>
       </c>
       <c r="H103" s="2">
-        <v>0.0007767000060994178</v>
+        <v>7.7670000609941781E-4</v>
       </c>
       <c r="I103" s="2">
-        <v>0.0007733999809715897</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>7.7339998097158968E-4</v>
+      </c>
+      <c r="J103" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
@@ -3787,13 +4641,21 @@
         <v>2</v>
       </c>
       <c r="H104" s="2">
-        <v>0.0006593000143766403</v>
+        <v>6.5930001437664032E-4</v>
       </c>
       <c r="I104" s="2">
-        <v>0.0006483999895863235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>6.483999895863235E-4</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
@@ -3816,13 +4678,21 @@
         <v>6</v>
       </c>
       <c r="H105" s="2">
-        <v>0.001033699983963743</v>
+        <v>1.0336999839637431E-3</v>
       </c>
       <c r="I105" s="2">
-        <v>0.001006199978291988</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>1.0061999782919879E-3</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>113</v>
       </c>
@@ -3845,13 +4715,21 @@
         <v>2</v>
       </c>
       <c r="H106" s="2">
-        <v>0.0006945999921299517</v>
+        <v>6.9459999212995172E-4</v>
       </c>
       <c r="I106" s="2">
-        <v>0.0006847000040579587</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>6.8470000405795872E-4</v>
+      </c>
+      <c r="J106" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
@@ -3874,13 +4752,21 @@
         <v>5</v>
       </c>
       <c r="H107" s="2">
-        <v>0.0008635000267531723</v>
+        <v>8.6350002675317228E-4</v>
       </c>
       <c r="I107" s="2">
-        <v>0.0008618999854661524</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>8.6189998546615243E-4</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
@@ -3903,13 +4789,21 @@
         <v>4</v>
       </c>
       <c r="H108" s="2">
-        <v>0.0008096999954432249</v>
+        <v>8.0969999544322491E-4</v>
       </c>
       <c r="I108" s="2">
-        <v>0.0008154000097420067</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>8.1540000974200666E-4</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
@@ -3932,13 +4826,21 @@
         <v>2</v>
       </c>
       <c r="H109" s="2">
-        <v>0.0007058000192046165</v>
+        <v>7.0580001920461655E-4</v>
       </c>
       <c r="I109" s="2">
-        <v>0.0006928000075276941</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>6.9280000752769411E-4</v>
+      </c>
+      <c r="J109" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>117</v>
       </c>
@@ -3961,13 +4863,21 @@
         <v>2</v>
       </c>
       <c r="H110" s="2">
-        <v>0.0006699000077787787</v>
+        <v>6.6990000777877867E-4</v>
       </c>
       <c r="I110" s="2">
-        <v>0.0006621000065933913</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>6.621000065933913E-4</v>
+      </c>
+      <c r="J110" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>118</v>
       </c>
@@ -3990,13 +4900,21 @@
         <v>3</v>
       </c>
       <c r="H111" s="2">
-        <v>0.0007214000215753913</v>
+        <v>7.2140002157539129E-4</v>
       </c>
       <c r="I111" s="2">
-        <v>0.0007228000031318516</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>7.2280000313185155E-4</v>
+      </c>
+      <c r="J111" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>119</v>
       </c>
@@ -4019,13 +4937,21 @@
         <v>4</v>
       </c>
       <c r="H112" s="2">
-        <v>0.0007952999731060117</v>
+        <v>7.9529997310601175E-4</v>
       </c>
       <c r="I112" s="2">
-        <v>0.0008124999876599759</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>8.1249998765997589E-4</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>120</v>
       </c>
@@ -4048,13 +4974,21 @@
         <v>2</v>
       </c>
       <c r="H113" s="2">
-        <v>0.0007422000053338706</v>
+        <v>7.4220000533387065E-4</v>
       </c>
       <c r="I113" s="2">
-        <v>0.0007102999952621758</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>7.102999952621758E-4</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>121</v>
       </c>
@@ -4077,13 +5011,21 @@
         <v>2</v>
       </c>
       <c r="H114" s="2">
-        <v>0.0006656000041402876</v>
+        <v>6.6560000414028764E-4</v>
       </c>
       <c r="I114" s="2">
-        <v>0.0006543000054080039</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>6.5430000540800393E-4</v>
+      </c>
+      <c r="J114" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>122</v>
       </c>
@@ -4106,13 +5048,21 @@
         <v>1</v>
       </c>
       <c r="H115" s="2">
-        <v>0.0006220999930519611</v>
+        <v>6.2209999305196106E-4</v>
       </c>
       <c r="I115" s="2">
-        <v>0.0006131000118330121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>6.131000118330121E-4</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>123</v>
       </c>
@@ -4135,13 +5085,21 @@
         <v>1</v>
       </c>
       <c r="H116" s="2">
-        <v>0.0006317999796010554</v>
+        <v>6.3179997960105538E-4</v>
       </c>
       <c r="I116" s="2">
-        <v>0.0006247999845072627</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>6.2479998450726271E-4</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>124</v>
       </c>
@@ -4164,13 +5122,21 @@
         <v>4</v>
       </c>
       <c r="H117" s="2">
-        <v>0.0008764000085648149</v>
+        <v>8.7640000856481493E-4</v>
       </c>
       <c r="I117" s="2">
-        <v>0.0008727999811526388</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>8.7279998115263879E-4</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>125</v>
       </c>
@@ -4193,13 +5159,21 @@
         <v>5</v>
       </c>
       <c r="H118" s="2">
-        <v>0.0009433999948669225</v>
+        <v>9.433999948669225E-4</v>
       </c>
       <c r="I118" s="2">
-        <v>0.0009445000032428652</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>9.445000032428652E-4</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>126</v>
       </c>
@@ -4222,13 +5196,21 @@
         <v>7</v>
       </c>
       <c r="H119" s="2">
-        <v>0.001027000020258129</v>
+        <v>1.0270000202581291E-3</v>
       </c>
       <c r="I119" s="2">
-        <v>0.001018300012219697</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>1.018300012219697E-3</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -4251,13 +5233,21 @@
         <v>3</v>
       </c>
       <c r="H120" s="2">
-        <v>0.0009377000096719712</v>
+        <v>9.377000096719712E-4</v>
       </c>
       <c r="I120" s="2">
-        <v>0.0009239999926649034</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>9.239999926649034E-4</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>128</v>
       </c>
@@ -4280,10 +5270,18 @@
         <v>603</v>
       </c>
       <c r="H121" s="3">
-        <v>1.280629500077339</v>
+        <v>1.2806295000773389</v>
       </c>
       <c r="I121" s="3">
-        <v>1.255134299950441</v>
+        <v>1.2551342999504409</v>
+      </c>
+      <c r="J121" s="3">
+        <f>SUM(J2:J120)</f>
+        <v>41</v>
+      </c>
+      <c r="K121" s="3">
+        <f>SUM(K2:K120)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Source\MySlitherLink\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>file_test</t>
   </si>
@@ -406,19 +401,13 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>is_all_loop_best</t>
-  </si>
-  <si>
-    <t>is_all_loop_with_empty_best</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,33 +459,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -543,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,10 +550,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,7 +584,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -786,30 +759,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F94" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,14 +805,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -867,21 +829,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>1.5808999887667601E-3</v>
+        <v>0.001746000023558736</v>
       </c>
       <c r="I2" s="2">
-        <v>1.9657000084407632E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <f>IF(H2=MIN(H2,I2), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <f>IF(I2=MIN(H2,I2), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.002016299986280501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -904,21 +858,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3530700001865631E-2</v>
+        <v>0.01457769999979064</v>
       </c>
       <c r="I3" s="2">
-        <v>1.377200009301305E-3</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="0">IF(H3=MIN(H3,I3), 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="1">IF(I3=MIN(H3,I3), 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001528000022517517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -941,21 +887,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>1.716300001135096E-3</v>
+        <v>0.001738199993269518</v>
       </c>
       <c r="I4" s="2">
-        <v>1.709000003756955E-3</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001819500001147389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -978,21 +916,13 @@
         <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>3.6785999836865808E-3</v>
+        <v>0.0039276999887079</v>
       </c>
       <c r="I5" s="2">
-        <v>3.6948999913875009E-3</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.003837899974314496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1015,21 +945,13 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>2.0073000050615519E-3</v>
+        <v>0.002162899996619672</v>
       </c>
       <c r="I6" s="2">
-        <v>1.9894999859388922E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.002081500017084181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1052,21 +974,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>1.3484999944921581E-3</v>
+        <v>0.001335500011919066</v>
       </c>
       <c r="I7" s="2">
-        <v>1.300300005823374E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001372500002617016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,21 +1003,13 @@
         <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>1.8335999920964241E-3</v>
+        <v>0.001801400008844212</v>
       </c>
       <c r="I8" s="2">
-        <v>1.8017000111285599E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001831500005209818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1126,21 +1032,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>1.8691000004764651E-3</v>
+        <v>0.001940800022566691</v>
       </c>
       <c r="I9" s="2">
-        <v>1.8389000033494089E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001864400022896007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1163,21 +1061,13 @@
         <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>1.52600000728853E-3</v>
+        <v>0.00152459999662824</v>
       </c>
       <c r="I10" s="2">
-        <v>1.502200000686571E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001573699992150068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1200,21 +1090,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>1.419899985194206E-3</v>
+        <v>0.001523699989775196</v>
       </c>
       <c r="I11" s="2">
-        <v>1.431099983165041E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001487200002884492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1237,21 +1119,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>1.8095000123139471E-3</v>
+        <v>0.001841099990997463</v>
       </c>
       <c r="I12" s="2">
-        <v>1.801999984309077E-3</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.00187269999878481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1274,21 +1148,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>1.4020000235177581E-3</v>
+        <v>0.001514200004749</v>
       </c>
       <c r="I13" s="2">
-        <v>1.4354000159073621E-3</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001433099998394027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1311,21 +1177,13 @@
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <v>1.800300000468269E-3</v>
+        <v>0.001804800005629659</v>
       </c>
       <c r="I14" s="2">
-        <v>1.7496999935247E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001923600008012727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1348,21 +1206,13 @@
         <v>3</v>
       </c>
       <c r="H15" s="2">
-        <v>1.562899997225031E-3</v>
+        <v>0.001738399994792417</v>
       </c>
       <c r="I15" s="2">
-        <v>1.5293000033125279E-3</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001550000015413389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1385,21 +1235,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <v>2.1504999895114452E-3</v>
+        <v>0.00224170001456514</v>
       </c>
       <c r="I16" s="2">
-        <v>2.153099980205297E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.002265599992824718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1422,21 +1264,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>2.5703000137582421E-3</v>
+        <v>0.00255870001274161</v>
       </c>
       <c r="I17" s="2">
-        <v>2.5192000030074269E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.002602199994726107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1459,21 +1293,13 @@
         <v>3</v>
       </c>
       <c r="H18" s="2">
-        <v>1.4940999972168361E-3</v>
+        <v>0.001529100001789629</v>
       </c>
       <c r="I18" s="2">
-        <v>1.519200013717636E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001507499982835725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1496,21 +1322,13 @@
         <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>1.3319999852683399E-3</v>
+        <v>0.002045200002612546</v>
       </c>
       <c r="I19" s="2">
-        <v>1.2966999784111981E-3</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001321099989581853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1533,21 +1351,13 @@
         <v>2</v>
       </c>
       <c r="H20" s="2">
-        <v>1.3052000140305611E-3</v>
+        <v>0.001357899978756905</v>
       </c>
       <c r="I20" s="2">
-        <v>1.3667999883182349E-3</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001318399998126552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1570,21 +1380,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>9.7890000324696302E-4</v>
+        <v>0.0009997999877668917</v>
       </c>
       <c r="I21" s="2">
-        <v>9.7799999639391899E-4</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0009961000178009272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1607,21 +1409,13 @@
         <v>3</v>
       </c>
       <c r="H22" s="2">
-        <v>1.59709999570623E-3</v>
+        <v>0.001671499980147928</v>
       </c>
       <c r="I22" s="2">
-        <v>1.577599992742762E-3</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001636600005440414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1644,21 +1438,13 @@
         <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>1.591900014318526E-3</v>
+        <v>0.001631899998756126</v>
       </c>
       <c r="I23" s="2">
-        <v>1.5853999939281489E-3</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001624800002900884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1681,21 +1467,13 @@
         <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>1.4880999806337061E-3</v>
+        <v>0.00147270000888966</v>
       </c>
       <c r="I24" s="2">
-        <v>1.4567000034730879E-3</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001480799983255565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1718,21 +1496,13 @@
         <v>5</v>
       </c>
       <c r="H25" s="2">
-        <v>1.9823999900836502E-3</v>
+        <v>0.002011799981119111</v>
       </c>
       <c r="I25" s="2">
-        <v>1.955399988219142E-3</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.002003800007514656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1755,21 +1525,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>1.2775000068359079E-3</v>
+        <v>0.00130530001479201</v>
       </c>
       <c r="I26" s="2">
-        <v>1.279200019780546E-3</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001285100006498396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1792,21 +1554,13 @@
         <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>4.8322999791707844E-3</v>
+        <v>0.004944899992551655</v>
       </c>
       <c r="I27" s="2">
-        <v>4.7904000093694776E-3</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004880499996943399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1829,21 +1583,13 @@
         <v>4</v>
       </c>
       <c r="H28" s="2">
-        <v>4.4536000059451908E-3</v>
+        <v>0.004556200001388788</v>
       </c>
       <c r="I28" s="2">
-        <v>4.453499976079911E-3</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004480300005525351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1866,21 +1612,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="2">
-        <v>3.9295000024139881E-3</v>
+        <v>0.003978900000220165</v>
       </c>
       <c r="I29" s="2">
-        <v>3.8673999952152371E-3</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.003992499987361953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1903,21 +1641,13 @@
         <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>4.3458000000100583E-3</v>
+        <v>0.004374599986476824</v>
       </c>
       <c r="I30" s="2">
-        <v>4.3399000132922083E-3</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004405899991979823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1940,21 +1670,13 @@
         <v>8</v>
       </c>
       <c r="H31" s="2">
-        <v>5.6464000081177801E-3</v>
+        <v>0.005765100009739399</v>
       </c>
       <c r="I31" s="2">
-        <v>5.6734000099822879E-3</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.005754399986471981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1977,21 +1699,13 @@
         <v>12</v>
       </c>
       <c r="H32" s="2">
-        <v>6.3913999765645713E-3</v>
+        <v>0.006477899994933978</v>
       </c>
       <c r="I32" s="2">
-        <v>6.3572000071872026E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.006424399995012209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -2014,21 +1728,13 @@
         <v>4</v>
       </c>
       <c r="H33" s="2">
-        <v>4.457799979718402E-3</v>
+        <v>0.004509899998083711</v>
       </c>
       <c r="I33" s="2">
-        <v>4.4716999982483694E-3</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004490999999688938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2051,21 +1757,13 @@
         <v>4</v>
       </c>
       <c r="H34" s="2">
-        <v>3.9622000185772777E-3</v>
+        <v>0.003998100000899285</v>
       </c>
       <c r="I34" s="2">
-        <v>3.9880999829620123E-3</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004002400004537776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -2088,21 +1786,13 @@
         <v>3</v>
       </c>
       <c r="H35" s="2">
-        <v>3.6727999977301811E-3</v>
+        <v>0.003681999980472028</v>
       </c>
       <c r="I35" s="2">
-        <v>3.596199996536598E-3</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.00377370000933297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2125,21 +1815,13 @@
         <v>8</v>
       </c>
       <c r="H36" s="2">
-        <v>5.8029000065289438E-3</v>
+        <v>0.006035800004610792</v>
       </c>
       <c r="I36" s="2">
-        <v>5.86859998293221E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.006018800020683557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
@@ -2162,21 +1844,13 @@
         <v>5</v>
       </c>
       <c r="H37" s="2">
-        <v>4.7545999987050891E-3</v>
+        <v>0.004913200013106689</v>
       </c>
       <c r="I37" s="2">
-        <v>4.8237000009976327E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.004772399988723919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -2199,21 +1873,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="2">
-        <v>4.8366999835707247E-3</v>
+        <v>0.005004599981475621</v>
       </c>
       <c r="I38" s="2">
-        <v>4.8767999978736043E-3</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.005029099993407726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2236,21 +1902,13 @@
         <v>4</v>
       </c>
       <c r="H39" s="2">
-        <v>7.0079000142868608E-3</v>
+        <v>0.007302899990463629</v>
       </c>
       <c r="I39" s="2">
-        <v>6.7695000034291297E-3</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.007097599998814985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -2273,21 +1931,13 @@
         <v>6</v>
       </c>
       <c r="H40" s="2">
-        <v>1.012469999841414E-2</v>
+        <v>0.01056530000641942</v>
       </c>
       <c r="I40" s="2">
-        <v>9.9784000194631517E-3</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01021609999588691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -2310,21 +1960,13 @@
         <v>3</v>
       </c>
       <c r="H41" s="2">
-        <v>5.776500009233132E-3</v>
+        <v>0.006129600020358339</v>
       </c>
       <c r="I41" s="2">
-        <v>5.6828000233508646E-3</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.006044600013410673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -2347,21 +1989,13 @@
         <v>2</v>
       </c>
       <c r="H42" s="2">
-        <v>5.2886000194121152E-3</v>
+        <v>0.00555010000243783</v>
       </c>
       <c r="I42" s="2">
-        <v>5.2570999832823873E-3</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.00539460001164116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
@@ -2384,21 +2018,13 @@
         <v>8</v>
       </c>
       <c r="H43" s="2">
-        <v>9.542699990561232E-3</v>
+        <v>0.009818799997447059</v>
       </c>
       <c r="I43" s="2">
-        <v>9.5172000001184642E-3</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.009684300021035597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -2421,21 +2047,13 @@
         <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>7.4661999824456871E-3</v>
+        <v>0.007671200000913814</v>
       </c>
       <c r="I44" s="2">
-        <v>7.451999990735203E-3</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.007667900004889816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -2458,21 +2076,13 @@
         <v>10</v>
       </c>
       <c r="H45" s="2">
-        <v>1.199860000633635E-2</v>
+        <v>0.01238379999995232</v>
       </c>
       <c r="I45" s="2">
-        <v>1.199040000210516E-2</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01218980000703596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2495,21 +2105,13 @@
         <v>7</v>
       </c>
       <c r="H46" s="2">
-        <v>1.0275800013914701E-2</v>
+        <v>0.01047989999642596</v>
       </c>
       <c r="I46" s="2">
-        <v>1.026579999597743E-2</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01051870000082999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
@@ -2532,21 +2134,13 @@
         <v>8</v>
       </c>
       <c r="H47" s="2">
-        <v>2.402270000311546E-2</v>
+        <v>0.02511429999140091</v>
       </c>
       <c r="I47" s="2">
-        <v>1.1880299978656691E-2</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01218079999671318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -2569,21 +2163,13 @@
         <v>11</v>
       </c>
       <c r="H48" s="2">
-        <v>1.3825700007146219E-2</v>
+        <v>0.0140646000218112</v>
       </c>
       <c r="I48" s="2">
-        <v>1.3820799998939041E-2</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01397909998195246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -2606,21 +2192,13 @@
         <v>6</v>
       </c>
       <c r="H49" s="2">
-        <v>1.0202000004937871E-2</v>
+        <v>0.01052879999042489</v>
       </c>
       <c r="I49" s="2">
-        <v>1.0159199999179689E-2</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01029159998870455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -2643,21 +2221,13 @@
         <v>6</v>
       </c>
       <c r="H50" s="2">
-        <v>9.2369000194594264E-3</v>
+        <v>0.009294899995438755</v>
       </c>
       <c r="I50" s="2">
-        <v>9.1247999807819724E-3</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.009289200010243803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -2680,21 +2250,13 @@
         <v>11</v>
       </c>
       <c r="H51" s="2">
-        <v>1.9912899995688349E-2</v>
+        <v>0.01997980001033284</v>
       </c>
       <c r="I51" s="2">
-        <v>1.956760001485236E-2</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01990340001066215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
@@ -2717,21 +2279,13 @@
         <v>14</v>
       </c>
       <c r="H52" s="2">
-        <v>2.243489999091253E-2</v>
+        <v>0.02259279999998398</v>
       </c>
       <c r="I52" s="2">
-        <v>2.2227300010854378E-2</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02259040001081303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
@@ -2754,21 +2308,13 @@
         <v>10</v>
       </c>
       <c r="H53" s="2">
-        <v>2.729850000469014E-2</v>
+        <v>0.02717119999579154</v>
       </c>
       <c r="I53" s="2">
-        <v>2.7476999995997179E-2</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02752410000539385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
@@ -2791,21 +2337,13 @@
         <v>6</v>
       </c>
       <c r="H54" s="2">
-        <v>1.7866400012280789E-2</v>
+        <v>0.01814520001062192</v>
       </c>
       <c r="I54" s="2">
-        <v>1.7584399989573282E-2</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.017905199987581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
@@ -2828,21 +2366,13 @@
         <v>8</v>
       </c>
       <c r="H55" s="2">
-        <v>3.9946000004420057E-2</v>
+        <v>0.0394813000166323</v>
       </c>
       <c r="I55" s="2">
-        <v>2.5734299997566271E-2</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02596460000495426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
@@ -2865,21 +2395,13 @@
         <v>9</v>
       </c>
       <c r="H56" s="2">
-        <v>2.3164999991422519E-2</v>
+        <v>0.02340059998095967</v>
       </c>
       <c r="I56" s="2">
-        <v>2.3390899994410571E-2</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0237411999842152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -2902,21 +2424,13 @@
         <v>8</v>
       </c>
       <c r="H57" s="2">
-        <v>2.0476600009715181E-2</v>
+        <v>0.0207292000122834</v>
       </c>
       <c r="I57" s="2">
-        <v>2.0892900007311251E-2</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02083620001212694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
@@ -2939,21 +2453,13 @@
         <v>9</v>
       </c>
       <c r="H58" s="2">
-        <v>2.3423600010573861E-2</v>
+        <v>0.02308610000181943</v>
       </c>
       <c r="I58" s="2">
-        <v>2.3270700010471049E-2</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0230149999842979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -2976,21 +2482,13 @@
         <v>9</v>
       </c>
       <c r="H59" s="2">
-        <v>1.9217699998989701E-2</v>
+        <v>0.01952289999462664</v>
       </c>
       <c r="I59" s="2">
-        <v>1.9460300012724471E-2</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01973129998077638</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -3013,21 +2511,13 @@
         <v>8</v>
       </c>
       <c r="H60" s="2">
-        <v>1.9452200009254739E-2</v>
+        <v>0.01948620000621304</v>
       </c>
       <c r="I60" s="2">
-        <v>3.2801099994685501E-2</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.03273360000457615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
@@ -3050,21 +2540,13 @@
         <v>4</v>
       </c>
       <c r="H61" s="2">
-        <v>1.289760001236573E-2</v>
+        <v>0.01297780001186766</v>
       </c>
       <c r="I61" s="2">
-        <v>1.2861700000939891E-2</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01292760000796989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -3087,21 +2569,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="2">
-        <v>1.7770000005839389E-2</v>
+        <v>0.01807700001518242</v>
       </c>
       <c r="I62" s="2">
-        <v>1.8961699999636039E-2</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01832129998365417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
@@ -3124,21 +2598,13 @@
         <v>3</v>
       </c>
       <c r="H63" s="2">
-        <v>1.2238700001034891E-2</v>
+        <v>0.01242789998650551</v>
       </c>
       <c r="I63" s="2">
-        <v>1.340629998594522E-2</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01219499998842366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
@@ -3161,21 +2627,13 @@
         <v>10</v>
       </c>
       <c r="H64" s="2">
-        <v>2.7713999996194619E-2</v>
+        <v>0.02792910000425763</v>
       </c>
       <c r="I64" s="2">
-        <v>2.698489997419529E-2</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02720149999368005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
@@ -3198,21 +2656,13 @@
         <v>16</v>
       </c>
       <c r="H65" s="2">
-        <v>2.8027699998347089E-2</v>
+        <v>0.02811189999920316</v>
       </c>
       <c r="I65" s="2">
-        <v>2.8061200020601969E-2</v>
-      </c>
-      <c r="J65" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.028190299984999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
@@ -3235,21 +2685,13 @@
         <v>4</v>
       </c>
       <c r="H66" s="2">
-        <v>1.3986199977807701E-2</v>
+        <v>0.01395339998998679</v>
       </c>
       <c r="I66" s="2">
-        <v>2.6173799997195601E-2</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02622290002182126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -3272,21 +2714,13 @@
         <v>9</v>
       </c>
       <c r="H67" s="2">
-        <v>2.2032100008800629E-2</v>
+        <v>0.02182809999794699</v>
       </c>
       <c r="I67" s="2">
-        <v>2.2056899993913252E-2</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J120" si="2">IF(H67=MIN(H67,I67), 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <f t="shared" ref="K67:K120" si="3">IF(I67=MIN(H67,I67), 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02198000001953915</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
@@ -3309,21 +2743,13 @@
         <v>9</v>
       </c>
       <c r="H68" s="2">
-        <v>2.123339998070151E-2</v>
+        <v>0.02133540000068024</v>
       </c>
       <c r="I68" s="2">
-        <v>2.1475999994436279E-2</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02115499999490567</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
@@ -3346,21 +2772,13 @@
         <v>7</v>
       </c>
       <c r="H69" s="2">
-        <v>1.6909899975871671E-2</v>
+        <v>0.01682910000090487</v>
       </c>
       <c r="I69" s="2">
-        <v>1.6780900012236089E-2</v>
-      </c>
-      <c r="J69" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01717370000551455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
@@ -3383,21 +2801,13 @@
         <v>7</v>
       </c>
       <c r="H70" s="2">
-        <v>2.2158999985549599E-2</v>
+        <v>0.02252729999599978</v>
       </c>
       <c r="I70" s="2">
-        <v>2.2449100011726841E-2</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02226599998539314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3420,21 +2830,13 @@
         <v>7</v>
       </c>
       <c r="H71" s="2">
-        <v>1.9888500013621521E-2</v>
+        <v>0.01970720000099391</v>
       </c>
       <c r="I71" s="2">
-        <v>1.9994000002043322E-2</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02016519999597222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -3457,21 +2859,13 @@
         <v>6</v>
       </c>
       <c r="H72" s="2">
-        <v>3.4247100003995001E-2</v>
+        <v>0.03356080001685768</v>
       </c>
       <c r="I72" s="2">
-        <v>2.0324900018749759E-2</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02010880000307225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
@@ -3494,21 +2888,13 @@
         <v>11</v>
       </c>
       <c r="H73" s="2">
-        <v>2.8195999999297779E-2</v>
+        <v>0.02826620000996627</v>
       </c>
       <c r="I73" s="2">
-        <v>2.8105699981097128E-2</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0281253999855835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
@@ -3531,21 +2917,13 @@
         <v>11</v>
       </c>
       <c r="H74" s="2">
-        <v>2.882860001409426E-2</v>
+        <v>0.02861409998149611</v>
       </c>
       <c r="I74" s="2">
-        <v>2.9088000010233369E-2</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02912689998629503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
@@ -3568,21 +2946,13 @@
         <v>5</v>
       </c>
       <c r="H75" s="2">
-        <v>2.0692499994765971E-2</v>
+        <v>0.02094059999217279</v>
       </c>
       <c r="I75" s="2">
-        <v>2.1363600011682141E-2</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02098810000461526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
@@ -3605,21 +2975,13 @@
         <v>6</v>
       </c>
       <c r="H76" s="2">
-        <v>2.1657400007825341E-2</v>
+        <v>0.02150219999020919</v>
       </c>
       <c r="I76" s="2">
-        <v>2.1188300015637651E-2</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.02171679999446496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
@@ -3642,21 +3004,13 @@
         <v>5</v>
       </c>
       <c r="H77" s="2">
-        <v>1.9124399987049401E-2</v>
+        <v>0.01967040001181886</v>
       </c>
       <c r="I77" s="2">
-        <v>1.9366199994692579E-2</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0205366000009235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
@@ -3679,21 +3033,13 @@
         <v>5</v>
       </c>
       <c r="H78" s="2">
-        <v>2.994180002133362E-2</v>
+        <v>0.03033859998686239</v>
       </c>
       <c r="I78" s="2">
-        <v>1.54014999861829E-2</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01716229997691698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -3716,21 +3062,13 @@
         <v>1</v>
       </c>
       <c r="H79" s="2">
-        <v>1.2951800017617639E-2</v>
+        <v>0.01402500001131557</v>
       </c>
       <c r="I79" s="2">
-        <v>1.286899999831803E-2</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.01353510000626557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -3753,21 +3091,13 @@
         <v>14</v>
       </c>
       <c r="H80" s="2">
-        <v>7.0148500002687797E-2</v>
+        <v>0.07458700001006946</v>
       </c>
       <c r="I80" s="2">
-        <v>7.0670200017048046E-2</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.07627349998801947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3790,21 +3120,13 @@
         <v>2</v>
       </c>
       <c r="H81" s="2">
-        <v>1.7990000196732581E-4</v>
+        <v>0.0002165999903809279</v>
       </c>
       <c r="I81" s="2">
-        <v>1.4369998825713989E-4</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0001552999892737716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
@@ -3827,21 +3149,13 @@
         <v>8</v>
       </c>
       <c r="H82" s="2">
-        <v>3.2630100002279512E-2</v>
+        <v>0.03568339999765158</v>
       </c>
       <c r="I82" s="2">
-        <v>4.7409399994648993E-2</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.04856639998615719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -3864,21 +3178,13 @@
         <v>8</v>
       </c>
       <c r="H83" s="2">
-        <v>6.0294700000667938E-2</v>
+        <v>0.06298790001892485</v>
       </c>
       <c r="I83" s="2">
-        <v>6.178439999348484E-2</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.06358119999640621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
@@ -3901,21 +3207,13 @@
         <v>24</v>
       </c>
       <c r="H84" s="2">
-        <v>0.2158280000148807</v>
+        <v>0.220415400021011</v>
       </c>
       <c r="I84" s="2">
-        <v>0.21311090001836419</v>
-      </c>
-      <c r="J84" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.2392417999799363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -3938,21 +3236,13 @@
         <v>1</v>
       </c>
       <c r="H85" s="2">
-        <v>3.7029999657534057E-4</v>
+        <v>0.000385799998184666</v>
       </c>
       <c r="I85" s="2">
-        <v>3.303000121377409E-4</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0004257999826222658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -3975,21 +3265,13 @@
         <v>1</v>
       </c>
       <c r="H86" s="2">
-        <v>3.3929999335668981E-4</v>
+        <v>0.0004410999827086926</v>
       </c>
       <c r="I86" s="2">
-        <v>3.2610000926069921E-4</v>
-      </c>
-      <c r="J86" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.000443299999460578</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -4012,21 +3294,13 @@
         <v>1</v>
       </c>
       <c r="H87" s="2">
-        <v>3.1339999986812472E-4</v>
+        <v>0.0003399999986868352</v>
       </c>
       <c r="I87" s="2">
-        <v>3.0889999470673501E-4</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003341999836266041</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -4049,21 +3323,13 @@
         <v>1</v>
       </c>
       <c r="H88" s="2">
-        <v>3.0539999715983868E-4</v>
+        <v>0.0003112000122200698</v>
       </c>
       <c r="I88" s="2">
-        <v>2.9739999445155258E-4</v>
-      </c>
-      <c r="J88" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003121000190731138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -4086,21 +3352,13 @@
         <v>1</v>
       </c>
       <c r="H89" s="2">
-        <v>3.1589998980052769E-4</v>
+        <v>0.0003178000042680651</v>
       </c>
       <c r="I89" s="2">
-        <v>3.0880002304911608E-4</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003174000012222677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>97</v>
       </c>
@@ -4123,21 +3381,13 @@
         <v>1</v>
       </c>
       <c r="H90" s="2">
-        <v>3.055999986827374E-4</v>
+        <v>0.0003092999977525324</v>
       </c>
       <c r="I90" s="2">
-        <v>3.0309997964650393E-4</v>
-      </c>
-      <c r="J90" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003139000036753714</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
         <v>98</v>
       </c>
@@ -4160,21 +3410,13 @@
         <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>3.461999876890332E-4</v>
+        <v>0.0003617999900598079</v>
       </c>
       <c r="I91" s="2">
-        <v>3.4270001924596732E-4</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003526000073179603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
         <v>99</v>
       </c>
@@ -4197,21 +3439,13 @@
         <v>2</v>
       </c>
       <c r="H92" s="2">
-        <v>3.5119999665766949E-4</v>
+        <v>0.0003721000102814287</v>
       </c>
       <c r="I92" s="2">
-        <v>3.5499999648891389E-4</v>
-      </c>
-      <c r="J92" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K92" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003687999851536006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
@@ -4234,21 +3468,13 @@
         <v>2</v>
       </c>
       <c r="H93" s="2">
-        <v>3.6839998210780323E-4</v>
+        <v>0.0003943000047001988</v>
       </c>
       <c r="I93" s="2">
-        <v>3.8030001451261342E-4</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K93" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.000388899992685765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
@@ -4271,21 +3497,13 @@
         <v>4</v>
       </c>
       <c r="H94" s="2">
-        <v>4.1090001468546689E-4</v>
+        <v>0.0004430000262800604</v>
       </c>
       <c r="I94" s="2">
-        <v>4.1249999776482582E-4</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K94" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0004328000068198889</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
         <v>102</v>
       </c>
@@ -4308,21 +3526,13 @@
         <v>1</v>
       </c>
       <c r="H95" s="2">
-        <v>3.4550001146271819E-4</v>
+        <v>0.0003532000118866563</v>
       </c>
       <c r="I95" s="2">
-        <v>3.2910000300034881E-4</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003426999901421368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
@@ -4345,21 +3555,13 @@
         <v>1</v>
       </c>
       <c r="H96" s="2">
-        <v>3.3459998667240137E-4</v>
+        <v>0.0003414000093471259</v>
       </c>
       <c r="I96" s="2">
-        <v>3.2479999936185783E-4</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003408000047784299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
@@ -4382,21 +3584,13 @@
         <v>1</v>
       </c>
       <c r="H97" s="2">
-        <v>3.1979999039322138E-4</v>
+        <v>0.0003313999914098531</v>
       </c>
       <c r="I97" s="2">
-        <v>3.2019999343901873E-4</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K97" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003390000201761723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
         <v>105</v>
       </c>
@@ -4419,21 +3613,13 @@
         <v>1</v>
       </c>
       <c r="H98" s="2">
-        <v>3.2630001078359783E-4</v>
+        <v>0.0003389999910723418</v>
       </c>
       <c r="I98" s="2">
-        <v>3.2309998641721899E-4</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0003357999958097935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
@@ -4456,21 +3642,13 @@
         <v>3</v>
       </c>
       <c r="H99" s="2">
-        <v>4.0989997796714311E-4</v>
+        <v>0.0004198999959044158</v>
       </c>
       <c r="I99" s="2">
-        <v>4.0359998820349569E-4</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0004271999932825565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
         <v>107</v>
       </c>
@@ -4493,21 +3671,13 @@
         <v>2</v>
       </c>
       <c r="H100" s="2">
-        <v>4.5920000411570072E-4</v>
+        <v>0.0004914999881293625</v>
       </c>
       <c r="I100" s="2">
-        <v>4.529000143520534E-4</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0004898999759461731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
         <v>108</v>
       </c>
@@ -4530,21 +3700,13 @@
         <v>2</v>
       </c>
       <c r="H101" s="2">
-        <v>6.7330000456422567E-4</v>
+        <v>0.0006972999835852534</v>
       </c>
       <c r="I101" s="2">
-        <v>6.6370001877658069E-4</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0007086999830789864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
         <v>109</v>
       </c>
@@ -4567,21 +3729,13 @@
         <v>2</v>
       </c>
       <c r="H102" s="2">
-        <v>6.7860001581721008E-4</v>
+        <v>0.0006951999966986477</v>
       </c>
       <c r="I102" s="2">
-        <v>6.5130001166835427E-4</v>
-      </c>
-      <c r="J102" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006931000098120421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
@@ -4604,21 +3758,13 @@
         <v>3</v>
       </c>
       <c r="H103" s="2">
-        <v>7.7670000609941781E-4</v>
+        <v>0.0008369999995920807</v>
       </c>
       <c r="I103" s="2">
-        <v>7.7339998097158968E-4</v>
-      </c>
-      <c r="J103" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0008165999897755682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
@@ -4641,21 +3787,13 @@
         <v>2</v>
       </c>
       <c r="H104" s="2">
-        <v>6.5930001437664032E-4</v>
+        <v>0.0006822999857831746</v>
       </c>
       <c r="I104" s="2">
-        <v>6.483999895863235E-4</v>
-      </c>
-      <c r="J104" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006699000077787787</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
@@ -4678,21 +3816,13 @@
         <v>6</v>
       </c>
       <c r="H105" s="2">
-        <v>1.0336999839637431E-3</v>
+        <v>0.001073899999028072</v>
       </c>
       <c r="I105" s="2">
-        <v>1.0061999782919879E-3</v>
-      </c>
-      <c r="J105" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001050899998517707</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
         <v>113</v>
       </c>
@@ -4715,21 +3845,13 @@
         <v>2</v>
       </c>
       <c r="H106" s="2">
-        <v>6.9459999212995172E-4</v>
+        <v>0.0007095999899320304</v>
       </c>
       <c r="I106" s="2">
-        <v>6.8470000405795872E-4</v>
-      </c>
-      <c r="J106" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K106" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0007264000014401972</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
@@ -4752,21 +3874,13 @@
         <v>5</v>
       </c>
       <c r="H107" s="2">
-        <v>8.6350002675317228E-4</v>
+        <v>0.0008908000017981976</v>
       </c>
       <c r="I107" s="2">
-        <v>8.6189998546615243E-4</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0009017999982461333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
@@ -4789,21 +3903,13 @@
         <v>4</v>
       </c>
       <c r="H108" s="2">
-        <v>8.0969999544322491E-4</v>
+        <v>0.0008236999856308103</v>
       </c>
       <c r="I108" s="2">
-        <v>8.1540000974200666E-4</v>
-      </c>
-      <c r="J108" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K108" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0008158999844454229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
@@ -4826,21 +3932,13 @@
         <v>2</v>
       </c>
       <c r="H109" s="2">
-        <v>7.0580001920461655E-4</v>
+        <v>0.0007136999920476228</v>
       </c>
       <c r="I109" s="2">
-        <v>6.9280000752769411E-4</v>
-      </c>
-      <c r="J109" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0007951000006869435</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>117</v>
       </c>
@@ -4863,21 +3961,13 @@
         <v>2</v>
       </c>
       <c r="H110" s="2">
-        <v>6.6990000777877867E-4</v>
+        <v>0.0006936000136192888</v>
       </c>
       <c r="I110" s="2">
-        <v>6.621000065933913E-4</v>
-      </c>
-      <c r="J110" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006889000069350004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
         <v>118</v>
       </c>
@@ -4900,21 +3990,13 @@
         <v>3</v>
       </c>
       <c r="H111" s="2">
-        <v>7.2140002157539129E-4</v>
+        <v>0.0007391000108327717</v>
       </c>
       <c r="I111" s="2">
-        <v>7.2280000313185155E-4</v>
-      </c>
-      <c r="J111" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K111" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0007378000009339303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
         <v>119</v>
       </c>
@@ -4937,21 +4019,13 @@
         <v>4</v>
       </c>
       <c r="H112" s="2">
-        <v>7.9529997310601175E-4</v>
+        <v>0.0008476999937556684</v>
       </c>
       <c r="I112" s="2">
-        <v>8.1249998765997589E-4</v>
-      </c>
-      <c r="J112" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K112" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.000830000004498288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
         <v>120</v>
       </c>
@@ -4974,21 +4048,13 @@
         <v>2</v>
       </c>
       <c r="H113" s="2">
-        <v>7.4220000533387065E-4</v>
+        <v>0.0007514999888371676</v>
       </c>
       <c r="I113" s="2">
-        <v>7.102999952621758E-4</v>
-      </c>
-      <c r="J113" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0007393000123556703</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
         <v>121</v>
       </c>
@@ -5011,21 +4077,13 @@
         <v>2</v>
       </c>
       <c r="H114" s="2">
-        <v>6.6560000414028764E-4</v>
+        <v>0.0006862999871373177</v>
       </c>
       <c r="I114" s="2">
-        <v>6.5430000540800393E-4</v>
-      </c>
-      <c r="J114" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006865999894216657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
         <v>122</v>
       </c>
@@ -5048,21 +4106,13 @@
         <v>1</v>
       </c>
       <c r="H115" s="2">
-        <v>6.2209999305196106E-4</v>
+        <v>0.0006512999825645238</v>
       </c>
       <c r="I115" s="2">
-        <v>6.131000118330121E-4</v>
-      </c>
-      <c r="J115" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006363000138662755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
         <v>123</v>
       </c>
@@ -5085,21 +4135,13 @@
         <v>1</v>
       </c>
       <c r="H116" s="2">
-        <v>6.3179997960105538E-4</v>
+        <v>0.000665700004901737</v>
       </c>
       <c r="I116" s="2">
-        <v>6.2479998450726271E-4</v>
-      </c>
-      <c r="J116" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0006477999850176275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
         <v>124</v>
       </c>
@@ -5122,21 +4164,13 @@
         <v>4</v>
       </c>
       <c r="H117" s="2">
-        <v>8.7640000856481493E-4</v>
+        <v>0.0008980999991763383</v>
       </c>
       <c r="I117" s="2">
-        <v>8.7279998115263879E-4</v>
-      </c>
-      <c r="J117" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0009094999986700714</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
         <v>125</v>
       </c>
@@ -5159,21 +4193,13 @@
         <v>5</v>
       </c>
       <c r="H118" s="2">
-        <v>9.433999948669225E-4</v>
+        <v>0.001012399996398017</v>
       </c>
       <c r="I118" s="2">
-        <v>9.445000032428652E-4</v>
-      </c>
-      <c r="J118" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K118" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0009798999817576259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
         <v>126</v>
       </c>
@@ -5196,21 +4222,13 @@
         <v>7</v>
       </c>
       <c r="H119" s="2">
-        <v>1.0270000202581291E-3</v>
+        <v>0.0010607999865897</v>
       </c>
       <c r="I119" s="2">
-        <v>1.018300012219697E-3</v>
-      </c>
-      <c r="J119" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.001052200008416548</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -5233,21 +4251,13 @@
         <v>3</v>
       </c>
       <c r="H120" s="2">
-        <v>9.377000096719712E-4</v>
+        <v>0.0009660999930929393</v>
       </c>
       <c r="I120" s="2">
-        <v>9.239999926649034E-4</v>
-      </c>
-      <c r="J120" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.0009475999977439642</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
         <v>128</v>
       </c>
@@ -5270,18 +4280,10 @@
         <v>603</v>
       </c>
       <c r="H121" s="3">
-        <v>1.2806295000773389</v>
+        <v>1.307304599962663</v>
       </c>
       <c r="I121" s="3">
-        <v>1.2551342999504409</v>
-      </c>
-      <c r="J121" s="3">
-        <f>SUM(J2:J120)</f>
-        <v>41</v>
-      </c>
-      <c r="K121" s="3">
-        <f>SUM(K2:K120)</f>
-        <v>78</v>
+        <v>1.299674799840432</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001424099995347206</v>
+        <v>0.001286400001845323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001203700005135033</v>
+        <v>0.001165000001492444</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001160400002845563</v>
+        <v>0.001071700004104059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00167900000087684</v>
+        <v>0.001033300002745818</v>
       </c>
     </row>
     <row r="4">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001272499997867271</v>
+        <v>0.001506499997049104</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001190000002679881</v>
+        <v>0.001124100002925843</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001625900004000869</v>
+        <v>0.001511299997218885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001546700004837476</v>
+        <v>0.001514800002041738</v>
       </c>
     </row>
     <row r="6">
@@ -658,10 +658,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001445699999749195</v>
+        <v>0.001184400003694464</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001315100002102554</v>
+        <v>0.001226300002599601</v>
       </c>
     </row>
     <row r="7">
@@ -689,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001676399995631073</v>
+        <v>0.00141819999407744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001968199998373166</v>
+        <v>0.001435199999832548</v>
       </c>
     </row>
     <row r="8">
@@ -720,10 +720,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002980799996294081</v>
+        <v>0.002570000004197937</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002722700002777856</v>
+        <v>0.002544900002249051</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006864999995741528</v>
+        <v>0.004859499997110106</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005705900002794806</v>
+        <v>0.004898799998045433</v>
       </c>
     </row>
     <row r="10">
@@ -782,10 +782,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001506900000094902</v>
+        <v>0.001440799998817965</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001481400002376176</v>
+        <v>0.001411999997799285</v>
       </c>
     </row>
     <row r="11">
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001592900000105146</v>
+        <v>0.001033299995469861</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00169610000011744</v>
+        <v>0.001025000005029142</v>
       </c>
     </row>
     <row r="12">
@@ -844,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002667799999471754</v>
+        <v>0.001417999999830499</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00243870000122115</v>
+        <v>0.001440899999579415</v>
       </c>
     </row>
     <row r="13">
@@ -875,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001708999996480998</v>
+        <v>0.001376200001686811</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001776400000380818</v>
+        <v>0.001412600002367981</v>
       </c>
     </row>
     <row r="14">
@@ -906,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001867300001322292</v>
+        <v>0.0013427000012598</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002256499996292405</v>
+        <v>0.0013427000012598</v>
       </c>
     </row>
     <row r="15">
@@ -937,10 +937,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002552800004195888</v>
+        <v>0.001695400002063252</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001973200000065845</v>
+        <v>0.001661800000874791</v>
       </c>
     </row>
     <row r="16">
@@ -968,10 +968,10 @@
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004160800002864562</v>
+        <v>0.00358810000034282</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005516900004295167</v>
+        <v>0.003594400004658382</v>
       </c>
     </row>
     <row r="17">
@@ -999,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003016599999682512</v>
+        <v>0.001966200004972052</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003219300000637304</v>
+        <v>0.001962100002856459</v>
       </c>
     </row>
     <row r="18">
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001527699998405296</v>
+        <v>0.001227200002176687</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001906899997266009</v>
+        <v>0.00121930000022985</v>
       </c>
     </row>
     <row r="19">
@@ -1061,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001905999997688923</v>
+        <v>0.001716999999189284</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001971899997442961</v>
+        <v>0.001731300006213132</v>
       </c>
     </row>
     <row r="20">
@@ -1092,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002258900000015274</v>
+        <v>0.001804100000299513</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002656000004208181</v>
+        <v>0.001749900002323557</v>
       </c>
     </row>
     <row r="21">
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002464099998178426</v>
+        <v>0.001510399997641798</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002441199998429511</v>
+        <v>0.001463699998566881</v>
       </c>
     </row>
     <row r="22">
@@ -1154,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001666600001044571</v>
+        <v>0.001397099993482698</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001636300003156066</v>
+        <v>0.001387399999657646</v>
       </c>
     </row>
     <row r="23">
@@ -1185,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001951400001416914</v>
+        <v>0.001791700000467245</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001941099995747209</v>
+        <v>0.001775800003088079</v>
       </c>
     </row>
     <row r="24">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001618499998585321</v>
+        <v>0.001397600004565902</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001579499999934342</v>
+        <v>0.001409799995599315</v>
       </c>
     </row>
     <row r="25">
@@ -1247,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002010100004554261</v>
+        <v>0.001739200000884011</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001985299997613765</v>
+        <v>0.001754099997924641</v>
       </c>
     </row>
     <row r="26">
@@ -1278,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001748599999700673</v>
+        <v>0.001516700001957361</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001769000002241228</v>
+        <v>0.001509599998826161</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002336700003070291</v>
+        <v>0.002100899997458328</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002325699999346398</v>
+        <v>0.00206840000464581</v>
       </c>
     </row>
     <row r="28">
@@ -1340,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002765199998975731</v>
+        <v>0.002463999997416977</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002686700005142484</v>
+        <v>0.002505100004782435</v>
       </c>
     </row>
     <row r="29">
@@ -1371,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001739100000122562</v>
+        <v>0.001484799999161623</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00158229999942705</v>
+        <v>0.001479300000937656</v>
       </c>
     </row>
     <row r="30">
@@ -1402,10 +1402,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001379200002702419</v>
+        <v>0.001331899999058805</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001392400001350325</v>
+        <v>0.001262199999473523</v>
       </c>
     </row>
     <row r="31">
@@ -1433,10 +1433,10 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001401800000166986</v>
+        <v>0.001279600000998471</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001492199997301213</v>
+        <v>0.001312300002609845</v>
       </c>
     </row>
     <row r="32">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001030999999784399</v>
+        <v>0.0009666999976616353</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001047599995217752</v>
+        <v>0.0009391999992658384</v>
       </c>
     </row>
     <row r="33">
@@ -1495,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001704000002064276</v>
+        <v>0.001577399998495821</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002044400003796909</v>
+        <v>0.001559800002723932</v>
       </c>
     </row>
     <row r="34">
@@ -1526,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002124400001775939</v>
+        <v>0.001613399996131193</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002353199997742195</v>
+        <v>0.001554199996462557</v>
       </c>
     </row>
     <row r="35">
@@ -1557,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002147400002286304</v>
+        <v>0.001408800002536736</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001634499996725935</v>
+        <v>0.001426000002538785</v>
       </c>
     </row>
     <row r="36">
@@ -1588,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002656699994986411</v>
+        <v>0.00197430000116583</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002044299995759502</v>
+        <v>0.001950400001078378</v>
       </c>
     </row>
     <row r="37">
@@ -1619,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001322099997196347</v>
+        <v>0.001259999997273553</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001377500004309695</v>
+        <v>0.001271599998290185</v>
       </c>
     </row>
     <row r="38">
@@ -1650,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>0.004133999995246995</v>
+        <v>0.003940000002330635</v>
       </c>
       <c r="I38" t="n">
-        <v>0.004134499999054242</v>
+        <v>0.003941900002246257</v>
       </c>
     </row>
     <row r="39">
@@ -1681,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.004142699996009469</v>
+        <v>0.003914200002327561</v>
       </c>
       <c r="I39" t="n">
-        <v>0.004140899996855296</v>
+        <v>0.003862199999275617</v>
       </c>
     </row>
     <row r="40">
@@ -1712,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.004001900000730529</v>
+        <v>0.003822200000286102</v>
       </c>
       <c r="I40" t="n">
-        <v>0.004019899999548215</v>
+        <v>0.003819300000031944</v>
       </c>
     </row>
     <row r="41">
@@ -1743,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.004080799997609574</v>
+        <v>0.003912300002411939</v>
       </c>
       <c r="I41" t="n">
-        <v>0.004141400000662543</v>
+        <v>0.003961299997172318</v>
       </c>
     </row>
     <row r="42">
@@ -1774,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>0.003661299997474998</v>
+        <v>0.003518600002280436</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003579500000341795</v>
+        <v>0.003501800005324185</v>
       </c>
     </row>
     <row r="43">
@@ -1805,10 +1805,10 @@
         <v>13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006547999997565057</v>
+        <v>0.00646759999654023</v>
       </c>
       <c r="I43" t="n">
-        <v>0.00650310000492027</v>
+        <v>0.006464899997808971</v>
       </c>
     </row>
     <row r="44">
@@ -1824,22 +1824,22 @@
         <v>2319</v>
       </c>
       <c r="D44" t="n">
-        <v>2360</v>
+        <v>2351</v>
       </c>
       <c r="E44" t="n">
-        <v>2361</v>
+        <v>2388</v>
       </c>
       <c r="F44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0101896999985911</v>
+        <v>0.008447199994407129</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0252009999967413</v>
+        <v>0.04102289999718778</v>
       </c>
     </row>
     <row r="45">
@@ -1867,10 +1867,10 @@
         <v>41</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01557380000303965</v>
+        <v>0.01540440000098897</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01563999999780208</v>
+        <v>0.01532579999911832</v>
       </c>
     </row>
     <row r="46">
@@ -1898,10 +1898,10 @@
         <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003499400001601316</v>
+        <v>0.003456300000834744</v>
       </c>
       <c r="I46" t="n">
-        <v>0.003431800003454555</v>
+        <v>0.003446299997449387</v>
       </c>
     </row>
     <row r="47">
@@ -1929,10 +1929,10 @@
         <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.006780299998354167</v>
+        <v>0.006720500001392793</v>
       </c>
       <c r="I47" t="n">
-        <v>0.006823299998359289</v>
+        <v>0.006817499997850973</v>
       </c>
     </row>
     <row r="48">
@@ -1960,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.005142599999089725</v>
+        <v>0.004801600000064354</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004865399998379871</v>
+        <v>0.004765999998198822</v>
       </c>
     </row>
     <row r="49">
@@ -1991,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004428699998243246</v>
+        <v>0.00442740000289632</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004412300004332792</v>
+        <v>0.004472100001294166</v>
       </c>
     </row>
     <row r="50">
@@ -2022,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>0.003887400001985952</v>
+        <v>0.003834499999356922</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003911300002073403</v>
+        <v>0.003893099994456861</v>
       </c>
     </row>
     <row r="51">
@@ -2053,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004318900006182957</v>
+        <v>0.004326100002799649</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004302900000766385</v>
+        <v>0.004313600002205931</v>
       </c>
     </row>
     <row r="52">
@@ -2084,10 +2084,10 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005725799994252156</v>
+        <v>0.00565900000219699</v>
       </c>
       <c r="I52" t="n">
-        <v>0.005714400002034381</v>
+        <v>0.005646999998134561</v>
       </c>
     </row>
     <row r="53">
@@ -2115,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00624460000108229</v>
+        <v>0.006298899999819696</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00626199999533128</v>
+        <v>0.00626650000049267</v>
       </c>
     </row>
     <row r="54">
@@ -2146,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004449499996553641</v>
+        <v>0.004478199996810872</v>
       </c>
       <c r="I54" t="n">
-        <v>0.00448340000002645</v>
+        <v>0.004502299998421222</v>
       </c>
     </row>
     <row r="55">
@@ -2177,10 +2177,10 @@
         <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004107900000235531</v>
+        <v>0.003929099999368191</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00390999999945052</v>
+        <v>0.003875000002153683</v>
       </c>
     </row>
     <row r="56">
@@ -2208,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003599699994083494</v>
+        <v>0.003569399996194988</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00357110000186367</v>
+        <v>0.003637599998910446</v>
       </c>
     </row>
     <row r="57">
@@ -2239,10 +2239,10 @@
         <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005822400002216455</v>
+        <v>0.005744399997638538</v>
       </c>
       <c r="I57" t="n">
-        <v>0.005843899998581037</v>
+        <v>0.005740900000091642</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00474440000107279</v>
+        <v>0.004673900002671871</v>
       </c>
       <c r="I58" t="n">
-        <v>0.004724899998109322</v>
+        <v>0.00481259999651229</v>
       </c>
     </row>
     <row r="59">
@@ -2301,10 +2301,10 @@
         <v>7</v>
       </c>
       <c r="H59" t="n">
-        <v>0.004757399998197798</v>
+        <v>0.00470080000377493</v>
       </c>
       <c r="I59" t="n">
-        <v>0.00482449999981327</v>
+        <v>0.004798400004801806</v>
       </c>
     </row>
     <row r="60">
@@ -2332,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01221580000128597</v>
+        <v>0.01235260000248672</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01225130000239005</v>
+        <v>0.01238600000215229</v>
       </c>
     </row>
     <row r="61">
@@ -2363,10 +2363,10 @@
         <v>33</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0241840000016964</v>
+        <v>0.02440340000612196</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0239304999995511</v>
+        <v>0.02419410000584321</v>
       </c>
     </row>
     <row r="62">
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01000230000499869</v>
+        <v>0.01020109999808483</v>
       </c>
       <c r="I62" t="n">
-        <v>0.009928300001774915</v>
+        <v>0.009999900001275819</v>
       </c>
     </row>
     <row r="63">
@@ -2425,10 +2425,10 @@
         <v>9</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02538620000268565</v>
+        <v>0.01016730000264943</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01012610000179848</v>
+        <v>0.02492559999518562</v>
       </c>
     </row>
     <row r="64">
@@ -2456,10 +2456,10 @@
         <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>0.006851899997855071</v>
+        <v>0.006829300000390504</v>
       </c>
       <c r="I64" t="n">
-        <v>0.006793300002755132</v>
+        <v>0.006713200004014652</v>
       </c>
     </row>
     <row r="65">
@@ -2487,10 +2487,10 @@
         <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0125527999989572</v>
+        <v>0.0124257999996189</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01289089999772841</v>
+        <v>0.01253259999793954</v>
       </c>
     </row>
     <row r="66">
@@ -2518,10 +2518,10 @@
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01243539999995846</v>
+        <v>0.01245840000046883</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01327380000293488</v>
+        <v>0.01236510000308044</v>
       </c>
     </row>
     <row r="67">
@@ -2549,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00689540000166744</v>
+        <v>0.006803999996918719</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006981699996686075</v>
+        <v>0.006756700000551064</v>
       </c>
     </row>
     <row r="68">
@@ -2580,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01000479999493109</v>
+        <v>0.009974300002795644</v>
       </c>
       <c r="I68" t="n">
-        <v>0.009970599996449891</v>
+        <v>0.009947099999408238</v>
       </c>
     </row>
     <row r="69">
@@ -2611,10 +2611,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005725600000005215</v>
+        <v>0.005895599999348633</v>
       </c>
       <c r="I69" t="n">
-        <v>0.005840099998749793</v>
+        <v>0.005735500002629124</v>
       </c>
     </row>
     <row r="70">
@@ -2642,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>0.005231800001638476</v>
+        <v>0.005256900003587361</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0053496999971685</v>
+        <v>0.005271300004096702</v>
       </c>
     </row>
     <row r="71">
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="H71" t="n">
-        <v>0.009612499998183921</v>
+        <v>0.009757499996339902</v>
       </c>
       <c r="I71" t="n">
-        <v>0.009570800000801682</v>
+        <v>0.00964630000089528</v>
       </c>
     </row>
     <row r="72">
@@ -2704,10 +2704,10 @@
         <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00749319999886211</v>
+        <v>0.007487499999115244</v>
       </c>
       <c r="I72" t="n">
-        <v>0.007608499996422324</v>
+        <v>0.007443200003763195</v>
       </c>
     </row>
     <row r="73">
@@ -2735,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01204219999635825</v>
+        <v>0.01187840000056894</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01204300000244984</v>
+        <v>0.01186869999946794</v>
       </c>
     </row>
     <row r="74">
@@ -2766,10 +2766,10 @@
         <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01034300000173971</v>
+        <v>0.01017290000163484</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0261841999963508</v>
+        <v>0.02523599999403814</v>
       </c>
     </row>
     <row r="75">
@@ -2797,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01205859999754466</v>
+        <v>0.01177230000030249</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01203050000185613</v>
+        <v>0.0117686000012327</v>
       </c>
     </row>
     <row r="76">
@@ -2828,10 +2828,10 @@
         <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01483849999931408</v>
+        <v>0.01372950000222772</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01402099999540951</v>
+        <v>0.01381299999775365</v>
       </c>
     </row>
     <row r="77">
@@ -2859,10 +2859,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01017829999909736</v>
+        <v>0.01016760000493377</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01022320000629406</v>
+        <v>0.01009979999798816</v>
       </c>
     </row>
     <row r="78">
@@ -2890,10 +2890,10 @@
         <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>0.009250600000086706</v>
+        <v>0.009167099997284822</v>
       </c>
       <c r="I78" t="n">
-        <v>0.00924220000160858</v>
+        <v>0.009122199997364078</v>
       </c>
     </row>
     <row r="79">
@@ -2921,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01982639999914682</v>
+        <v>0.01965229999768781</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01971330000378657</v>
+        <v>0.01967029999650549</v>
       </c>
     </row>
     <row r="80">
@@ -2952,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01845350000075996</v>
+        <v>0.01820370000496041</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01845479999610689</v>
+        <v>0.01818739999725949</v>
       </c>
     </row>
     <row r="81">
@@ -2983,10 +2983,10 @@
         <v>21</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02747719999752007</v>
+        <v>0.02679840000200784</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02822320000268519</v>
+        <v>0.02703279999695951</v>
       </c>
     </row>
     <row r="82">
@@ -3014,10 +3014,10 @@
         <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02171860000089509</v>
+        <v>0.0213205999971251</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02182689999608556</v>
+        <v>0.02193760000227485</v>
       </c>
     </row>
     <row r="83">
@@ -3045,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03668779999861727</v>
+        <v>0.0365310999986832</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02031899999565212</v>
+        <v>0.02046790000167675</v>
       </c>
     </row>
     <row r="84">
@@ -3076,10 +3076,10 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01440699999511708</v>
+        <v>0.01445950000197627</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01455120000173338</v>
+        <v>0.01449300000240328</v>
       </c>
     </row>
     <row r="85">
@@ -3107,10 +3107,10 @@
         <v>18</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03280079999967711</v>
+        <v>0.03201090000220574</v>
       </c>
       <c r="I85" t="n">
-        <v>0.03335669999796664</v>
+        <v>0.0321507999979076</v>
       </c>
     </row>
     <row r="86">
@@ -3138,10 +3138,10 @@
         <v>46</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06057789999613306</v>
+        <v>0.05991499999799998</v>
       </c>
       <c r="I86" t="n">
-        <v>0.06043990000034682</v>
+        <v>0.0592945000025793</v>
       </c>
     </row>
     <row r="87">
@@ -3169,10 +3169,10 @@
         <v>14</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02290850000281353</v>
+        <v>0.02264090000244323</v>
       </c>
       <c r="I87" t="n">
-        <v>0.02266629999940051</v>
+        <v>0.02206029999797465</v>
       </c>
     </row>
     <row r="88">
@@ -3200,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02754060000006575</v>
+        <v>0.02661359999910928</v>
       </c>
       <c r="I88" t="n">
-        <v>0.02775899999687681</v>
+        <v>0.02669020000030287</v>
       </c>
     </row>
     <row r="89">
@@ -3231,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01755910000065342</v>
+        <v>0.01726419999613427</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01751250000233995</v>
+        <v>0.01737259999936214</v>
       </c>
     </row>
     <row r="90">
@@ -3262,10 +3262,10 @@
         <v>8</v>
       </c>
       <c r="H90" t="n">
-        <v>0.04125740000017686</v>
+        <v>0.04190319999906933</v>
       </c>
       <c r="I90" t="n">
-        <v>0.02604319999954896</v>
+        <v>0.02617830000235699</v>
       </c>
     </row>
     <row r="91">
@@ -3293,10 +3293,10 @@
         <v>9</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02334899999550544</v>
+        <v>0.02352389999578008</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0233557000028668</v>
+        <v>0.0234481000006781</v>
       </c>
     </row>
     <row r="92">
@@ -3324,10 +3324,10 @@
         <v>8</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02026439999463037</v>
+        <v>0.02026330000080634</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02068200000212528</v>
+        <v>0.02018459999817424</v>
       </c>
     </row>
     <row r="93">
@@ -3355,10 +3355,10 @@
         <v>9</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02290119999815943</v>
+        <v>0.02252009999938309</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02302800000325078</v>
+        <v>0.0226535000037984</v>
       </c>
     </row>
     <row r="94">
@@ -3386,10 +3386,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01915879999432946</v>
+        <v>0.01940639999520499</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01916089999576798</v>
+        <v>0.01928449999832083</v>
       </c>
     </row>
     <row r="95">
@@ -3417,10 +3417,10 @@
         <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01907199999550357</v>
+        <v>0.01960210000106599</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03481979999924079</v>
+        <v>0.03589939999801572</v>
       </c>
     </row>
     <row r="96">
@@ -3448,10 +3448,10 @@
         <v>4</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01307400000223424</v>
+        <v>0.01282609999907436</v>
       </c>
       <c r="I96" t="n">
-        <v>0.01298379999934696</v>
+        <v>0.012624599999981</v>
       </c>
     </row>
     <row r="97">
@@ -3479,10 +3479,10 @@
         <v>7</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01826539999456145</v>
+        <v>0.0174364999984391</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01837080000404967</v>
+        <v>0.0176179999980377</v>
       </c>
     </row>
     <row r="98">
@@ -3510,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01239470000291476</v>
+        <v>0.01167400000122143</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01221459999942454</v>
+        <v>0.01160900000104448</v>
       </c>
     </row>
     <row r="99">
@@ -3541,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02849229999992531</v>
+        <v>0.02687809999770252</v>
       </c>
       <c r="I99" t="n">
-        <v>0.03006019999884302</v>
+        <v>0.02691119999508373</v>
       </c>
     </row>
     <row r="100">
@@ -3572,10 +3572,10 @@
         <v>16</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02911339999991469</v>
+        <v>0.02809820000402397</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02937499999825377</v>
+        <v>0.02812889999768231</v>
       </c>
     </row>
     <row r="101">
@@ -3603,10 +3603,10 @@
         <v>4</v>
       </c>
       <c r="H101" t="n">
-        <v>0.014600700000301</v>
+        <v>0.01391359999979613</v>
       </c>
       <c r="I101" t="n">
-        <v>0.03021640000224579</v>
+        <v>0.02866070000163745</v>
       </c>
     </row>
     <row r="102">
@@ -3634,10 +3634,10 @@
         <v>9</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02189070000167703</v>
+        <v>0.02144050000060815</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02213340000162134</v>
+        <v>0.02134710000245832</v>
       </c>
     </row>
     <row r="103">
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02142630000162171</v>
+        <v>0.02058140000008279</v>
       </c>
       <c r="I103" t="n">
-        <v>0.02129259999492206</v>
+        <v>0.020885999998427</v>
       </c>
     </row>
     <row r="104">
@@ -3696,10 +3696,10 @@
         <v>7</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01682520000031218</v>
+        <v>0.01678549999633105</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01691340000252239</v>
+        <v>0.01668570000038017</v>
       </c>
     </row>
     <row r="105">
@@ -3727,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02229980000265641</v>
+        <v>0.02207340000313707</v>
       </c>
       <c r="I105" t="n">
-        <v>0.02245419999962905</v>
+        <v>0.02231240000401158</v>
       </c>
     </row>
     <row r="106">
@@ -3758,10 +3758,10 @@
         <v>7</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02005869999993593</v>
+        <v>0.01972659999591997</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02028469999640947</v>
+        <v>0.01964220000081696</v>
       </c>
     </row>
     <row r="107">
@@ -3789,10 +3789,10 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>0.02015209999808576</v>
+        <v>0.03484149999712827</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0370621999973082</v>
+        <v>0.01948019999690587</v>
       </c>
     </row>
     <row r="108">
@@ -3820,10 +3820,10 @@
         <v>11</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02825140000641113</v>
+        <v>0.02776879999873927</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02819720000115922</v>
+        <v>0.02786270000069635</v>
       </c>
     </row>
     <row r="109">
@@ -3851,10 +3851,10 @@
         <v>11</v>
       </c>
       <c r="H109" t="n">
-        <v>0.02877170000283513</v>
+        <v>0.02878000000055181</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02903519999381388</v>
+        <v>0.02893929999845568</v>
       </c>
     </row>
     <row r="110">
@@ -3882,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="H110" t="n">
-        <v>0.02083980000315933</v>
+        <v>0.02039369999693008</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02102390000072774</v>
+        <v>0.02049909999914235</v>
       </c>
     </row>
     <row r="111">
@@ -3913,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>0.021598700004688</v>
+        <v>0.02051840000058291</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02131280000321567</v>
+        <v>0.02031960000022082</v>
       </c>
     </row>
     <row r="112">
@@ -3944,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01933289999578847</v>
+        <v>0.0188410999980988</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01964530000259401</v>
+        <v>0.01931960000365507</v>
       </c>
     </row>
     <row r="113">
@@ -3975,10 +3975,10 @@
         <v>5</v>
       </c>
       <c r="H113" t="n">
-        <v>0.01562630000262288</v>
+        <v>0.03118649999669287</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03097680000064429</v>
+        <v>0.01751919999514939</v>
       </c>
     </row>
     <row r="114">
@@ -4006,10 +4006,10 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02205450000474229</v>
+        <v>0.02200160000211326</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0221670000028098</v>
+        <v>0.02165810000587953</v>
       </c>
     </row>
     <row r="115">
@@ -4037,10 +4037,10 @@
         <v>11</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03577309999673162</v>
+        <v>0.03477829999610549</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0359013000052073</v>
+        <v>0.03517579999606824</v>
       </c>
     </row>
     <row r="116">
@@ -4068,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01309939999919152</v>
+        <v>0.01302649999706773</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01284899999882327</v>
+        <v>0.0130289000007906</v>
       </c>
     </row>
     <row r="117">
@@ -4099,10 +4099,10 @@
         <v>8</v>
       </c>
       <c r="H117" t="n">
-        <v>0.02434209999773884</v>
+        <v>0.02482260000397218</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0247014999986277</v>
+        <v>0.04099680000217631</v>
       </c>
     </row>
     <row r="118">
@@ -4130,10 +4130,10 @@
         <v>14</v>
       </c>
       <c r="H118" t="n">
-        <v>0.08506290000514127</v>
+        <v>0.06959269999788376</v>
       </c>
       <c r="I118" t="n">
-        <v>0.07224150000547525</v>
+        <v>0.07024139999703038</v>
       </c>
     </row>
     <row r="119">
@@ -4161,10 +4161,10 @@
         <v>4</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02722319999884348</v>
+        <v>0.02616220000345493</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02653689999715425</v>
+        <v>0.02569140000559855</v>
       </c>
     </row>
     <row r="120">
@@ -4192,10 +4192,10 @@
         <v>19</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07723359999363311</v>
+        <v>0.0758574999999837</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07616319999942789</v>
+        <v>0.07445410000218544</v>
       </c>
     </row>
     <row r="121">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0001817000011214986</v>
+        <v>0.0001776999997673556</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0001501999940956011</v>
+        <v>0.0001408000025548972</v>
       </c>
     </row>
     <row r="122">
@@ -4254,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0001516999982413836</v>
+        <v>0.0001419000036548823</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0001478000049246475</v>
+        <v>0.0001401999979862012</v>
       </c>
     </row>
     <row r="123">
@@ -4285,10 +4285,10 @@
         <v>8</v>
       </c>
       <c r="H123" t="n">
-        <v>0.03354289999697357</v>
+        <v>0.04913139999553096</v>
       </c>
       <c r="I123" t="n">
-        <v>0.04773849999764934</v>
+        <v>0.03209069999866188</v>
       </c>
     </row>
     <row r="124">
@@ -4316,10 +4316,10 @@
         <v>9</v>
       </c>
       <c r="H124" t="n">
-        <v>0.04834710000432096</v>
+        <v>0.0476182999991579</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04930169999715872</v>
+        <v>0.04836169999907725</v>
       </c>
     </row>
     <row r="125">
@@ -4347,10 +4347,10 @@
         <v>37</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1476433999996516</v>
+        <v>0.1500929999965592</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1517798999993829</v>
+        <v>0.1470906999966246</v>
       </c>
     </row>
     <row r="126">
@@ -4378,10 +4378,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07846589999826392</v>
+        <v>0.07556580000527902</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06039540000347188</v>
+        <v>0.05993299999681767</v>
       </c>
     </row>
     <row r="127">
@@ -4409,10 +4409,10 @@
         <v>70</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2522239999962039</v>
+        <v>0.2523118999961298</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2580592999947839</v>
+        <v>0.2511368000050425</v>
       </c>
     </row>
     <row r="128">
@@ -4440,10 +4440,10 @@
         <v>13</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1285175000011805</v>
+        <v>0.1413698000033037</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1398999000011827</v>
+        <v>0.1274494000026607</v>
       </c>
     </row>
     <row r="129">
@@ -4471,10 +4471,10 @@
         <v>24</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2131792000000132</v>
+        <v>0.2134806999965804</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2152524999983143</v>
+        <v>0.2124382999973022</v>
       </c>
     </row>
     <row r="130">
@@ -4502,10 +4502,10 @@
         <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1452181999993627</v>
+        <v>0.1589814000035403</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1628054000029806</v>
+        <v>0.1443692000029841</v>
       </c>
     </row>
     <row r="131">
@@ -4533,10 +4533,10 @@
         <v>22</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1470292000012705</v>
+        <v>0.146813999999722</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1438729000001331</v>
+        <v>0.1431307000020752</v>
       </c>
     </row>
     <row r="132">
@@ -4564,10 +4564,10 @@
         <v>24</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2204152999984217</v>
+        <v>0.216610600000422</v>
       </c>
       <c r="I132" t="n">
-        <v>0.20461229999637</v>
+        <v>0.2023254000014276</v>
       </c>
     </row>
     <row r="133">
@@ -4595,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0003136000013910234</v>
+        <v>0.0003012000015587546</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0002639000013004988</v>
+        <v>0.0002607999995234422</v>
       </c>
     </row>
     <row r="134">
@@ -4626,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0002600999941932969</v>
+        <v>0.0002538999979151413</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0002612000025692396</v>
+        <v>0.0002567999981692992</v>
       </c>
     </row>
     <row r="135">
@@ -4657,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0002655999996932223</v>
+        <v>0.0002499999973224476</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0002729999978328124</v>
+        <v>0.0002597999991849065</v>
       </c>
     </row>
     <row r="136">
@@ -4688,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0002580000000307336</v>
+        <v>0.0002815999978338368</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0002592000018921681</v>
+        <v>0.0002598999999463558</v>
       </c>
     </row>
     <row r="137">
@@ -4719,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0002586999980849214</v>
+        <v>0.0002498999965609983</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0002572000012150966</v>
+        <v>0.000262100002146326</v>
       </c>
     </row>
     <row r="138">
@@ -4750,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0002396999989286996</v>
+        <v>0.0002396000054432079</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0002420000018901192</v>
+        <v>0.0002345000029890798</v>
       </c>
     </row>
     <row r="139">
@@ -4781,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0002346999972360209</v>
+        <v>0.0002408000000286847</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0002598999999463558</v>
+        <v>0.0002410000015515834</v>
       </c>
     </row>
     <row r="140">
@@ -4812,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0002372000017203391</v>
+        <v>0.0002473999993526377</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0002353000018047169</v>
+        <v>0.0002326000030734576</v>
       </c>
     </row>
     <row r="141">
@@ -4843,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0002358999990974553</v>
+        <v>0.000235799998336006</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0002453999986755662</v>
+        <v>0.0002314000012120232</v>
       </c>
     </row>
     <row r="142">
@@ -4874,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0002370000001974404</v>
+        <v>0.0002278999963891692</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0002381000012974255</v>
+        <v>0.0002364999963901937</v>
       </c>
     </row>
     <row r="143">
@@ -4905,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0003166000024066307</v>
+        <v>0.0003119999964837916</v>
       </c>
       <c r="I143" t="n">
-        <v>0.00031670000316808</v>
+        <v>0.0003116000007139519</v>
       </c>
     </row>
     <row r="144">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0003294999987701885</v>
+        <v>0.0003264999977545813</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0003299000018159859</v>
+        <v>0.0003236999982618727</v>
       </c>
     </row>
     <row r="145">
@@ -4967,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0003108999953838065</v>
+        <v>0.0003077000001212582</v>
       </c>
       <c r="I145" t="n">
-        <v>0.000312700001813937</v>
+        <v>0.0003073999978369102</v>
       </c>
     </row>
     <row r="146">
@@ -4998,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0002966999963973649</v>
+        <v>0.0002978000047733076</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0003016999980900437</v>
+        <v>0.0002919000035035424</v>
       </c>
     </row>
     <row r="147">
@@ -5029,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0003139000036753714</v>
+        <v>0.0003104999996139668</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0003135999941150658</v>
+        <v>0.0003028999999514781</v>
       </c>
     </row>
     <row r="148">
@@ -5060,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0003482000029180199</v>
+        <v>0.0003442000015638769</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0003322999982628971</v>
+        <v>0.0003472000025794841</v>
       </c>
     </row>
     <row r="149">
@@ -5091,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0002670000030775554</v>
+        <v>0.0002718000032473356</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0002669000023161061</v>
+        <v>0.0002778999987640418</v>
       </c>
     </row>
     <row r="150">
@@ -5122,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0003027999991900288</v>
+        <v>0.0003072999970754609</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0003060999952140264</v>
+        <v>0.0003034000037587248</v>
       </c>
     </row>
     <row r="151">
@@ -5153,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0003442000015638769</v>
+        <v>0.0003447999988566153</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0003397000036784448</v>
+        <v>0.0003383000002941117</v>
       </c>
     </row>
     <row r="152">
@@ -5184,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0003523000050336123</v>
+        <v>0.0003492000032565556</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0003529999958118424</v>
+        <v>0.0003559000033419579</v>
       </c>
     </row>
     <row r="153">
@@ -5215,10 +5215,10 @@
         <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0003645999968284741</v>
+        <v>0.0003615999958128668</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0003624000019044615</v>
+        <v>0.0003577000024961308</v>
       </c>
     </row>
     <row r="154">
@@ -5246,10 +5246,10 @@
         <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0004141000026720576</v>
+        <v>0.000400400000216905</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0004303000023355708</v>
+        <v>0.0003996999948867597</v>
       </c>
     </row>
     <row r="155">
@@ -5277,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0003537000011419877</v>
+        <v>0.0003351999985170551</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0003496999997878447</v>
+        <v>0.0003394999948795885</v>
       </c>
     </row>
     <row r="156">
@@ -5308,10 +5308,10 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0.000352700000803452</v>
+        <v>0.0003280000019003637</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0003396000029169954</v>
+        <v>0.0003426000039326027</v>
       </c>
     </row>
     <row r="157">
@@ -5339,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0.000331300005200319</v>
+        <v>0.0003197000041836873</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0003253000031691045</v>
+        <v>0.0003186999965691939</v>
       </c>
     </row>
     <row r="158">
@@ -5370,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0.000330700000631623</v>
+        <v>0.0003261000019847415</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0003246999986004084</v>
+        <v>0.000327300003846176</v>
       </c>
     </row>
     <row r="159">
@@ -5401,10 +5401,10 @@
         <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0004078000056324527</v>
+        <v>0.0004014000005554408</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0004133999973419122</v>
+        <v>0.0004081000006408431</v>
       </c>
     </row>
     <row r="160">
@@ -5432,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0.000491900005727075</v>
+        <v>0.0004944000029354356</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0004798999943886884</v>
+        <v>0.0004753999965032563</v>
       </c>
     </row>
     <row r="161">
@@ -5463,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>0.000459000002592802</v>
+        <v>0.000440700001490768</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0004489999992074445</v>
+        <v>0.0004337999998824671</v>
       </c>
     </row>
     <row r="162">
@@ -5494,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0006778999959351495</v>
+        <v>0.0006614000012632459</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0006686999986413866</v>
+        <v>0.0006433000016841106</v>
       </c>
     </row>
     <row r="163">
@@ -5525,10 +5525,10 @@
         <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0006758000017725863</v>
+        <v>0.0006447000050684437</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0006519000016851351</v>
+        <v>0.0006409999987226911</v>
       </c>
     </row>
     <row r="164">
@@ -5556,10 +5556,10 @@
         <v>3</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0007798000006005168</v>
+        <v>0.0007771999953547493</v>
       </c>
       <c r="I164" t="n">
-        <v>0.000784799995017238</v>
+        <v>0.0007691999999224208</v>
       </c>
     </row>
     <row r="165">
@@ -5587,10 +5587,10 @@
         <v>2</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0006627000038861297</v>
+        <v>0.0006505999990622513</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0006576000014320016</v>
+        <v>0.0006476999988080934</v>
       </c>
     </row>
     <row r="166">
@@ -5618,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="H166" t="n">
-        <v>0.001034600005368702</v>
+        <v>0.001020399999106303</v>
       </c>
       <c r="I166" t="n">
-        <v>0.001500600003055297</v>
+        <v>0.001000800002657343</v>
       </c>
     </row>
     <row r="167">
@@ -5649,10 +5649,10 @@
         <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0007318999996641651</v>
+        <v>0.0006905999980517663</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0006835000021965243</v>
+        <v>0.0006734999988111667</v>
       </c>
     </row>
     <row r="168">
@@ -5680,10 +5680,10 @@
         <v>5</v>
       </c>
       <c r="H168" t="n">
-        <v>0.00087340000027325</v>
+        <v>0.0008568999983253889</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0008635999984107912</v>
+        <v>0.0008524000004399568</v>
       </c>
     </row>
     <row r="169">
@@ -5711,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0008130999995046295</v>
+        <v>0.0007935000030556694</v>
       </c>
       <c r="I169" t="n">
-        <v>0.000796300002548378</v>
+        <v>0.000800000001618173</v>
       </c>
     </row>
     <row r="170">
@@ -5742,10 +5742,10 @@
         <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0006833000006736256</v>
+        <v>0.0006732999972882681</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0006920999949215911</v>
+        <v>0.0006723999977111816</v>
       </c>
     </row>
     <row r="171">
@@ -5773,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0006681000013486482</v>
+        <v>0.0006464999969466589</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0006603000001632608</v>
+        <v>0.0006505000055767596</v>
       </c>
     </row>
     <row r="172">
@@ -5804,10 +5804,10 @@
         <v>3</v>
       </c>
       <c r="H172" t="n">
-        <v>0.000727700004063081</v>
+        <v>0.0007024000005912967</v>
       </c>
       <c r="I172" t="n">
-        <v>0.000723599994671531</v>
+        <v>0.0007030999986454844</v>
       </c>
     </row>
     <row r="173">
@@ -5835,10 +5835,10 @@
         <v>4</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0008058000021264888</v>
+        <v>0.0007824999993317761</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0007945000033942051</v>
+        <v>0.0007821000035619363</v>
       </c>
     </row>
     <row r="174">
@@ -5866,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0007317999989027157</v>
+        <v>0.0007164000053307973</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0007415000000037253</v>
+        <v>0.0007191999975475483</v>
       </c>
     </row>
     <row r="175">
@@ -5897,10 +5897,10 @@
         <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0006672999952570535</v>
+        <v>0.0006665999972028658</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0006673000025330111</v>
+        <v>0.0006418999982997775</v>
       </c>
     </row>
     <row r="176">
@@ -5928,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0006262999959290028</v>
+        <v>0.0006133999995654449</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0006196000031195581</v>
+        <v>0.0006085000059101731</v>
       </c>
     </row>
     <row r="177">
@@ -5959,10 +5959,10 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0006343999993987381</v>
+        <v>0.0006272000027820468</v>
       </c>
       <c r="I177" t="n">
-        <v>0.000628800000413321</v>
+        <v>0.0006197999973664992</v>
       </c>
     </row>
     <row r="178">
@@ -5990,10 +5990,10 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0008903999987524003</v>
+        <v>0.0008701999977347441</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0008720999976503663</v>
+        <v>0.0008594000028097071</v>
       </c>
     </row>
     <row r="179">
@@ -6021,10 +6021,10 @@
         <v>5</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0009560999969835393</v>
+        <v>0.0009293999974033795</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0009625000020605512</v>
+        <v>0.0009193000005325302</v>
       </c>
     </row>
     <row r="180">
@@ -6052,10 +6052,10 @@
         <v>7</v>
       </c>
       <c r="H180" t="n">
-        <v>0.001027099999191705</v>
+        <v>0.0009955999994417652</v>
       </c>
       <c r="I180" t="n">
-        <v>0.001017800001136493</v>
+        <v>0.0009973999985959381</v>
       </c>
     </row>
     <row r="181">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0008445999992545694</v>
+        <v>0.000840000000607688</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0008459999953629449</v>
+        <v>0.0008269000027212314</v>
       </c>
     </row>
     <row r="182">
@@ -6114,10 +6114,10 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0007070999999996275</v>
+        <v>0.0006868999989819713</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0007043000005069189</v>
+        <v>0.0007102999952621758</v>
       </c>
     </row>
     <row r="183">
@@ -6145,10 +6145,10 @@
         <v>3</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0007779000006848946</v>
+        <v>0.0007960000002640299</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0007886999956099316</v>
+        <v>0.000778000001446344</v>
       </c>
     </row>
     <row r="184">
@@ -6176,10 +6176,10 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0006441000004997477</v>
+        <v>0.0006290000019362196</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0006473000030382536</v>
+        <v>0.0006366999950842001</v>
       </c>
     </row>
     <row r="185">
@@ -6207,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0006370999981299974</v>
+        <v>0.0006243000025278889</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0006448999993153848</v>
+        <v>0.0006311999968602322</v>
       </c>
     </row>
     <row r="186">
@@ -6238,10 +6238,10 @@
         <v>4</v>
       </c>
       <c r="H186" t="n">
-        <v>0.000959999997576233</v>
+        <v>0.0009403000003658235</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0009690000006230548</v>
+        <v>0.0009420999995199963</v>
       </c>
     </row>
     <row r="187">
@@ -6269,10 +6269,10 @@
         <v>7</v>
       </c>
       <c r="H187" t="n">
-        <v>0.001275400005397387</v>
+        <v>0.001240400000824593</v>
       </c>
       <c r="I187" t="n">
-        <v>0.0012745000058203</v>
+        <v>0.001228099994477816</v>
       </c>
     </row>
     <row r="188">
@@ -6300,10 +6300,10 @@
         <v>7</v>
       </c>
       <c r="H188" t="n">
-        <v>0.001272599998628721</v>
+        <v>0.001232700000400655</v>
       </c>
       <c r="I188" t="n">
-        <v>0.001266999999643303</v>
+        <v>0.001225600004545413</v>
       </c>
     </row>
     <row r="189">
@@ -6331,10 +6331,10 @@
         <v>7</v>
       </c>
       <c r="H189" t="n">
-        <v>0.001291400003538001</v>
+        <v>0.00121670000226004</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001275599999644328</v>
+        <v>0.001252099995326716</v>
       </c>
     </row>
     <row r="190">
@@ -6362,10 +6362,10 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0006396000026143156</v>
+        <v>0.0006458999996539205</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0006418999982997775</v>
+        <v>0.000629599999228958</v>
       </c>
     </row>
     <row r="191">
@@ -6393,10 +6393,10 @@
         <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0009076000060304068</v>
+        <v>0.0008977999968919903</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0009059000003617257</v>
+        <v>0.0009113999985856935</v>
       </c>
     </row>
     <row r="192">
@@ -6424,10 +6424,10 @@
         <v>5</v>
       </c>
       <c r="H192" t="n">
-        <v>0.001701000001048669</v>
+        <v>0.001666000003751833</v>
       </c>
       <c r="I192" t="n">
-        <v>0.001697400002740324</v>
+        <v>0.001655600004596636</v>
       </c>
     </row>
     <row r="193">
@@ -6455,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0007375999994110316</v>
+        <v>0.000731400003132876</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0007340999945881777</v>
+        <v>0.0007416000007651746</v>
       </c>
     </row>
     <row r="194">
@@ -6474,22 +6474,22 @@
         <v>792403</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>797064</v>
+        <v>797055</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>798938</v>
+        <v>798965</v>
       </c>
       <c r="F194" s="3" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G194" s="3" t="n">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>2.967399599983764</v>
+        <v>2.96828419999656</v>
       </c>
       <c r="I194" s="3" t="n">
-        <v>3.024865900006262</v>
+        <v>2.931471000047168</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001286400001845323</v>
+        <v>0.001248900000064168</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001165000001492444</v>
+        <v>0.001120600005378947</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001071700004104059</v>
+        <v>0.001059000001987442</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001033300002745818</v>
+        <v>0.001050899998517707</v>
       </c>
     </row>
     <row r="4">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001506499997049104</v>
+        <v>0.001588699997228105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001124100002925843</v>
+        <v>0.001111400000809226</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001511299997218885</v>
+        <v>0.001573499997903127</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001514800002041738</v>
+        <v>0.001472600000852253</v>
       </c>
     </row>
     <row r="6">
@@ -658,10 +658,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001184400003694464</v>
+        <v>0.001272599998628721</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001226300002599601</v>
+        <v>0.001175599994894583</v>
       </c>
     </row>
     <row r="7">
@@ -689,10 +689,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00141819999407744</v>
+        <v>0.001537800002552103</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001435199999832548</v>
+        <v>0.001436099999409635</v>
       </c>
     </row>
     <row r="8">
@@ -720,10 +720,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002570000004197937</v>
+        <v>0.00258429999666987</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002544900002249051</v>
+        <v>0.002698000003874768</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004859499997110106</v>
+        <v>0.00485599999956321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004898799998045433</v>
+        <v>0.004831099999137223</v>
       </c>
     </row>
     <row r="10">
@@ -782,10 +782,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001440799998817965</v>
+        <v>0.001389200006087776</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001411999997799285</v>
+        <v>0.001408600001013838</v>
       </c>
     </row>
     <row r="11">
@@ -813,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001033299995469861</v>
+        <v>0.001077600005373824</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001025000005029142</v>
+        <v>0.001048199999786448</v>
       </c>
     </row>
     <row r="12">
@@ -844,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001417999999830499</v>
+        <v>0.001447900001949165</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001440899999579415</v>
+        <v>0.001446399997803383</v>
       </c>
     </row>
     <row r="13">
@@ -875,10 +875,10 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001376200001686811</v>
+        <v>0.001376100000925362</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001412600002367981</v>
+        <v>0.001406299998052418</v>
       </c>
     </row>
     <row r="14">
@@ -906,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0013427000012598</v>
+        <v>0.001402599998982623</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0013427000012598</v>
+        <v>0.001419899999746121</v>
       </c>
     </row>
     <row r="15">
@@ -937,10 +937,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001695400002063252</v>
+        <v>0.001701600005617365</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001661800000874791</v>
+        <v>0.001691400000709109</v>
       </c>
     </row>
     <row r="16">
@@ -968,10 +968,10 @@
         <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00358810000034282</v>
+        <v>0.003698999993503094</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003594400004658382</v>
+        <v>0.003666000004159287</v>
       </c>
     </row>
     <row r="17">
@@ -999,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001966200004972052</v>
+        <v>0.001999400003114715</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001962100002856459</v>
+        <v>0.001965199997357558</v>
       </c>
     </row>
     <row r="18">
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001227200002176687</v>
+        <v>0.001252599999133963</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00121930000022985</v>
+        <v>0.001262100005988032</v>
       </c>
     </row>
     <row r="19">
@@ -1061,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001716999999189284</v>
+        <v>0.001730399999360088</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001731300006213132</v>
+        <v>0.001723299996228889</v>
       </c>
     </row>
     <row r="20">
@@ -1092,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001804100000299513</v>
+        <v>0.001789399997505825</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001749900002323557</v>
+        <v>0.001764599997841287</v>
       </c>
     </row>
     <row r="21">
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001510399997641798</v>
+        <v>0.001481899998907465</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001463699998566881</v>
+        <v>0.001460600004065782</v>
       </c>
     </row>
     <row r="22">
@@ -1154,10 +1154,10 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001397099993482698</v>
+        <v>0.001411700002790894</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001387399999657646</v>
+        <v>0.00142529999720864</v>
       </c>
     </row>
     <row r="23">
@@ -1185,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001791700000467245</v>
+        <v>0.001807900000130758</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001775800003088079</v>
+        <v>0.001781300001312047</v>
       </c>
     </row>
     <row r="24">
@@ -1216,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001397600004565902</v>
+        <v>0.001383900002110749</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001409799995599315</v>
+        <v>0.001405900002282578</v>
       </c>
     </row>
     <row r="25">
@@ -1247,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001739200000884011</v>
+        <v>0.001747800000885036</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001754099997924641</v>
+        <v>0.001729499999783002</v>
       </c>
     </row>
     <row r="26">
@@ -1278,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001516700001957361</v>
+        <v>0.001498800003901124</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001509599998826161</v>
+        <v>0.001492099996539764</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002100899997458328</v>
+        <v>0.00212199999805307</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00206840000464581</v>
+        <v>0.002125200000591576</v>
       </c>
     </row>
     <row r="28">
@@ -1340,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002463999997416977</v>
+        <v>0.002489300000888761</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002505100004782435</v>
+        <v>0.002492499996151309</v>
       </c>
     </row>
     <row r="29">
@@ -1371,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001484799999161623</v>
+        <v>0.001459099999919999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001479300000937656</v>
+        <v>0.001474599994253367</v>
       </c>
     </row>
     <row r="30">
@@ -1402,10 +1402,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001331899999058805</v>
+        <v>0.001308799997786991</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001262199999473523</v>
+        <v>0.001302800003031734</v>
       </c>
     </row>
     <row r="31">
@@ -1433,10 +1433,10 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001279600000998471</v>
+        <v>0.001319299997703638</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001312300002609845</v>
+        <v>0.001316499998210929</v>
       </c>
     </row>
     <row r="32">
@@ -1464,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0009666999976616353</v>
+        <v>0.0009453000020585023</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009391999992658384</v>
+        <v>0.0009558000019751489</v>
       </c>
     </row>
     <row r="33">
@@ -1495,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001577399998495821</v>
+        <v>0.001588300001458265</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001559800002723932</v>
+        <v>0.001574100002471823</v>
       </c>
     </row>
     <row r="34">
@@ -1526,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001613399996131193</v>
+        <v>0.001564199999847915</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001554199996462557</v>
+        <v>0.001569899999594782</v>
       </c>
     </row>
     <row r="35">
@@ -1557,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001408800002536736</v>
+        <v>0.001449800001864787</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001426000002538785</v>
+        <v>0.001417999999830499</v>
       </c>
     </row>
     <row r="36">
@@ -1588,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00197430000116583</v>
+        <v>0.001973200000065845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001950400001078378</v>
+        <v>0.001941199996508658</v>
       </c>
     </row>
     <row r="37">
@@ -1619,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001259999997273553</v>
+        <v>0.001267199993890245</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001271599998290185</v>
+        <v>0.001255299997865222</v>
       </c>
     </row>
     <row r="38">
@@ -1650,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>0.003940000002330635</v>
+        <v>0.003994300001068041</v>
       </c>
       <c r="I38" t="n">
-        <v>0.003941900002246257</v>
+        <v>0.004030000003695022</v>
       </c>
     </row>
     <row r="39">
@@ -1681,10 +1681,10 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003914200002327561</v>
+        <v>0.003881600001477636</v>
       </c>
       <c r="I39" t="n">
-        <v>0.003862199999275617</v>
+        <v>0.003933200001483783</v>
       </c>
     </row>
     <row r="40">
@@ -1712,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003822200000286102</v>
+        <v>0.003862199999275617</v>
       </c>
       <c r="I40" t="n">
-        <v>0.003819300000031944</v>
+        <v>0.003855199996905867</v>
       </c>
     </row>
     <row r="41">
@@ -1743,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003912300002411939</v>
+        <v>0.003971600002842024</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003961299997172318</v>
+        <v>0.003964600000472274</v>
       </c>
     </row>
     <row r="42">
@@ -1774,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>0.003518600002280436</v>
+        <v>0.00352990000101272</v>
       </c>
       <c r="I42" t="n">
-        <v>0.003501800005324185</v>
+        <v>0.00355219999619294</v>
       </c>
     </row>
     <row r="43">
@@ -1805,10 +1805,10 @@
         <v>13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00646759999654023</v>
+        <v>0.006448200001614168</v>
       </c>
       <c r="I43" t="n">
-        <v>0.006464899997808971</v>
+        <v>0.006452099994930904</v>
       </c>
     </row>
     <row r="44">
@@ -1824,22 +1824,22 @@
         <v>2319</v>
       </c>
       <c r="D44" t="n">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="E44" t="n">
-        <v>2388</v>
+        <v>2360</v>
       </c>
       <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="n">
-        <v>15</v>
-      </c>
       <c r="H44" t="n">
-        <v>0.008447199994407129</v>
+        <v>0.01106710000021849</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04102289999718778</v>
+        <v>0.0236323999997694</v>
       </c>
     </row>
     <row r="45">
@@ -1867,10 +1867,10 @@
         <v>41</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01540440000098897</v>
+        <v>0.01542920000065351</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01532579999911832</v>
+        <v>0.01543749999837019</v>
       </c>
     </row>
     <row r="46">
@@ -1898,10 +1898,10 @@
         <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003456300000834744</v>
+        <v>0.0035518000004231</v>
       </c>
       <c r="I46" t="n">
-        <v>0.003446299997449387</v>
+        <v>0.003532399998221081</v>
       </c>
     </row>
     <row r="47">
@@ -1929,10 +1929,10 @@
         <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.006720500001392793</v>
+        <v>0.006884000002173707</v>
       </c>
       <c r="I47" t="n">
-        <v>0.006817499997850973</v>
+        <v>0.006886399998620618</v>
       </c>
     </row>
     <row r="48">
@@ -1960,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.004801600000064354</v>
+        <v>0.004895199999737088</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004765999998198822</v>
+        <v>0.004927100002532825</v>
       </c>
     </row>
     <row r="49">
@@ -1991,10 +1991,10 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00442740000289632</v>
+        <v>0.004522399998677429</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004472100001294166</v>
+        <v>0.004469999999855645</v>
       </c>
     </row>
     <row r="50">
@@ -2022,10 +2022,10 @@
         <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>0.003834499999356922</v>
+        <v>0.003901000003679655</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003893099994456861</v>
+        <v>0.003941700000723358</v>
       </c>
     </row>
     <row r="51">
@@ -2053,10 +2053,10 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004326100002799649</v>
+        <v>0.004344600005424581</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004313600002205931</v>
+        <v>0.004383100000268314</v>
       </c>
     </row>
     <row r="52">
@@ -2084,10 +2084,10 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00565900000219699</v>
+        <v>0.005773999997472856</v>
       </c>
       <c r="I52" t="n">
-        <v>0.005646999998134561</v>
+        <v>0.005775799996627029</v>
       </c>
     </row>
     <row r="53">
@@ -2115,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>0.006298899999819696</v>
+        <v>0.006332099997962359</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00626650000049267</v>
+        <v>0.006282100002863444</v>
       </c>
     </row>
     <row r="54">
@@ -2146,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004478199996810872</v>
+        <v>0.004496800000197254</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004502299998421222</v>
+        <v>0.004528500001470093</v>
       </c>
     </row>
     <row r="55">
@@ -2177,10 +2177,10 @@
         <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.003929099999368191</v>
+        <v>0.003916499998013023</v>
       </c>
       <c r="I55" t="n">
-        <v>0.003875000002153683</v>
+        <v>0.003960000001825392</v>
       </c>
     </row>
     <row r="56">
@@ -2208,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003569399996194988</v>
+        <v>0.003614199995354284</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003637599998910446</v>
+        <v>0.00361739999789279</v>
       </c>
     </row>
     <row r="57">
@@ -2239,10 +2239,10 @@
         <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005744399997638538</v>
+        <v>0.005749000003561378</v>
       </c>
       <c r="I57" t="n">
-        <v>0.005740900000091642</v>
+        <v>0.005747800001699943</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.004673900002671871</v>
+        <v>0.004713099995569792</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00481259999651229</v>
+        <v>0.004793799998878967</v>
       </c>
     </row>
     <row r="59">
@@ -2301,10 +2301,10 @@
         <v>7</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00470080000377493</v>
+        <v>0.004787799996847752</v>
       </c>
       <c r="I59" t="n">
-        <v>0.004798400004801806</v>
+        <v>0.004765099998621736</v>
       </c>
     </row>
     <row r="60">
@@ -2332,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01235260000248672</v>
+        <v>0.01223200000094948</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01238600000215229</v>
+        <v>0.01227959999960149</v>
       </c>
     </row>
     <row r="61">
@@ -2363,10 +2363,10 @@
         <v>33</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02440340000612196</v>
+        <v>0.02438149999943562</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02419410000584321</v>
+        <v>0.02423579999594949</v>
       </c>
     </row>
     <row r="62">
@@ -2394,10 +2394,10 @@
         <v>9</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01020109999808483</v>
+        <v>0.01031389999843668</v>
       </c>
       <c r="I62" t="n">
-        <v>0.009999900001275819</v>
+        <v>0.01013880000391509</v>
       </c>
     </row>
     <row r="63">
@@ -2425,10 +2425,10 @@
         <v>9</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01016730000264943</v>
+        <v>0.01030380000156583</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02492559999518562</v>
+        <v>0.02592260000528768</v>
       </c>
     </row>
     <row r="64">
@@ -2456,10 +2456,10 @@
         <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>0.006829300000390504</v>
+        <v>0.006898800005728845</v>
       </c>
       <c r="I64" t="n">
-        <v>0.006713200004014652</v>
+        <v>0.007196899998234585</v>
       </c>
     </row>
     <row r="65">
@@ -2487,10 +2487,10 @@
         <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0124257999996189</v>
+        <v>0.01273499999660999</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01253259999793954</v>
+        <v>0.01269100000354229</v>
       </c>
     </row>
     <row r="66">
@@ -2518,10 +2518,10 @@
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01245840000046883</v>
+        <v>0.01245480000216048</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01236510000308044</v>
+        <v>0.01263910000125179</v>
       </c>
     </row>
     <row r="67">
@@ -2549,10 +2549,10 @@
         <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>0.006803999996918719</v>
+        <v>0.006802399999287445</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006756700000551064</v>
+        <v>0.006800600000133272</v>
       </c>
     </row>
     <row r="68">
@@ -2580,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>0.009974300002795644</v>
+        <v>0.01000249999924563</v>
       </c>
       <c r="I68" t="n">
-        <v>0.009947099999408238</v>
+        <v>0.01022089999605669</v>
       </c>
     </row>
     <row r="69">
@@ -2611,10 +2611,10 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005895599999348633</v>
+        <v>0.005807299996376969</v>
       </c>
       <c r="I69" t="n">
-        <v>0.005735500002629124</v>
+        <v>0.005803000000014435</v>
       </c>
     </row>
     <row r="70">
@@ -2642,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>0.005256900003587361</v>
+        <v>0.005379199996241368</v>
       </c>
       <c r="I70" t="n">
-        <v>0.005271300004096702</v>
+        <v>0.005394200001319405</v>
       </c>
     </row>
     <row r="71">
@@ -2673,10 +2673,10 @@
         <v>8</v>
       </c>
       <c r="H71" t="n">
-        <v>0.009757499996339902</v>
+        <v>0.009666199999628589</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00964630000089528</v>
+        <v>0.009696900000562891</v>
       </c>
     </row>
     <row r="72">
@@ -2704,10 +2704,10 @@
         <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007487499999115244</v>
+        <v>0.007624600002600346</v>
       </c>
       <c r="I72" t="n">
-        <v>0.007443200003763195</v>
+        <v>0.007657400004973169</v>
       </c>
     </row>
     <row r="73">
@@ -2735,10 +2735,10 @@
         <v>10</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01187840000056894</v>
+        <v>0.01208420000330079</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01186869999946794</v>
+        <v>0.01225920000433689</v>
       </c>
     </row>
     <row r="74">
@@ -2766,10 +2766,10 @@
         <v>7</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01017290000163484</v>
+        <v>0.01034879999497207</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02523599999403814</v>
+        <v>0.02543819999846164</v>
       </c>
     </row>
     <row r="75">
@@ -2797,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01177230000030249</v>
+        <v>0.01182110000081593</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0117686000012327</v>
+        <v>0.01185670000268146</v>
       </c>
     </row>
     <row r="76">
@@ -2828,10 +2828,10 @@
         <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01372950000222772</v>
+        <v>0.01381869999750052</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01381299999775365</v>
+        <v>0.01384259999758797</v>
       </c>
     </row>
     <row r="77">
@@ -2859,10 +2859,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01016760000493377</v>
+        <v>0.01004259999899659</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01009979999798816</v>
+        <v>0.01026350000029197</v>
       </c>
     </row>
     <row r="78">
@@ -2890,10 +2890,10 @@
         <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>0.009167099997284822</v>
+        <v>0.009095299996261019</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009122199997364078</v>
+        <v>0.009115000000747386</v>
       </c>
     </row>
     <row r="79">
@@ -2921,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01965229999768781</v>
+        <v>0.01999179999984335</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01967029999650549</v>
+        <v>0.01974060000065947</v>
       </c>
     </row>
     <row r="80">
@@ -2952,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01820370000496041</v>
+        <v>0.01848020000034012</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01818739999725949</v>
+        <v>0.01859479999984615</v>
       </c>
     </row>
     <row r="81">
@@ -2983,10 +2983,10 @@
         <v>21</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02679840000200784</v>
+        <v>0.02744000000529923</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02703279999695951</v>
+        <v>0.02756200000294484</v>
       </c>
     </row>
     <row r="82">
@@ -3014,10 +3014,10 @@
         <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0213205999971251</v>
+        <v>0.02200720000109868</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02193760000227485</v>
+        <v>0.02241199999843957</v>
       </c>
     </row>
     <row r="83">
@@ -3045,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0365310999986832</v>
+        <v>0.03719650000130059</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02046790000167675</v>
+        <v>0.02107519999844953</v>
       </c>
     </row>
     <row r="84">
@@ -3076,10 +3076,10 @@
         <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01445950000197627</v>
+        <v>0.01512039999943227</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01449300000240328</v>
+        <v>0.01510579999740003</v>
       </c>
     </row>
     <row r="85">
@@ -3107,10 +3107,10 @@
         <v>18</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03201090000220574</v>
+        <v>0.03383000000030734</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0321507999979076</v>
+        <v>0.03373740000097314</v>
       </c>
     </row>
     <row r="86">
@@ -3138,10 +3138,10 @@
         <v>46</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05991499999799998</v>
+        <v>0.06204509999952279</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0592945000025793</v>
+        <v>0.06103910000092583</v>
       </c>
     </row>
     <row r="87">
@@ -3169,10 +3169,10 @@
         <v>14</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02264090000244323</v>
+        <v>0.02313560000038706</v>
       </c>
       <c r="I87" t="n">
-        <v>0.02206029999797465</v>
+        <v>0.0230572000000393</v>
       </c>
     </row>
     <row r="88">
@@ -3200,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02661359999910928</v>
+        <v>0.02770769999915501</v>
       </c>
       <c r="I88" t="n">
-        <v>0.02669020000030287</v>
+        <v>0.02772610000101849</v>
       </c>
     </row>
     <row r="89">
@@ -3231,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01726419999613427</v>
+        <v>0.0181211999952211</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01737259999936214</v>
+        <v>0.01808480000181589</v>
       </c>
     </row>
     <row r="90">
@@ -3262,10 +3262,10 @@
         <v>8</v>
       </c>
       <c r="H90" t="n">
-        <v>0.04190319999906933</v>
+        <v>0.04332389999763109</v>
       </c>
       <c r="I90" t="n">
-        <v>0.02617830000235699</v>
+        <v>0.02652420000231359</v>
       </c>
     </row>
     <row r="91">
@@ -3293,10 +3293,10 @@
         <v>9</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02352389999578008</v>
+        <v>0.02384419999725651</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0234481000006781</v>
+        <v>0.02366139999503503</v>
       </c>
     </row>
     <row r="92">
@@ -3324,10 +3324,10 @@
         <v>8</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02026330000080634</v>
+        <v>0.02063210000051185</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02018459999817424</v>
+        <v>0.02076529999612831</v>
       </c>
     </row>
     <row r="93">
@@ -3355,10 +3355,10 @@
         <v>9</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02252009999938309</v>
+        <v>0.02292769999621669</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0226535000037984</v>
+        <v>0.02305149999301648</v>
       </c>
     </row>
     <row r="94">
@@ -3386,10 +3386,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01940639999520499</v>
+        <v>0.01944570000341628</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01928449999832083</v>
+        <v>0.01948480000282871</v>
       </c>
     </row>
     <row r="95">
@@ -3417,10 +3417,10 @@
         <v>8</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01960210000106599</v>
+        <v>0.01982629999838537</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03589939999801572</v>
+        <v>0.03625149999425048</v>
       </c>
     </row>
     <row r="96">
@@ -3448,10 +3448,10 @@
         <v>4</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01282609999907436</v>
+        <v>0.01273859999491833</v>
       </c>
       <c r="I96" t="n">
-        <v>0.012624599999981</v>
+        <v>0.01263789999939036</v>
       </c>
     </row>
     <row r="97">
@@ -3479,10 +3479,10 @@
         <v>7</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0174364999984391</v>
+        <v>0.01759550000133459</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0176179999980377</v>
+        <v>0.01769440000498435</v>
       </c>
     </row>
     <row r="98">
@@ -3510,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01167400000122143</v>
+        <v>0.01178459999937331</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01160900000104448</v>
+        <v>0.01175330000114627</v>
       </c>
     </row>
     <row r="99">
@@ -3541,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02687809999770252</v>
+        <v>0.02696330000617309</v>
       </c>
       <c r="I99" t="n">
-        <v>0.02691119999508373</v>
+        <v>0.02710859999933746</v>
       </c>
     </row>
     <row r="100">
@@ -3572,10 +3572,10 @@
         <v>16</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02809820000402397</v>
+        <v>0.02824490000057267</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02812889999768231</v>
+        <v>0.02831469999364344</v>
       </c>
     </row>
     <row r="101">
@@ -3603,10 +3603,10 @@
         <v>4</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01391359999979613</v>
+        <v>0.01400580000336049</v>
       </c>
       <c r="I101" t="n">
-        <v>0.02866070000163745</v>
+        <v>0.02872149999893736</v>
       </c>
     </row>
     <row r="102">
@@ -3634,10 +3634,10 @@
         <v>9</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02144050000060815</v>
+        <v>0.02150140000594547</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02134710000245832</v>
+        <v>0.02153089999774238</v>
       </c>
     </row>
     <row r="103">
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02058140000008279</v>
+        <v>0.02067450000322424</v>
       </c>
       <c r="I103" t="n">
-        <v>0.020885999998427</v>
+        <v>0.02108349999616621</v>
       </c>
     </row>
     <row r="104">
@@ -3696,10 +3696,10 @@
         <v>7</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01678549999633105</v>
+        <v>0.0169845999989775</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01668570000038017</v>
+        <v>0.01691940000455361</v>
       </c>
     </row>
     <row r="105">
@@ -3727,10 +3727,10 @@
         <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02207340000313707</v>
+        <v>0.02233529999648454</v>
       </c>
       <c r="I105" t="n">
-        <v>0.02231240000401158</v>
+        <v>0.02225120000366587</v>
       </c>
     </row>
     <row r="106">
@@ -3758,10 +3758,10 @@
         <v>7</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01972659999591997</v>
+        <v>0.01988790000177687</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01964220000081696</v>
+        <v>0.01998209999874234</v>
       </c>
     </row>
     <row r="107">
@@ -3789,10 +3789,10 @@
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03484149999712827</v>
+        <v>0.03496470000391128</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01948019999690587</v>
+        <v>0.0197450999985449</v>
       </c>
     </row>
     <row r="108">
@@ -3820,10 +3820,10 @@
         <v>11</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02776879999873927</v>
+        <v>0.02821509999921545</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02786270000069635</v>
+        <v>0.02847109999856912</v>
       </c>
     </row>
     <row r="109">
@@ -3851,10 +3851,10 @@
         <v>11</v>
       </c>
       <c r="H109" t="n">
-        <v>0.02878000000055181</v>
+        <v>0.02911830000084592</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02893929999845568</v>
+        <v>0.02915170000051148</v>
       </c>
     </row>
     <row r="110">
@@ -3882,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="H110" t="n">
-        <v>0.02039369999693008</v>
+        <v>0.02192970000032801</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02049909999914235</v>
+        <v>0.02075549999426585</v>
       </c>
     </row>
     <row r="111">
@@ -3913,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02051840000058291</v>
+        <v>0.02071029999933671</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02031960000022082</v>
+        <v>0.02198829999542795</v>
       </c>
     </row>
     <row r="112">
@@ -3944,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0188410999980988</v>
+        <v>0.01924739999958547</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01931960000365507</v>
+        <v>0.0194883000003756</v>
       </c>
     </row>
     <row r="113">
@@ -3975,10 +3975,10 @@
         <v>5</v>
       </c>
       <c r="H113" t="n">
-        <v>0.03118649999669287</v>
+        <v>0.03146739999647252</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01751919999514939</v>
+        <v>0.01568469999619992</v>
       </c>
     </row>
     <row r="114">
@@ -4006,10 +4006,10 @@
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02200160000211326</v>
+        <v>0.02195139999821549</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02165810000587953</v>
+        <v>0.02180070000031264</v>
       </c>
     </row>
     <row r="115">
@@ -4037,10 +4037,10 @@
         <v>11</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03477829999610549</v>
+        <v>0.03502469999511959</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03517579999606824</v>
+        <v>0.03601170000183629</v>
       </c>
     </row>
     <row r="116">
@@ -4068,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01302649999706773</v>
+        <v>0.01331199999549426</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0130289000007906</v>
+        <v>0.01361239999823738</v>
       </c>
     </row>
     <row r="117">
@@ -4099,10 +4099,10 @@
         <v>8</v>
       </c>
       <c r="H117" t="n">
-        <v>0.02482260000397218</v>
+        <v>0.02523060000385158</v>
       </c>
       <c r="I117" t="n">
-        <v>0.04099680000217631</v>
+        <v>0.04159480000089388</v>
       </c>
     </row>
     <row r="118">
@@ -4130,10 +4130,10 @@
         <v>14</v>
       </c>
       <c r="H118" t="n">
-        <v>0.06959269999788376</v>
+        <v>0.07108330000482965</v>
       </c>
       <c r="I118" t="n">
-        <v>0.07024139999703038</v>
+        <v>0.07085689999803435</v>
       </c>
     </row>
     <row r="119">
@@ -4161,10 +4161,10 @@
         <v>4</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02616220000345493</v>
+        <v>0.02699760000541573</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02569140000559855</v>
+        <v>0.02633429999696091</v>
       </c>
     </row>
     <row r="120">
@@ -4192,10 +4192,10 @@
         <v>19</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0758574999999837</v>
+        <v>0.07495550000021467</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07445410000218544</v>
+        <v>0.07456899999669986</v>
       </c>
     </row>
     <row r="121">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0001776999997673556</v>
+        <v>0.0002231000034953468</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0001408000025548972</v>
+        <v>0.0001517999990028329</v>
       </c>
     </row>
     <row r="122">
@@ -4254,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0001419000036548823</v>
+        <v>0.000163699995027855</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0001401999979862012</v>
+        <v>0.0001540000012028031</v>
       </c>
     </row>
     <row r="123">
@@ -4285,10 +4285,10 @@
         <v>8</v>
       </c>
       <c r="H123" t="n">
-        <v>0.04913139999553096</v>
+        <v>0.0493581999980961</v>
       </c>
       <c r="I123" t="n">
-        <v>0.03209069999866188</v>
+        <v>0.03320489999896381</v>
       </c>
     </row>
     <row r="124">
@@ -4316,10 +4316,10 @@
         <v>9</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0476182999991579</v>
+        <v>0.0482142000037129</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04836169999907725</v>
+        <v>0.04863949999707984</v>
       </c>
     </row>
     <row r="125">
@@ -4347,10 +4347,10 @@
         <v>37</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1500929999965592</v>
+        <v>0.1639339999965159</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1470906999966246</v>
+        <v>0.1495586000019102</v>
       </c>
     </row>
     <row r="126">
@@ -4378,10 +4378,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07556580000527902</v>
+        <v>0.07505559999844991</v>
       </c>
       <c r="I126" t="n">
-        <v>0.05993299999681767</v>
+        <v>0.05974050000077114</v>
       </c>
     </row>
     <row r="127">
@@ -4409,10 +4409,10 @@
         <v>70</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2523118999961298</v>
+        <v>0.2548595999978716</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2511368000050425</v>
+        <v>0.2542227000012645</v>
       </c>
     </row>
     <row r="128">
@@ -4440,10 +4440,10 @@
         <v>13</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1413698000033037</v>
+        <v>0.1405871999959345</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1274494000026607</v>
+        <v>0.1244349000044167</v>
       </c>
     </row>
     <row r="129">
@@ -4471,10 +4471,10 @@
         <v>24</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2134806999965804</v>
+        <v>0.2110519999987446</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2124382999973022</v>
+        <v>0.2114767999955802</v>
       </c>
     </row>
     <row r="130">
@@ -4502,10 +4502,10 @@
         <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1589814000035403</v>
+        <v>0.1608842999994522</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1443692000029841</v>
+        <v>0.1449156000016956</v>
       </c>
     </row>
     <row r="131">
@@ -4533,10 +4533,10 @@
         <v>22</v>
       </c>
       <c r="H131" t="n">
-        <v>0.146813999999722</v>
+        <v>0.1483833999955095</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1431307000020752</v>
+        <v>0.1472521999967285</v>
       </c>
     </row>
     <row r="132">
@@ -4564,10 +4564,10 @@
         <v>24</v>
       </c>
       <c r="H132" t="n">
-        <v>0.216610600000422</v>
+        <v>0.2243727000022773</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2023254000014276</v>
+        <v>0.2096392000021297</v>
       </c>
     </row>
     <row r="133">
@@ -4595,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0003012000015587546</v>
+        <v>0.000308700000459794</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0002607999995234422</v>
+        <v>0.0002687000014702789</v>
       </c>
     </row>
     <row r="134">
@@ -4626,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0002538999979151413</v>
+        <v>0.000257499996223487</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0002567999981692992</v>
+        <v>0.0002647000001161359</v>
       </c>
     </row>
     <row r="135">
@@ -4657,10 +4657,10 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0002499999973224476</v>
+        <v>0.0002673999988473952</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0002597999991849065</v>
+        <v>0.0002664999992703088</v>
       </c>
     </row>
     <row r="136">
@@ -4688,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0002815999978338368</v>
+        <v>0.0002609999937703833</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0002598999999463558</v>
+        <v>0.0002679000026546419</v>
       </c>
     </row>
     <row r="137">
@@ -4719,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0002498999965609983</v>
+        <v>0.000265800001216121</v>
       </c>
       <c r="I137" t="n">
-        <v>0.000262100002146326</v>
+        <v>0.0002673999988473952</v>
       </c>
     </row>
     <row r="138">
@@ -4750,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0002396000054432079</v>
+        <v>0.0002480000039213337</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0002345000029890798</v>
+        <v>0.0002396999989286996</v>
       </c>
     </row>
     <row r="139">
@@ -4781,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0002408000000286847</v>
+        <v>0.0002351000002818182</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0002410000015515834</v>
+        <v>0.00023670000518905</v>
       </c>
     </row>
     <row r="140">
@@ -4812,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0002473999993526377</v>
+        <v>0.0002411000023130327</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0002326000030734576</v>
+        <v>0.0002466000005370006</v>
       </c>
     </row>
     <row r="141">
@@ -4843,10 +4843,10 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.000235799998336006</v>
+        <v>0.0002402000027359463</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0002314000012120232</v>
+        <v>0.0002413000038359314</v>
       </c>
     </row>
     <row r="142">
@@ -4874,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0002278999963891692</v>
+        <v>0.0002309000046807341</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0002364999963901937</v>
+        <v>0.0002338000049348921</v>
       </c>
     </row>
     <row r="143">
@@ -4905,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0003119999964837916</v>
+        <v>0.0003155000013066456</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0003116000007139519</v>
+        <v>0.0003215999968233518</v>
       </c>
     </row>
     <row r="144">
@@ -4936,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0003264999977545813</v>
+        <v>0.000338099998771213</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0003236999982618727</v>
+        <v>0.0003320000032545067</v>
       </c>
     </row>
     <row r="145">
@@ -4967,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0003077000001212582</v>
+        <v>0.0003130999975837767</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0003073999978369102</v>
+        <v>0.0003037999995285645</v>
       </c>
     </row>
     <row r="146">
@@ -4998,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0002978000047733076</v>
+        <v>0.0003003000019816682</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0002919000035035424</v>
+        <v>0.0002917999954661354</v>
       </c>
     </row>
     <row r="147">
@@ -5029,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0003104999996139668</v>
+        <v>0.0003129000033368357</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0003028999999514781</v>
+        <v>0.0003119999964837916</v>
       </c>
     </row>
     <row r="148">
@@ -5060,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0003442000015638769</v>
+        <v>0.0003508000008878298</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0003472000025794841</v>
+        <v>0.0003471999953035265</v>
       </c>
     </row>
     <row r="149">
@@ -5091,10 +5091,10 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0002718000032473356</v>
+        <v>0.0002783000018098392</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0002778999987640418</v>
+        <v>0.0002744000012171455</v>
       </c>
     </row>
     <row r="150">
@@ -5122,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0003072999970754609</v>
+        <v>0.000309499999275431</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0003034000037587248</v>
+        <v>0.0003035999980056658</v>
       </c>
     </row>
     <row r="151">
@@ -5153,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0003447999988566153</v>
+        <v>0.0003508000008878298</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0003383000002941117</v>
+        <v>0.0003475000048638321</v>
       </c>
     </row>
     <row r="152">
@@ -5184,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0003492000032565556</v>
+        <v>0.0003605999954743311</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0003559000033419579</v>
+        <v>0.0003612000000430271</v>
       </c>
     </row>
     <row r="153">
@@ -5215,10 +5215,10 @@
         <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0003615999958128668</v>
+        <v>0.0003702999965753406</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0003577000024961308</v>
+        <v>0.0003613000008044764</v>
       </c>
     </row>
     <row r="154">
@@ -5246,10 +5246,10 @@
         <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>0.000400400000216905</v>
+        <v>0.0004102999955648556</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0003996999948867597</v>
+        <v>0.0004095000040251762</v>
       </c>
     </row>
     <row r="155">
@@ -5277,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0003351999985170551</v>
+        <v>0.0003407000040169805</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0003394999948795885</v>
+        <v>0.0003331999978399836</v>
       </c>
     </row>
     <row r="156">
@@ -5308,10 +5308,10 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0003280000019003637</v>
+        <v>0.0003372999999555759</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0003426000039326027</v>
+        <v>0.0003254999974160455</v>
       </c>
     </row>
     <row r="157">
@@ -5339,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0003197000041836873</v>
+        <v>0.0003179999985150062</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0003186999965691939</v>
+        <v>0.0003171999996993691</v>
       </c>
     </row>
     <row r="158">
@@ -5370,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0003261000019847415</v>
+        <v>0.000330399998347275</v>
       </c>
       <c r="I158" t="n">
-        <v>0.000327300003846176</v>
+        <v>0.0003308000013930723</v>
       </c>
     </row>
     <row r="159">
@@ -5401,10 +5401,10 @@
         <v>3</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0004014000005554408</v>
+        <v>0.0004026999959023669</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0004081000006408431</v>
+        <v>0.0004067000045324676</v>
       </c>
     </row>
     <row r="160">
@@ -5432,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0004944000029354356</v>
+        <v>0.0004869000040343963</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0004753999965032563</v>
+        <v>0.0004794000051333569</v>
       </c>
     </row>
     <row r="161">
@@ -5463,10 +5463,10 @@
         <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>0.000440700001490768</v>
+        <v>0.0004467000035219826</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0004337999998824671</v>
+        <v>0.0004565999988699332</v>
       </c>
     </row>
     <row r="162">
@@ -5494,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0006614000012632459</v>
+        <v>0.0006723999977111816</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0006433000016841106</v>
+        <v>0.0006664000029559247</v>
       </c>
     </row>
     <row r="163">
@@ -5525,10 +5525,10 @@
         <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0006447000050684437</v>
+        <v>0.0006652000010944903</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0006409999987226911</v>
+        <v>0.0006962000043131411</v>
       </c>
     </row>
     <row r="164">
@@ -5556,10 +5556,10 @@
         <v>3</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0007771999953547493</v>
+        <v>0.0008020000022952445</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0007691999999224208</v>
+        <v>0.0007809000017005019</v>
       </c>
     </row>
     <row r="165">
@@ -5587,10 +5587,10 @@
         <v>2</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0006505999990622513</v>
+        <v>0.0006529999955091625</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0006476999988080934</v>
+        <v>0.0006487999999080785</v>
       </c>
     </row>
     <row r="166">
@@ -5618,10 +5618,10 @@
         <v>6</v>
       </c>
       <c r="H166" t="n">
-        <v>0.001020399999106303</v>
+        <v>0.001016599999275059</v>
       </c>
       <c r="I166" t="n">
-        <v>0.001000800002657343</v>
+        <v>0.001007699996989686</v>
       </c>
     </row>
     <row r="167">
@@ -5649,10 +5649,10 @@
         <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0006905999980517663</v>
+        <v>0.0007034000009298325</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0006734999988111667</v>
+        <v>0.0007136999993235804</v>
       </c>
     </row>
     <row r="168">
@@ -5680,10 +5680,10 @@
         <v>5</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0008568999983253889</v>
+        <v>0.0008977999968919903</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0008524000004399568</v>
+        <v>0.0008835999979055487</v>
       </c>
     </row>
     <row r="169">
@@ -5711,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0007935000030556694</v>
+        <v>0.0008185999977285974</v>
       </c>
       <c r="I169" t="n">
-        <v>0.000800000001618173</v>
+        <v>0.0008028000011108816</v>
       </c>
     </row>
     <row r="170">
@@ -5742,10 +5742,10 @@
         <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0006732999972882681</v>
+        <v>0.0006893999961903319</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0006723999977111816</v>
+        <v>0.0006915999983903021</v>
       </c>
     </row>
     <row r="171">
@@ -5773,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0006464999969466589</v>
+        <v>0.0006983999992371537</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0006505000055767596</v>
+        <v>0.0006619999985559843</v>
       </c>
     </row>
     <row r="172">
@@ -5804,10 +5804,10 @@
         <v>3</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0007024000005912967</v>
+        <v>0.0007276999967871234</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0007030999986454844</v>
+        <v>0.0007189999960246496</v>
       </c>
     </row>
     <row r="173">
@@ -5835,10 +5835,10 @@
         <v>4</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0007824999993317761</v>
+        <v>0.0007957999987411313</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0007821000035619363</v>
+        <v>0.0008175999973900616</v>
       </c>
     </row>
     <row r="174">
@@ -5866,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0007164000053307973</v>
+        <v>0.0007406000004266389</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0007191999975475483</v>
+        <v>0.0007604000056744553</v>
       </c>
     </row>
     <row r="175">
@@ -5897,10 +5897,10 @@
         <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0006665999972028658</v>
+        <v>0.0006745999999111518</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0006418999982997775</v>
+        <v>0.0006554999999934807</v>
       </c>
     </row>
     <row r="176">
@@ -5928,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0006133999995654449</v>
+        <v>0.000625599997874815</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0006085000059101731</v>
+        <v>0.0006241999944904819</v>
       </c>
     </row>
     <row r="177">
@@ -5959,10 +5959,10 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0006272000027820468</v>
+        <v>0.0006360999977914616</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0006197999973664992</v>
+        <v>0.0006246999982977286</v>
       </c>
     </row>
     <row r="178">
@@ -5990,10 +5990,10 @@
         <v>4</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0008701999977347441</v>
+        <v>0.0008961999992607161</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0008594000028097071</v>
+        <v>0.0009032999951159582</v>
       </c>
     </row>
     <row r="179">
@@ -6021,10 +6021,10 @@
         <v>5</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0009293999974033795</v>
+        <v>0.0009449000062886626</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0009193000005325302</v>
+        <v>0.0009590999979991466</v>
       </c>
     </row>
     <row r="180">
@@ -6052,10 +6052,10 @@
         <v>7</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0009955999994417652</v>
+        <v>0.001032200001645833</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0009973999985959381</v>
+        <v>0.001022900003590621</v>
       </c>
     </row>
     <row r="181">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>0.000840000000607688</v>
+        <v>0.0008845999982440844</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0008269000027212314</v>
+        <v>0.0009343999990960583</v>
       </c>
     </row>
     <row r="182">
@@ -6114,10 +6114,10 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0006868999989819713</v>
+        <v>0.0007112000021152198</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0007102999952621758</v>
+        <v>0.0006982999984757043</v>
       </c>
     </row>
     <row r="183">
@@ -6145,10 +6145,10 @@
         <v>3</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0007960000002640299</v>
+        <v>0.0008056999940890819</v>
       </c>
       <c r="I183" t="n">
-        <v>0.000778000001446344</v>
+        <v>0.0008047999945119955</v>
       </c>
     </row>
     <row r="184">
@@ -6176,10 +6176,10 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0006290000019362196</v>
+        <v>0.0006395000018528663</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0006366999950842001</v>
+        <v>0.0006502000032924116</v>
       </c>
     </row>
     <row r="185">
@@ -6207,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0006243000025278889</v>
+        <v>0.000647400003799703</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0006311999968602322</v>
+        <v>0.0007236000019474886</v>
       </c>
     </row>
     <row r="186">
@@ -6238,10 +6238,10 @@
         <v>4</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0009403000003658235</v>
+        <v>0.0009748000011313707</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0009420999995199963</v>
+        <v>0.0009704000040073879</v>
       </c>
     </row>
     <row r="187">
@@ -6269,10 +6269,10 @@
         <v>7</v>
       </c>
       <c r="H187" t="n">
-        <v>0.001240400000824593</v>
+        <v>0.001294100002269261</v>
       </c>
       <c r="I187" t="n">
-        <v>0.001228099994477816</v>
+        <v>0.001301199998124503</v>
       </c>
     </row>
     <row r="188">
@@ -6300,10 +6300,10 @@
         <v>7</v>
       </c>
       <c r="H188" t="n">
-        <v>0.001232700000400655</v>
+        <v>0.001300399999308866</v>
       </c>
       <c r="I188" t="n">
-        <v>0.001225600004545413</v>
+        <v>0.00127500000235159</v>
       </c>
     </row>
     <row r="189">
@@ -6331,10 +6331,10 @@
         <v>7</v>
       </c>
       <c r="H189" t="n">
-        <v>0.00121670000226004</v>
+        <v>0.001274700000067241</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001252099995326716</v>
+        <v>0.001279000003705733</v>
       </c>
     </row>
     <row r="190">
@@ -6362,10 +6362,10 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0006458999996539205</v>
+        <v>0.0006540000031236559</v>
       </c>
       <c r="I190" t="n">
-        <v>0.000629599999228958</v>
+        <v>0.0007398000016110018</v>
       </c>
     </row>
     <row r="191">
@@ -6393,10 +6393,10 @@
         <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0008977999968919903</v>
+        <v>0.0009514000048511662</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0009113999985856935</v>
+        <v>0.000945699997828342</v>
       </c>
     </row>
     <row r="192">
@@ -6424,10 +6424,10 @@
         <v>5</v>
       </c>
       <c r="H192" t="n">
-        <v>0.001666000003751833</v>
+        <v>0.001723699999274686</v>
       </c>
       <c r="I192" t="n">
-        <v>0.001655600004596636</v>
+        <v>0.001727999995637219</v>
       </c>
     </row>
     <row r="193">
@@ -6455,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.000731400003132876</v>
+        <v>0.0007907000035629608</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0007416000007651746</v>
+        <v>0.0007455000013578683</v>
       </c>
     </row>
     <row r="194">
@@ -6474,22 +6474,22 @@
         <v>792403</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>797055</v>
+        <v>797057</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>798965</v>
+        <v>798937</v>
       </c>
       <c r="F194" s="3" t="n">
+        <v>1271</v>
+      </c>
+      <c r="G194" s="3" t="n">
         <v>1270</v>
       </c>
-      <c r="G194" s="3" t="n">
-        <v>1277</v>
-      </c>
       <c r="H194" s="3" t="n">
-        <v>2.96828419999656</v>
+        <v>3.018543999998656</v>
       </c>
       <c r="I194" s="3" t="n">
-        <v>2.931471000047168</v>
+        <v>2.952250599970284</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:M194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -458,8 +458,12 @@
     <col width="39.7109375" customWidth="1" style="2" min="5" max="5"/>
     <col width="23.7109375" customWidth="1" style="2" min="6" max="6"/>
     <col width="34.7109375" customWidth="1" style="2" min="7" max="7"/>
-    <col width="25.7109375" customWidth="1" style="2" min="8" max="8"/>
-    <col width="36.7109375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="31.7109375" customWidth="1" style="2" min="8" max="8"/>
+    <col width="42.7109375" customWidth="1" style="2" min="9" max="9"/>
+    <col width="31.7109375" customWidth="1" style="2" min="10" max="10"/>
+    <col width="42.7109375" customWidth="1" style="2" min="11" max="11"/>
+    <col width="25.7109375" customWidth="1" style="2" min="12" max="12"/>
+    <col width="36.7109375" customWidth="1" style="2" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,10 +504,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>add_all_loop_encode_time_elapse</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>add_all_loop_with_empty_encode_time_elapse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>add_all_loop_solve_time_elapsed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>add_all_loop_with_empty_solve_time_elapsed</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>add_all_loop_time_elapsed</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>add_all_loop_with_empty_time_elapsed</t>
         </is>
@@ -519,13 +543,13 @@
         <v>1058</v>
       </c>
       <c r="C2" t="n">
-        <v>1060</v>
+        <v>1123</v>
       </c>
       <c r="D2" t="n">
         <v>1058</v>
       </c>
       <c r="E2" t="n">
-        <v>1060</v>
+        <v>1123</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -534,10 +558,22 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001248900000064168</v>
+        <v>0.0001907000005303416</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001120600005378947</v>
+        <v>0.0002038000002357876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001259500000742264</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.001208300000143936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001450200001272606</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001412100000379723</v>
       </c>
     </row>
     <row r="3">
@@ -550,13 +586,13 @@
         <v>1004</v>
       </c>
       <c r="C3" t="n">
-        <v>1012</v>
+        <v>1073</v>
       </c>
       <c r="D3" t="n">
         <v>1004</v>
       </c>
       <c r="E3" t="n">
-        <v>1012</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -565,10 +601,22 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001059000001987442</v>
+        <v>0.0002161000011255965</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001050899998517707</v>
+        <v>0.000261799999861978</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001088600000002771</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001597000000401749</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.001304700001128367</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.001858800000263727</v>
       </c>
     </row>
     <row r="4">
@@ -581,13 +629,13 @@
         <v>1058</v>
       </c>
       <c r="C4" t="n">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="D4" t="n">
         <v>1058</v>
       </c>
       <c r="E4" t="n">
-        <v>1064</v>
+        <v>1121</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -596,10 +644,22 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001588699997228105</v>
+        <v>0.0002303000001120381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001111400000809226</v>
+        <v>0.0002121000015904428</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00110310000127356</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.001172499998574494</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.001333400001385598</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.001384600000164937</v>
       </c>
     </row>
     <row r="5">
@@ -612,25 +672,37 @@
         <v>1011</v>
       </c>
       <c r="C5" t="n">
-        <v>1016</v>
+        <v>1081</v>
       </c>
       <c r="D5" t="n">
         <v>1017</v>
       </c>
       <c r="E5" t="n">
-        <v>1022</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001573499997903127</v>
+        <v>0.0002444000001560198</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001472600000852253</v>
+        <v>0.0002657000004546717</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001531600000816979</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002609900000607013</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.001776000000972999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.002875600001061684</v>
       </c>
     </row>
     <row r="6">
@@ -643,25 +715,37 @@
         <v>1035</v>
       </c>
       <c r="C6" t="n">
-        <v>1038</v>
+        <v>1102</v>
       </c>
       <c r="D6" t="n">
         <v>1037</v>
       </c>
       <c r="E6" t="n">
-        <v>1040</v>
+        <v>1102</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001272599998628721</v>
+        <v>0.0002331000014237361</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001175599994894583</v>
+        <v>0.0001775999990059063</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001193599999169237</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.001227099999596248</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.001426700000592973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.001404699998602155</v>
       </c>
     </row>
     <row r="7">
@@ -674,13 +758,13 @@
         <v>1161</v>
       </c>
       <c r="C7" t="n">
-        <v>1162</v>
+        <v>1212</v>
       </c>
       <c r="D7" t="n">
         <v>1165</v>
       </c>
       <c r="E7" t="n">
-        <v>1166</v>
+        <v>1216</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -689,10 +773,22 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001537800002552103</v>
+        <v>0.0002289000003656838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001436099999409635</v>
+        <v>0.0002796999997372041</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.001466800000343937</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.001466499999878579</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.001695700000709621</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001746199999615783</v>
       </c>
     </row>
     <row r="8">
@@ -705,13 +801,13 @@
         <v>1013</v>
       </c>
       <c r="C8" t="n">
-        <v>1017</v>
+        <v>1083</v>
       </c>
       <c r="D8" t="n">
         <v>1043</v>
       </c>
       <c r="E8" t="n">
-        <v>1047</v>
+        <v>1107</v>
       </c>
       <c r="F8" t="n">
         <v>11</v>
@@ -720,10 +816,22 @@
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00258429999666987</v>
+        <v>0.0002001000011659926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002698000003874768</v>
+        <v>0.000232000000323751</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002622800000608549</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002676799998880597</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.002822900001774542</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.002908799999204348</v>
       </c>
     </row>
     <row r="9">
@@ -736,25 +844,37 @@
         <v>1012</v>
       </c>
       <c r="C9" t="n">
-        <v>1016</v>
+        <v>1082</v>
       </c>
       <c r="D9" t="n">
         <v>1095</v>
       </c>
       <c r="E9" t="n">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F9" t="n">
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00485599999956321</v>
+        <v>0.0002193000000261236</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004831099999137223</v>
+        <v>0.0002261000008729752</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004964000001564273</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.001958699998795055</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.005183300001590396</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00218479999966803</v>
       </c>
     </row>
     <row r="10">
@@ -767,13 +887,13 @@
         <v>1015</v>
       </c>
       <c r="C10" t="n">
-        <v>1022</v>
+        <v>1083</v>
       </c>
       <c r="D10" t="n">
         <v>1019</v>
       </c>
       <c r="E10" t="n">
-        <v>1026</v>
+        <v>1087</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
@@ -782,10 +902,22 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001389200006087776</v>
+        <v>0.0002076999990094919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001408600001013838</v>
+        <v>0.00021530000049097</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00140579999970214</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.001449600000341889</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.001613499998711632</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.001664900000832858</v>
       </c>
     </row>
     <row r="11">
@@ -798,13 +930,13 @@
         <v>1015</v>
       </c>
       <c r="C11" t="n">
-        <v>1016</v>
+        <v>1086</v>
       </c>
       <c r="D11" t="n">
         <v>1015</v>
       </c>
       <c r="E11" t="n">
-        <v>1016</v>
+        <v>1086</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -813,10 +945,22 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001077600005373824</v>
+        <v>0.0001709000007394934</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001048199999786448</v>
+        <v>0.000177399999301997</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001041400000758586</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.001118100000894628</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.001212300001498079</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.001295500000196625</v>
       </c>
     </row>
     <row r="12">
@@ -829,25 +973,37 @@
         <v>986</v>
       </c>
       <c r="C12" t="n">
-        <v>993</v>
+        <v>1058</v>
       </c>
       <c r="D12" t="n">
         <v>995</v>
       </c>
       <c r="E12" t="n">
-        <v>1002</v>
+        <v>1072</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001447900001949165</v>
+        <v>0.0001706000002741348</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001446399997803383</v>
+        <v>0.0001951000012923032</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.001467899999624933</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.001784000000043306</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.001638499999899068</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.00197910000133561</v>
       </c>
     </row>
     <row r="13">
@@ -860,13 +1016,13 @@
         <v>1047</v>
       </c>
       <c r="C13" t="n">
-        <v>1053</v>
+        <v>1111</v>
       </c>
       <c r="D13" t="n">
         <v>1053</v>
       </c>
       <c r="E13" t="n">
-        <v>1059</v>
+        <v>1117</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -875,10 +1031,22 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001376100000925362</v>
+        <v>0.0001930999987962423</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001406299998052418</v>
+        <v>0.0002094999999826541</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.001408600001013838</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.001509499999883701</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00160169999981008</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001718999999866355</v>
       </c>
     </row>
     <row r="14">
@@ -891,25 +1059,37 @@
         <v>1151</v>
       </c>
       <c r="C14" t="n">
-        <v>1152</v>
+        <v>1204</v>
       </c>
       <c r="D14" t="n">
         <v>1154</v>
       </c>
       <c r="E14" t="n">
-        <v>1155</v>
+        <v>1211</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001402599998982623</v>
+        <v>0.0002290000011271331</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001419899999746121</v>
+        <v>0.0002322999989701202</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.001497100000051432</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.001625200000489713</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.001726100001178565</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.001857499999459833</v>
       </c>
     </row>
     <row r="15">
@@ -922,13 +1102,13 @@
         <v>1226</v>
       </c>
       <c r="C15" t="n">
-        <v>1226</v>
+        <v>1270</v>
       </c>
       <c r="D15" t="n">
         <v>1233</v>
       </c>
       <c r="E15" t="n">
-        <v>1233</v>
+        <v>1275</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -937,10 +1117,22 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001701600005617365</v>
+        <v>0.0002173000011680415</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001691400000709109</v>
+        <v>0.0002476000008755364</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001710100001218962</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.001675100000284147</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.001927400002387003</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.001922700001159683</v>
       </c>
     </row>
     <row r="16">
@@ -953,25 +1145,37 @@
         <v>1074</v>
       </c>
       <c r="C16" t="n">
-        <v>1077</v>
+        <v>1135</v>
       </c>
       <c r="D16" t="n">
         <v>1113</v>
       </c>
       <c r="E16" t="n">
-        <v>1116</v>
+        <v>1162</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.003698999993503094</v>
+        <v>0.0002211999999417458</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003666000004159287</v>
+        <v>0.0002604000001156237</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003707199999553268</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.003066400000534486</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003928399999495014</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00332680000065011</v>
       </c>
     </row>
     <row r="17">
@@ -984,13 +1188,13 @@
         <v>1086</v>
       </c>
       <c r="C17" t="n">
-        <v>1089</v>
+        <v>1146</v>
       </c>
       <c r="D17" t="n">
         <v>1099</v>
       </c>
       <c r="E17" t="n">
-        <v>1102</v>
+        <v>1159</v>
       </c>
       <c r="F17" t="n">
         <v>5</v>
@@ -999,10 +1203,22 @@
         <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001999400003114715</v>
+        <v>0.0002590000003692694</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001965199997357558</v>
+        <v>0.0002530000001570443</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.002045299999736017</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00205669999922975</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.002304300000105286</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.002309699999386794</v>
       </c>
     </row>
     <row r="18">
@@ -1015,25 +1231,37 @@
         <v>1081</v>
       </c>
       <c r="C18" t="n">
-        <v>1083</v>
+        <v>1142</v>
       </c>
       <c r="D18" t="n">
         <v>1081</v>
       </c>
       <c r="E18" t="n">
-        <v>1083</v>
+        <v>1154</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001252599999133963</v>
+        <v>0.000229600000238861</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001262100005988032</v>
+        <v>0.000200699998458731</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001262699999642791</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002167399999962072</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.001492299999881652</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.002368099998420803</v>
       </c>
     </row>
     <row r="19">
@@ -1046,13 +1274,13 @@
         <v>1166</v>
       </c>
       <c r="C19" t="n">
-        <v>1166</v>
+        <v>1217</v>
       </c>
       <c r="D19" t="n">
         <v>1177</v>
       </c>
       <c r="E19" t="n">
-        <v>1177</v>
+        <v>1227</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
@@ -1061,10 +1289,22 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001730399999360088</v>
+        <v>0.0002174000001105014</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001723299996228889</v>
+        <v>0.0002471000007062685</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001762199999575387</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.001786599999832106</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.001979599999685888</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.002033700000538374</v>
       </c>
     </row>
     <row r="20">
@@ -1077,25 +1317,37 @@
         <v>1119</v>
       </c>
       <c r="C20" t="n">
-        <v>1119</v>
+        <v>1176</v>
       </c>
       <c r="D20" t="n">
         <v>1129</v>
       </c>
       <c r="E20" t="n">
-        <v>1129</v>
+        <v>1185</v>
       </c>
       <c r="F20" t="n">
         <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001789399997505825</v>
+        <v>0.0002402999998594169</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001764599997841287</v>
+        <v>0.0002185000012104865</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.001784399999451125</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.001728499999444466</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.002024699999310542</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.001947000000654953</v>
       </c>
     </row>
     <row r="21">
@@ -1108,25 +1360,37 @@
         <v>1136</v>
       </c>
       <c r="C21" t="n">
-        <v>1136</v>
+        <v>1191</v>
       </c>
       <c r="D21" t="n">
         <v>1139</v>
       </c>
       <c r="E21" t="n">
-        <v>1139</v>
+        <v>1197</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001481899998907465</v>
+        <v>0.0002187999998568557</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001460600004065782</v>
+        <v>0.0002433000008750241</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001488800000515766</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.001811000000088825</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.001707600000372622</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.002054300000963849</v>
       </c>
     </row>
     <row r="22">
@@ -1139,25 +1403,37 @@
         <v>1142</v>
       </c>
       <c r="C22" t="n">
-        <v>1144</v>
+        <v>1196</v>
       </c>
       <c r="D22" t="n">
         <v>1146</v>
       </c>
       <c r="E22" t="n">
-        <v>1148</v>
+        <v>1196</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001411700002790894</v>
+        <v>0.0002279000000271481</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00142529999720864</v>
+        <v>0.0002312000015081139</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001415900000210968</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.001318299999184092</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.001643800000238116</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.001549500000692206</v>
       </c>
     </row>
     <row r="23">
@@ -1170,25 +1446,37 @@
         <v>1130</v>
       </c>
       <c r="C23" t="n">
-        <v>1130</v>
+        <v>1186</v>
       </c>
       <c r="D23" t="n">
         <v>1143</v>
       </c>
       <c r="E23" t="n">
-        <v>1143</v>
+        <v>1193</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001807900000130758</v>
+        <v>0.0002153999994334299</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001781300001312047</v>
+        <v>0.0002395000010437798</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.001826200001232792</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001559300000735675</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.002041600000666222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.001798800001779455</v>
       </c>
     </row>
     <row r="24">
@@ -1201,13 +1489,13 @@
         <v>1047</v>
       </c>
       <c r="C24" t="n">
-        <v>1053</v>
+        <v>1111</v>
       </c>
       <c r="D24" t="n">
         <v>1053</v>
       </c>
       <c r="E24" t="n">
-        <v>1059</v>
+        <v>1117</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
@@ -1216,10 +1504,22 @@
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001383900002110749</v>
+        <v>0.0001878999992186436</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001405900002282578</v>
+        <v>0.0001824999999371357</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.001413800000591436</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.001463000000512693</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00160169999981008</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.001645500000449829</v>
       </c>
     </row>
     <row r="25">
@@ -1232,25 +1532,37 @@
         <v>1141</v>
       </c>
       <c r="C25" t="n">
-        <v>1141</v>
+        <v>1196</v>
       </c>
       <c r="D25" t="n">
         <v>1153</v>
       </c>
       <c r="E25" t="n">
-        <v>1153</v>
+        <v>1203</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001747800000885036</v>
+        <v>0.0002048000005743233</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001729499999783002</v>
+        <v>0.000268300000243471</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.001859800000602263</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001531300000351621</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.002064600001176586</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.001799600000595092</v>
       </c>
     </row>
     <row r="26">
@@ -1263,13 +1575,13 @@
         <v>1127</v>
       </c>
       <c r="C26" t="n">
-        <v>1128</v>
+        <v>1183</v>
       </c>
       <c r="D26" t="n">
         <v>1134</v>
       </c>
       <c r="E26" t="n">
-        <v>1135</v>
+        <v>1189</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -1278,10 +1590,22 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001498800003901124</v>
+        <v>0.0002312999986315845</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001492099996539764</v>
+        <v>0.0002342000007047318</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.001505100000940729</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.001552899999296642</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.001736399999572313</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.001787100000001374</v>
       </c>
     </row>
     <row r="27">
@@ -1294,25 +1618,37 @@
         <v>1132</v>
       </c>
       <c r="C27" t="n">
-        <v>1136</v>
+        <v>1186</v>
       </c>
       <c r="D27" t="n">
         <v>1144</v>
       </c>
       <c r="E27" t="n">
-        <v>1148</v>
+        <v>1188</v>
       </c>
       <c r="F27" t="n">
         <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00212199999805307</v>
+        <v>0.0002306000005773967</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002125200000591576</v>
+        <v>0.0002366999997320818</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.002128899999661371</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001428800000212505</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.002359500000238768</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001665499999944586</v>
       </c>
     </row>
     <row r="28">
@@ -1325,25 +1661,37 @@
         <v>1125</v>
       </c>
       <c r="C28" t="n">
-        <v>1126</v>
+        <v>1181</v>
       </c>
       <c r="D28" t="n">
         <v>1138</v>
       </c>
       <c r="E28" t="n">
-        <v>1139</v>
+        <v>1191</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002489300000888761</v>
+        <v>0.0002287000006617745</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002492499996151309</v>
+        <v>0.0002501000017218757</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.002493899999535643</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.001893799999379553</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.002722600000197417</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.002143900001101429</v>
       </c>
     </row>
     <row r="29">
@@ -1356,25 +1704,37 @@
         <v>1169</v>
       </c>
       <c r="C29" t="n">
-        <v>1171</v>
+        <v>1219</v>
       </c>
       <c r="D29" t="n">
         <v>1175</v>
       </c>
       <c r="E29" t="n">
-        <v>1177</v>
+        <v>1221</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001459099999919999</v>
+        <v>0.0002217000001110137</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001474599994253367</v>
+        <v>0.00025400000049558</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.001490000000558211</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001405399998475332</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.001711700000669225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.001659399998970912</v>
       </c>
     </row>
     <row r="30">
@@ -1387,25 +1747,37 @@
         <v>1141</v>
       </c>
       <c r="C30" t="n">
-        <v>1143</v>
+        <v>1194</v>
       </c>
       <c r="D30" t="n">
         <v>1143</v>
       </c>
       <c r="E30" t="n">
-        <v>1145</v>
+        <v>1198</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001308799997786991</v>
+        <v>0.0002325999994354788</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001302800003031734</v>
+        <v>0.0002265999992232537</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.001305499999944004</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.001530999999886262</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.001538099999379483</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.001757599999109516</v>
       </c>
     </row>
     <row r="31">
@@ -1418,13 +1790,13 @@
         <v>1151</v>
       </c>
       <c r="C31" t="n">
-        <v>1152</v>
+        <v>1204</v>
       </c>
       <c r="D31" t="n">
         <v>1154</v>
       </c>
       <c r="E31" t="n">
-        <v>1155</v>
+        <v>1206</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -1433,10 +1805,22 @@
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001319299997703638</v>
+        <v>0.0002346000001125503</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001316499998210929</v>
+        <v>0.0002507999997760635</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001352100000076462</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001409399999829475</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.001586700000189012</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.001660199999605538</v>
       </c>
     </row>
     <row r="32">
@@ -1449,13 +1833,13 @@
         <v>1175</v>
       </c>
       <c r="C32" t="n">
-        <v>1177</v>
+        <v>1224</v>
       </c>
       <c r="D32" t="n">
         <v>1175</v>
       </c>
       <c r="E32" t="n">
-        <v>1177</v>
+        <v>1224</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1464,10 +1848,22 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0009453000020585023</v>
+        <v>0.0002186999990954064</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009558000019751489</v>
+        <v>0.0002293999987159623</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0009788000006665243</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.001016700000036508</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.001197499999761931</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00124609999875247</v>
       </c>
     </row>
     <row r="33">
@@ -1480,13 +1876,13 @@
         <v>1141</v>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>1195</v>
       </c>
       <c r="D33" t="n">
         <v>1148</v>
       </c>
       <c r="E33" t="n">
-        <v>1149</v>
+        <v>1200</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
@@ -1495,10 +1891,22 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001588300001458265</v>
+        <v>0.0002127999996446306</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001574100002471823</v>
+        <v>0.0002330999996047467</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001597500000571017</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.00172030000067025</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.001810300000215648</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.001953400000274996</v>
       </c>
     </row>
     <row r="34">
@@ -1511,13 +1919,13 @@
         <v>1141</v>
       </c>
       <c r="C34" t="n">
-        <v>1142</v>
+        <v>1195</v>
       </c>
       <c r="D34" t="n">
         <v>1148</v>
       </c>
       <c r="E34" t="n">
-        <v>1149</v>
+        <v>1200</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
@@ -1526,10 +1934,22 @@
         <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001564199999847915</v>
+        <v>0.0002381000012974255</v>
       </c>
       <c r="I34" t="n">
-        <v>0.001569899999594782</v>
+        <v>0.0002597000002424465</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.001615099999980885</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.001707700001134071</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.00185320000127831</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.001967400001376518</v>
       </c>
     </row>
     <row r="35">
@@ -1542,13 +1962,13 @@
         <v>1121</v>
       </c>
       <c r="C35" t="n">
-        <v>1121</v>
+        <v>1178</v>
       </c>
       <c r="D35" t="n">
         <v>1126</v>
       </c>
       <c r="E35" t="n">
-        <v>1126</v>
+        <v>1182</v>
       </c>
       <c r="F35" t="n">
         <v>2</v>
@@ -1557,10 +1977,22 @@
         <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001449800001864787</v>
+        <v>0.0002000999993470032</v>
       </c>
       <c r="I35" t="n">
-        <v>0.001417999999830499</v>
+        <v>0.0002410999986750539</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001464900000428315</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001487899999119691</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.001664999999775318</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.001728999997794745</v>
       </c>
     </row>
     <row r="36">
@@ -1573,25 +2005,37 @@
         <v>1135</v>
       </c>
       <c r="C36" t="n">
-        <v>1136</v>
+        <v>1190</v>
       </c>
       <c r="D36" t="n">
         <v>1153</v>
       </c>
       <c r="E36" t="n">
-        <v>1154</v>
+        <v>1211</v>
       </c>
       <c r="F36" t="n">
         <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001973200000065845</v>
+        <v>0.000239700000747689</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001941199996508658</v>
+        <v>0.0002660999998624902</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.00195249999887892</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.002156700000341516</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.002192199999626609</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.002422800000204006</v>
       </c>
     </row>
     <row r="37">
@@ -1604,25 +2048,37 @@
         <v>1106</v>
       </c>
       <c r="C37" t="n">
-        <v>1107</v>
+        <v>1165</v>
       </c>
       <c r="D37" t="n">
         <v>1109</v>
       </c>
       <c r="E37" t="n">
-        <v>1110</v>
+        <v>1169</v>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001267199993890245</v>
+        <v>0.0002380000005359761</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001255299997865222</v>
+        <v>0.0002518000001145992</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001325499999438762</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001506799999333452</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.001563499999974738</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.001758599999448052</v>
       </c>
     </row>
     <row r="38">
@@ -1635,25 +2091,37 @@
         <v>2449</v>
       </c>
       <c r="C38" t="n">
-        <v>2456</v>
+        <v>2584</v>
       </c>
       <c r="D38" t="n">
         <v>2465</v>
       </c>
       <c r="E38" t="n">
-        <v>2472</v>
+        <v>2616</v>
       </c>
       <c r="F38" t="n">
         <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>0.003994300001068041</v>
+        <v>0.0003204000004188856</v>
       </c>
       <c r="I38" t="n">
-        <v>0.004030000003695022</v>
+        <v>0.0003507000001263805</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.004068899999765563</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.006058700000721728</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.004389300000184448</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.006409400000848109</v>
       </c>
     </row>
     <row r="39">
@@ -1666,25 +2134,37 @@
         <v>2426</v>
       </c>
       <c r="C39" t="n">
-        <v>2441</v>
+        <v>2561</v>
       </c>
       <c r="D39" t="n">
         <v>2439</v>
       </c>
       <c r="E39" t="n">
-        <v>2454</v>
+        <v>2570</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003881600001477636</v>
+        <v>0.0003202999996574363</v>
       </c>
       <c r="I39" t="n">
-        <v>0.003933200001483783</v>
+        <v>0.000349499998264946</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.003959899999244954</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003458099999988917</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00428019999890239</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.003807599998253863</v>
       </c>
     </row>
     <row r="40">
@@ -1697,13 +2177,13 @@
         <v>2426</v>
       </c>
       <c r="C40" t="n">
-        <v>2430</v>
+        <v>2566</v>
       </c>
       <c r="D40" t="n">
         <v>2440</v>
       </c>
       <c r="E40" t="n">
-        <v>2444</v>
+        <v>2584</v>
       </c>
       <c r="F40" t="n">
         <v>5</v>
@@ -1712,10 +2192,22 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003862199999275617</v>
+        <v>0.0003035999998246552</v>
       </c>
       <c r="I40" t="n">
-        <v>0.003855199996905867</v>
+        <v>0.0003298999999969965</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.003879599998981575</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.005258099999991828</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.004183199998806231</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.005587999999988824</v>
       </c>
     </row>
     <row r="41">
@@ -1728,25 +2220,37 @@
         <v>2441</v>
       </c>
       <c r="C41" t="n">
-        <v>2447</v>
+        <v>2578</v>
       </c>
       <c r="D41" t="n">
         <v>2458</v>
       </c>
       <c r="E41" t="n">
-        <v>2464</v>
+        <v>2596</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003971600002842024</v>
+        <v>0.0002989999993587844</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003964600000472274</v>
+        <v>0.0003594000008888543</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.004020100001071114</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.00470099999984086</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.004319100000429899</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.005060400000729715</v>
       </c>
     </row>
     <row r="42">
@@ -1759,25 +2263,37 @@
         <v>2437</v>
       </c>
       <c r="C42" t="n">
-        <v>2446</v>
+        <v>2573</v>
       </c>
       <c r="D42" t="n">
         <v>2443</v>
       </c>
       <c r="E42" t="n">
-        <v>2452</v>
+        <v>2573</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00352990000101272</v>
+        <v>0.0003166000005876413</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00355219999619294</v>
+        <v>0.0003573000012693228</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.00361489999886544</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.002837899999576621</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.003931499999453081</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.003195200000845944</v>
       </c>
     </row>
     <row r="43">
@@ -1790,25 +2306,37 @@
         <v>2328</v>
       </c>
       <c r="C43" t="n">
-        <v>2332</v>
+        <v>2481</v>
       </c>
       <c r="D43" t="n">
         <v>2363</v>
       </c>
       <c r="E43" t="n">
-        <v>2367</v>
+        <v>2497</v>
       </c>
       <c r="F43" t="n">
         <v>13</v>
       </c>
       <c r="G43" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006448200001614168</v>
+        <v>0.0002782999999908498</v>
       </c>
       <c r="I43" t="n">
-        <v>0.006452099994930904</v>
+        <v>0.0003737000006367452</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.006557499998962157</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.004507199999352451</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.006835799998953007</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.004880899999989197</v>
       </c>
     </row>
     <row r="44">
@@ -1821,25 +2349,37 @@
         <v>2310</v>
       </c>
       <c r="C44" t="n">
-        <v>2319</v>
+        <v>2463</v>
       </c>
       <c r="D44" t="n">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="E44" t="n">
-        <v>2360</v>
+        <v>2499</v>
       </c>
       <c r="F44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01106710000021849</v>
+        <v>0.000315200000841287</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0236323999997694</v>
+        <v>0.0003581000000849599</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.008412299999690731</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.02439760000015667</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.008727500000532018</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02475570000024163</v>
       </c>
     </row>
     <row r="45">
@@ -1852,25 +2392,37 @@
         <v>2291</v>
       </c>
       <c r="C45" t="n">
-        <v>2304</v>
+        <v>2445</v>
       </c>
       <c r="D45" t="n">
         <v>2429</v>
       </c>
       <c r="E45" t="n">
-        <v>2442</v>
+        <v>2475</v>
       </c>
       <c r="F45" t="n">
         <v>41</v>
       </c>
       <c r="G45" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01542920000065351</v>
+        <v>0.0003144000002066605</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01543749999837019</v>
+        <v>0.0004446000002644723</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01580850000027567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.005994599998302874</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01612290000048233</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.006439199998567346</v>
       </c>
     </row>
     <row r="46">
@@ -1883,25 +2435,37 @@
         <v>2300</v>
       </c>
       <c r="C46" t="n">
-        <v>2309</v>
+        <v>2454</v>
       </c>
       <c r="D46" t="n">
         <v>2314</v>
       </c>
       <c r="E46" t="n">
-        <v>2323</v>
+        <v>2488</v>
       </c>
       <c r="F46" t="n">
         <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0035518000004231</v>
+        <v>0.000314899998556939</v>
       </c>
       <c r="I46" t="n">
-        <v>0.003532399998221081</v>
+        <v>0.000334399999701418</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.003475100000287057</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.006251499999052612</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.003789999998843996</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.00658589999875403</v>
       </c>
     </row>
     <row r="47">
@@ -1914,25 +2478,37 @@
         <v>2315</v>
       </c>
       <c r="C47" t="n">
-        <v>2324</v>
+        <v>2467</v>
       </c>
       <c r="D47" t="n">
         <v>2350</v>
       </c>
       <c r="E47" t="n">
-        <v>2359</v>
+        <v>2474</v>
       </c>
       <c r="F47" t="n">
         <v>14</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>0.006884000002173707</v>
+        <v>0.0002888999988499563</v>
       </c>
       <c r="I47" t="n">
-        <v>0.006886399998620618</v>
+        <v>0.0003424000005907146</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.006814899999881163</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003287100000306964</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.00710379999873112</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.003629500000897679</v>
       </c>
     </row>
     <row r="48">
@@ -1945,25 +2521,37 @@
         <v>2574</v>
       </c>
       <c r="C48" t="n">
-        <v>2576</v>
+        <v>2695</v>
       </c>
       <c r="D48" t="n">
         <v>2596</v>
       </c>
       <c r="E48" t="n">
-        <v>2598</v>
+        <v>2715</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>0.004895199999737088</v>
+        <v>0.0003306999988126336</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004927100002532825</v>
+        <v>0.000406900000598398</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.004920999999740161</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.005149299999175128</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.005251699998552795</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.005556199999773526</v>
       </c>
     </row>
     <row r="49">
@@ -1976,25 +2564,37 @@
         <v>2497</v>
       </c>
       <c r="C49" t="n">
-        <v>2501</v>
+        <v>2627</v>
       </c>
       <c r="D49" t="n">
         <v>2512</v>
       </c>
       <c r="E49" t="n">
-        <v>2516</v>
+        <v>2643</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004522399998677429</v>
+        <v>0.0003298999999969965</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004469999999855645</v>
+        <v>0.0004166999988228781</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.004502400001001661</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.004537100001471117</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.004832300000998657</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.004953800000293995</v>
       </c>
     </row>
     <row r="50">
@@ -2007,25 +2607,37 @@
         <v>2555</v>
       </c>
       <c r="C50" t="n">
-        <v>2557</v>
+        <v>2678</v>
       </c>
       <c r="D50" t="n">
         <v>2564</v>
       </c>
       <c r="E50" t="n">
-        <v>2566</v>
+        <v>2692</v>
       </c>
       <c r="F50" t="n">
         <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>0.003901000003679655</v>
+        <v>0.0003338000005896902</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003941700000723358</v>
+        <v>0.0003623000011430122</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.004052399999636691</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.004349400000137393</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.004386200000226381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.004711700001280406</v>
       </c>
     </row>
     <row r="51">
@@ -2038,13 +2650,13 @@
         <v>2505</v>
       </c>
       <c r="C51" t="n">
-        <v>2507</v>
+        <v>2635</v>
       </c>
       <c r="D51" t="n">
         <v>2520</v>
       </c>
       <c r="E51" t="n">
-        <v>2522</v>
+        <v>2648</v>
       </c>
       <c r="F51" t="n">
         <v>5</v>
@@ -2053,10 +2665,22 @@
         <v>5</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004344600005424581</v>
+        <v>0.0003066999997827224</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004383100000268314</v>
+        <v>0.0003533999988576397</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.004380100001071696</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.004329800000050454</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.004686800000854419</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.004683199998908094</v>
       </c>
     </row>
     <row r="52">
@@ -2069,25 +2693,37 @@
         <v>2565</v>
       </c>
       <c r="C52" t="n">
-        <v>2567</v>
+        <v>2687</v>
       </c>
       <c r="D52" t="n">
         <v>2595</v>
       </c>
       <c r="E52" t="n">
-        <v>2597</v>
+        <v>2696</v>
       </c>
       <c r="F52" t="n">
         <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>0.005773999997472856</v>
+        <v>0.0003113999991910532</v>
       </c>
       <c r="I52" t="n">
-        <v>0.005775799996627029</v>
+        <v>0.0003613999997469364</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.005714599999919301</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.004015799999251612</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.006025999999110354</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.004377199998998549</v>
       </c>
     </row>
     <row r="53">
@@ -2100,25 +2736,37 @@
         <v>2429</v>
       </c>
       <c r="C53" t="n">
-        <v>2432</v>
+        <v>2568</v>
       </c>
       <c r="D53" t="n">
         <v>2466</v>
       </c>
       <c r="E53" t="n">
-        <v>2469</v>
+        <v>2605</v>
       </c>
       <c r="F53" t="n">
         <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>0.006332099997962359</v>
+        <v>0.0003006999995704973</v>
       </c>
       <c r="I53" t="n">
-        <v>0.006282100002863444</v>
+        <v>0.0003604999983508606</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.00631480000083684</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.006032100000084029</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.006615500000407337</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.006392599998434889</v>
       </c>
     </row>
     <row r="54">
@@ -2131,25 +2779,37 @@
         <v>2560</v>
       </c>
       <c r="C54" t="n">
-        <v>2562</v>
+        <v>2683</v>
       </c>
       <c r="D54" t="n">
         <v>2574</v>
       </c>
       <c r="E54" t="n">
-        <v>2576</v>
+        <v>2688</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>0.004496800000197254</v>
+        <v>0.0003341999999975087</v>
       </c>
       <c r="I54" t="n">
-        <v>0.004528500001470093</v>
+        <v>0.0003890999996656319</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.004654500000469852</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.003676500000437954</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.004988700000467361</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.004065600000103586</v>
       </c>
     </row>
     <row r="55">
@@ -2162,25 +2822,37 @@
         <v>2500</v>
       </c>
       <c r="C55" t="n">
-        <v>2503</v>
+        <v>2629</v>
       </c>
       <c r="D55" t="n">
         <v>2514</v>
       </c>
       <c r="E55" t="n">
-        <v>2517</v>
+        <v>2635</v>
       </c>
       <c r="F55" t="n">
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>0.003916499998013023</v>
+        <v>0.0003279000011389144</v>
       </c>
       <c r="I55" t="n">
-        <v>0.003960000001825392</v>
+        <v>0.0004125999985262752</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.004101399999854038</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.003644599999461207</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.004429300000992953</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.004057199997987482</v>
       </c>
     </row>
     <row r="56">
@@ -2193,13 +2865,13 @@
         <v>2489</v>
       </c>
       <c r="C56" t="n">
-        <v>2491</v>
+        <v>2621</v>
       </c>
       <c r="D56" t="n">
         <v>2499</v>
       </c>
       <c r="E56" t="n">
-        <v>2501</v>
+        <v>2627</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
@@ -2208,10 +2880,22 @@
         <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003614199995354284</v>
+        <v>0.0003155999984301161</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00361739999789279</v>
+        <v>0.0003446000009716954</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.003676700000141864</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003838399999949615</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.00399229999857198</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.004183000000921311</v>
       </c>
     </row>
     <row r="57">
@@ -2224,25 +2908,37 @@
         <v>2576</v>
       </c>
       <c r="C57" t="n">
-        <v>2576</v>
+        <v>2698</v>
       </c>
       <c r="D57" t="n">
         <v>2608</v>
       </c>
       <c r="E57" t="n">
-        <v>2608</v>
+        <v>2715</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>0.005749000003561378</v>
+        <v>0.0003372999999555759</v>
       </c>
       <c r="I57" t="n">
-        <v>0.005747800001699943</v>
+        <v>0.0003770000002987217</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.006016100000124425</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.005328500001269276</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.006353400000080001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.005705500001567998</v>
       </c>
     </row>
     <row r="58">
@@ -2255,25 +2951,37 @@
         <v>2516</v>
       </c>
       <c r="C58" t="n">
-        <v>2516</v>
+        <v>2644</v>
       </c>
       <c r="D58" t="n">
         <v>2533</v>
       </c>
       <c r="E58" t="n">
-        <v>2533</v>
+        <v>2652</v>
       </c>
       <c r="F58" t="n">
         <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>0.004713099995569792</v>
+        <v>0.0003250999998272164</v>
       </c>
       <c r="I58" t="n">
-        <v>0.004793799998878967</v>
+        <v>0.0003756999994948274</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.004838499999095802</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.004380399999718065</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.005163599998923019</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.004756099999212893</v>
       </c>
     </row>
     <row r="59">
@@ -2286,25 +2994,37 @@
         <v>2620</v>
       </c>
       <c r="C59" t="n">
-        <v>2623</v>
+        <v>2735</v>
       </c>
       <c r="D59" t="n">
         <v>2640</v>
       </c>
       <c r="E59" t="n">
-        <v>2643</v>
+        <v>2747</v>
       </c>
       <c r="F59" t="n">
         <v>7</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>0.004787799996847752</v>
+        <v>0.000343300000167801</v>
       </c>
       <c r="I59" t="n">
-        <v>0.004765099998621736</v>
+        <v>0.0003828000008070376</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.004848299999139272</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.003995600000052946</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.005191599999307073</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.004378400000859983</v>
       </c>
     </row>
     <row r="60">
@@ -2317,25 +3037,37 @@
         <v>4445</v>
       </c>
       <c r="C60" t="n">
-        <v>4456</v>
+        <v>4674</v>
       </c>
       <c r="D60" t="n">
         <v>4503</v>
       </c>
       <c r="E60" t="n">
-        <v>4514</v>
+        <v>4686</v>
       </c>
       <c r="F60" t="n">
         <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01223200000094948</v>
+        <v>0.0004714999995485414</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01227959999960149</v>
+        <v>0.000491400000100839</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01254790000166395</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.007125099999029771</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01301940000121249</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.00761649999913061</v>
       </c>
     </row>
     <row r="61">
@@ -2348,25 +3080,37 @@
         <v>4416</v>
       </c>
       <c r="C61" t="n">
-        <v>4426</v>
+        <v>4649</v>
       </c>
       <c r="D61" t="n">
         <v>4489</v>
       </c>
       <c r="E61" t="n">
-        <v>4499</v>
+        <v>4754</v>
       </c>
       <c r="F61" t="n">
         <v>33</v>
       </c>
       <c r="G61" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02438149999943562</v>
+        <v>0.0004329999992478406</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02423579999594949</v>
+        <v>0.0005239000001893146</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0254477999988012</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.03114590000041062</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.02588079999804904</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.03166980000059993</v>
       </c>
     </row>
     <row r="62">
@@ -2379,25 +3123,37 @@
         <v>4406</v>
       </c>
       <c r="C62" t="n">
-        <v>4425</v>
+        <v>4636</v>
       </c>
       <c r="D62" t="n">
         <v>4436</v>
       </c>
       <c r="E62" t="n">
-        <v>4455</v>
+        <v>4639</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
       </c>
       <c r="G62" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01031389999843668</v>
+        <v>0.0004833999992115423</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01013880000391509</v>
+        <v>0.0005461000000650529</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01037399999950139</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.006030800001099124</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.01085739999871294</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.006576900001164177</v>
       </c>
     </row>
     <row r="63">
@@ -2410,25 +3166,37 @@
         <v>4393</v>
       </c>
       <c r="C63" t="n">
-        <v>4415</v>
+        <v>4623</v>
       </c>
       <c r="D63" t="n">
         <v>4429</v>
       </c>
       <c r="E63" t="n">
-        <v>4451</v>
+        <v>4665</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
       </c>
       <c r="G63" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01030380000156583</v>
+        <v>0.0003818000004685018</v>
       </c>
       <c r="I63" t="n">
-        <v>0.02592260000528768</v>
+        <v>0.0004977999997208826</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.02706849999958649</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.01300689999879978</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.02745030000005499</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01350469999852066</v>
       </c>
     </row>
     <row r="64">
@@ -2441,25 +3209,37 @@
         <v>4414</v>
       </c>
       <c r="C64" t="n">
-        <v>4426</v>
+        <v>4647</v>
       </c>
       <c r="D64" t="n">
         <v>4431</v>
       </c>
       <c r="E64" t="n">
-        <v>4443</v>
+        <v>4673</v>
       </c>
       <c r="F64" t="n">
         <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>0.006898800005728845</v>
+        <v>0.0004071999992447672</v>
       </c>
       <c r="I64" t="n">
-        <v>0.007196899998234585</v>
+        <v>0.0004767999998875894</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.00705030000062834</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.008143099999870174</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.007457499999873107</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.008619899999757763</v>
       </c>
     </row>
     <row r="65">
@@ -2472,25 +3252,37 @@
         <v>4151</v>
       </c>
       <c r="C65" t="n">
-        <v>4170</v>
+        <v>4415</v>
       </c>
       <c r="D65" t="n">
         <v>4221</v>
       </c>
       <c r="E65" t="n">
-        <v>4240</v>
+        <v>4457</v>
       </c>
       <c r="F65" t="n">
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01273499999660999</v>
+        <v>0.0003473999986454146</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01269100000354229</v>
+        <v>0.000438300001405878</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.01258049999887589</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.01275539999915054</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01292789999752131</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01319370000055642</v>
       </c>
     </row>
     <row r="66">
@@ -2503,25 +3295,37 @@
         <v>4222</v>
       </c>
       <c r="C66" t="n">
-        <v>4234</v>
+        <v>4480</v>
       </c>
       <c r="D66" t="n">
         <v>4299</v>
       </c>
       <c r="E66" t="n">
-        <v>4311</v>
+        <v>4563</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01245480000216048</v>
+        <v>0.0003552000016497914</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01263910000125179</v>
+        <v>0.0004527999990386888</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01246489999903133</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01830300000074203</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01282010000068112</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.01875579999978072</v>
       </c>
     </row>
     <row r="67">
@@ -2534,25 +3338,37 @@
         <v>4640</v>
       </c>
       <c r="C67" t="n">
-        <v>4646</v>
+        <v>4844</v>
       </c>
       <c r="D67" t="n">
         <v>4657</v>
       </c>
       <c r="E67" t="n">
-        <v>4663</v>
+        <v>4855</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="n">
-        <v>0.006802399999287445</v>
+        <v>0.000422499999331194</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006800600000133272</v>
+        <v>0.000500300000567222</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.006946599998627789</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.007566599999336177</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.007369099997958983</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.008066899999903399</v>
       </c>
     </row>
     <row r="68">
@@ -2565,25 +3381,37 @@
         <v>4406</v>
       </c>
       <c r="C68" t="n">
-        <v>4411</v>
+        <v>4641</v>
       </c>
       <c r="D68" t="n">
         <v>4438</v>
       </c>
       <c r="E68" t="n">
-        <v>4443</v>
+        <v>4657</v>
       </c>
       <c r="F68" t="n">
         <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>0.01000249999924563</v>
+        <v>0.0003904999994119862</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01022089999605669</v>
+        <v>0.0005944000004092231</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.00991490000160411</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.008275700000012876</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0103054000010161</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.008870100000422099</v>
       </c>
     </row>
     <row r="69">
@@ -2596,13 +3424,13 @@
         <v>4585</v>
       </c>
       <c r="C69" t="n">
-        <v>4595</v>
+        <v>4795</v>
       </c>
       <c r="D69" t="n">
         <v>4596</v>
       </c>
       <c r="E69" t="n">
-        <v>4606</v>
+        <v>4801</v>
       </c>
       <c r="F69" t="n">
         <v>3</v>
@@ -2611,10 +3439,22 @@
         <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005807299996376969</v>
+        <v>0.0004040000003442401</v>
       </c>
       <c r="I69" t="n">
-        <v>0.005803000000014435</v>
+        <v>0.000558600000658771</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.005653000000165775</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.005814299998746719</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.006057000000510016</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.00637289999940549</v>
       </c>
     </row>
     <row r="70">
@@ -2627,25 +3467,37 @@
         <v>4590</v>
       </c>
       <c r="C70" t="n">
-        <v>4597</v>
+        <v>4801</v>
       </c>
       <c r="D70" t="n">
         <v>4595</v>
       </c>
       <c r="E70" t="n">
-        <v>4602</v>
+        <v>4808</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>0.005379199996241368</v>
+        <v>0.000400400000216905</v>
       </c>
       <c r="I70" t="n">
-        <v>0.005394200001319405</v>
+        <v>0.0005436999999801628</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.005271600000924082</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.006083400001443806</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.005672000001140987</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.006627100001423969</v>
       </c>
     </row>
     <row r="71">
@@ -2658,25 +3510,37 @@
         <v>4585</v>
       </c>
       <c r="C71" t="n">
-        <v>4595</v>
+        <v>4796</v>
       </c>
       <c r="D71" t="n">
         <v>4628</v>
       </c>
       <c r="E71" t="n">
-        <v>4638</v>
+        <v>4827</v>
       </c>
       <c r="F71" t="n">
         <v>8</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" t="n">
-        <v>0.009666199999628589</v>
+        <v>0.0004373000010673422</v>
       </c>
       <c r="I71" t="n">
-        <v>0.009696900000562891</v>
+        <v>0.0004850999994232552</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.009534099999655155</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.00947719999930996</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.009971400000722497</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.009962299998733215</v>
       </c>
     </row>
     <row r="72">
@@ -2689,25 +3553,37 @@
         <v>4770</v>
       </c>
       <c r="C72" t="n">
-        <v>4772</v>
+        <v>4961</v>
       </c>
       <c r="D72" t="n">
         <v>4794</v>
       </c>
       <c r="E72" t="n">
-        <v>4796</v>
+        <v>4976</v>
       </c>
       <c r="F72" t="n">
         <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007624600002600346</v>
+        <v>0.0004589999989548232</v>
       </c>
       <c r="I72" t="n">
-        <v>0.007657400004973169</v>
+        <v>0.0005220000002736924</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.007523599999331054</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.007090099999913946</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.007982599998285878</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.007612100000187638</v>
       </c>
     </row>
     <row r="73">
@@ -2720,25 +3596,37 @@
         <v>4400</v>
       </c>
       <c r="C73" t="n">
-        <v>4407</v>
+        <v>4637</v>
       </c>
       <c r="D73" t="n">
         <v>4454</v>
       </c>
       <c r="E73" t="n">
-        <v>4461</v>
+        <v>4671</v>
       </c>
       <c r="F73" t="n">
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01208420000330079</v>
+        <v>0.0003806999993685167</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01225920000433689</v>
+        <v>0.0004579999986162875</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.01199230000020179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01141350000034436</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01237299999957031</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.01187149999896064</v>
       </c>
     </row>
     <row r="74">
@@ -2751,25 +3639,37 @@
         <v>4515</v>
       </c>
       <c r="C74" t="n">
-        <v>4519</v>
+        <v>4738</v>
       </c>
       <c r="D74" t="n">
         <v>4553</v>
       </c>
       <c r="E74" t="n">
-        <v>4557</v>
+        <v>4761</v>
       </c>
       <c r="F74" t="n">
         <v>7</v>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>0.01034879999497207</v>
+        <v>0.0003973000002588378</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02543819999846164</v>
+        <v>0.0004670999987865798</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01017959999990126</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.01034299999992072</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.01057690000016009</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0108100999987073</v>
       </c>
     </row>
     <row r="75">
@@ -2782,25 +3682,37 @@
         <v>4514</v>
       </c>
       <c r="C75" t="n">
-        <v>4518</v>
+        <v>4737</v>
       </c>
       <c r="D75" t="n">
         <v>4551</v>
       </c>
       <c r="E75" t="n">
-        <v>4555</v>
+        <v>4752</v>
       </c>
       <c r="F75" t="n">
         <v>8</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01182110000081593</v>
+        <v>0.0004344000008131843</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01185670000268146</v>
+        <v>0.0005414000006567221</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0118968999995559</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.008976400000392459</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.01233130000036908</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.009517800001049181</v>
       </c>
     </row>
     <row r="76">
@@ -2813,25 +3725,37 @@
         <v>4500</v>
       </c>
       <c r="C76" t="n">
-        <v>4502</v>
+        <v>4726</v>
       </c>
       <c r="D76" t="n">
         <v>4547</v>
       </c>
       <c r="E76" t="n">
-        <v>4549</v>
+        <v>4755</v>
       </c>
       <c r="F76" t="n">
         <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01381869999750052</v>
+        <v>0.000426500000685337</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01384259999758797</v>
+        <v>0.0005184000001463573</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01403260000006412</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01251289999891014</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.01445910000074946</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0130312999990565</v>
       </c>
     </row>
     <row r="77">
@@ -2844,25 +3768,37 @@
         <v>4388</v>
       </c>
       <c r="C77" t="n">
-        <v>4392</v>
+        <v>4626</v>
       </c>
       <c r="D77" t="n">
         <v>4423</v>
       </c>
       <c r="E77" t="n">
-        <v>4427</v>
+        <v>4635</v>
       </c>
       <c r="F77" t="n">
         <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01004259999899659</v>
+        <v>0.0004102000002603745</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01026350000029197</v>
+        <v>0.0005338999999366933</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.0102751000013086</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.007118200001059449</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01068530000156898</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.007652100000996143</v>
       </c>
     </row>
     <row r="78">
@@ -2875,25 +3811,37 @@
         <v>4649</v>
       </c>
       <c r="C78" t="n">
-        <v>4657</v>
+        <v>4853</v>
       </c>
       <c r="D78" t="n">
         <v>4679</v>
       </c>
       <c r="E78" t="n">
-        <v>4687</v>
+        <v>4888</v>
       </c>
       <c r="F78" t="n">
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H78" t="n">
-        <v>0.009095299996261019</v>
+        <v>0.0004384000003483379</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009115000000747386</v>
+        <v>0.0005459000003611436</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.009276000000681961</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01122270000087155</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.009714400001030299</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0117686000012327</v>
       </c>
     </row>
     <row r="79">
@@ -2906,25 +3854,37 @@
         <v>6652</v>
       </c>
       <c r="C79" t="n">
-        <v>6659</v>
+        <v>7001</v>
       </c>
       <c r="D79" t="n">
         <v>6722</v>
       </c>
       <c r="E79" t="n">
-        <v>6729</v>
+        <v>7060</v>
       </c>
       <c r="F79" t="n">
         <v>11</v>
       </c>
       <c r="G79" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01999179999984335</v>
+        <v>0.0004981000001862412</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01974060000065947</v>
+        <v>0.0006322999997792067</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.03776420000031067</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.01864620000014838</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.03826230000049691</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.01927849999992759</v>
       </c>
     </row>
     <row r="80">
@@ -2937,25 +3897,37 @@
         <v>7055</v>
       </c>
       <c r="C80" t="n">
-        <v>7074</v>
+        <v>7398</v>
       </c>
       <c r="D80" t="n">
         <v>7099</v>
       </c>
       <c r="E80" t="n">
-        <v>7118</v>
+        <v>7430</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>0.01848020000034012</v>
+        <v>0.0006092999992688419</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01859479999984615</v>
+        <v>0.0007112000002962304</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01875509999990754</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01445090000015625</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01936439999917638</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01516210000045248</v>
       </c>
     </row>
     <row r="81">
@@ -2968,25 +3940,37 @@
         <v>6987</v>
       </c>
       <c r="C81" t="n">
-        <v>7013</v>
+        <v>7335</v>
       </c>
       <c r="D81" t="n">
         <v>7067</v>
       </c>
       <c r="E81" t="n">
-        <v>7093</v>
+        <v>7356</v>
       </c>
       <c r="F81" t="n">
         <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02744000000529923</v>
+        <v>0.0005089999995107064</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02756200000294484</v>
+        <v>0.0006880999990244163</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02708749999874271</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01500429999941844</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.02759649999825342</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01569239999844285</v>
       </c>
     </row>
     <row r="82">
@@ -2999,25 +3983,37 @@
         <v>7020</v>
       </c>
       <c r="C82" t="n">
-        <v>7041</v>
+        <v>7367</v>
       </c>
       <c r="D82" t="n">
         <v>7076</v>
       </c>
       <c r="E82" t="n">
-        <v>7097</v>
+        <v>7414</v>
       </c>
       <c r="F82" t="n">
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02200720000109868</v>
+        <v>0.0005218999995122431</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02241199999843957</v>
+        <v>0.0006659999999101274</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02145259999997506</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01898660000006203</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.02197449999948731</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01965259999997215</v>
       </c>
     </row>
     <row r="83">
@@ -3030,25 +4026,37 @@
         <v>6977</v>
       </c>
       <c r="C83" t="n">
-        <v>6994</v>
+        <v>7331</v>
       </c>
       <c r="D83" t="n">
         <v>7044</v>
       </c>
       <c r="E83" t="n">
-        <v>7061</v>
+        <v>7362</v>
       </c>
       <c r="F83" t="n">
         <v>12</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03719650000130059</v>
+        <v>0.0005154000009497395</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02107519999844953</v>
+        <v>0.0007078999988152646</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02041429999917455</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01591640000151529</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.02092970000012428</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.01662430000033055</v>
       </c>
     </row>
     <row r="84">
@@ -3061,25 +4069,37 @@
         <v>6961</v>
       </c>
       <c r="C84" t="n">
-        <v>6989</v>
+        <v>7312</v>
       </c>
       <c r="D84" t="n">
         <v>6988</v>
       </c>
       <c r="E84" t="n">
-        <v>7016</v>
+        <v>7329</v>
       </c>
       <c r="F84" t="n">
         <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01512039999943227</v>
+        <v>0.0005221000010351418</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01510579999740003</v>
+        <v>0.0007020000011834782</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.014942499999961</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.01234199999998964</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.01546460000099614</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.01304400000117312</v>
       </c>
     </row>
     <row r="85">
@@ -3092,13 +4112,13 @@
         <v>6579</v>
       </c>
       <c r="C85" t="n">
-        <v>6601</v>
+        <v>6984</v>
       </c>
       <c r="D85" t="n">
         <v>6727</v>
       </c>
       <c r="E85" t="n">
-        <v>6749</v>
+        <v>7129</v>
       </c>
       <c r="F85" t="n">
         <v>18</v>
@@ -3107,10 +4127,22 @@
         <v>18</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03383000000030734</v>
+        <v>0.0004544000003079418</v>
       </c>
       <c r="I85" t="n">
-        <v>0.03373740000097314</v>
+        <v>0.0006038000010448741</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03305530000034196</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.03264430000126595</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0335097000006499</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.03324810000231082</v>
       </c>
     </row>
     <row r="86">
@@ -3123,25 +4155,37 @@
         <v>6620</v>
       </c>
       <c r="C86" t="n">
-        <v>6639</v>
+        <v>7021</v>
       </c>
       <c r="D86" t="n">
         <v>6805</v>
       </c>
       <c r="E86" t="n">
-        <v>6824</v>
+        <v>7113</v>
       </c>
       <c r="F86" t="n">
         <v>46</v>
       </c>
       <c r="G86" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06204509999952279</v>
+        <v>0.0005000000001018634</v>
       </c>
       <c r="I86" t="n">
-        <v>0.06103910000092583</v>
+        <v>0.0007173000012699049</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.07883380000021134</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.02723729999888747</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0793338000003132</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.02795460000015737</v>
       </c>
     </row>
     <row r="87">
@@ -3154,25 +4198,37 @@
         <v>6652</v>
       </c>
       <c r="C87" t="n">
-        <v>6659</v>
+        <v>7001</v>
       </c>
       <c r="D87" t="n">
         <v>6744</v>
       </c>
       <c r="E87" t="n">
-        <v>6751</v>
+        <v>7061</v>
       </c>
       <c r="F87" t="n">
         <v>14</v>
       </c>
       <c r="G87" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02313560000038706</v>
+        <v>0.0005002999987482326</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0230572000000393</v>
+        <v>0.0006232000014279038</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02298649999829649</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.02192329999888898</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.02348679999704473</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.02254650000031688</v>
       </c>
     </row>
     <row r="88">
@@ -3185,25 +4241,37 @@
         <v>8412</v>
       </c>
       <c r="C88" t="n">
-        <v>8424</v>
+        <v>8834</v>
       </c>
       <c r="D88" t="n">
         <v>8478</v>
       </c>
       <c r="E88" t="n">
-        <v>8490</v>
+        <v>8870</v>
       </c>
       <c r="F88" t="n">
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02770769999915501</v>
+        <v>0.0006140000004961621</v>
       </c>
       <c r="I88" t="n">
-        <v>0.02772610000101849</v>
+        <v>0.0007798999995429767</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02715249999891967</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01980059999914374</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.02776649999941583</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.02058049999868672</v>
       </c>
     </row>
     <row r="89">
@@ -3216,13 +4284,13 @@
         <v>8437</v>
       </c>
       <c r="C89" t="n">
-        <v>8446</v>
+        <v>8859</v>
       </c>
       <c r="D89" t="n">
         <v>8472</v>
       </c>
       <c r="E89" t="n">
-        <v>8481</v>
+        <v>8886</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
@@ -3231,10 +4299,22 @@
         <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0181211999952211</v>
+        <v>0.000621000001046923</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01808480000181589</v>
+        <v>0.0007458000000042375</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01763489999939338</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0181243999995786</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.01825590000044031</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.01887019999958284</v>
       </c>
     </row>
     <row r="90">
@@ -3247,25 +4327,37 @@
         <v>8530</v>
       </c>
       <c r="C90" t="n">
-        <v>8540</v>
+        <v>8937</v>
       </c>
       <c r="D90" t="n">
         <v>8599</v>
       </c>
       <c r="E90" t="n">
-        <v>8609</v>
+        <v>8962</v>
       </c>
       <c r="F90" t="n">
         <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>0.04332389999763109</v>
+        <v>0.0006002999998599989</v>
       </c>
       <c r="I90" t="n">
-        <v>0.02652420000231359</v>
+        <v>0.0007636999998794636</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02586559999872406</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.019378200000574</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.02646589999858406</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.02014190000045346</v>
       </c>
     </row>
     <row r="91">
@@ -3278,25 +4370,37 @@
         <v>8374</v>
       </c>
       <c r="C91" t="n">
-        <v>8385</v>
+        <v>8801</v>
       </c>
       <c r="D91" t="n">
         <v>8426</v>
       </c>
       <c r="E91" t="n">
-        <v>8437</v>
+        <v>8859</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02384419999725651</v>
+        <v>0.0006182999986776849</v>
       </c>
       <c r="I91" t="n">
-        <v>0.02366139999503503</v>
+        <v>0.0007760999997117324</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02360200000111945</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0245188999997481</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.02422029999979713</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.02529499999945983</v>
       </c>
     </row>
     <row r="92">
@@ -3309,25 +4413,37 @@
         <v>8310</v>
       </c>
       <c r="C92" t="n">
-        <v>8320</v>
+        <v>8747</v>
       </c>
       <c r="D92" t="n">
         <v>8373</v>
       </c>
       <c r="E92" t="n">
-        <v>8383</v>
+        <v>8796</v>
       </c>
       <c r="F92" t="n">
         <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>0.02063210000051185</v>
+        <v>0.0006027999988873489</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02076529999612831</v>
+        <v>0.0008225000001402805</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.03807340000093973</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.02130840000063472</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.03867619999982708</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.022130900000775</v>
       </c>
     </row>
     <row r="93">
@@ -3340,25 +4456,37 @@
         <v>8396</v>
       </c>
       <c r="C93" t="n">
-        <v>8404</v>
+        <v>8821</v>
       </c>
       <c r="D93" t="n">
         <v>8460</v>
       </c>
       <c r="E93" t="n">
-        <v>8468</v>
+        <v>8861</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
       </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02292769999621669</v>
+        <v>0.0006254999989323551</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02305149999301648</v>
+        <v>0.0007626999995409278</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02341230000092764</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.02018189999944298</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.02403779999986</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.0209445999989839</v>
       </c>
     </row>
     <row r="94">
@@ -3371,25 +4499,37 @@
         <v>8615</v>
       </c>
       <c r="C94" t="n">
-        <v>8624</v>
+        <v>9013</v>
       </c>
       <c r="D94" t="n">
         <v>8677</v>
       </c>
       <c r="E94" t="n">
-        <v>8686</v>
+        <v>9049</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01944570000341628</v>
+        <v>0.0006083000007492956</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01948480000282871</v>
+        <v>0.0008445999992545694</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01899459999913233</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.01509950000036042</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.01960289999988163</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.01594409999961499</v>
       </c>
     </row>
     <row r="95">
@@ -3402,25 +4542,37 @@
         <v>8611</v>
       </c>
       <c r="C95" t="n">
-        <v>8623</v>
+        <v>9006</v>
       </c>
       <c r="D95" t="n">
         <v>8671</v>
       </c>
       <c r="E95" t="n">
-        <v>8683</v>
+        <v>9037</v>
       </c>
       <c r="F95" t="n">
         <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01982629999838537</v>
+        <v>0.0006126999996922677</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03625149999425048</v>
+        <v>0.0008280999991256977</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.020273799998904</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.01771569999982603</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.02088649999859626</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.01854379999895173</v>
       </c>
     </row>
     <row r="96">
@@ -3433,25 +4585,37 @@
         <v>8807</v>
       </c>
       <c r="C96" t="n">
-        <v>8814</v>
+        <v>9178</v>
       </c>
       <c r="D96" t="n">
         <v>8824</v>
       </c>
       <c r="E96" t="n">
-        <v>8831</v>
+        <v>9190</v>
       </c>
       <c r="F96" t="n">
         <v>4</v>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01273859999491833</v>
+        <v>0.0007907000017439714</v>
       </c>
       <c r="I96" t="n">
-        <v>0.01263789999939036</v>
+        <v>0.001056499999322114</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.01341010000032838</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.01960529999996652</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.01420080000207236</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.02066179999928863</v>
       </c>
     </row>
     <row r="97">
@@ -3464,25 +4628,37 @@
         <v>8700</v>
       </c>
       <c r="C97" t="n">
-        <v>8711</v>
+        <v>9085</v>
       </c>
       <c r="D97" t="n">
         <v>8746</v>
       </c>
       <c r="E97" t="n">
-        <v>8757</v>
+        <v>9120</v>
       </c>
       <c r="F97" t="n">
         <v>7</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01759550000133459</v>
+        <v>0.0007303999991563614</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01769440000498435</v>
+        <v>0.0008586000003560912</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01945040000100562</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.03884240000115824</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.02018080000016198</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.03970100000151433</v>
       </c>
     </row>
     <row r="98">
@@ -3495,13 +4671,13 @@
         <v>8699</v>
       </c>
       <c r="C98" t="n">
-        <v>8712</v>
+        <v>9085</v>
       </c>
       <c r="D98" t="n">
         <v>8712</v>
       </c>
       <c r="E98" t="n">
-        <v>8725</v>
+        <v>9098</v>
       </c>
       <c r="F98" t="n">
         <v>3</v>
@@ -3510,10 +4686,22 @@
         <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>0.01178459999937331</v>
+        <v>0.0006668000005447539</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01175330000114627</v>
+        <v>0.001161000000138301</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.01334709999900952</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.01759780000065803</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.01401389999955427</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.01875880000079633</v>
       </c>
     </row>
     <row r="99">
@@ -3526,25 +4714,37 @@
         <v>8412</v>
       </c>
       <c r="C99" t="n">
-        <v>8424</v>
+        <v>8834</v>
       </c>
       <c r="D99" t="n">
         <v>8478</v>
       </c>
       <c r="E99" t="n">
-        <v>8490</v>
+        <v>8870</v>
       </c>
       <c r="F99" t="n">
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02696330000617309</v>
+        <v>0.000885299999936251</v>
       </c>
       <c r="I99" t="n">
-        <v>0.02710859999933746</v>
+        <v>0.0009721999995235819</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03337550000105693</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.02461650000077498</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.03426080000099319</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.02558870000029856</v>
       </c>
     </row>
     <row r="100">
@@ -3557,25 +4757,37 @@
         <v>8550</v>
       </c>
       <c r="C100" t="n">
-        <v>8561</v>
+        <v>8955</v>
       </c>
       <c r="D100" t="n">
         <v>8614</v>
       </c>
       <c r="E100" t="n">
-        <v>8625</v>
+        <v>8988</v>
       </c>
       <c r="F100" t="n">
         <v>16</v>
       </c>
       <c r="G100" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02824490000057267</v>
+        <v>0.0006357999991450924</v>
       </c>
       <c r="I100" t="n">
-        <v>0.02831469999364344</v>
+        <v>0.0008104000007733703</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03266689999873051</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.01566540000021632</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.03330269999787561</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.01647580000098969</v>
       </c>
     </row>
     <row r="101">
@@ -3588,25 +4800,37 @@
         <v>8666</v>
       </c>
       <c r="C101" t="n">
-        <v>8680</v>
+        <v>9055</v>
       </c>
       <c r="D101" t="n">
         <v>8695</v>
       </c>
       <c r="E101" t="n">
-        <v>8709</v>
+        <v>9080</v>
       </c>
       <c r="F101" t="n">
         <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01400580000336049</v>
+        <v>0.0006601999994018115</v>
       </c>
       <c r="I101" t="n">
-        <v>0.02872149999893736</v>
+        <v>0.0007977000004757429</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0141578999991907</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.01332879999972647</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.01481809999859252</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.01412650000020221</v>
       </c>
     </row>
     <row r="102">
@@ -3619,25 +4843,37 @@
         <v>8641</v>
       </c>
       <c r="C102" t="n">
-        <v>8653</v>
+        <v>9034</v>
       </c>
       <c r="D102" t="n">
         <v>8694</v>
       </c>
       <c r="E102" t="n">
-        <v>8706</v>
+        <v>9079</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
       </c>
       <c r="G102" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02150140000594547</v>
+        <v>0.0006518999998661457</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02153089999774238</v>
+        <v>0.0007768000014038989</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02242350000051374</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.02104939999844646</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.02307540000037989</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.02182619999985036</v>
       </c>
     </row>
     <row r="103">
@@ -3650,25 +4886,37 @@
         <v>8649</v>
       </c>
       <c r="C103" t="n">
-        <v>8660</v>
+        <v>9041</v>
       </c>
       <c r="D103" t="n">
         <v>8703</v>
       </c>
       <c r="E103" t="n">
-        <v>8714</v>
+        <v>9078</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H103" t="n">
-        <v>0.02067450000322424</v>
+        <v>0.0006487999999080785</v>
       </c>
       <c r="I103" t="n">
-        <v>0.02108349999616621</v>
+        <v>0.0008202999997592997</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02095430000008491</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.03593739999996615</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.02160309999999299</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.03675769999972545</v>
       </c>
     </row>
     <row r="104">
@@ -3681,25 +4929,37 @@
         <v>8647</v>
       </c>
       <c r="C104" t="n">
-        <v>8657</v>
+        <v>9039</v>
       </c>
       <c r="D104" t="n">
         <v>8686</v>
       </c>
       <c r="E104" t="n">
-        <v>8696</v>
+        <v>9074</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
       </c>
       <c r="G104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0169845999989775</v>
+        <v>0.0006329000007099239</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01691940000455361</v>
+        <v>0.002384100000199396</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02520380000169098</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.03280369999993127</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0258367000024009</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.03518780000013066</v>
       </c>
     </row>
     <row r="105">
@@ -3712,13 +4972,13 @@
         <v>8382</v>
       </c>
       <c r="C105" t="n">
-        <v>8389</v>
+        <v>8809</v>
       </c>
       <c r="D105" t="n">
         <v>8430</v>
       </c>
       <c r="E105" t="n">
-        <v>8437</v>
+        <v>8843</v>
       </c>
       <c r="F105" t="n">
         <v>7</v>
@@ -3727,10 +4987,22 @@
         <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02233529999648454</v>
+        <v>0.0009470999993936857</v>
       </c>
       <c r="I105" t="n">
-        <v>0.02225120000366587</v>
+        <v>0.0008051000004343223</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02686610000091605</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.02258100000108243</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.02781320000030973</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.02338610000151675</v>
       </c>
     </row>
     <row r="106">
@@ -3743,25 +5015,37 @@
         <v>8422</v>
       </c>
       <c r="C106" t="n">
-        <v>8435</v>
+        <v>8843</v>
       </c>
       <c r="D106" t="n">
         <v>8467</v>
       </c>
       <c r="E106" t="n">
-        <v>8480</v>
+        <v>8876</v>
       </c>
       <c r="F106" t="n">
         <v>7</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01988790000177687</v>
+        <v>0.0006902000004629372</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01998209999874234</v>
+        <v>0.0007592000001750421</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02061950000097568</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.02416169999924023</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.02130970000143861</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.02492089999941527</v>
       </c>
     </row>
     <row r="107">
@@ -3774,25 +5058,37 @@
         <v>8415</v>
       </c>
       <c r="C107" t="n">
-        <v>8426</v>
+        <v>8837</v>
       </c>
       <c r="D107" t="n">
         <v>8457</v>
       </c>
       <c r="E107" t="n">
-        <v>8468</v>
+        <v>8873</v>
       </c>
       <c r="F107" t="n">
         <v>6</v>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H107" t="n">
-        <v>0.03496470000391128</v>
+        <v>0.000681399998939014</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0197450999985449</v>
+        <v>0.0007904000012786128</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.02005329999883543</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.02185060000010708</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.02073469999777444</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.02264100000138569</v>
       </c>
     </row>
     <row r="108">
@@ -3805,25 +5101,37 @@
         <v>8453</v>
       </c>
       <c r="C108" t="n">
-        <v>8459</v>
+        <v>8872</v>
       </c>
       <c r="D108" t="n">
         <v>8520</v>
       </c>
       <c r="E108" t="n">
-        <v>8526</v>
+        <v>8909</v>
       </c>
       <c r="F108" t="n">
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02821509999921545</v>
+        <v>0.0006343000004562782</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02847109999856912</v>
+        <v>0.0008338999996340135</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.02842380000038247</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.02083130000028177</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.02905810000083875</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.02166519999991579</v>
       </c>
     </row>
     <row r="109">
@@ -3836,25 +5144,37 @@
         <v>8426</v>
       </c>
       <c r="C109" t="n">
-        <v>8431</v>
+        <v>8850</v>
       </c>
       <c r="D109" t="n">
         <v>8498</v>
       </c>
       <c r="E109" t="n">
-        <v>8503</v>
+        <v>8915</v>
       </c>
       <c r="F109" t="n">
         <v>11</v>
       </c>
       <c r="G109" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H109" t="n">
-        <v>0.02911830000084592</v>
+        <v>0.0006427000007533934</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02915170000051148</v>
+        <v>0.0007538000008935342</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04760999999962223</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.02912329999890062</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.04825270000037563</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.02987709999979415</v>
       </c>
     </row>
     <row r="110">
@@ -3867,25 +5187,37 @@
         <v>8384</v>
       </c>
       <c r="C110" t="n">
-        <v>8390</v>
+        <v>8814</v>
       </c>
       <c r="D110" t="n">
         <v>8441</v>
       </c>
       <c r="E110" t="n">
-        <v>8447</v>
+        <v>8866</v>
       </c>
       <c r="F110" t="n">
         <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H110" t="n">
-        <v>0.02192970000032801</v>
+        <v>0.0005924999986746116</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02075549999426585</v>
+        <v>0.0007839000008971198</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02089499999965483</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.02167120000012801</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.02148749999832944</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.02245510000102513</v>
       </c>
     </row>
     <row r="111">
@@ -3898,25 +5230,37 @@
         <v>8199</v>
       </c>
       <c r="C111" t="n">
-        <v>8208</v>
+        <v>8651</v>
       </c>
       <c r="D111" t="n">
         <v>8263</v>
       </c>
       <c r="E111" t="n">
-        <v>8272</v>
+        <v>8706</v>
       </c>
       <c r="F111" t="n">
         <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02071029999933671</v>
+        <v>0.0005915999990975251</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02198829999542795</v>
+        <v>0.0007781999993312638</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02176299999882758</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0230781999998726</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.02235459999792511</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.02385639999920386</v>
       </c>
     </row>
     <row r="112">
@@ -3929,25 +5273,37 @@
         <v>8475</v>
       </c>
       <c r="C112" t="n">
-        <v>8483</v>
+        <v>8891</v>
       </c>
       <c r="D112" t="n">
         <v>8497</v>
       </c>
       <c r="E112" t="n">
-        <v>8505</v>
+        <v>8902</v>
       </c>
       <c r="F112" t="n">
         <v>5</v>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01924739999958547</v>
+        <v>0.0005955999986326788</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0194883000003756</v>
+        <v>0.0008275999989564298</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.01957140000013169</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.01823490000060701</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.02016699999876437</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.01906249999956344</v>
       </c>
     </row>
     <row r="113">
@@ -3960,25 +5316,37 @@
         <v>8756</v>
       </c>
       <c r="C113" t="n">
-        <v>8762</v>
+        <v>9134</v>
       </c>
       <c r="D113" t="n">
         <v>8797</v>
       </c>
       <c r="E113" t="n">
-        <v>8803</v>
+        <v>9156</v>
       </c>
       <c r="F113" t="n">
         <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
-        <v>0.03146739999647252</v>
+        <v>0.0006769999999960419</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01568469999619992</v>
+        <v>0.0009546999990561744</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.01586930000121356</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.01454670000020997</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0165463000012096</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.01550139999926614</v>
       </c>
     </row>
     <row r="114">
@@ -3991,25 +5359,37 @@
         <v>10123</v>
       </c>
       <c r="C114" t="n">
-        <v>10169</v>
+        <v>10613</v>
       </c>
       <c r="D114" t="n">
         <v>10163</v>
       </c>
       <c r="E114" t="n">
-        <v>10209</v>
+        <v>10668</v>
       </c>
       <c r="F114" t="n">
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02195139999821549</v>
+        <v>0.0007379999988188501</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02180070000031264</v>
+        <v>0.0009116000001085922</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02282729999933508</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.05732170000010228</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.02356529999815393</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.05823330000021087</v>
       </c>
     </row>
     <row r="115">
@@ -4022,25 +5402,37 @@
         <v>9522</v>
       </c>
       <c r="C115" t="n">
-        <v>9563</v>
+        <v>10093</v>
       </c>
       <c r="D115" t="n">
         <v>9630</v>
       </c>
       <c r="E115" t="n">
-        <v>9671</v>
+        <v>10202</v>
       </c>
       <c r="F115" t="n">
         <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03502469999511959</v>
+        <v>0.00065080000058515</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03601170000183629</v>
+        <v>0.0007953000003908528</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03579189999982191</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.0403504999994766</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.03644270000040706</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.04114579999986745</v>
       </c>
     </row>
     <row r="116">
@@ -4053,13 +5445,13 @@
         <v>13963</v>
       </c>
       <c r="C116" t="n">
-        <v>13985</v>
+        <v>13963</v>
       </c>
       <c r="D116" t="n">
         <v>13963</v>
       </c>
       <c r="E116" t="n">
-        <v>13985</v>
+        <v>13963</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -4068,10 +5460,22 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01331199999549426</v>
+        <v>0.001228000000992324</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01361239999823738</v>
+        <v>0.001442900000256486</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.01316570000017236</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.01275700000041979</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.01439370000116469</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.01419990000067628</v>
       </c>
     </row>
     <row r="117">
@@ -4084,25 +5488,37 @@
         <v>10147</v>
       </c>
       <c r="C117" t="n">
-        <v>10176</v>
+        <v>10640</v>
       </c>
       <c r="D117" t="n">
         <v>10205</v>
       </c>
       <c r="E117" t="n">
-        <v>10234</v>
+        <v>10659</v>
       </c>
       <c r="F117" t="n">
         <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H117" t="n">
-        <v>0.02523060000385158</v>
+        <v>0.0007022000008873874</v>
       </c>
       <c r="I117" t="n">
-        <v>0.04159480000089388</v>
+        <v>0.0008515000008628704</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.02512410000053933</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.02951410000059695</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.02582630000142672</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.03036560000145982</v>
       </c>
     </row>
     <row r="118">
@@ -4115,25 +5531,37 @@
         <v>15121</v>
       </c>
       <c r="C118" t="n">
-        <v>15167</v>
+        <v>15863</v>
       </c>
       <c r="D118" t="n">
         <v>15235</v>
       </c>
       <c r="E118" t="n">
-        <v>15281</v>
+        <v>15931</v>
       </c>
       <c r="F118" t="n">
         <v>14</v>
       </c>
       <c r="G118" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H118" t="n">
-        <v>0.07108330000482965</v>
+        <v>0.0009426999986317242</v>
       </c>
       <c r="I118" t="n">
-        <v>0.07085689999803435</v>
+        <v>0.001237200000105076</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.07125210000049265</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0817509999997128</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.07219479999912437</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.08298819999981788</v>
       </c>
     </row>
     <row r="119">
@@ -4146,25 +5574,37 @@
         <v>13832</v>
       </c>
       <c r="C119" t="n">
-        <v>13886</v>
+        <v>14495</v>
       </c>
       <c r="D119" t="n">
         <v>13855</v>
       </c>
       <c r="E119" t="n">
-        <v>13909</v>
+        <v>14552</v>
       </c>
       <c r="F119" t="n">
         <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02699760000541573</v>
+        <v>0.0008854000006977003</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02633429999696091</v>
+        <v>0.001121499999499065</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.02615189999960421</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.04311179999967862</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.02703730000030191</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.04423329999917769</v>
       </c>
     </row>
     <row r="120">
@@ -4177,25 +5617,37 @@
         <v>13108</v>
       </c>
       <c r="C120" t="n">
-        <v>13142</v>
+        <v>13877</v>
       </c>
       <c r="D120" t="n">
         <v>13318</v>
       </c>
       <c r="E120" t="n">
-        <v>13352</v>
+        <v>13994</v>
       </c>
       <c r="F120" t="n">
         <v>19</v>
       </c>
       <c r="G120" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07495550000021467</v>
+        <v>0.0007406000004266389</v>
       </c>
       <c r="I120" t="n">
-        <v>0.07456899999669986</v>
+        <v>0.001038100001096609</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.07451859999855515</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.05349759999990056</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.07525919999898179</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.05453570000099717</v>
       </c>
     </row>
     <row r="121">
@@ -4208,13 +5660,13 @@
         <v>94</v>
       </c>
       <c r="C121" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D121" t="n">
         <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F121" t="n">
         <v>2</v>
@@ -4223,10 +5675,22 @@
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0002231000034953468</v>
+        <v>0.0002541000012570294</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0001517999990028329</v>
+        <v>9.390000013809185e-05</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.0001783000006980728</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.0001637000004848232</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.0004324000019551022</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.0002576000006229151</v>
       </c>
     </row>
     <row r="122">
@@ -4239,13 +5703,13 @@
         <v>100</v>
       </c>
       <c r="C122" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D122" t="n">
         <v>102</v>
       </c>
       <c r="E122" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F122" t="n">
         <v>2</v>
@@ -4254,10 +5718,22 @@
         <v>2</v>
       </c>
       <c r="H122" t="n">
-        <v>0.000163699995027855</v>
+        <v>9.980000140785705e-05</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0001540000012028031</v>
+        <v>9.59999997576233e-05</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.0001591000000189524</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.0001560000000608852</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0002589000014268095</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.0002519999998185085</v>
       </c>
     </row>
     <row r="123">
@@ -4270,13 +5746,13 @@
         <v>13929</v>
       </c>
       <c r="C123" t="n">
-        <v>13944</v>
+        <v>14548</v>
       </c>
       <c r="D123" t="n">
         <v>14001</v>
       </c>
       <c r="E123" t="n">
-        <v>14016</v>
+        <v>14609</v>
       </c>
       <c r="F123" t="n">
         <v>8</v>
@@ -4285,10 +5761,22 @@
         <v>8</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0493581999980961</v>
+        <v>0.0007531999999628169</v>
       </c>
       <c r="I123" t="n">
-        <v>0.03320489999896381</v>
+        <v>0.001197399999000481</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03279809999912686</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.03443639999932202</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.03355129999908968</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.0356337999983225</v>
       </c>
     </row>
     <row r="124">
@@ -4301,25 +5789,37 @@
         <v>18198</v>
       </c>
       <c r="C124" t="n">
-        <v>18258</v>
+        <v>19050</v>
       </c>
       <c r="D124" t="n">
         <v>18253</v>
       </c>
       <c r="E124" t="n">
-        <v>18313</v>
+        <v>19152</v>
       </c>
       <c r="F124" t="n">
         <v>9</v>
       </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0482142000037129</v>
+        <v>0.001060199998391909</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04863949999707984</v>
+        <v>0.001428800000212505</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.06343799999922339</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.0959671000000526</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.0644981999976153</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.0973959000002651</v>
       </c>
     </row>
     <row r="125">
@@ -4332,25 +5832,37 @@
         <v>17066</v>
       </c>
       <c r="C125" t="n">
-        <v>17142</v>
+        <v>18061</v>
       </c>
       <c r="D125" t="n">
         <v>17285</v>
       </c>
       <c r="E125" t="n">
-        <v>17361</v>
+        <v>18447</v>
       </c>
       <c r="F125" t="n">
         <v>37</v>
       </c>
       <c r="G125" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1639339999965159</v>
+        <v>0.0009857999993982958</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1495586000019102</v>
+        <v>0.001253599999472499</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.1597753000005468</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.1689563999989332</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.1607610999999451</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.1702099999984057</v>
       </c>
     </row>
     <row r="126">
@@ -4363,25 +5875,37 @@
         <v>15121</v>
       </c>
       <c r="C126" t="n">
-        <v>15167</v>
+        <v>15863</v>
       </c>
       <c r="D126" t="n">
         <v>15197</v>
       </c>
       <c r="E126" t="n">
-        <v>15243</v>
+        <v>15936</v>
       </c>
       <c r="F126" t="n">
         <v>8</v>
       </c>
       <c r="G126" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07505559999844991</v>
+        <v>0.000915000000532018</v>
       </c>
       <c r="I126" t="n">
-        <v>0.05974050000077114</v>
+        <v>0.001229999999850406</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.06142630000067584</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.08580430000074557</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.06234130000120786</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.08703430000059598</v>
       </c>
     </row>
     <row r="127">
@@ -4394,25 +5918,37 @@
         <v>23058</v>
       </c>
       <c r="C127" t="n">
-        <v>23161</v>
+        <v>24123</v>
       </c>
       <c r="D127" t="n">
         <v>23406</v>
       </c>
       <c r="E127" t="n">
-        <v>23509</v>
+        <v>24454</v>
       </c>
       <c r="F127" t="n">
         <v>70</v>
       </c>
       <c r="G127" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2548595999978716</v>
+        <v>0.001457500000469736</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2542227000012645</v>
+        <v>0.00175640000088606</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2644022999993467</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2920179000011558</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.2658597999998165</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.2937743000020419</v>
       </c>
     </row>
     <row r="128">
@@ -4425,25 +5961,37 @@
         <v>21715</v>
       </c>
       <c r="C128" t="n">
-        <v>21797</v>
+        <v>22967</v>
       </c>
       <c r="D128" t="n">
         <v>21933</v>
       </c>
       <c r="E128" t="n">
-        <v>22015</v>
+        <v>23181</v>
       </c>
       <c r="F128" t="n">
         <v>13</v>
       </c>
       <c r="G128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1405871999959345</v>
+        <v>0.00113229999988107</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1244349000044167</v>
+        <v>0.001515799998742295</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.1264381000000867</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1795861999999033</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.1275703999999678</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.1811019999986456</v>
       </c>
     </row>
     <row r="129">
@@ -4456,25 +6004,37 @@
         <v>22259</v>
       </c>
       <c r="C129" t="n">
-        <v>22288</v>
+        <v>23407</v>
       </c>
       <c r="D129" t="n">
         <v>22607</v>
       </c>
       <c r="E129" t="n">
-        <v>22636</v>
+        <v>23857</v>
       </c>
       <c r="F129" t="n">
         <v>24</v>
       </c>
       <c r="G129" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H129" t="n">
-        <v>0.2110519999987446</v>
+        <v>0.001176300000224728</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2114767999955802</v>
+        <v>0.001631299999644398</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.2144824999995762</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.3200185000005149</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.215658799999801</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.3216498000001593</v>
       </c>
     </row>
     <row r="130">
@@ -4487,25 +6047,37 @@
         <v>28629</v>
       </c>
       <c r="C130" t="n">
-        <v>28739</v>
+        <v>29929</v>
       </c>
       <c r="D130" t="n">
         <v>28778</v>
       </c>
       <c r="E130" t="n">
-        <v>28888</v>
+        <v>30047</v>
       </c>
       <c r="F130" t="n">
         <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H130" t="n">
-        <v>0.1608842999994522</v>
+        <v>0.001580600001034327</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1449156000016956</v>
+        <v>0.00206149999939953</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1489174999987881</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.1757663999997021</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.1504980999998224</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.1778278999991016</v>
       </c>
     </row>
     <row r="131">
@@ -4518,25 +6090,37 @@
         <v>28533</v>
       </c>
       <c r="C131" t="n">
-        <v>28638</v>
+        <v>29850</v>
       </c>
       <c r="D131" t="n">
         <v>28696</v>
       </c>
       <c r="E131" t="n">
-        <v>28801</v>
+        <v>30085</v>
       </c>
       <c r="F131" t="n">
         <v>22</v>
       </c>
       <c r="G131" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1483833999955095</v>
+        <v>0.001590799998666625</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1472521999967285</v>
+        <v>0.002066600000034668</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1450502999996388</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.2331280999987939</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.1466410999983054</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.2351946999988286</v>
       </c>
     </row>
     <row r="132">
@@ -4549,25 +6133,37 @@
         <v>26801</v>
       </c>
       <c r="C132" t="n">
-        <v>26923</v>
+        <v>28337</v>
       </c>
       <c r="D132" t="n">
         <v>27207</v>
       </c>
       <c r="E132" t="n">
-        <v>27329</v>
+        <v>28710</v>
       </c>
       <c r="F132" t="n">
         <v>24</v>
       </c>
       <c r="G132" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2243727000022773</v>
+        <v>0.001301500000408851</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2096392000021297</v>
+        <v>0.001888599999801954</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.2251992000001337</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.3310036000002583</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.2265007000005426</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.3328922000000603</v>
       </c>
     </row>
     <row r="133">
@@ -4580,13 +6176,13 @@
         <v>244</v>
       </c>
       <c r="C133" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D133" t="n">
         <v>244</v>
       </c>
       <c r="E133" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -4595,10 +6191,22 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.000308700000459794</v>
+        <v>0.0002546999985497678</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0002687000014702789</v>
+        <v>0.0001102000005630543</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0003097000007983297</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.000295600000754348</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.0005643999993480975</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.0004058000013174023</v>
       </c>
     </row>
     <row r="134">
@@ -4611,13 +6219,13 @@
         <v>244</v>
       </c>
       <c r="C134" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D134" t="n">
         <v>244</v>
       </c>
       <c r="E134" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -4626,10 +6234,22 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.000257499996223487</v>
+        <v>9.379999937664252e-05</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0002647000001161359</v>
+        <v>9.589999899617396e-05</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0002610999999888008</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.0002838999989762669</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.0003548999993654434</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.0003797999979724409</v>
       </c>
     </row>
     <row r="135">
@@ -4642,13 +6262,13 @@
         <v>244</v>
       </c>
       <c r="C135" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D135" t="n">
         <v>244</v>
       </c>
       <c r="E135" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -4657,10 +6277,22 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0002673999988473952</v>
+        <v>8.960000013757963e-05</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0002664999992703088</v>
+        <v>9.139999929175247e-05</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0002552000005380251</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0002841000004991656</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0003448000006756047</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.0003754999997909181</v>
       </c>
     </row>
     <row r="136">
@@ -4673,13 +6305,13 @@
         <v>244</v>
       </c>
       <c r="C136" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D136" t="n">
         <v>244</v>
       </c>
       <c r="E136" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -4688,10 +6320,22 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0002609999937703833</v>
+        <v>8.809999962977599e-05</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0002679000026546419</v>
+        <v>8.870000056049321e-05</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0002570000015111873</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0002764999990176875</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0003451000011409633</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.0003651999995781807</v>
       </c>
     </row>
     <row r="137">
@@ -4704,13 +6348,13 @@
         <v>244</v>
       </c>
       <c r="C137" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D137" t="n">
         <v>244</v>
       </c>
       <c r="E137" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -4719,10 +6363,22 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.000265800001216121</v>
+        <v>8.909999996831175e-05</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0002673999988473952</v>
+        <v>9.509999836154748e-05</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0002616999991005287</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0002783999989333097</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0003507999990688404</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.0003734999972948572</v>
       </c>
     </row>
     <row r="138">
@@ -4735,13 +6391,13 @@
         <v>230</v>
       </c>
       <c r="C138" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D138" t="n">
         <v>230</v>
       </c>
       <c r="E138" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -4750,10 +6406,22 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0002480000039213337</v>
+        <v>8.440000055998098e-05</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0002396999989286996</v>
+        <v>8.879999950295314e-05</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0002413000001979526</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0002643999996507773</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0003257000007579336</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.0003531999991537305</v>
       </c>
     </row>
     <row r="139">
@@ -4766,13 +6434,13 @@
         <v>230</v>
       </c>
       <c r="C139" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D139" t="n">
         <v>230</v>
       </c>
       <c r="E139" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4781,10 +6449,22 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0002351000002818182</v>
+        <v>8.750000051804818e-05</v>
       </c>
       <c r="I139" t="n">
-        <v>0.00023670000518905</v>
+        <v>9.130000034929253e-05</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0002358000001549954</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0002625999986776151</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.0003233000006730435</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.0003538999990269076</v>
       </c>
     </row>
     <row r="140">
@@ -4797,13 +6477,13 @@
         <v>230</v>
       </c>
       <c r="C140" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D140" t="n">
         <v>230</v>
       </c>
       <c r="E140" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -4812,10 +6492,22 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0002411000023130327</v>
+        <v>8.479999996779952e-05</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0002466000005370006</v>
+        <v>9.050000153365545e-05</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0002342999996471917</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0002623000000312459</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.0003190999996149912</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.0003528000015649013</v>
       </c>
     </row>
     <row r="141">
@@ -4828,13 +6520,13 @@
         <v>230</v>
       </c>
       <c r="C141" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D141" t="n">
         <v>230</v>
       </c>
       <c r="E141" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -4843,10 +6535,22 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0002402000027359463</v>
+        <v>8.919999891077168e-05</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0002413000038359314</v>
+        <v>8.770000022195745e-05</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0002340000010008225</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.0002572000012150966</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.0003231999999115942</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.000344900001437054</v>
       </c>
     </row>
     <row r="142">
@@ -4859,13 +6563,13 @@
         <v>230</v>
       </c>
       <c r="C142" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D142" t="n">
         <v>230</v>
       </c>
       <c r="E142" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -4874,10 +6578,22 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0002309000046807341</v>
+        <v>8.349999916390516e-05</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0002338000049348921</v>
+        <v>0.0001453999993827892</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0002478999995219056</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.0002693999995244667</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.0003313999986858107</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.0004147999989072559</v>
       </c>
     </row>
     <row r="143">
@@ -4890,13 +6606,13 @@
         <v>286</v>
       </c>
       <c r="C143" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D143" t="n">
         <v>286</v>
       </c>
       <c r="E143" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -4905,10 +6621,22 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0003155000013066456</v>
+        <v>0.0001054000003932742</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0003215999968233518</v>
+        <v>0.0001069999998435378</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0003197000005457085</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.0003253000013501151</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.0004251000009389827</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.0004323000011936529</v>
       </c>
     </row>
     <row r="144">
@@ -4921,13 +6649,13 @@
         <v>316</v>
       </c>
       <c r="C144" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D144" t="n">
         <v>316</v>
       </c>
       <c r="E144" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -4936,10 +6664,22 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.000338099998771213</v>
+        <v>0.0001009999996313127</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0003320000032545067</v>
+        <v>0.000102399999377667</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0003310000010969816</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.0003335999990667915</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.0004320000007282943</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.0004359999984444585</v>
       </c>
     </row>
     <row r="145">
@@ -4952,13 +6692,13 @@
         <v>268</v>
       </c>
       <c r="C145" t="n">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D145" t="n">
         <v>268</v>
       </c>
       <c r="E145" t="n">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -4967,10 +6707,22 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0003130999975837767</v>
+        <v>9.019999924930744e-05</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0003037999995285645</v>
+        <v>9.76999999693362e-05</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0003092999995715218</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.0003293000008852687</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.0003994999988208292</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.0004270000008546049</v>
       </c>
     </row>
     <row r="146">
@@ -4983,13 +6735,13 @@
         <v>271</v>
       </c>
       <c r="C146" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D146" t="n">
         <v>271</v>
       </c>
       <c r="E146" t="n">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -4998,10 +6750,22 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0003003000019816682</v>
+        <v>9.499999941908754e-05</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0002917999954661354</v>
+        <v>9.500000123807695e-05</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.0002985999999509659</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.0003209999995306134</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.0003935999993700534</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.0004160000007686904</v>
       </c>
     </row>
     <row r="147">
@@ -5014,13 +6778,13 @@
         <v>282</v>
       </c>
       <c r="C147" t="n">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D147" t="n">
         <v>282</v>
       </c>
       <c r="E147" t="n">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -5029,10 +6793,22 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0003129000033368357</v>
+        <v>9.730000056151766e-05</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0003119999964837916</v>
+        <v>9.560000034980476e-05</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0003168999992340105</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0003516000015224563</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.0004141999997955281</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.0004472000018722611</v>
       </c>
     </row>
     <row r="148">
@@ -5045,13 +6821,13 @@
         <v>309</v>
       </c>
       <c r="C148" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D148" t="n">
         <v>309</v>
       </c>
       <c r="E148" t="n">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -5060,10 +6836,22 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0003508000008878298</v>
+        <v>0.0001013000000966713</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0003471999953035265</v>
+        <v>0.0001026999998430256</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0003399999986868352</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.0003455999994912418</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0004412999987835065</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.0004482999993342673</v>
       </c>
     </row>
     <row r="149">
@@ -5076,13 +6864,13 @@
         <v>242</v>
       </c>
       <c r="C149" t="n">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D149" t="n">
         <v>242</v>
       </c>
       <c r="E149" t="n">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -5091,10 +6879,22 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0002783000018098392</v>
+        <v>9.659999886935111e-05</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0002744000012171455</v>
+        <v>8.999999954539817e-05</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.0002678000000742031</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.0002867000002879649</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.0003643999989435542</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.0003766999998333631</v>
       </c>
     </row>
     <row r="150">
@@ -5107,13 +6907,13 @@
         <v>279</v>
       </c>
       <c r="C150" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D150" t="n">
         <v>279</v>
       </c>
       <c r="E150" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -5122,10 +6922,22 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0.000309499999275431</v>
+        <v>9.759999920788687e-05</v>
       </c>
       <c r="I150" t="n">
-        <v>0.0003035999980056658</v>
+        <v>9.890000001178123e-05</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0002978000011353288</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0003087999994022539</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.0003954000003432157</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.0004076999994140351</v>
       </c>
     </row>
     <row r="151">
@@ -5138,13 +6950,13 @@
         <v>326</v>
       </c>
       <c r="C151" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D151" t="n">
         <v>326</v>
       </c>
       <c r="E151" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -5153,10 +6965,22 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0003508000008878298</v>
+        <v>0.0001006999991659541</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0003475000048638321</v>
+        <v>0.0001031000010698335</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0003422000008868054</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.0003460999996605096</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.0004429000000527594</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.0004492000007303432</v>
       </c>
     </row>
     <row r="152">
@@ -5169,13 +6993,13 @@
         <v>285</v>
       </c>
       <c r="C152" t="n">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D152" t="n">
         <v>287</v>
       </c>
       <c r="E152" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F152" t="n">
         <v>2</v>
@@ -5184,10 +7008,22 @@
         <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0003605999954743311</v>
+        <v>9.169999975711107e-05</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0003612000000430271</v>
+        <v>9.960000170394778e-05</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0003578000014385907</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.0003581000000849599</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.0004495000011957018</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.0004577000017889077</v>
       </c>
     </row>
     <row r="153">
@@ -5200,25 +7036,37 @@
         <v>292</v>
       </c>
       <c r="C153" t="n">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D153" t="n">
         <v>294</v>
       </c>
       <c r="E153" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F153" t="n">
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0003702999965753406</v>
+        <v>9.369999861519318e-05</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0003613000008044764</v>
+        <v>0.0001011999993352219</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0003711999997904059</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.0003240000005462207</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.000464899998405599</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.0004251999998814426</v>
       </c>
     </row>
     <row r="154">
@@ -5231,13 +7079,13 @@
         <v>266</v>
       </c>
       <c r="C154" t="n">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D154" t="n">
         <v>272</v>
       </c>
       <c r="E154" t="n">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F154" t="n">
         <v>4</v>
@@ -5246,10 +7094,22 @@
         <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0004102999955648556</v>
+        <v>9.160000081465114e-05</v>
       </c>
       <c r="I154" t="n">
-        <v>0.0004095000040251762</v>
+        <v>9.760000102687627e-05</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0004239999998389976</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.0004289000007702271</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.0005156000006536487</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.0005265000017971033</v>
       </c>
     </row>
     <row r="155">
@@ -5262,13 +7122,13 @@
         <v>303</v>
       </c>
       <c r="C155" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="D155" t="n">
         <v>303</v>
       </c>
       <c r="E155" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -5277,10 +7137,22 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0.0003407000040169805</v>
+        <v>9.60000015766127e-05</v>
       </c>
       <c r="I155" t="n">
-        <v>0.0003331999978399836</v>
+        <v>0.0001037000001815613</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0003417999996599974</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.0003417999996599974</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.0004378000012366101</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.0004454999998415587</v>
       </c>
     </row>
     <row r="156">
@@ -5293,13 +7165,13 @@
         <v>293</v>
       </c>
       <c r="C156" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D156" t="n">
         <v>293</v>
       </c>
       <c r="E156" t="n">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -5308,10 +7180,22 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0003372999999555759</v>
+        <v>9.420000060345046e-05</v>
       </c>
       <c r="I156" t="n">
-        <v>0.0003254999974160455</v>
+        <v>0.0001049000002240064</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0003441999997448875</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.0003382000013516517</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.0004384000003483379</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.0004431000015756581</v>
       </c>
     </row>
     <row r="157">
@@ -5324,13 +7208,13 @@
         <v>292</v>
       </c>
       <c r="C157" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D157" t="n">
         <v>292</v>
       </c>
       <c r="E157" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -5339,10 +7223,22 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0003179999985150062</v>
+        <v>9.800000043469481e-05</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0003171999996993691</v>
+        <v>0.0001019999999698484</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0003395000003365567</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.0003304000001662644</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.0004375000007712515</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.0004324000001361128</v>
       </c>
     </row>
     <row r="158">
@@ -5355,13 +7251,13 @@
         <v>311</v>
       </c>
       <c r="C158" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D158" t="n">
         <v>311</v>
       </c>
       <c r="E158" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -5370,10 +7266,22 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0.000330399998347275</v>
+        <v>9.680000039224979e-05</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0003308000013930723</v>
+        <v>0.0001033999997162027</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0003283000005467329</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.0003357000005053123</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.0004251000009389827</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.0004391000002215151</v>
       </c>
     </row>
     <row r="159">
@@ -5386,25 +7294,37 @@
         <v>280</v>
       </c>
       <c r="C159" t="n">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D159" t="n">
         <v>284</v>
       </c>
       <c r="E159" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F159" t="n">
         <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0004026999959023669</v>
+        <v>9.359999967273325e-05</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0004067000045324676</v>
+        <v>0.000126799999634386</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0004567000014503719</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.0003874000012729084</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.0005503000011231052</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.0005142000009072945</v>
       </c>
     </row>
     <row r="160">
@@ -5417,13 +7337,13 @@
         <v>477</v>
       </c>
       <c r="C160" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D160" t="n">
         <v>477</v>
       </c>
       <c r="E160" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -5432,10 +7352,22 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0004869000040343963</v>
+        <v>0.0001276000002690125</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0004794000051333569</v>
+        <v>0.0001269999993382953</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0004919000002701068</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.000501500000609667</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.0006195000005391194</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.0006284999999479624</v>
       </c>
     </row>
     <row r="161">
@@ -5448,25 +7380,37 @@
         <v>369</v>
       </c>
       <c r="C161" t="n">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D161" t="n">
         <v>371</v>
       </c>
       <c r="E161" t="n">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F161" t="n">
         <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0.0004467000035219826</v>
+        <v>0.0001010999985737726</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0004565999988699332</v>
+        <v>0.0001037000001815613</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0004527999990386888</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.0004331999989517499</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.0005538999976124614</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.0005368999991333112</v>
       </c>
     </row>
     <row r="162">
@@ -5479,25 +7423,37 @@
         <v>588</v>
       </c>
       <c r="C162" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="D162" t="n">
         <v>590</v>
       </c>
       <c r="E162" t="n">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="F162" t="n">
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0006723999977111816</v>
+        <v>0.0001253000009455718</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0006664000029559247</v>
+        <v>0.0001334000007773284</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0006885999991936842</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.0006188999996084021</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.000813900000139256</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.0007523000003857305</v>
       </c>
     </row>
     <row r="163">
@@ -5510,13 +7466,13 @@
         <v>543</v>
       </c>
       <c r="C163" t="n">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="D163" t="n">
         <v>545</v>
       </c>
       <c r="E163" t="n">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="F163" t="n">
         <v>2</v>
@@ -5525,10 +7481,22 @@
         <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0006652000010944903</v>
+        <v>0.0001147999992099358</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0006962000043131411</v>
+        <v>0.0001238000004377682</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0006690999998681946</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.0006954000000405358</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.0007838999990781303</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.000819200000478304</v>
       </c>
     </row>
     <row r="164">
@@ -5541,13 +7509,13 @@
         <v>572</v>
       </c>
       <c r="C164" t="n">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="D164" t="n">
         <v>576</v>
       </c>
       <c r="E164" t="n">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="F164" t="n">
         <v>3</v>
@@ -5556,10 +7524,22 @@
         <v>3</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0008020000022952445</v>
+        <v>0.0001351999999315012</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0007809000017005019</v>
+        <v>0.000125599999591941</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0007888000000093598</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.000820400000520749</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.000923999999940861</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.00094600000011269</v>
       </c>
     </row>
     <row r="165">
@@ -5572,13 +7552,13 @@
         <v>555</v>
       </c>
       <c r="C165" t="n">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="D165" t="n">
         <v>557</v>
       </c>
       <c r="E165" t="n">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="F165" t="n">
         <v>2</v>
@@ -5587,10 +7567,22 @@
         <v>2</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0006529999955091625</v>
+        <v>0.0001185000000987202</v>
       </c>
       <c r="I165" t="n">
-        <v>0.0006487999999080785</v>
+        <v>0.0001243000006070361</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.000669999999445281</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.00068950000058976</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.0007884999995440012</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.0008138000011967961</v>
       </c>
     </row>
     <row r="166">
@@ -5603,25 +7595,37 @@
         <v>518</v>
       </c>
       <c r="C166" t="n">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="D166" t="n">
         <v>531</v>
       </c>
       <c r="E166" t="n">
-        <v>531</v>
+        <v>562</v>
       </c>
       <c r="F166" t="n">
         <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H166" t="n">
-        <v>0.001016599999275059</v>
+        <v>0.0001087999989977106</v>
       </c>
       <c r="I166" t="n">
-        <v>0.001007699996989686</v>
+        <v>0.0001200000006065238</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.001019200000882847</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.0009852999992290279</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.001127999999880558</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.001105299999835552</v>
       </c>
     </row>
     <row r="167">
@@ -5634,13 +7638,13 @@
         <v>544</v>
       </c>
       <c r="C167" t="n">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="D167" t="n">
         <v>546</v>
       </c>
       <c r="E167" t="n">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F167" t="n">
         <v>2</v>
@@ -5649,10 +7653,22 @@
         <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0007034000009298325</v>
+        <v>0.0001195000004372559</v>
       </c>
       <c r="I167" t="n">
-        <v>0.0007136999993235804</v>
+        <v>0.0001250999994226731</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.000700100001267856</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.000708699999449891</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.0008196000017051119</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.0008337999988725642</v>
       </c>
     </row>
     <row r="168">
@@ -5665,13 +7681,13 @@
         <v>541</v>
       </c>
       <c r="C168" t="n">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="D168" t="n">
         <v>552</v>
       </c>
       <c r="E168" t="n">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="F168" t="n">
         <v>5</v>
@@ -5680,10 +7696,22 @@
         <v>5</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0008977999968919903</v>
+        <v>0.0001133999994635815</v>
       </c>
       <c r="I168" t="n">
-        <v>0.0008835999979055487</v>
+        <v>0.0001265999999304768</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0008798999988357536</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.001002099999823258</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.0009932999982993351</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.001128699999753735</v>
       </c>
     </row>
     <row r="169">
@@ -5696,25 +7724,37 @@
         <v>531</v>
       </c>
       <c r="C169" t="n">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="D169" t="n">
         <v>538</v>
       </c>
       <c r="E169" t="n">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="F169" t="n">
         <v>4</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0008185999977285974</v>
+        <v>0.0002041000007011462</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0008028000011108816</v>
+        <v>0.0001486000001023058</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0008170000000973232</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.0007494999990740325</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.001021100000798469</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.0008980999991763383</v>
       </c>
     </row>
     <row r="170">
@@ -5727,25 +7767,37 @@
         <v>561</v>
       </c>
       <c r="C170" t="n">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="D170" t="n">
         <v>563</v>
       </c>
       <c r="E170" t="n">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="F170" t="n">
         <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0006893999961903319</v>
+        <v>0.0001281999993807403</v>
       </c>
       <c r="I170" t="n">
-        <v>0.0006915999983903021</v>
+        <v>0.0001248999997187639</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.000709100000676699</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.0006582000005437294</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.0008373000000574393</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.0007831000002624933</v>
       </c>
     </row>
     <row r="171">
@@ -5758,25 +7810,37 @@
         <v>577</v>
       </c>
       <c r="C171" t="n">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="D171" t="n">
         <v>579</v>
       </c>
       <c r="E171" t="n">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F171" t="n">
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0006983999992371537</v>
+        <v>0.0001140000003942987</v>
       </c>
       <c r="I171" t="n">
-        <v>0.0006619999985559843</v>
+        <v>0.0001183999993372709</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.000662200000078883</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.0006052000007912284</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.0007762000004731817</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.0007236000001284992</v>
       </c>
     </row>
     <row r="172">
@@ -5789,25 +7853,37 @@
         <v>570</v>
       </c>
       <c r="C172" t="n">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="D172" t="n">
         <v>574</v>
       </c>
       <c r="E172" t="n">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="F172" t="n">
         <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0007276999967871234</v>
+        <v>0.0001078000004781643</v>
       </c>
       <c r="I172" t="n">
-        <v>0.0007189999960246496</v>
+        <v>0.0001214999992953381</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0007237999998324085</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.0005985000007058261</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.0008316000003105728</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.0007200000000011642</v>
       </c>
     </row>
     <row r="173">
@@ -5820,13 +7896,13 @@
         <v>544</v>
       </c>
       <c r="C173" t="n">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="D173" t="n">
         <v>552</v>
       </c>
       <c r="E173" t="n">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="F173" t="n">
         <v>4</v>
@@ -5835,10 +7911,22 @@
         <v>4</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0007957999987411313</v>
+        <v>0.0001071999995474471</v>
       </c>
       <c r="I173" t="n">
-        <v>0.0008175999973900616</v>
+        <v>0.0001138999996328494</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.000797200000306475</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.0008288000008178642</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.0009043999998539221</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.0009427000004507136</v>
       </c>
     </row>
     <row r="174">
@@ -5851,25 +7939,37 @@
         <v>583</v>
       </c>
       <c r="C174" t="n">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="D174" t="n">
         <v>585</v>
       </c>
       <c r="E174" t="n">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="F174" t="n">
         <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0007406000004266389</v>
+        <v>0.0001241999998455867</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0007604000056744553</v>
+        <v>0.0001234000010299496</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0007138000000850298</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.0006484999994427199</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.0008379999999306165</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.0007719000004726695</v>
       </c>
     </row>
     <row r="175">
@@ -5882,13 +7982,13 @@
         <v>570</v>
       </c>
       <c r="C175" t="n">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="D175" t="n">
         <v>572</v>
       </c>
       <c r="E175" t="n">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="F175" t="n">
         <v>2</v>
@@ -5897,10 +7997,22 @@
         <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0006745999999111518</v>
+        <v>0.0001176000005216338</v>
       </c>
       <c r="I175" t="n">
-        <v>0.0006554999999934807</v>
+        <v>0.0001170999985333765</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0006620000003749738</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.0006724000013491604</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.0007796000008966075</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.0007894999998825369</v>
       </c>
     </row>
     <row r="176">
@@ -5913,13 +8025,13 @@
         <v>601</v>
       </c>
       <c r="C176" t="n">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="D176" t="n">
         <v>601</v>
       </c>
       <c r="E176" t="n">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -5928,10 +8040,22 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.000625599997874815</v>
+        <v>0.0001138000006903894</v>
       </c>
       <c r="I176" t="n">
-        <v>0.0006241999944904819</v>
+        <v>0.000123199999507051</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0006166000002849614</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.0006250000005820766</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.0007304000009753508</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.0007482000000891276</v>
       </c>
     </row>
     <row r="177">
@@ -5944,13 +8068,13 @@
         <v>589</v>
       </c>
       <c r="C177" t="n">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="D177" t="n">
         <v>589</v>
       </c>
       <c r="E177" t="n">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -5959,10 +8083,22 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0006360999977914616</v>
+        <v>0.0001121000004786765</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0006246999982977286</v>
+        <v>0.0001188999995065387</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.000641399999949499</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.0006573999999091029</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.0007535000004281756</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.0007762999994156417</v>
       </c>
     </row>
     <row r="178">
@@ -5975,25 +8111,37 @@
         <v>557</v>
       </c>
       <c r="C178" t="n">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="D178" t="n">
         <v>567</v>
       </c>
       <c r="E178" t="n">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="F178" t="n">
         <v>4</v>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0008961999992607161</v>
+        <v>0.0001174999997601844</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0009032999951159582</v>
+        <v>0.0001223999988724245</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.000865699999849312</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.0007100999991962453</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.0009831999996094964</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.0008324999980686698</v>
       </c>
     </row>
     <row r="179">
@@ -6006,25 +8154,37 @@
         <v>543</v>
       </c>
       <c r="C179" t="n">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="D179" t="n">
         <v>551</v>
       </c>
       <c r="E179" t="n">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="F179" t="n">
         <v>5</v>
       </c>
       <c r="G179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0009449000062886626</v>
+        <v>0.0001139999985753093</v>
       </c>
       <c r="I179" t="n">
-        <v>0.0009590999979991466</v>
+        <v>0.000119400001494796</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0009524000015517231</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.0008063999994192272</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.001066400000127032</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.0009258000009140233</v>
       </c>
     </row>
     <row r="180">
@@ -6037,25 +8197,37 @@
         <v>578</v>
       </c>
       <c r="C180" t="n">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="D180" t="n">
         <v>593</v>
       </c>
       <c r="E180" t="n">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="F180" t="n">
         <v>7</v>
       </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H180" t="n">
-        <v>0.001032200001645833</v>
+        <v>0.00011129999984405</v>
       </c>
       <c r="I180" t="n">
-        <v>0.001022900003590621</v>
+        <v>0.0001322999996773433</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.001030599998557591</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.0008986000011645956</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.001141899998401641</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.001030900000841939</v>
       </c>
     </row>
     <row r="181">
@@ -6068,13 +8240,13 @@
         <v>690</v>
       </c>
       <c r="C181" t="n">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="D181" t="n">
         <v>696</v>
       </c>
       <c r="E181" t="n">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -6083,10 +8255,22 @@
         <v>3</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0008845999982440844</v>
+        <v>0.0001288999992539175</v>
       </c>
       <c r="I181" t="n">
-        <v>0.0009343999990960583</v>
+        <v>0.0001272999998036539</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0008385000000998843</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.0008825000004435424</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.0009673999993538018</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.001009800000247196</v>
       </c>
     </row>
     <row r="182">
@@ -6099,13 +8283,13 @@
         <v>663</v>
       </c>
       <c r="C182" t="n">
-        <v>665</v>
+        <v>706</v>
       </c>
       <c r="D182" t="n">
         <v>663</v>
       </c>
       <c r="E182" t="n">
-        <v>665</v>
+        <v>706</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -6114,10 +8298,22 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0007112000021152198</v>
+        <v>0.0001082999988284428</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0006982999984757043</v>
+        <v>0.0001200999995489838</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0007028999989415752</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.000756899999032612</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.0008111999977700179</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.0008769999985815957</v>
       </c>
     </row>
     <row r="183">
@@ -6130,13 +8326,13 @@
         <v>658</v>
       </c>
       <c r="C183" t="n">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D183" t="n">
         <v>663</v>
       </c>
       <c r="E183" t="n">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="F183" t="n">
         <v>3</v>
@@ -6145,10 +8341,22 @@
         <v>3</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0008056999940890819</v>
+        <v>0.0001061000002664514</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0008047999945119955</v>
+        <v>0.0001240000001416774</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0007760999997117324</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.0008346000013261801</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.0008821999999781838</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.0009586000014678575</v>
       </c>
     </row>
     <row r="184">
@@ -6161,13 +8369,13 @@
         <v>637</v>
       </c>
       <c r="C184" t="n">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="D184" t="n">
         <v>637</v>
       </c>
       <c r="E184" t="n">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6176,10 +8384,22 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0006395000018528663</v>
+        <v>0.0001112000009015901</v>
       </c>
       <c r="I184" t="n">
-        <v>0.0006502000032924116</v>
+        <v>0.0001245000003109453</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0006577999993169215</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.0006868000000395114</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.0007690000002185116</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.0008113000003504567</v>
       </c>
     </row>
     <row r="185">
@@ -6192,13 +8412,13 @@
         <v>637</v>
       </c>
       <c r="C185" t="n">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="D185" t="n">
         <v>637</v>
       </c>
       <c r="E185" t="n">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -6207,10 +8427,22 @@
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.000647400003799703</v>
+        <v>0.0001080999991245335</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0007236000019474886</v>
+        <v>0.0001201000013679732</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0006386999993992504</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.0006783999997423962</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.0007467999985237839</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.0007985000011103693</v>
       </c>
     </row>
     <row r="186">
@@ -6223,25 +8455,37 @@
         <v>643</v>
       </c>
       <c r="C186" t="n">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="D186" t="n">
         <v>650</v>
       </c>
       <c r="E186" t="n">
-        <v>654</v>
+        <v>692</v>
       </c>
       <c r="F186" t="n">
         <v>4</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0009748000011313707</v>
+        <v>0.0001042000003508292</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0009704000040073879</v>
+        <v>0.0001812999998946907</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.001052899999194779</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.0009174000006169081</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.001157099999545608</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.001098700000511599</v>
       </c>
     </row>
     <row r="187">
@@ -6254,25 +8498,37 @@
         <v>625</v>
       </c>
       <c r="C187" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="D187" t="n">
         <v>641</v>
       </c>
       <c r="E187" t="n">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F187" t="n">
         <v>7</v>
       </c>
       <c r="G187" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H187" t="n">
-        <v>0.001294100002269261</v>
+        <v>0.0001105999999708729</v>
       </c>
       <c r="I187" t="n">
-        <v>0.001301199998124503</v>
+        <v>0.0001709000007394934</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.001408600001013838</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.001120199998695171</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.001519200000984711</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.001291099999434664</v>
       </c>
     </row>
     <row r="188">
@@ -6285,25 +8541,37 @@
         <v>625</v>
       </c>
       <c r="C188" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="D188" t="n">
         <v>641</v>
       </c>
       <c r="E188" t="n">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F188" t="n">
         <v>7</v>
       </c>
       <c r="G188" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
-        <v>0.001300399999308866</v>
+        <v>0.000176199999259552</v>
       </c>
       <c r="I188" t="n">
-        <v>0.00127500000235159</v>
+        <v>0.0001878000002761837</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.00156059999972058</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.0008488000003126217</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.001736799998980132</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.001036600000588805</v>
       </c>
     </row>
     <row r="189">
@@ -6316,25 +8584,37 @@
         <v>625</v>
       </c>
       <c r="C189" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="D189" t="n">
         <v>641</v>
       </c>
       <c r="E189" t="n">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F189" t="n">
         <v>7</v>
       </c>
       <c r="G189" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
-        <v>0.001274700000067241</v>
+        <v>0.0001537000007374445</v>
       </c>
       <c r="I189" t="n">
-        <v>0.001279000003705733</v>
+        <v>0.000121900000522146</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.001260999999431078</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.0008450999994238373</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.001414700000168523</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.0009669999999459833</v>
       </c>
     </row>
     <row r="190">
@@ -6347,13 +8627,13 @@
         <v>629</v>
       </c>
       <c r="C190" t="n">
-        <v>634</v>
+        <v>675</v>
       </c>
       <c r="D190" t="n">
         <v>629</v>
       </c>
       <c r="E190" t="n">
-        <v>634</v>
+        <v>675</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -6362,10 +8642,22 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0006540000031236559</v>
+        <v>0.0001238999993802281</v>
       </c>
       <c r="I190" t="n">
-        <v>0.0007398000016110018</v>
+        <v>0.0001213000014104182</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.0006525999997393228</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.0006833000006736256</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.0007764999991195509</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.0008046000020840438</v>
       </c>
     </row>
     <row r="191">
@@ -6378,13 +8670,13 @@
         <v>665</v>
       </c>
       <c r="C191" t="n">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="D191" t="n">
         <v>671</v>
       </c>
       <c r="E191" t="n">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
@@ -6393,10 +8685,22 @@
         <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0009514000048511662</v>
+        <v>0.0001119000007747672</v>
       </c>
       <c r="I191" t="n">
-        <v>0.000945699997828342</v>
+        <v>0.0001188999995065387</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.0009083000004466157</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.0009521000010863645</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.001020200001221383</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.001071000000592903</v>
       </c>
     </row>
     <row r="192">
@@ -6409,25 +8713,37 @@
         <v>976</v>
       </c>
       <c r="C192" t="n">
-        <v>978</v>
+        <v>1031</v>
       </c>
       <c r="D192" t="n">
         <v>990</v>
       </c>
       <c r="E192" t="n">
-        <v>992</v>
+        <v>1037</v>
       </c>
       <c r="F192" t="n">
         <v>5</v>
       </c>
       <c r="G192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H192" t="n">
-        <v>0.001723699999274686</v>
+        <v>0.0001314000001002569</v>
       </c>
       <c r="I192" t="n">
-        <v>0.001727999995637219</v>
+        <v>0.0001633000010770047</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.001682800000708085</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.001707400000668713</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.001814200000808341</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.001870700001745718</v>
       </c>
     </row>
     <row r="193">
@@ -6440,13 +8756,13 @@
         <v>800</v>
       </c>
       <c r="C193" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D193" t="n">
         <v>800</v>
       </c>
       <c r="E193" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6455,10 +8771,22 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.0007907000035629608</v>
+        <v>0.000102300000435207</v>
       </c>
       <c r="I193" t="n">
-        <v>0.0007455000013578683</v>
+        <v>0.0001247999989573145</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0007339000003412366</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.0008416000000579515</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.0008362000007764436</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.0009663999990152661</v>
       </c>
     </row>
     <row r="194">
@@ -6471,25 +8799,37 @@
         <v>790521</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>792403</v>
+        <v>829955</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>797057</v>
+        <v>797055</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>798937</v>
+        <v>835432</v>
       </c>
       <c r="F194" s="3" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G194" s="3" t="n">
-        <v>1270</v>
+        <v>1213</v>
       </c>
       <c r="H194" s="3" t="n">
-        <v>3.018543999998656</v>
+        <v>0.0696311999909085</v>
       </c>
       <c r="I194" s="3" t="n">
-        <v>2.952250599970284</v>
+        <v>0.08628690001023642</v>
+      </c>
+      <c r="J194" s="3" t="n">
+        <v>3.035009800005355</v>
+      </c>
+      <c r="K194" s="3" t="n">
+        <v>3.402126100001624</v>
+      </c>
+      <c r="L194" s="3" t="n">
+        <v>3.104640999996263</v>
+      </c>
+      <c r="M194" s="3" t="n">
+        <v>3.48841300001186</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -543,13 +543,13 @@
         <v>1047</v>
       </c>
       <c r="C2" t="n">
-        <v>1111</v>
+        <v>1051</v>
       </c>
       <c r="D2" t="n">
         <v>1053</v>
       </c>
       <c r="E2" t="n">
-        <v>1117</v>
+        <v>1057</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005775999998149928</v>
+        <v>0.000190499999007443</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000268300000243471</v>
+        <v>0.0001721000007819384</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002232200000435114</v>
+        <v>0.001570499998706509</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001538999998956569</v>
+        <v>0.001582700000653858</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002809800000250107</v>
+        <v>0.001760999997713952</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00180729999920004</v>
+        <v>0.001754800001435797</v>
       </c>
     </row>
     <row r="3">
@@ -586,37 +586,37 @@
         <v>1151</v>
       </c>
       <c r="C3" t="n">
-        <v>1204</v>
+        <v>1156</v>
       </c>
       <c r="D3" t="n">
         <v>1154</v>
       </c>
       <c r="E3" t="n">
-        <v>1211</v>
+        <v>1159</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001988000003620982</v>
+        <v>0.0001648999987082789</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000173700000232202</v>
+        <v>0.0001640999998926418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001387899999826914</v>
+        <v>0.00136220000058529</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001610400000572554</v>
+        <v>0.001923600000736769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001586700000189012</v>
+        <v>0.001527099999293569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001784100000804756</v>
+        <v>0.002087700000629411</v>
       </c>
     </row>
     <row r="4">
@@ -629,13 +629,13 @@
         <v>1226</v>
       </c>
       <c r="C4" t="n">
-        <v>1270</v>
+        <v>1226</v>
       </c>
       <c r="D4" t="n">
         <v>1233</v>
       </c>
       <c r="E4" t="n">
-        <v>1275</v>
+        <v>1233</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -644,22 +644,22 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001572000001033302</v>
+        <v>0.0002401000001555076</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003681999987747986</v>
+        <v>0.0001741999985824805</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001694800001132535</v>
+        <v>0.001668500000960194</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001644900001338101</v>
+        <v>0.001781099999789149</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001852000001235865</v>
+        <v>0.001908600001115701</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0020131000001129</v>
+        <v>0.001955299998371629</v>
       </c>
     </row>
     <row r="5">
@@ -672,37 +672,37 @@
         <v>1074</v>
       </c>
       <c r="C5" t="n">
-        <v>1135</v>
+        <v>1077</v>
       </c>
       <c r="D5" t="n">
         <v>1113</v>
       </c>
       <c r="E5" t="n">
-        <v>1162</v>
+        <v>1116</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001560000000608852</v>
+        <v>0.0002168999999412335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000172400001247297</v>
+        <v>0.0002438999999867519</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003657600000224193</v>
+        <v>0.003656000000773929</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002963599999930011</v>
+        <v>0.003777500000069267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003813600000285078</v>
+        <v>0.003872900000715163</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003136000001177308</v>
+        <v>0.004021400000056019</v>
       </c>
     </row>
     <row r="6">
@@ -715,13 +715,13 @@
         <v>1086</v>
       </c>
       <c r="C6" t="n">
-        <v>1146</v>
+        <v>1086</v>
       </c>
       <c r="D6" t="n">
         <v>1099</v>
       </c>
       <c r="E6" t="n">
-        <v>1159</v>
+        <v>1099</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -730,22 +730,22 @@
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001446000005671522</v>
+        <v>0.0001675000003160676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001680000004853355</v>
+        <v>0.0001651999991736375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001967300000615069</v>
+        <v>0.001952299999175011</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00200820000100066</v>
+        <v>0.002085000000079162</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002111900001182221</v>
+        <v>0.002119799999491079</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002176200001485995</v>
+        <v>0.0022501999992528</v>
       </c>
     </row>
     <row r="7">
@@ -758,37 +758,37 @@
         <v>1081</v>
       </c>
       <c r="C7" t="n">
-        <v>1142</v>
+        <v>1085</v>
       </c>
       <c r="D7" t="n">
         <v>1081</v>
       </c>
       <c r="E7" t="n">
-        <v>1154</v>
+        <v>1085</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00014510000073642</v>
+        <v>0.0001613000003999332</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002003999998123618</v>
+        <v>0.0001828999993449543</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001242399999682675</v>
+        <v>0.001246300000275369</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002144300000509247</v>
+        <v>0.001387299998896196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001387500000419095</v>
+        <v>0.001407600000675302</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002344700000321609</v>
+        <v>0.001570199998241151</v>
       </c>
     </row>
     <row r="8">
@@ -801,13 +801,13 @@
         <v>1166</v>
       </c>
       <c r="C8" t="n">
-        <v>1217</v>
+        <v>1169</v>
       </c>
       <c r="D8" t="n">
         <v>1177</v>
       </c>
       <c r="E8" t="n">
-        <v>1227</v>
+        <v>1180</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -816,22 +816,22 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001826000006985851</v>
+        <v>0.0001740999996400205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001741999985824805</v>
+        <v>0.0001721999997243984</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001734400000714231</v>
+        <v>0.001726099999359576</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001772899999195943</v>
+        <v>0.001878200000646757</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001917000001412816</v>
+        <v>0.001900199998999597</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001947099997778423</v>
+        <v>0.002050400000371155</v>
       </c>
     </row>
     <row r="9">
@@ -844,37 +844,37 @@
         <v>1119</v>
       </c>
       <c r="C9" t="n">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="D9" t="n">
         <v>1129</v>
       </c>
       <c r="E9" t="n">
-        <v>1185</v>
+        <v>1134</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001527999993413687</v>
+        <v>0.0001828999993449543</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001630000006116461</v>
+        <v>0.0001577000002725981</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001759999999194406</v>
+        <v>0.001764700000421726</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001711700000669225</v>
+        <v>0.001925500000652391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001912799998535775</v>
+        <v>0.00194759999976668</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001874700001280871</v>
+        <v>0.00208320000092499</v>
       </c>
     </row>
     <row r="10">
@@ -887,37 +887,37 @@
         <v>1136</v>
       </c>
       <c r="C10" t="n">
-        <v>1191</v>
+        <v>1143</v>
       </c>
       <c r="D10" t="n">
         <v>1139</v>
       </c>
       <c r="E10" t="n">
-        <v>1197</v>
+        <v>1146</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001534000002720859</v>
+        <v>0.000159400000484311</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001646000000619097</v>
+        <v>0.0001599999995960388</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001451100000849692</v>
+        <v>0.001456800000596559</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001765999999406631</v>
+        <v>0.001599499999429099</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001604500001121778</v>
+        <v>0.00161620000108087</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001930599999468541</v>
+        <v>0.001759499999025138</v>
       </c>
     </row>
     <row r="11">
@@ -930,37 +930,37 @@
         <v>1142</v>
       </c>
       <c r="C11" t="n">
-        <v>1196</v>
+        <v>1146</v>
       </c>
       <c r="D11" t="n">
         <v>1146</v>
       </c>
       <c r="E11" t="n">
-        <v>1196</v>
+        <v>1150</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001439999996364349</v>
+        <v>0.0001544000006106216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001876000005722744</v>
+        <v>0.0001566000009916024</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001406900000802125</v>
+        <v>0.001389400000334717</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001327199999650475</v>
+        <v>0.001530899999124813</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00155090000043856</v>
+        <v>0.001543800000945339</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001514800000222749</v>
+        <v>0.001687500000116415</v>
       </c>
     </row>
     <row r="12">
@@ -973,37 +973,37 @@
         <v>1130</v>
       </c>
       <c r="C12" t="n">
-        <v>1186</v>
+        <v>1134</v>
       </c>
       <c r="D12" t="n">
         <v>1143</v>
       </c>
       <c r="E12" t="n">
-        <v>1193</v>
+        <v>1147</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001756000001478242</v>
+        <v>0.0001446000005671522</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001663000002736226</v>
+        <v>0.0001683000009506941</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001786799999536015</v>
+        <v>0.001772800000253483</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001538300000902382</v>
+        <v>0.001935800000865129</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001962399999683839</v>
+        <v>0.001917400000820635</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001704600001176004</v>
+        <v>0.002104100001815823</v>
       </c>
     </row>
     <row r="13">
@@ -1016,13 +1016,13 @@
         <v>1047</v>
       </c>
       <c r="C13" t="n">
-        <v>1111</v>
+        <v>1051</v>
       </c>
       <c r="D13" t="n">
         <v>1053</v>
       </c>
       <c r="E13" t="n">
-        <v>1117</v>
+        <v>1057</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
@@ -1031,22 +1031,22 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001346999997622333</v>
+        <v>0.0001431000000593485</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001539999993838137</v>
+        <v>0.0001575999995111488</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001371100001051673</v>
+        <v>0.001371500000459491</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001431300001058844</v>
+        <v>0.001524799999970128</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001505800000813906</v>
+        <v>0.00151460000051884</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001585300000442658</v>
+        <v>0.001682399999481277</v>
       </c>
     </row>
     <row r="14">
@@ -1059,37 +1059,37 @@
         <v>1141</v>
       </c>
       <c r="C14" t="n">
-        <v>1196</v>
+        <v>1147</v>
       </c>
       <c r="D14" t="n">
         <v>1153</v>
       </c>
       <c r="E14" t="n">
-        <v>1203</v>
+        <v>1159</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001412999990861863</v>
+        <v>0.0001465000004827743</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001731000011204742</v>
+        <v>0.0001831000008678529</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001741200001561083</v>
+        <v>0.001726599999528844</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001499299998613424</v>
+        <v>0.001874800000223331</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001882500000647269</v>
+        <v>0.001873100000011618</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001672399999733898</v>
+        <v>0.002057900001091184</v>
       </c>
     </row>
     <row r="15">
@@ -1102,13 +1102,13 @@
         <v>1127</v>
       </c>
       <c r="C15" t="n">
-        <v>1183</v>
+        <v>1135</v>
       </c>
       <c r="D15" t="n">
         <v>1134</v>
       </c>
       <c r="E15" t="n">
-        <v>1189</v>
+        <v>1142</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
@@ -1117,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.000150500000017928</v>
+        <v>0.0001431000000593485</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001591999989614123</v>
+        <v>0.0001605000015842961</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001491899998654844</v>
+        <v>0.001476400000683498</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001575899999807007</v>
+        <v>0.001624499998797546</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001642399998672772</v>
+        <v>0.001619500000742846</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001735099998768419</v>
+        <v>0.001785000000381842</v>
       </c>
     </row>
     <row r="16">
@@ -1145,37 +1145,37 @@
         <v>1132</v>
       </c>
       <c r="C16" t="n">
-        <v>1186</v>
+        <v>1136</v>
       </c>
       <c r="D16" t="n">
         <v>1144</v>
       </c>
       <c r="E16" t="n">
-        <v>1188</v>
+        <v>1148</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002108999997290084</v>
+        <v>0.0001369000001432141</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002081999991787598</v>
+        <v>0.0001663999992160825</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002151400000002468</v>
+        <v>0.002081299999190378</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001364800000374089</v>
+        <v>0.002243000000817119</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002362299999731476</v>
+        <v>0.002218199999333592</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001572999999552849</v>
+        <v>0.002409400000033202</v>
       </c>
     </row>
     <row r="17">
@@ -1188,37 +1188,37 @@
         <v>1125</v>
       </c>
       <c r="C17" t="n">
-        <v>1181</v>
+        <v>1129</v>
       </c>
       <c r="D17" t="n">
         <v>1138</v>
       </c>
       <c r="E17" t="n">
-        <v>1191</v>
+        <v>1142</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001469999988330528</v>
+        <v>0.0002062999992631376</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001744000001053791</v>
+        <v>0.0001836999999795808</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002449200001137797</v>
+        <v>0.002448299999741721</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001846699999077828</v>
+        <v>0.002578900001026341</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00259619999997085</v>
+        <v>0.002654599999004859</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002021099999183207</v>
+        <v>0.002762600001005922</v>
       </c>
     </row>
     <row r="18">
@@ -1231,37 +1231,37 @@
         <v>1169</v>
       </c>
       <c r="C18" t="n">
-        <v>1219</v>
+        <v>1177</v>
       </c>
       <c r="D18" t="n">
         <v>1175</v>
       </c>
       <c r="E18" t="n">
-        <v>1221</v>
+        <v>1183</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000149200001033023</v>
+        <v>0.0001482000006944872</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001699000004009577</v>
+        <v>0.0002026000001933426</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001453999999284861</v>
+        <v>0.00144209999962186</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001354500000161352</v>
+        <v>0.001575899999807007</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001603200000317884</v>
+        <v>0.001590300000316347</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001524400000562309</v>
+        <v>0.001778500000000349</v>
       </c>
     </row>
     <row r="19">
@@ -1274,37 +1274,37 @@
         <v>1141</v>
       </c>
       <c r="C19" t="n">
-        <v>1194</v>
+        <v>1145</v>
       </c>
       <c r="D19" t="n">
         <v>1143</v>
       </c>
       <c r="E19" t="n">
-        <v>1198</v>
+        <v>1147</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001544999995530816</v>
+        <v>0.0001499000009062001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001650000012887176</v>
+        <v>0.0001597000009496696</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001273399999263347</v>
+        <v>0.001258500000403728</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001477599998906953</v>
+        <v>0.001391799998600618</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001427899998816429</v>
+        <v>0.001408400001309928</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001642600000195671</v>
+        <v>0.001551499999550288</v>
       </c>
     </row>
     <row r="20">
@@ -1317,13 +1317,13 @@
         <v>1151</v>
       </c>
       <c r="C20" t="n">
-        <v>1204</v>
+        <v>1156</v>
       </c>
       <c r="D20" t="n">
         <v>1154</v>
       </c>
       <c r="E20" t="n">
-        <v>1206</v>
+        <v>1159</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -1332,22 +1332,22 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001437999999325257</v>
+        <v>0.0001413000009051757</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001914999993459787</v>
+        <v>0.0001823000002332265</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001344300000710064</v>
+        <v>0.001279799998883391</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001368299999739975</v>
+        <v>0.001416299999618786</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001488100000642589</v>
+        <v>0.001421099999788566</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001559799999085953</v>
+        <v>0.001598599999852013</v>
       </c>
     </row>
     <row r="21">
@@ -1360,13 +1360,13 @@
         <v>1175</v>
       </c>
       <c r="C21" t="n">
-        <v>1224</v>
+        <v>1185</v>
       </c>
       <c r="D21" t="n">
         <v>1175</v>
       </c>
       <c r="E21" t="n">
-        <v>1224</v>
+        <v>1185</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1375,22 +1375,22 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001563000005262438</v>
+        <v>0.0001639000001887325</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001641999988351017</v>
+        <v>0.0001618000005692011</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0009544999993522651</v>
+        <v>0.0009473000009165844</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0009806000016396865</v>
+        <v>0.001090199999453034</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001110799999878509</v>
+        <v>0.001111200001105317</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001144800000474788</v>
+        <v>0.001252000000022235</v>
       </c>
     </row>
     <row r="22">
@@ -1403,13 +1403,13 @@
         <v>1141</v>
       </c>
       <c r="C22" t="n">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="D22" t="n">
         <v>1148</v>
       </c>
       <c r="E22" t="n">
-        <v>1200</v>
+        <v>1157</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
@@ -1418,22 +1418,22 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001382000009471085</v>
+        <v>0.0001627000001462875</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001652999999350868</v>
+        <v>0.0001669000012043398</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001570899999933317</v>
+        <v>0.001557699999466422</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001648900000873255</v>
+        <v>0.001723800000036135</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001709100000880426</v>
+        <v>0.00172039999961271</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001814200000808341</v>
+        <v>0.001890700001240475</v>
       </c>
     </row>
     <row r="23">
@@ -1446,13 +1446,13 @@
         <v>1141</v>
       </c>
       <c r="C23" t="n">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="D23" t="n">
         <v>1148</v>
       </c>
       <c r="E23" t="n">
-        <v>1200</v>
+        <v>1157</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
@@ -1461,22 +1461,22 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001448000002710614</v>
+        <v>0.0001462999989598757</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001663999992160825</v>
+        <v>0.0001565000002301531</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001563300000270829</v>
+        <v>0.001540000001114095</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001636700000744895</v>
+        <v>0.001705200000287732</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00170810000054189</v>
+        <v>0.00168630000007397</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001803099999960978</v>
+        <v>0.001861700000517885</v>
       </c>
     </row>
     <row r="24">
@@ -1489,13 +1489,13 @@
         <v>1121</v>
       </c>
       <c r="C24" t="n">
-        <v>1178</v>
+        <v>1124</v>
       </c>
       <c r="D24" t="n">
         <v>1126</v>
       </c>
       <c r="E24" t="n">
-        <v>1182</v>
+        <v>1129</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1504,22 +1504,22 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0001468000009481329</v>
+        <v>0.0001554999998916173</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000167199999850709</v>
+        <v>0.0001765999986673705</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001432699998986209</v>
+        <v>0.001421599999957834</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001461199999539531</v>
+        <v>0.001576900000145542</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001579499999934342</v>
+        <v>0.001577099999849452</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00162839999939024</v>
+        <v>0.001753499998812913</v>
       </c>
     </row>
     <row r="25">
@@ -1532,37 +1532,37 @@
         <v>1135</v>
       </c>
       <c r="C25" t="n">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="D25" t="n">
         <v>1153</v>
       </c>
       <c r="E25" t="n">
-        <v>1211</v>
+        <v>1158</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0005002999987482326</v>
+        <v>0.0001539999993838137</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001845999995566672</v>
+        <v>0.000165999999808264</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001997499999561114</v>
+        <v>0.001922400000694324</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00211460000173247</v>
+        <v>0.002083999999740627</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002497799998309347</v>
+        <v>0.002076400000078138</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002299200001289137</v>
+        <v>0.002249999999548891</v>
       </c>
     </row>
     <row r="26">
@@ -1575,37 +1575,37 @@
         <v>1106</v>
       </c>
       <c r="C26" t="n">
-        <v>1165</v>
+        <v>1113</v>
       </c>
       <c r="D26" t="n">
         <v>1109</v>
       </c>
       <c r="E26" t="n">
-        <v>1169</v>
+        <v>1116</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001448999992135214</v>
+        <v>0.0001389000008202856</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001632000003155554</v>
+        <v>0.0001710000015009427</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001260900000488618</v>
+        <v>0.001252000000022235</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001438799999959883</v>
+        <v>0.001402600000801613</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00140579999970214</v>
+        <v>0.001390900000842521</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001602000000275439</v>
+        <v>0.001573600002302555</v>
       </c>
     </row>
     <row r="27">
@@ -1618,37 +1618,37 @@
         <v>2574</v>
       </c>
       <c r="C27" t="n">
-        <v>2695</v>
+        <v>2584</v>
       </c>
       <c r="D27" t="n">
         <v>2596</v>
       </c>
       <c r="E27" t="n">
-        <v>2715</v>
+        <v>2606</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0002184999993914971</v>
+        <v>0.0002158999996026978</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0002956999996968079</v>
+        <v>0.0003426000002946239</v>
       </c>
       <c r="J27" t="n">
-        <v>0.004794000000401866</v>
+        <v>0.004814100000658073</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005118199998833006</v>
+        <v>0.005041500000515953</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005012499999793363</v>
+        <v>0.00503000000026077</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005413899998529814</v>
+        <v>0.005384100000810577</v>
       </c>
     </row>
     <row r="28">
@@ -1661,37 +1661,37 @@
         <v>2497</v>
       </c>
       <c r="C28" t="n">
-        <v>2627</v>
+        <v>2513</v>
       </c>
       <c r="D28" t="n">
         <v>2512</v>
       </c>
       <c r="E28" t="n">
-        <v>2643</v>
+        <v>2528</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002754999986791518</v>
+        <v>0.0002911999999923864</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0002851000008377014</v>
+        <v>0.0002943999988929136</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004395300000396674</v>
+        <v>0.004368300000351155</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004499099999520695</v>
+        <v>0.00474239999857673</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004670799999075825</v>
+        <v>0.004659500000343542</v>
       </c>
       <c r="M28" t="n">
-        <v>0.004784200000358396</v>
+        <v>0.005036799997469643</v>
       </c>
     </row>
     <row r="29">
@@ -1704,37 +1704,37 @@
         <v>2555</v>
       </c>
       <c r="C29" t="n">
-        <v>2678</v>
+        <v>2567</v>
       </c>
       <c r="D29" t="n">
         <v>2564</v>
       </c>
       <c r="E29" t="n">
-        <v>2692</v>
+        <v>2576</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002712000004976289</v>
+        <v>0.0002349000005779089</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0004422000001795823</v>
+        <v>0.0003554999984771712</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003860099999656086</v>
+        <v>0.003855700000713114</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004294200000003912</v>
+        <v>0.00413250000019616</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004131300000153715</v>
+        <v>0.004090600001291023</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004736400000183494</v>
+        <v>0.004487999998673331</v>
       </c>
     </row>
     <row r="30">
@@ -1747,13 +1747,13 @@
         <v>2505</v>
       </c>
       <c r="C30" t="n">
-        <v>2635</v>
+        <v>2523</v>
       </c>
       <c r="D30" t="n">
         <v>2520</v>
       </c>
       <c r="E30" t="n">
-        <v>2648</v>
+        <v>2538</v>
       </c>
       <c r="F30" t="n">
         <v>5</v>
@@ -1762,22 +1762,22 @@
         <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0002483999996911734</v>
+        <v>0.0002355000015086262</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0002864999987650663</v>
+        <v>0.000312300000587129</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004323999999542139</v>
+        <v>0.00423899999987043</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004371499999251682</v>
+        <v>0.004667400000471389</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004572399999233312</v>
+        <v>0.004474500001379056</v>
       </c>
       <c r="M30" t="n">
-        <v>0.004657999998016749</v>
+        <v>0.004979700001058518</v>
       </c>
     </row>
     <row r="31">
@@ -1790,37 +1790,37 @@
         <v>2565</v>
       </c>
       <c r="C31" t="n">
-        <v>2687</v>
+        <v>2578</v>
       </c>
       <c r="D31" t="n">
         <v>2595</v>
       </c>
       <c r="E31" t="n">
-        <v>2696</v>
+        <v>2608</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0002765000008366769</v>
+        <v>0.000287499999103602</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000301799998851493</v>
+        <v>0.0003679000001284294</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005625800000416348</v>
+        <v>0.005552099999476923</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003954200001317076</v>
+        <v>0.005948599999101134</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005902300001253025</v>
+        <v>0.005839599998580525</v>
       </c>
       <c r="M31" t="n">
-        <v>0.004256000000168569</v>
+        <v>0.006316499999229563</v>
       </c>
     </row>
     <row r="32">
@@ -1833,37 +1833,37 @@
         <v>2429</v>
       </c>
       <c r="C32" t="n">
-        <v>2568</v>
+        <v>2449</v>
       </c>
       <c r="D32" t="n">
         <v>2466</v>
       </c>
       <c r="E32" t="n">
-        <v>2605</v>
+        <v>2486</v>
       </c>
       <c r="F32" t="n">
         <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0002481999999872642</v>
+        <v>0.0003381000005902024</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0003458000010141404</v>
+        <v>0.0003643000000010943</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006424499999411637</v>
+        <v>0.00628099999994447</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02383820000068226</v>
+        <v>0.006703799999741022</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006672699999398901</v>
+        <v>0.006619100000534672</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0241840000016964</v>
+        <v>0.007068099999742117</v>
       </c>
     </row>
     <row r="33">
@@ -1876,37 +1876,37 @@
         <v>2560</v>
       </c>
       <c r="C33" t="n">
-        <v>2683</v>
+        <v>2565</v>
       </c>
       <c r="D33" t="n">
         <v>2574</v>
       </c>
       <c r="E33" t="n">
-        <v>2688</v>
+        <v>2579</v>
       </c>
       <c r="F33" t="n">
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0003167000013490906</v>
+        <v>0.0003249000001233071</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003054999997402774</v>
+        <v>0.0003799999994953396</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004410100000313832</v>
+        <v>0.004496700001254794</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003516999999192194</v>
+        <v>0.004802499999641441</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004726800001662923</v>
+        <v>0.004821600001378101</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003822499998932471</v>
+        <v>0.00518249999913678</v>
       </c>
     </row>
     <row r="34">
@@ -1919,37 +1919,37 @@
         <v>2500</v>
       </c>
       <c r="C34" t="n">
-        <v>2629</v>
+        <v>2507</v>
       </c>
       <c r="D34" t="n">
         <v>2514</v>
       </c>
       <c r="E34" t="n">
-        <v>2635</v>
+        <v>2521</v>
       </c>
       <c r="F34" t="n">
         <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000268300000243471</v>
+        <v>0.000309499999275431</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0002924000000348315</v>
+        <v>0.0003465000008873176</v>
       </c>
       <c r="J34" t="n">
-        <v>0.003895499999998719</v>
+        <v>0.003950499998609303</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003537900000083027</v>
+        <v>0.004271299998436007</v>
       </c>
       <c r="L34" t="n">
-        <v>0.00416380000024219</v>
+        <v>0.004259999997884734</v>
       </c>
       <c r="M34" t="n">
-        <v>0.003830300000117859</v>
+        <v>0.004617799999323324</v>
       </c>
     </row>
     <row r="35">
@@ -1962,13 +1962,13 @@
         <v>2489</v>
       </c>
       <c r="C35" t="n">
-        <v>2621</v>
+        <v>2506</v>
       </c>
       <c r="D35" t="n">
         <v>2499</v>
       </c>
       <c r="E35" t="n">
-        <v>2627</v>
+        <v>2516</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
@@ -1977,22 +1977,22 @@
         <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0002317999988008523</v>
+        <v>0.0003119000011793105</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0002836000003298977</v>
+        <v>0.0003522000006341841</v>
       </c>
       <c r="J35" t="n">
-        <v>0.003583600000638398</v>
+        <v>0.003613599999880535</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003625199999078177</v>
+        <v>0.003974299999754294</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003815399999439251</v>
+        <v>0.003925500001059845</v>
       </c>
       <c r="M35" t="n">
-        <v>0.003908799999408075</v>
+        <v>0.004326500000388478</v>
       </c>
     </row>
     <row r="36">
@@ -2005,37 +2005,37 @@
         <v>2576</v>
       </c>
       <c r="C36" t="n">
-        <v>2698</v>
+        <v>2586</v>
       </c>
       <c r="D36" t="n">
         <v>2608</v>
       </c>
       <c r="E36" t="n">
-        <v>2715</v>
+        <v>2618</v>
       </c>
       <c r="F36" t="n">
         <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0.000283800000033807</v>
+        <v>0.0003042999996978324</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0003102999999100575</v>
+        <v>0.0003570999997464241</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005768800001533236</v>
+        <v>0.005711300000257324</v>
       </c>
       <c r="K36" t="n">
-        <v>0.005317099999956554</v>
+        <v>0.006020100001478568</v>
       </c>
       <c r="L36" t="n">
-        <v>0.006052600001567043</v>
+        <v>0.006015599999955157</v>
       </c>
       <c r="M36" t="n">
-        <v>0.005627399999866611</v>
+        <v>0.006377200001224992</v>
       </c>
     </row>
     <row r="37">
@@ -2048,37 +2048,37 @@
         <v>2516</v>
       </c>
       <c r="C37" t="n">
-        <v>2644</v>
+        <v>2524</v>
       </c>
       <c r="D37" t="n">
         <v>2533</v>
       </c>
       <c r="E37" t="n">
-        <v>2652</v>
+        <v>2541</v>
       </c>
       <c r="F37" t="n">
         <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0002793999992718454</v>
+        <v>0.0002991000001202337</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0003001999994012294</v>
+        <v>0.0003753999990294687</v>
       </c>
       <c r="J37" t="n">
-        <v>0.004657699999370379</v>
+        <v>0.02141420000043581</v>
       </c>
       <c r="K37" t="n">
-        <v>0.004220500000883476</v>
+        <v>0.005175000000235741</v>
       </c>
       <c r="L37" t="n">
-        <v>0.004937099998642225</v>
+        <v>0.02171330000055605</v>
       </c>
       <c r="M37" t="n">
-        <v>0.004520700000284705</v>
+        <v>0.00555039999926521</v>
       </c>
     </row>
     <row r="38">
@@ -2091,37 +2091,37 @@
         <v>2620</v>
       </c>
       <c r="C38" t="n">
-        <v>2735</v>
+        <v>2634</v>
       </c>
       <c r="D38" t="n">
         <v>2640</v>
       </c>
       <c r="E38" t="n">
-        <v>2747</v>
+        <v>2654</v>
       </c>
       <c r="F38" t="n">
         <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>0.000296899999739253</v>
+        <v>0.0003703999991557794</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0003655000000435393</v>
+        <v>0.0004179000006843125</v>
       </c>
       <c r="J38" t="n">
-        <v>0.004748599998492864</v>
+        <v>0.004876599999988684</v>
       </c>
       <c r="K38" t="n">
-        <v>0.003852099998766789</v>
+        <v>0.005085599999802071</v>
       </c>
       <c r="L38" t="n">
-        <v>0.005045499998232117</v>
+        <v>0.005246999999144464</v>
       </c>
       <c r="M38" t="n">
-        <v>0.004217599998810329</v>
+        <v>0.005503500000486383</v>
       </c>
     </row>
     <row r="39">
@@ -2134,37 +2134,37 @@
         <v>4640</v>
       </c>
       <c r="C39" t="n">
-        <v>4844</v>
+        <v>4655</v>
       </c>
       <c r="D39" t="n">
         <v>4657</v>
       </c>
       <c r="E39" t="n">
-        <v>4855</v>
+        <v>4671</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0005228999998507788</v>
+        <v>0.0004190999989077682</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0004962000002706191</v>
+        <v>0.0005578000000241445</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006809399999838206</v>
+        <v>0.006757599998309161</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00775439999961236</v>
+        <v>0.007366499999989173</v>
       </c>
       <c r="L39" t="n">
-        <v>0.007332299999688985</v>
+        <v>0.007176699997216929</v>
       </c>
       <c r="M39" t="n">
-        <v>0.008250599999882979</v>
+        <v>0.007924300000013318</v>
       </c>
     </row>
     <row r="40">
@@ -2177,37 +2177,37 @@
         <v>4406</v>
       </c>
       <c r="C40" t="n">
-        <v>4641</v>
+        <v>4431</v>
       </c>
       <c r="D40" t="n">
         <v>4438</v>
       </c>
       <c r="E40" t="n">
-        <v>4657</v>
+        <v>4461</v>
       </c>
       <c r="F40" t="n">
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0003902999997080769</v>
+        <v>0.0003851999990729382</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0004700999998021871</v>
+        <v>0.000585900001169648</v>
       </c>
       <c r="J40" t="n">
-        <v>0.009856099999524304</v>
+        <v>0.009831500001382665</v>
       </c>
       <c r="K40" t="n">
-        <v>0.008245299999543931</v>
+        <v>0.01087499999994179</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01024639999923238</v>
+        <v>0.0102167000004556</v>
       </c>
       <c r="M40" t="n">
-        <v>0.008715399999346118</v>
+        <v>0.01146090000111144</v>
       </c>
     </row>
     <row r="41">
@@ -2220,13 +2220,13 @@
         <v>4585</v>
       </c>
       <c r="C41" t="n">
-        <v>4795</v>
+        <v>4602</v>
       </c>
       <c r="D41" t="n">
         <v>4596</v>
       </c>
       <c r="E41" t="n">
-        <v>4801</v>
+        <v>4613</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
@@ -2235,22 +2235,22 @@
         <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0004463999994186452</v>
+        <v>0.0004625999990821583</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0004719999997178093</v>
+        <v>0.0004965999996784376</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005589200000031269</v>
+        <v>0.00589380000019446</v>
       </c>
       <c r="K41" t="n">
-        <v>0.005723099999158876</v>
+        <v>0.006152400001155911</v>
       </c>
       <c r="L41" t="n">
-        <v>0.006035599999449914</v>
+        <v>0.006356399999276618</v>
       </c>
       <c r="M41" t="n">
-        <v>0.006195099998876685</v>
+        <v>0.006649000000834349</v>
       </c>
     </row>
     <row r="42">
@@ -2263,37 +2263,37 @@
         <v>4590</v>
       </c>
       <c r="C42" t="n">
-        <v>4801</v>
+        <v>4617</v>
       </c>
       <c r="D42" t="n">
         <v>4595</v>
       </c>
       <c r="E42" t="n">
-        <v>4808</v>
+        <v>4622</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0004184999997960404</v>
+        <v>0.0004062000007252209</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0004533000010269461</v>
+        <v>0.0005492000000231201</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005121799998960341</v>
+        <v>0.005226999999649706</v>
       </c>
       <c r="K42" t="n">
-        <v>0.006183699999382952</v>
+        <v>0.005845199999384931</v>
       </c>
       <c r="L42" t="n">
-        <v>0.005540299998756382</v>
+        <v>0.005633200000374927</v>
       </c>
       <c r="M42" t="n">
-        <v>0.006637000000409898</v>
+        <v>0.006394399999408051</v>
       </c>
     </row>
     <row r="43">
@@ -2306,37 +2306,37 @@
         <v>4585</v>
       </c>
       <c r="C43" t="n">
-        <v>4796</v>
+        <v>4608</v>
       </c>
       <c r="D43" t="n">
         <v>4628</v>
       </c>
       <c r="E43" t="n">
-        <v>4827</v>
+        <v>4639</v>
       </c>
       <c r="F43" t="n">
         <v>8</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0004193999993731268</v>
+        <v>0.0004637000001821434</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0004797000001417473</v>
+        <v>0.0005036000002291985</v>
       </c>
       <c r="J43" t="n">
-        <v>0.009629100000893231</v>
+        <v>0.009536999999909312</v>
       </c>
       <c r="K43" t="n">
-        <v>0.00978670000040438</v>
+        <v>0.008610300001237192</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01004850000026636</v>
+        <v>0.01000070000009146</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01026640000054613</v>
+        <v>0.009113900001466391</v>
       </c>
     </row>
     <row r="44">
@@ -2349,37 +2349,37 @@
         <v>4770</v>
       </c>
       <c r="C44" t="n">
-        <v>4961</v>
+        <v>4793</v>
       </c>
       <c r="D44" t="n">
         <v>4794</v>
       </c>
       <c r="E44" t="n">
-        <v>4976</v>
+        <v>4817</v>
       </c>
       <c r="F44" t="n">
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0004537999993772246</v>
+        <v>0.0004441000000952045</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0007071999989420874</v>
+        <v>0.0005142999998497544</v>
       </c>
       <c r="J44" t="n">
-        <v>0.007784400000673486</v>
+        <v>0.007390000000668806</v>
       </c>
       <c r="K44" t="n">
-        <v>0.007523600001150044</v>
+        <v>0.007848299999750452</v>
       </c>
       <c r="L44" t="n">
-        <v>0.008238200000050711</v>
+        <v>0.00783410000076401</v>
       </c>
       <c r="M44" t="n">
-        <v>0.008230800000092131</v>
+        <v>0.008362599999600207</v>
       </c>
     </row>
     <row r="45">
@@ -2392,37 +2392,37 @@
         <v>4400</v>
       </c>
       <c r="C45" t="n">
-        <v>4637</v>
+        <v>4427</v>
       </c>
       <c r="D45" t="n">
         <v>4454</v>
       </c>
       <c r="E45" t="n">
-        <v>4671</v>
+        <v>4481</v>
       </c>
       <c r="F45" t="n">
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0004332999997131992</v>
+        <v>0.0003775000004679896</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0004951000009896234</v>
+        <v>0.0004633000007743249</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01262470000074245</v>
+        <v>0.01190950000091107</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01171010000143724</v>
+        <v>0.01250429999890912</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01305800000045565</v>
+        <v>0.01228700000137906</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01220520000242686</v>
+        <v>0.01296759999968344</v>
       </c>
     </row>
     <row r="46">
@@ -2435,37 +2435,37 @@
         <v>4515</v>
       </c>
       <c r="C46" t="n">
-        <v>4738</v>
+        <v>4530</v>
       </c>
       <c r="D46" t="n">
         <v>4553</v>
       </c>
       <c r="E46" t="n">
-        <v>4761</v>
+        <v>4568</v>
       </c>
       <c r="F46" t="n">
         <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0004037999988213414</v>
+        <v>0.0004035999991174322</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0004650999999284977</v>
+        <v>0.0004854999988310738</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01028099999894039</v>
+        <v>0.01025830000071437</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02853890000005777</v>
+        <v>0.01060189999952854</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01068479999776173</v>
+        <v>0.0106618999998318</v>
       </c>
       <c r="M46" t="n">
-        <v>0.02900399999998626</v>
+        <v>0.01108739999835961</v>
       </c>
     </row>
     <row r="47">
@@ -2478,37 +2478,37 @@
         <v>4514</v>
       </c>
       <c r="C47" t="n">
-        <v>4737</v>
+        <v>4533</v>
       </c>
       <c r="D47" t="n">
         <v>4551</v>
       </c>
       <c r="E47" t="n">
-        <v>4752</v>
+        <v>4577</v>
       </c>
       <c r="F47" t="n">
         <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000738900000214926</v>
+        <v>0.0003876999999192776</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0005065999994258163</v>
+        <v>0.0004997999985789647</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01182689999950526</v>
+        <v>0.01173630000084813</v>
       </c>
       <c r="K47" t="n">
-        <v>0.008799000001090462</v>
+        <v>0.01366699999925913</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01256579999972018</v>
+        <v>0.01212400000076741</v>
       </c>
       <c r="M47" t="n">
-        <v>0.009305600000516279</v>
+        <v>0.0141667999978381</v>
       </c>
     </row>
     <row r="48">
@@ -2521,37 +2521,37 @@
         <v>4500</v>
       </c>
       <c r="C48" t="n">
-        <v>4726</v>
+        <v>4516</v>
       </c>
       <c r="D48" t="n">
         <v>4547</v>
       </c>
       <c r="E48" t="n">
-        <v>4755</v>
+        <v>4563</v>
       </c>
       <c r="F48" t="n">
         <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0004067000008944888</v>
+        <v>0.0004222999996272847</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0005020000007789349</v>
+        <v>0.0005447999992611585</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01381949999995413</v>
+        <v>0.01389160000144329</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01238419999936013</v>
+        <v>0.01429559999996854</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01422620000084862</v>
+        <v>0.01431390000107058</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01288620000013907</v>
+        <v>0.0148403999992297</v>
       </c>
     </row>
     <row r="49">
@@ -2564,37 +2564,37 @@
         <v>4388</v>
       </c>
       <c r="C49" t="n">
-        <v>4626</v>
+        <v>4407</v>
       </c>
       <c r="D49" t="n">
         <v>4423</v>
       </c>
       <c r="E49" t="n">
-        <v>4635</v>
+        <v>4445</v>
       </c>
       <c r="F49" t="n">
         <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0003925000000890577</v>
+        <v>0.0004109999990760116</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0005856000007042894</v>
+        <v>0.0005037999999331078</v>
       </c>
       <c r="J49" t="n">
-        <v>0.009967800000595162</v>
+        <v>0.02661929999885615</v>
       </c>
       <c r="K49" t="n">
-        <v>0.006848999999419902</v>
+        <v>0.01225139999951352</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01036030000068422</v>
+        <v>0.02703029999793216</v>
       </c>
       <c r="M49" t="n">
-        <v>0.007434600000124192</v>
+        <v>0.01275519999944663</v>
       </c>
     </row>
     <row r="50">
@@ -2607,37 +2607,37 @@
         <v>4649</v>
       </c>
       <c r="C50" t="n">
-        <v>4853</v>
+        <v>4663</v>
       </c>
       <c r="D50" t="n">
         <v>4679</v>
       </c>
       <c r="E50" t="n">
-        <v>4888</v>
+        <v>4700</v>
       </c>
       <c r="F50" t="n">
         <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0004444000005605631</v>
+        <v>0.0004552999998850282</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0005029000003560213</v>
+        <v>0.0005512999996426515</v>
       </c>
       <c r="J50" t="n">
-        <v>0.009045900000273832</v>
+        <v>0.009331799999927171</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01086369999939052</v>
+        <v>0.01030369999898539</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009490300000834395</v>
+        <v>0.009787099999812199</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01136659999974654</v>
+        <v>0.01085499999862805</v>
       </c>
     </row>
     <row r="51">
@@ -2650,37 +2650,37 @@
         <v>6652</v>
       </c>
       <c r="C51" t="n">
-        <v>7001</v>
+        <v>6687</v>
       </c>
       <c r="D51" t="n">
         <v>6722</v>
       </c>
       <c r="E51" t="n">
-        <v>7060</v>
+        <v>6758</v>
       </c>
       <c r="F51" t="n">
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0004862999994657002</v>
+        <v>0.0004828000000998145</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0006367999994836282</v>
+        <v>0.0006315000009635696</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01952510000046459</v>
+        <v>0.01948859999902197</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01798280000002705</v>
+        <v>0.02198529999986931</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02001139999993029</v>
+        <v>0.01997139999912179</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01861959999951068</v>
+        <v>0.02261680000083288</v>
       </c>
     </row>
     <row r="52">
@@ -2693,37 +2693,37 @@
         <v>6652</v>
       </c>
       <c r="C52" t="n">
-        <v>7001</v>
+        <v>6687</v>
       </c>
       <c r="D52" t="n">
         <v>6744</v>
       </c>
       <c r="E52" t="n">
-        <v>7061</v>
+        <v>6768</v>
       </c>
       <c r="F52" t="n">
         <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000518700000611716</v>
+        <v>0.000504400000863825</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000632400000540656</v>
+        <v>0.0006253000010474352</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02243119999911869</v>
+        <v>0.02184830000078364</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02145989999917219</v>
+        <v>0.02120560000003024</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02294989999973041</v>
+        <v>0.02235270000164746</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02209229999971285</v>
+        <v>0.02183090000107768</v>
       </c>
     </row>
     <row r="53">
@@ -2736,37 +2736,37 @@
         <v>8412</v>
       </c>
       <c r="C53" t="n">
-        <v>8834</v>
+        <v>8446</v>
       </c>
       <c r="D53" t="n">
         <v>8478</v>
       </c>
       <c r="E53" t="n">
-        <v>8870</v>
+        <v>8491</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0005913000004511559</v>
+        <v>0.0005971000009594718</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0007709999990765937</v>
+        <v>0.0007627000013599172</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02686349999930826</v>
+        <v>0.02715369999896211</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01961910000136413</v>
+        <v>0.02301249999982247</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02745479999975942</v>
+        <v>0.02775079999992158</v>
       </c>
       <c r="M53" t="n">
-        <v>0.02039010000044073</v>
+        <v>0.02377520000118238</v>
       </c>
     </row>
     <row r="54">
@@ -2779,37 +2779,37 @@
         <v>8437</v>
       </c>
       <c r="C54" t="n">
-        <v>8859</v>
+        <v>8478</v>
       </c>
       <c r="D54" t="n">
         <v>8472</v>
       </c>
       <c r="E54" t="n">
-        <v>8886</v>
+        <v>8522</v>
       </c>
       <c r="F54" t="n">
         <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0005932000003667781</v>
+        <v>0.0005903000001126202</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000746600000638864</v>
+        <v>0.000784100000601029</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01839900000049965</v>
+        <v>0.01767690000087896</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01814130000093428</v>
+        <v>0.02075180000065302</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01899220000086643</v>
+        <v>0.01826720000099158</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01888790000157314</v>
+        <v>0.02153590000125405</v>
       </c>
     </row>
     <row r="55">
@@ -2822,37 +2822,37 @@
         <v>8530</v>
       </c>
       <c r="C55" t="n">
-        <v>8937</v>
+        <v>8557</v>
       </c>
       <c r="D55" t="n">
         <v>8599</v>
       </c>
       <c r="E55" t="n">
-        <v>8962</v>
+        <v>8626</v>
       </c>
       <c r="F55" t="n">
         <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0006444999999075662</v>
+        <v>0.0007420999991154531</v>
       </c>
       <c r="I55" t="n">
-        <v>0.001002499999231077</v>
+        <v>0.0007721000001765788</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04451630000039586</v>
+        <v>0.02575769999930344</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01911629999995057</v>
+        <v>0.02673320000030799</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04516080000030342</v>
+        <v>0.02649979999841889</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02011879999918165</v>
+        <v>0.02750530000048457</v>
       </c>
     </row>
     <row r="56">
@@ -2865,37 +2865,37 @@
         <v>8374</v>
       </c>
       <c r="C56" t="n">
-        <v>8801</v>
+        <v>8412</v>
       </c>
       <c r="D56" t="n">
         <v>8426</v>
       </c>
       <c r="E56" t="n">
-        <v>8859</v>
+        <v>8472</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0005817999990540557</v>
+        <v>0.0006198999999469379</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00073319999864907</v>
+        <v>0.0007538999998359941</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02339009999923292</v>
+        <v>0.03864459999931569</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02434650000031979</v>
+        <v>0.0254464999998163</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02397189999828697</v>
+        <v>0.03926449999926263</v>
       </c>
       <c r="M56" t="n">
-        <v>0.02507969999896886</v>
+        <v>0.02620039999965229</v>
       </c>
     </row>
     <row r="57">
@@ -2908,37 +2908,37 @@
         <v>8310</v>
       </c>
       <c r="C57" t="n">
-        <v>8747</v>
+        <v>8347</v>
       </c>
       <c r="D57" t="n">
         <v>8373</v>
       </c>
       <c r="E57" t="n">
-        <v>8796</v>
+        <v>8410</v>
       </c>
       <c r="F57" t="n">
         <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00058309999985795</v>
+        <v>0.0005761000011261785</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0007406999993690988</v>
+        <v>0.0007826000000932254</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02038919999904465</v>
+        <v>0.02055789999940316</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02062680000017281</v>
+        <v>0.02177490000030957</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0209722999989026</v>
+        <v>0.02113400000052934</v>
       </c>
       <c r="M57" t="n">
-        <v>0.02136749999954191</v>
+        <v>0.0225575000004028</v>
       </c>
     </row>
     <row r="58">
@@ -2951,13 +2951,13 @@
         <v>8396</v>
       </c>
       <c r="C58" t="n">
-        <v>8821</v>
+        <v>8442</v>
       </c>
       <c r="D58" t="n">
         <v>8460</v>
       </c>
       <c r="E58" t="n">
-        <v>8861</v>
+        <v>8500</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -2966,22 +2966,22 @@
         <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001186999999845284</v>
+        <v>0.0006215000012161909</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0007597999992867699</v>
+        <v>0.000740100000257371</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02274919999945269</v>
+        <v>0.0230928999990283</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02022519999991346</v>
+        <v>0.02141389999997045</v>
       </c>
       <c r="L58" t="n">
-        <v>0.02393619999929797</v>
+        <v>0.0237144000002445</v>
       </c>
       <c r="M58" t="n">
-        <v>0.02098499999920023</v>
+        <v>0.02215400000022782</v>
       </c>
     </row>
     <row r="59">
@@ -2994,37 +2994,37 @@
         <v>8615</v>
       </c>
       <c r="C59" t="n">
-        <v>9013</v>
+        <v>8654</v>
       </c>
       <c r="D59" t="n">
         <v>8677</v>
       </c>
       <c r="E59" t="n">
-        <v>9049</v>
+        <v>8711</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0006501000007119728</v>
+        <v>0.0006365999997797189</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0008039999993343372</v>
+        <v>0.0007755000006000046</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01930720000018482</v>
+        <v>0.01916969999911089</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01499639999929059</v>
+        <v>0.01917479999974603</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01995730000089679</v>
+        <v>0.01980629999889061</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01580039999862493</v>
+        <v>0.01995030000034603</v>
       </c>
     </row>
     <row r="60">
@@ -3037,37 +3037,37 @@
         <v>8611</v>
       </c>
       <c r="C60" t="n">
-        <v>9006</v>
+        <v>8651</v>
       </c>
       <c r="D60" t="n">
         <v>8671</v>
       </c>
       <c r="E60" t="n">
-        <v>9037</v>
+        <v>8711</v>
       </c>
       <c r="F60" t="n">
         <v>8</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0006615999991481658</v>
+        <v>0.0006200000007083872</v>
       </c>
       <c r="I60" t="n">
         <v>0.0007851999998820247</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01969580000150017</v>
+        <v>0.01907959999880404</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03458989999853657</v>
+        <v>0.02015399999982037</v>
       </c>
       <c r="L60" t="n">
-        <v>0.02035740000064834</v>
+        <v>0.01969959999951243</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03537509999841859</v>
+        <v>0.0209391999997024</v>
       </c>
     </row>
     <row r="61">
@@ -3080,37 +3080,37 @@
         <v>8807</v>
       </c>
       <c r="C61" t="n">
-        <v>9178</v>
+        <v>8829</v>
       </c>
       <c r="D61" t="n">
         <v>8824</v>
       </c>
       <c r="E61" t="n">
-        <v>9190</v>
+        <v>8846</v>
       </c>
       <c r="F61" t="n">
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0007225999997899635</v>
+        <v>0.0006355000004987232</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0008613000009063398</v>
+        <v>0.0007883999987825518</v>
       </c>
       <c r="J61" t="n">
-        <v>0.012930700000652</v>
+        <v>0.0127386000003753</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01443269999981567</v>
+        <v>0.02949879999869154</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01365330000044196</v>
+        <v>0.01337410000087402</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01529400000072201</v>
+        <v>0.03028719999747409</v>
       </c>
     </row>
     <row r="62">
@@ -3123,37 +3123,37 @@
         <v>8700</v>
       </c>
       <c r="C62" t="n">
-        <v>9085</v>
+        <v>8722</v>
       </c>
       <c r="D62" t="n">
         <v>8746</v>
       </c>
       <c r="E62" t="n">
-        <v>9120</v>
+        <v>8768</v>
       </c>
       <c r="F62" t="n">
         <v>7</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0006502000014734222</v>
+        <v>0.0006217000009201001</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0008223999993788311</v>
+        <v>0.0007702000002609566</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01779290000013134</v>
+        <v>0.01751440000043658</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01740739999877405</v>
+        <v>0.0187445999999909</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01844310000160476</v>
+        <v>0.01813610000135668</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01822979999815288</v>
+        <v>0.01951480000025185</v>
       </c>
     </row>
     <row r="63">
@@ -3166,13 +3166,13 @@
         <v>8699</v>
       </c>
       <c r="C63" t="n">
-        <v>9085</v>
+        <v>8721</v>
       </c>
       <c r="D63" t="n">
         <v>8712</v>
       </c>
       <c r="E63" t="n">
-        <v>9098</v>
+        <v>8734</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
@@ -3181,22 +3181,22 @@
         <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0006301000012172153</v>
+        <v>0.0006609000010939781</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0008112999985314673</v>
+        <v>0.0008033000012801494</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01196660000096017</v>
+        <v>0.01171240000076068</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01260289999845554</v>
+        <v>0.01314400000046589</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01259670000217739</v>
+        <v>0.01237330000185466</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01341419999698701</v>
+        <v>0.01394730000174604</v>
       </c>
     </row>
     <row r="64">
@@ -3209,37 +3209,37 @@
         <v>8412</v>
       </c>
       <c r="C64" t="n">
-        <v>8834</v>
+        <v>8446</v>
       </c>
       <c r="D64" t="n">
         <v>8478</v>
       </c>
       <c r="E64" t="n">
-        <v>8870</v>
+        <v>8491</v>
       </c>
       <c r="F64" t="n">
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0006444000009651063</v>
+        <v>0.0005813000007037772</v>
       </c>
       <c r="I64" t="n">
-        <v>0.000990099999398808</v>
+        <v>0.0007669000005989801</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02866519999952288</v>
+        <v>0.02664740000000165</v>
       </c>
       <c r="K64" t="n">
-        <v>0.02135999999882188</v>
+        <v>0.02294559999972989</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02930960000048799</v>
+        <v>0.02722870000070543</v>
       </c>
       <c r="M64" t="n">
-        <v>0.02235009999822068</v>
+        <v>0.02371250000032887</v>
       </c>
     </row>
     <row r="65">
@@ -3252,37 +3252,37 @@
         <v>8550</v>
       </c>
       <c r="C65" t="n">
-        <v>8955</v>
+        <v>8593</v>
       </c>
       <c r="D65" t="n">
         <v>8614</v>
       </c>
       <c r="E65" t="n">
-        <v>8988</v>
+        <v>8652</v>
       </c>
       <c r="F65" t="n">
         <v>16</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0007296000003407244</v>
+        <v>0.0006338000002870103</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0008144999992509838</v>
+        <v>0.0007777999999234453</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02992989999984275</v>
+        <v>0.02756410000074538</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01533159999962663</v>
+        <v>0.02635960000043269</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03065950000018347</v>
+        <v>0.02819790000103239</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01614609999887762</v>
+        <v>0.02713740000035614</v>
       </c>
     </row>
     <row r="66">
@@ -3295,37 +3295,37 @@
         <v>8666</v>
       </c>
       <c r="C66" t="n">
-        <v>9055</v>
+        <v>8692</v>
       </c>
       <c r="D66" t="n">
         <v>8695</v>
       </c>
       <c r="E66" t="n">
-        <v>9080</v>
+        <v>8721</v>
       </c>
       <c r="F66" t="n">
         <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0006334999998216517</v>
+        <v>0.0006246000011742581</v>
       </c>
       <c r="I66" t="n">
-        <v>0.000846099999762373</v>
+        <v>0.0007738999993307516</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0349843999993027</v>
+        <v>0.01378740000109246</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01337270000112767</v>
+        <v>0.01465769999958866</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03561789999912435</v>
+        <v>0.01441200000226672</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01421880000089004</v>
+        <v>0.01543159999891941</v>
       </c>
     </row>
     <row r="67">
@@ -3338,37 +3338,37 @@
         <v>8641</v>
       </c>
       <c r="C67" t="n">
-        <v>9034</v>
+        <v>8671</v>
       </c>
       <c r="D67" t="n">
         <v>8694</v>
       </c>
       <c r="E67" t="n">
-        <v>9079</v>
+        <v>8726</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
       </c>
       <c r="G67" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0006363000011333497</v>
+        <v>0.0006049999992683297</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0008178999996744096</v>
+        <v>0.000807399999757763</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02183890000014799</v>
+        <v>0.0216935000007652</v>
       </c>
       <c r="K67" t="n">
-        <v>0.02278049999949872</v>
+        <v>0.03519450000021607</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02247520000128134</v>
+        <v>0.02229850000003353</v>
       </c>
       <c r="M67" t="n">
-        <v>0.02359839999917313</v>
+        <v>0.03600189999997383</v>
       </c>
     </row>
     <row r="68">
@@ -3381,37 +3381,37 @@
         <v>8649</v>
       </c>
       <c r="C68" t="n">
-        <v>9041</v>
+        <v>8684</v>
       </c>
       <c r="D68" t="n">
         <v>8703</v>
       </c>
       <c r="E68" t="n">
-        <v>9078</v>
+        <v>8739</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0006305999995674938</v>
+        <v>0.0006149000000732485</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0008042999997996958</v>
+        <v>0.0008790000010776566</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02098999999907392</v>
+        <v>0.02076110000052722</v>
       </c>
       <c r="K68" t="n">
-        <v>0.01847070000076201</v>
+        <v>0.02157460000125866</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02162059999864141</v>
+        <v>0.02137600000060047</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0192750000005617</v>
+        <v>0.02245360000233632</v>
       </c>
     </row>
     <row r="69">
@@ -3424,37 +3424,37 @@
         <v>8647</v>
       </c>
       <c r="C69" t="n">
-        <v>9039</v>
+        <v>8688</v>
       </c>
       <c r="D69" t="n">
         <v>8686</v>
       </c>
       <c r="E69" t="n">
-        <v>9074</v>
+        <v>8719</v>
       </c>
       <c r="F69" t="n">
         <v>7</v>
       </c>
       <c r="G69" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0006849999990663491</v>
+        <v>0.0006445999988500262</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0007820999999239575</v>
+        <v>0.0008185000006051268</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01729820000036852</v>
+        <v>0.01663730000109354</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01946580000003451</v>
+        <v>0.01549500000146509</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01798319999943487</v>
+        <v>0.01728189999994356</v>
       </c>
       <c r="M69" t="n">
-        <v>0.02024789999995846</v>
+        <v>0.01631350000207021</v>
       </c>
     </row>
     <row r="70">
@@ -3467,37 +3467,37 @@
         <v>8382</v>
       </c>
       <c r="C70" t="n">
-        <v>8809</v>
+        <v>8423</v>
       </c>
       <c r="D70" t="n">
         <v>8430</v>
       </c>
       <c r="E70" t="n">
-        <v>8843</v>
+        <v>8470</v>
       </c>
       <c r="F70" t="n">
         <v>7</v>
       </c>
       <c r="G70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0008522000007360475</v>
+        <v>0.0005858999993506586</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0008135999996738974</v>
+        <v>0.0007380999995802995</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02251419999993232</v>
+        <v>0.02177880000090227</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02078059999985271</v>
+        <v>0.02468679999947199</v>
       </c>
       <c r="L70" t="n">
-        <v>0.02336640000066836</v>
+        <v>0.02236470000025292</v>
       </c>
       <c r="M70" t="n">
-        <v>0.02159419999952661</v>
+        <v>0.02542489999905229</v>
       </c>
     </row>
     <row r="71">
@@ -3510,37 +3510,37 @@
         <v>8422</v>
       </c>
       <c r="C71" t="n">
-        <v>8843</v>
+        <v>8462</v>
       </c>
       <c r="D71" t="n">
         <v>8467</v>
       </c>
       <c r="E71" t="n">
-        <v>8876</v>
+        <v>8510</v>
       </c>
       <c r="F71" t="n">
         <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" t="n">
-        <v>0.000637399998595356</v>
+        <v>0.0005906999995204387</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0007752999990771059</v>
+        <v>0.0007439000000886153</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02010770000015327</v>
+        <v>0.01932669999951031</v>
       </c>
       <c r="K71" t="n">
-        <v>0.04497029999947699</v>
+        <v>0.02083970000057889</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02074509999874863</v>
+        <v>0.01991739999903075</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0457455999985541</v>
+        <v>0.0215836000006675</v>
       </c>
     </row>
     <row r="72">
@@ -3553,37 +3553,37 @@
         <v>8415</v>
       </c>
       <c r="C72" t="n">
-        <v>8837</v>
+        <v>8454</v>
       </c>
       <c r="D72" t="n">
         <v>8457</v>
       </c>
       <c r="E72" t="n">
-        <v>8873</v>
+        <v>8496</v>
       </c>
       <c r="F72" t="n">
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0006056999991415069</v>
+        <v>0.0005778000013378914</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0007803000007697847</v>
+        <v>0.0007349999996222323</v>
       </c>
       <c r="J72" t="n">
-        <v>0.01994319999903382</v>
+        <v>0.019519899999068</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02231159999973897</v>
+        <v>0.02149589999862656</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02054889999817533</v>
+        <v>0.02009770000040589</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02309190000050876</v>
+        <v>0.02223089999824879</v>
       </c>
     </row>
     <row r="73">
@@ -3596,37 +3596,37 @@
         <v>8453</v>
       </c>
       <c r="C73" t="n">
-        <v>8872</v>
+        <v>8483</v>
       </c>
       <c r="D73" t="n">
         <v>8520</v>
       </c>
       <c r="E73" t="n">
-        <v>8909</v>
+        <v>8533</v>
       </c>
       <c r="F73" t="n">
         <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0006099000001995591</v>
+        <v>0.0005924999986746116</v>
       </c>
       <c r="I73" t="n">
-        <v>0.001316600000791368</v>
+        <v>0.0008268000001407927</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02859460000036051</v>
+        <v>0.04448219999903813</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02038739999989048</v>
+        <v>0.02346279999983381</v>
       </c>
       <c r="L73" t="n">
-        <v>0.02920450000056007</v>
+        <v>0.04507469999771274</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02170400000068184</v>
+        <v>0.0242895999999746</v>
       </c>
     </row>
     <row r="74">
@@ -3639,37 +3639,37 @@
         <v>8426</v>
       </c>
       <c r="C74" t="n">
-        <v>8850</v>
+        <v>8468</v>
       </c>
       <c r="D74" t="n">
         <v>8498</v>
       </c>
       <c r="E74" t="n">
-        <v>8915</v>
+        <v>8526</v>
       </c>
       <c r="F74" t="n">
         <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0005954000007477589</v>
+        <v>0.0006064999997761333</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0007547000004706206</v>
+        <v>0.0007721000001765788</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02867409999998927</v>
+        <v>0.02813459999924817</v>
       </c>
       <c r="K74" t="n">
-        <v>0.02881429999979446</v>
+        <v>0.03310749999945983</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02926950000073703</v>
+        <v>0.0287410999990243</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02956900000026508</v>
+        <v>0.03387959999963641</v>
       </c>
     </row>
     <row r="75">
@@ -3682,37 +3682,37 @@
         <v>8384</v>
       </c>
       <c r="C75" t="n">
-        <v>8814</v>
+        <v>8422</v>
       </c>
       <c r="D75" t="n">
         <v>8441</v>
       </c>
       <c r="E75" t="n">
-        <v>8866</v>
+        <v>8479</v>
       </c>
       <c r="F75" t="n">
         <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0006001999990985496</v>
+        <v>0.0005844999996043043</v>
       </c>
       <c r="I75" t="n">
-        <v>0.001515200001449557</v>
+        <v>0.0007390999999188352</v>
       </c>
       <c r="J75" t="n">
-        <v>0.02109399999972084</v>
+        <v>0.02011990000028163</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02111869999862392</v>
+        <v>0.02153739999994286</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02169419999881939</v>
+        <v>0.02070439999988594</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02263390000007348</v>
+        <v>0.0222764999998617</v>
       </c>
     </row>
     <row r="76">
@@ -3725,37 +3725,37 @@
         <v>8199</v>
       </c>
       <c r="C76" t="n">
-        <v>8651</v>
+        <v>8236</v>
       </c>
       <c r="D76" t="n">
         <v>8263</v>
       </c>
       <c r="E76" t="n">
-        <v>8706</v>
+        <v>8312</v>
       </c>
       <c r="F76" t="n">
         <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0008923000004870119</v>
+        <v>0.0005462999997689622</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0007206999998743413</v>
+        <v>0.0007666000001336215</v>
       </c>
       <c r="J76" t="n">
-        <v>0.02049950000036915</v>
+        <v>0.02101210000000719</v>
       </c>
       <c r="K76" t="n">
-        <v>0.02194039999994857</v>
+        <v>0.0244566000001214</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02139180000085616</v>
+        <v>0.02155839999977616</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02266109999982291</v>
+        <v>0.02522320000025502</v>
       </c>
     </row>
     <row r="77">
@@ -3768,37 +3768,37 @@
         <v>8475</v>
       </c>
       <c r="C77" t="n">
-        <v>8891</v>
+        <v>8496</v>
       </c>
       <c r="D77" t="n">
         <v>8497</v>
       </c>
       <c r="E77" t="n">
-        <v>8902</v>
+        <v>8518</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0006049000003258698</v>
+        <v>0.0005910999989282573</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0007642000000487315</v>
+        <v>0.0007397999997920124</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01859080000031099</v>
+        <v>0.01886759999979404</v>
       </c>
       <c r="K77" t="n">
-        <v>0.03525679999984277</v>
+        <v>0.01977259999875969</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01919570000063686</v>
+        <v>0.0194586999987223</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0360209999998915</v>
+        <v>0.0205123999985517</v>
       </c>
     </row>
     <row r="78">
@@ -3811,37 +3811,37 @@
         <v>8756</v>
       </c>
       <c r="C78" t="n">
-        <v>9134</v>
+        <v>8778</v>
       </c>
       <c r="D78" t="n">
         <v>8797</v>
       </c>
       <c r="E78" t="n">
-        <v>9156</v>
+        <v>8824</v>
       </c>
       <c r="F78" t="n">
         <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0006358999999065418</v>
+        <v>0.0006257999993977137</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0007960000002640299</v>
+        <v>0.0007726999992883066</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01517219999914232</v>
+        <v>0.01522839999961434</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01380229999995208</v>
+        <v>0.01809730000059062</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01580809999904886</v>
+        <v>0.01585419999901205</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01459830000021611</v>
+        <v>0.01886999999987893</v>
       </c>
     </row>
     <row r="79">
@@ -3869,22 +3869,22 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001189000000522356</v>
+        <v>0.001187699999718461</v>
       </c>
       <c r="I79" t="n">
-        <v>0.001374499999656109</v>
+        <v>0.001374800000121468</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01258880000023055</v>
+        <v>0.02745320000030915</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01258250000137195</v>
+        <v>0.01249019999886514</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0137778000007529</v>
+        <v>0.02864090000002761</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01395700000102806</v>
+        <v>0.0138649999989866</v>
       </c>
     </row>
     <row r="80">
@@ -3897,37 +3897,37 @@
         <v>15121</v>
       </c>
       <c r="C80" t="n">
-        <v>15863</v>
+        <v>15141</v>
       </c>
       <c r="D80" t="n">
         <v>15235</v>
       </c>
       <c r="E80" t="n">
-        <v>15931</v>
+        <v>15236</v>
       </c>
       <c r="F80" t="n">
         <v>14</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0009042000001500128</v>
+        <v>0.0008920000000216532</v>
       </c>
       <c r="I80" t="n">
-        <v>0.001228400000400143</v>
+        <v>0.001219800000399118</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0699347999998281</v>
+        <v>0.07090339999922435</v>
       </c>
       <c r="K80" t="n">
-        <v>0.06495030000041879</v>
+        <v>0.060900299999048</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07083899999997811</v>
+        <v>0.071795399999246</v>
       </c>
       <c r="M80" t="n">
-        <v>0.06617870000081894</v>
+        <v>0.06212009999944712</v>
       </c>
     </row>
     <row r="81">
@@ -3940,13 +3940,13 @@
         <v>94</v>
       </c>
       <c r="C81" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D81" t="n">
         <v>96</v>
       </c>
       <c r="E81" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
@@ -3955,22 +3955,22 @@
         <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0002571999993961072</v>
+        <v>0.0002623000000312459</v>
       </c>
       <c r="I81" t="n">
-        <v>9.520000094198622e-05</v>
+        <v>0.0001087000000552507</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0001730000003590249</v>
+        <v>0.0001792000002751593</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0001527000003989087</v>
+        <v>0.0001664999999775318</v>
       </c>
       <c r="L81" t="n">
-        <v>0.000430199999755132</v>
+        <v>0.0004415000003064051</v>
       </c>
       <c r="M81" t="n">
-        <v>0.000247900001340895</v>
+        <v>0.0002752000000327826</v>
       </c>
     </row>
     <row r="82">
@@ -3983,37 +3983,37 @@
         <v>13929</v>
       </c>
       <c r="C82" t="n">
-        <v>14548</v>
+        <v>13984</v>
       </c>
       <c r="D82" t="n">
         <v>14001</v>
       </c>
       <c r="E82" t="n">
-        <v>14609</v>
+        <v>14069</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0007406000004266389</v>
+        <v>0.0007855999992898433</v>
       </c>
       <c r="I82" t="n">
-        <v>0.00116850000085833</v>
+        <v>0.001141200000347453</v>
       </c>
       <c r="J82" t="n">
-        <v>0.05304160000014235</v>
+        <v>0.03264599999965867</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03410989999974845</v>
+        <v>0.03880709999975807</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05378220000056899</v>
+        <v>0.03343159999894851</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03527840000060678</v>
+        <v>0.03994830000010552</v>
       </c>
     </row>
     <row r="83">
@@ -4026,37 +4026,37 @@
         <v>15121</v>
       </c>
       <c r="C83" t="n">
-        <v>15863</v>
+        <v>15141</v>
       </c>
       <c r="D83" t="n">
         <v>15197</v>
       </c>
       <c r="E83" t="n">
-        <v>15936</v>
+        <v>15210</v>
       </c>
       <c r="F83" t="n">
         <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0009355000001960434</v>
+        <v>0.0009124999996856786</v>
       </c>
       <c r="I83" t="n">
-        <v>0.001214899999467889</v>
+        <v>0.001244900000529015</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05923149999944144</v>
+        <v>0.07747249999920314</v>
       </c>
       <c r="K83" t="n">
-        <v>0.06711549999999988</v>
+        <v>0.05819030000020575</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06016699999963748</v>
+        <v>0.07838499999888882</v>
       </c>
       <c r="M83" t="n">
-        <v>0.06833039999946777</v>
+        <v>0.05943520000073477</v>
       </c>
     </row>
     <row r="84">
@@ -4069,37 +4069,37 @@
         <v>22259</v>
       </c>
       <c r="C84" t="n">
-        <v>23407</v>
+        <v>22348</v>
       </c>
       <c r="D84" t="n">
         <v>22607</v>
       </c>
       <c r="E84" t="n">
-        <v>23857</v>
+        <v>22747</v>
       </c>
       <c r="F84" t="n">
         <v>24</v>
       </c>
       <c r="G84" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001207500001328299</v>
+        <v>0.001188700000056997</v>
       </c>
       <c r="I84" t="n">
-        <v>0.001813299999412266</v>
+        <v>0.001679500001046108</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2132433000006131</v>
+        <v>0.2224052999990818</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2938715000000229</v>
+        <v>0.2479042999984813</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2144508000019414</v>
+        <v>0.2235939999991388</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2956847999994352</v>
+        <v>0.2495837999995274</v>
       </c>
     </row>
     <row r="85">
@@ -4112,13 +4112,13 @@
         <v>286</v>
       </c>
       <c r="C85" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D85" t="n">
         <v>286</v>
       </c>
       <c r="E85" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -4127,22 +4127,22 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.000260599999819533</v>
+        <v>0.0002624999997351551</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0001202000003104331</v>
+        <v>0.0001128999992943136</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0003713000005518552</v>
+        <v>0.0003566999985196162</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0003295000005891779</v>
+        <v>0.0003524000003380934</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0006319000003713882</v>
+        <v>0.0006191999982547713</v>
       </c>
       <c r="M85" t="n">
-        <v>0.000449700000899611</v>
+        <v>0.000465299999632407</v>
       </c>
     </row>
     <row r="86">
@@ -4155,13 +4155,13 @@
         <v>316</v>
       </c>
       <c r="C86" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D86" t="n">
         <v>316</v>
       </c>
       <c r="E86" t="n">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -4170,22 +4170,22 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0001111000001401408</v>
+        <v>0.0001037999991240213</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0001058999987435527</v>
+        <v>0.000105200000689365</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0003264000006311107</v>
+        <v>0.0003280000000813743</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.0003426000002946239</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0004375000007712515</v>
+        <v>0.0004317999992053956</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0004357999987405492</v>
+        <v>0.0004478000009839889</v>
       </c>
     </row>
     <row r="87">
@@ -4198,13 +4198,13 @@
         <v>268</v>
       </c>
       <c r="C87" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D87" t="n">
         <v>268</v>
       </c>
       <c r="E87" t="n">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4213,22 +4213,22 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>9.329999920737464e-05</v>
+        <v>0.0001095999996323371</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0001004000005195849</v>
+        <v>0.0001666999996814411</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0003016000009665731</v>
+        <v>0.0003392000016901875</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0003147000006720191</v>
+        <v>0.0003538000000844477</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0003949000001739478</v>
+        <v>0.0004488000013225246</v>
       </c>
       <c r="M87" t="n">
-        <v>0.000415100001191604</v>
+        <v>0.0005204999997658888</v>
       </c>
     </row>
     <row r="88">
@@ -4241,13 +4241,13 @@
         <v>271</v>
       </c>
       <c r="C88" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D88" t="n">
         <v>271</v>
       </c>
       <c r="E88" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4256,22 +4256,22 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>9.539999882690609e-05</v>
+        <v>0.0001222000009875046</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0001005000012810342</v>
+        <v>0.0001363999999739463</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0002934000003733672</v>
+        <v>0.0003156000002491055</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0003065000000788132</v>
+        <v>0.0003435999988141702</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0003887999992002733</v>
+        <v>0.0004378000012366101</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0004070000013598474</v>
+        <v>0.0004799999987881165</v>
       </c>
     </row>
     <row r="89">
@@ -4284,13 +4284,13 @@
         <v>282</v>
       </c>
       <c r="C89" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D89" t="n">
         <v>282</v>
       </c>
       <c r="E89" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4299,22 +4299,22 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>9.420000060345046e-05</v>
+        <v>0.0001381999991281191</v>
       </c>
       <c r="I89" t="n">
-        <v>9.759999920788687e-05</v>
+        <v>0.00011129999984405</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0003051000003324589</v>
+        <v>0.0003164999998261919</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0003166000005876413</v>
+        <v>0.0003449999985605245</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0003993000009359093</v>
+        <v>0.000454699998954311</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0004141999997955281</v>
+        <v>0.0004562999984045746</v>
       </c>
     </row>
     <row r="90">
@@ -4327,13 +4327,13 @@
         <v>279</v>
       </c>
       <c r="C90" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D90" t="n">
         <v>279</v>
       </c>
       <c r="E90" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4342,22 +4342,22 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>9.339999996882398e-05</v>
+        <v>9.379999937664252e-05</v>
       </c>
       <c r="I90" t="n">
-        <v>9.959999988495838e-05</v>
+        <v>9.490000047662761e-05</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0002880000010918593</v>
+        <v>0.0002945999985968228</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0002996000002895016</v>
+        <v>0.0003266999992774799</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0003814000010606833</v>
+        <v>0.0003883999979734654</v>
       </c>
       <c r="M90" t="n">
-        <v>0.00039920000017446</v>
+        <v>0.0004215999997541076</v>
       </c>
     </row>
     <row r="91">
@@ -4370,13 +4370,13 @@
         <v>326</v>
       </c>
       <c r="C91" t="n">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D91" t="n">
         <v>326</v>
       </c>
       <c r="E91" t="n">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4385,22 +4385,22 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0001013000000966713</v>
+        <v>9.750000026542693e-05</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0001030000003083842</v>
+        <v>0.0001095999996323371</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0003375999986019451</v>
+        <v>0.0003370000013092067</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0003345000004628673</v>
+        <v>0.000355199999830802</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0004388999986986164</v>
+        <v>0.0004345000015746336</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0004375000007712515</v>
+        <v>0.0004647999994631391</v>
       </c>
     </row>
     <row r="92">
@@ -4413,13 +4413,13 @@
         <v>285</v>
       </c>
       <c r="C92" t="n">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D92" t="n">
         <v>287</v>
       </c>
       <c r="E92" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F92" t="n">
         <v>2</v>
@@ -4428,22 +4428,22 @@
         <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>9.510000018053688e-05</v>
+        <v>9.580000005371403e-05</v>
       </c>
       <c r="I92" t="n">
-        <v>9.959999988495838e-05</v>
+        <v>0.0001032000000122935</v>
       </c>
       <c r="J92" t="n">
-        <v>0.000347400000464404</v>
+        <v>0.0003411999987292802</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0003590000014810357</v>
+        <v>0.0003772999989450909</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0004425000006449409</v>
+        <v>0.0004369999987829942</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0004586000013659941</v>
+        <v>0.0004804999989573844</v>
       </c>
     </row>
     <row r="93">
@@ -4456,37 +4456,37 @@
         <v>292</v>
       </c>
       <c r="C93" t="n">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D93" t="n">
         <v>294</v>
       </c>
       <c r="E93" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F93" t="n">
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>9.590000081516337e-05</v>
+        <v>9.449999924981967e-05</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0001001000000542263</v>
+        <v>0.0001179999999294523</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0003536999993229983</v>
+        <v>0.0003600000000005821</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0003175000001647277</v>
+        <v>0.000386100000469014</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0004496000001381617</v>
+        <v>0.0004544999992504017</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0004176000002189539</v>
+        <v>0.0005041000003984664</v>
       </c>
     </row>
     <row r="94">
@@ -4499,13 +4499,13 @@
         <v>266</v>
       </c>
       <c r="C94" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D94" t="n">
         <v>272</v>
       </c>
       <c r="E94" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F94" t="n">
         <v>4</v>
@@ -4514,22 +4514,22 @@
         <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>9.119999958784319e-05</v>
+        <v>9.130000034929253e-05</v>
       </c>
       <c r="I94" t="n">
-        <v>9.580000005371403e-05</v>
+        <v>9.549999958835542e-05</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0004079999998793937</v>
+        <v>0.0004016000002593501</v>
       </c>
       <c r="K94" t="n">
-        <v>0.000427799999670242</v>
+        <v>0.0004488000013225246</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0004991999994672369</v>
+        <v>0.0004929000006086426</v>
       </c>
       <c r="M94" t="n">
-        <v>0.000523599999723956</v>
+        <v>0.00054430000091088</v>
       </c>
     </row>
     <row r="95">
@@ -4542,13 +4542,13 @@
         <v>303</v>
       </c>
       <c r="C95" t="n">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D95" t="n">
         <v>303</v>
       </c>
       <c r="E95" t="n">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4557,22 +4557,22 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0001014999998005806</v>
+        <v>9.73999995039776e-05</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0001018000002659392</v>
+        <v>9.969999882741831e-05</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0003323000000818865</v>
+        <v>0.0003342999989399686</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0003403999999136431</v>
+        <v>0.0003565000006346963</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0004337999998824671</v>
+        <v>0.0004316999984439462</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0004422000001795823</v>
+        <v>0.0004561999994621146</v>
       </c>
     </row>
     <row r="96">
@@ -4585,13 +4585,13 @@
         <v>293</v>
       </c>
       <c r="C96" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D96" t="n">
         <v>293</v>
       </c>
       <c r="E96" t="n">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4600,22 +4600,22 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0001234999999724096</v>
+        <v>9.399999908055179e-05</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0001044000000547385</v>
+        <v>0.0001003000015771249</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.0003332000014779624</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0003211999992345227</v>
+        <v>0.0003522000006341841</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0004533999999694061</v>
+        <v>0.0004272000005585141</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0004255999992892612</v>
+        <v>0.000452500002211309</v>
       </c>
     </row>
     <row r="97">
@@ -4628,13 +4628,13 @@
         <v>292</v>
       </c>
       <c r="C97" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D97" t="n">
         <v>292</v>
       </c>
       <c r="E97" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4643,22 +4643,22 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>9.549999958835542e-05</v>
+        <v>9.640000098443124e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0001009999996313127</v>
+        <v>0.0001220000012835953</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0003140999997413019</v>
+        <v>0.0003293000008852687</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0003243999999540392</v>
+        <v>0.0003562999991117977</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0004095999993296573</v>
+        <v>0.0004257000018696999</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0004253999995853519</v>
+        <v>0.000478300000395393</v>
       </c>
     </row>
     <row r="98">
@@ -4671,13 +4671,13 @@
         <v>311</v>
       </c>
       <c r="C98" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D98" t="n">
         <v>311</v>
       </c>
       <c r="E98" t="n">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4686,22 +4686,22 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>9.990000035031699e-05</v>
+        <v>9.900000077323057e-05</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0001003999987005955</v>
+        <v>0.0001038999998854706</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0003178000006300863</v>
+        <v>0.0003228999994462356</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0003218999991076998</v>
+        <v>0.0003505999993649311</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0004177000009804033</v>
+        <v>0.0004219000002194662</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0004222999978082953</v>
+        <v>0.0004544999992504017</v>
       </c>
     </row>
     <row r="99">
@@ -4714,37 +4714,37 @@
         <v>280</v>
       </c>
       <c r="C99" t="n">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D99" t="n">
         <v>284</v>
       </c>
       <c r="E99" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F99" t="n">
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>9.479999971517827e-05</v>
+        <v>9.329999920737464e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>9.820000013860408e-05</v>
+        <v>9.589999899617396e-05</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0004010000011476222</v>
+        <v>0.0004067999998369487</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0003691999991133343</v>
+        <v>0.0004374999989522621</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0004958000008628005</v>
+        <v>0.0005000999990443233</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0004673999992519384</v>
+        <v>0.0005333999979484361</v>
       </c>
     </row>
     <row r="100">
@@ -4757,37 +4757,37 @@
         <v>369</v>
       </c>
       <c r="C100" t="n">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D100" t="n">
         <v>371</v>
       </c>
       <c r="E100" t="n">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0001073000003088964</v>
+        <v>0.0001042000003508292</v>
       </c>
       <c r="I100" t="n">
-        <v>0.000105200000689365</v>
+        <v>0.0001057999998010928</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0004386999989947071</v>
+        <v>0.0004487000005610753</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0004286000003048684</v>
+        <v>0.0005010999993828591</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0005459999993036035</v>
+        <v>0.0005529000009119045</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0005338000009942334</v>
+        <v>0.0006068999991839519</v>
       </c>
     </row>
     <row r="101">
@@ -4800,37 +4800,37 @@
         <v>588</v>
       </c>
       <c r="C101" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D101" t="n">
         <v>590</v>
       </c>
       <c r="E101" t="n">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F101" t="n">
         <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0001221000002260553</v>
+        <v>0.0001247999989573145</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0001264000002265675</v>
+        <v>0.0001185000000987202</v>
       </c>
       <c r="J101" t="n">
-        <v>0.000662299999021343</v>
+        <v>0.0006722000016452512</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0006066000005375827</v>
+        <v>0.0007296000003407244</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0007843999992473982</v>
+        <v>0.0007970000006025657</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0007330000007641502</v>
+        <v>0.0008481000004394446</v>
       </c>
     </row>
     <row r="102">
@@ -4843,13 +4843,13 @@
         <v>543</v>
       </c>
       <c r="C102" t="n">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D102" t="n">
         <v>545</v>
       </c>
       <c r="E102" t="n">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="F102" t="n">
         <v>2</v>
@@ -4858,22 +4858,22 @@
         <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0001071999995474471</v>
+        <v>0.0001066999993781792</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0001176000005216338</v>
+        <v>0.0001118999989557778</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0006401000009645941</v>
+        <v>0.0006469999989349162</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0006821000006311806</v>
+        <v>0.0007715000010648509</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0007473000005120412</v>
+        <v>0.0007536999983130954</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0007997000011528144</v>
+        <v>0.0008834000000206288</v>
       </c>
     </row>
     <row r="103">
@@ -4886,13 +4886,13 @@
         <v>572</v>
       </c>
       <c r="C103" t="n">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="D103" t="n">
         <v>576</v>
       </c>
       <c r="E103" t="n">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F103" t="n">
         <v>3</v>
@@ -4901,22 +4901,22 @@
         <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0001097000003937865</v>
+        <v>0.0001747999995131977</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0001213999985338887</v>
+        <v>0.0001322000007348834</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0007676000004721573</v>
+        <v>0.0007968000008986564</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0007886999992479105</v>
+        <v>0.0008422000009886688</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0008773000008659437</v>
+        <v>0.0009716000004118541</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0009100999977817992</v>
+        <v>0.0009744000017235521</v>
       </c>
     </row>
     <row r="104">
@@ -4929,13 +4929,13 @@
         <v>555</v>
       </c>
       <c r="C104" t="n">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="D104" t="n">
         <v>557</v>
       </c>
       <c r="E104" t="n">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
@@ -4944,22 +4944,22 @@
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0001124000009440351</v>
+        <v>0.0001104000002669636</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0001158000013674609</v>
+        <v>0.0001327999998466112</v>
       </c>
       <c r="J104" t="n">
-        <v>0.000646700000288547</v>
+        <v>0.0006553000002895715</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0006706000003759982</v>
+        <v>0.0007562999999208841</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0007591000012325821</v>
+        <v>0.0007657000005565351</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0007864000017434591</v>
+        <v>0.0008890999997674953</v>
       </c>
     </row>
     <row r="105">
@@ -4972,13 +4972,13 @@
         <v>518</v>
       </c>
       <c r="C105" t="n">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D105" t="n">
         <v>531</v>
       </c>
       <c r="E105" t="n">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F105" t="n">
         <v>6</v>
@@ -4987,22 +4987,22 @@
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0001071999995474471</v>
+        <v>0.0001159000003099209</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0001142999990406679</v>
+        <v>0.0001307000002270797</v>
       </c>
       <c r="J105" t="n">
-        <v>0.001007700000627665</v>
+        <v>0.001009900001008646</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0009519000013824552</v>
+        <v>0.001002700000753975</v>
       </c>
       <c r="L105" t="n">
-        <v>0.001114900000175112</v>
+        <v>0.001125800001318567</v>
       </c>
       <c r="M105" t="n">
-        <v>0.001066200000423123</v>
+        <v>0.001133400000981055</v>
       </c>
     </row>
     <row r="106">
@@ -5015,13 +5015,13 @@
         <v>544</v>
       </c>
       <c r="C106" t="n">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="D106" t="n">
         <v>546</v>
       </c>
       <c r="E106" t="n">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="F106" t="n">
         <v>2</v>
@@ -5030,22 +5030,22 @@
         <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0001121999994211365</v>
+        <v>0.0001092000002245186</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0001200999995489838</v>
+        <v>0.0001157999995484715</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0006706000003759982</v>
+        <v>0.0006905999998707557</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0006857000007585157</v>
+        <v>0.0007454999995388789</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0007827999997971347</v>
+        <v>0.0007998000000952743</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0008058000003074994</v>
+        <v>0.0008612999990873504</v>
       </c>
     </row>
     <row r="107">
@@ -5058,13 +5058,13 @@
         <v>541</v>
       </c>
       <c r="C107" t="n">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D107" t="n">
         <v>552</v>
       </c>
       <c r="E107" t="n">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="F107" t="n">
         <v>5</v>
@@ -5073,22 +5073,22 @@
         <v>5</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0001245999992534053</v>
+        <v>0.0001138000006903894</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0001474999990023207</v>
+        <v>0.0001200000006065238</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0008832000003167195</v>
+        <v>0.0008617999992566183</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0008897000006982125</v>
+        <v>0.0009449999997741543</v>
       </c>
       <c r="L107" t="n">
-        <v>0.001007799999570125</v>
+        <v>0.0009755999999470077</v>
       </c>
       <c r="M107" t="n">
-        <v>0.001037199999700533</v>
+        <v>0.001065000000380678</v>
       </c>
     </row>
     <row r="108">
@@ -5101,37 +5101,37 @@
         <v>531</v>
       </c>
       <c r="C108" t="n">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="D108" t="n">
         <v>538</v>
       </c>
       <c r="E108" t="n">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="F108" t="n">
         <v>4</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>0.00010889999975916</v>
+        <v>0.0001102000005630543</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0001173000000562752</v>
+        <v>0.0001150999996752944</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0007960000002640299</v>
+        <v>0.0007915999995020684</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0007298999989870936</v>
+        <v>0.0008817999987513758</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0009049000000231899</v>
+        <v>0.0009018000000651227</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0008471999990433687</v>
+        <v>0.0009968999984266702</v>
       </c>
     </row>
     <row r="109">
@@ -5144,37 +5144,37 @@
         <v>561</v>
       </c>
       <c r="C109" t="n">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D109" t="n">
         <v>563</v>
       </c>
       <c r="E109" t="n">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="F109" t="n">
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0001148999999713851</v>
+        <v>0.0001474000000598608</v>
       </c>
       <c r="I109" t="n">
-        <v>0.000117899999168003</v>
+        <v>0.0001205999997182516</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0006822999985161005</v>
+        <v>0.0006928999991941964</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0006387999983417103</v>
+        <v>0.0007564000006823335</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0007971999984874856</v>
+        <v>0.0008402999992540572</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0007566999975097133</v>
+        <v>0.0008770000004005851</v>
       </c>
     </row>
     <row r="110">
@@ -5187,37 +5187,37 @@
         <v>577</v>
       </c>
       <c r="C110" t="n">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="D110" t="n">
         <v>579</v>
       </c>
       <c r="E110" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0001091999984055292</v>
+        <v>0.0001130000000557629</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0001205000007757917</v>
+        <v>0.0001286000006075483</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0006525999997393228</v>
+        <v>0.0006596000002900837</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0005922000000282424</v>
+        <v>0.000747899999623769</v>
       </c>
       <c r="L110" t="n">
-        <v>0.000761799998144852</v>
+        <v>0.0007726000003458466</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0007127000008040341</v>
+        <v>0.0008765000002313172</v>
       </c>
     </row>
     <row r="111">
@@ -5230,37 +5230,37 @@
         <v>570</v>
       </c>
       <c r="C111" t="n">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="D111" t="n">
         <v>574</v>
       </c>
       <c r="E111" t="n">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="F111" t="n">
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0001104999992094235</v>
+        <v>0.0001558000003569759</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0001181000006909017</v>
+        <v>0.0001279999996768311</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0007095000000845175</v>
+        <v>0.0007277999993675621</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0005944999993516831</v>
+        <v>0.000787000000855187</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0008199999992939411</v>
+        <v>0.0008835999997245381</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0007126000000425847</v>
+        <v>0.000915000000532018</v>
       </c>
     </row>
     <row r="112">
@@ -5273,13 +5273,13 @@
         <v>544</v>
       </c>
       <c r="C112" t="n">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="D112" t="n">
         <v>552</v>
       </c>
       <c r="E112" t="n">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="F112" t="n">
         <v>4</v>
@@ -5288,22 +5288,22 @@
         <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>0.00010640000073181</v>
+        <v>0.000116600000183098</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0001238000004377682</v>
+        <v>0.0001544999995530816</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0007822999996278668</v>
+        <v>0.0008185999995475868</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0008041000000957865</v>
+        <v>0.00086610000107612</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0008887000003596768</v>
+        <v>0.0009351999997306848</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0009279000005335547</v>
+        <v>0.001020600000629202</v>
       </c>
     </row>
     <row r="113">
@@ -5316,37 +5316,37 @@
         <v>583</v>
       </c>
       <c r="C113" t="n">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="D113" t="n">
         <v>585</v>
       </c>
       <c r="E113" t="n">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="F113" t="n">
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0001123000001825858</v>
+        <v>0.0001253999998880317</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0001205000007757917</v>
+        <v>0.0001312999993388075</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0007031000004644739</v>
+        <v>0.0007129000005079433</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0006364999990182696</v>
+        <v>0.0007652000003872672</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0008154000006470596</v>
+        <v>0.0008383000003959751</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0007569999997940613</v>
+        <v>0.0008964999997260747</v>
       </c>
     </row>
     <row r="114">
@@ -5359,13 +5359,13 @@
         <v>570</v>
       </c>
       <c r="C114" t="n">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="D114" t="n">
         <v>572</v>
       </c>
       <c r="E114" t="n">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="F114" t="n">
         <v>2</v>
@@ -5374,22 +5374,22 @@
         <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0001085000003513414</v>
+        <v>0.0001124999998864951</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0001224000006914139</v>
+        <v>0.0001394999999320135</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0006453999994846527</v>
+        <v>0.0006691999988106545</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0006697999997413717</v>
+        <v>0.0007334000001719687</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0007538999998359941</v>
+        <v>0.0007816999986971496</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0007922000004327856</v>
+        <v>0.0008729000001039822</v>
       </c>
     </row>
     <row r="115">
@@ -5402,13 +5402,13 @@
         <v>601</v>
       </c>
       <c r="C115" t="n">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="D115" t="n">
         <v>601</v>
       </c>
       <c r="E115" t="n">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5417,22 +5417,22 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0001122000012401259</v>
+        <v>0.0001216000000567874</v>
       </c>
       <c r="I115" t="n">
-        <v>0.000126799999634386</v>
+        <v>0.0001273999987461139</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0006088999998610234</v>
+        <v>0.0006216999991011107</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0006205000008776551</v>
+        <v>0.0006692000006296439</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0007211000011011492</v>
+        <v>0.0007432999991578981</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0007473000005120412</v>
+        <v>0.0007965999993757578</v>
       </c>
     </row>
     <row r="116">
@@ -5445,13 +5445,13 @@
         <v>589</v>
       </c>
       <c r="C116" t="n">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D116" t="n">
         <v>589</v>
       </c>
       <c r="E116" t="n">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5460,22 +5460,22 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0001114999995479593</v>
+        <v>0.0001252999991265824</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0002239000004919944</v>
+        <v>0.0001241999998455867</v>
       </c>
       <c r="J116" t="n">
-        <v>0.001291399999900023</v>
+        <v>0.0006265000010898802</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0006506999998237006</v>
+        <v>0.0006878000003780471</v>
       </c>
       <c r="L116" t="n">
-        <v>0.001402899999447982</v>
+        <v>0.0007518000002164626</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0008746000003156951</v>
+        <v>0.0008120000002236338</v>
       </c>
     </row>
     <row r="117">
@@ -5488,37 +5488,37 @@
         <v>557</v>
       </c>
       <c r="C117" t="n">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="D117" t="n">
         <v>567</v>
       </c>
       <c r="E117" t="n">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="F117" t="n">
         <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0001169999995909166</v>
+        <v>0.000114200000098208</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0001286000006075483</v>
+        <v>0.000129699999888544</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0008984000014606863</v>
+        <v>0.0008694000007380964</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0006812999999965541</v>
+        <v>0.0009373000011692056</v>
       </c>
       <c r="L117" t="n">
-        <v>0.001015400001051603</v>
+        <v>0.0009836000008363044</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0008099000006041024</v>
+        <v>0.00106700000105775</v>
       </c>
     </row>
     <row r="118">
@@ -5531,37 +5531,37 @@
         <v>543</v>
       </c>
       <c r="C118" t="n">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="D118" t="n">
         <v>551</v>
       </c>
       <c r="E118" t="n">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0001097999993362464</v>
+        <v>0.0001094999988708878</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0001176999994640937</v>
+        <v>0.0001221999991685152</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0009232000011252239</v>
+        <v>0.0009198000007017981</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0007845999989513075</v>
+        <v>0.0009886999996524537</v>
       </c>
       <c r="L118" t="n">
-        <v>0.00103300000046147</v>
+        <v>0.001029299999572686</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0009022999984154012</v>
+        <v>0.001110899998820969</v>
       </c>
     </row>
     <row r="119">
@@ -5574,37 +5574,37 @@
         <v>578</v>
       </c>
       <c r="C119" t="n">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="D119" t="n">
         <v>593</v>
       </c>
       <c r="E119" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F119" t="n">
         <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0001146999984484864</v>
+        <v>0.0001103000013245037</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0001259000000572996</v>
+        <v>0.0001539000004413538</v>
       </c>
       <c r="J119" t="n">
-        <v>0.001036399999065907</v>
+        <v>0.001035799999954179</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0009006000000226777</v>
+        <v>0.001103800001146737</v>
       </c>
       <c r="L119" t="n">
-        <v>0.001151099997514393</v>
+        <v>0.001146100001278683</v>
       </c>
       <c r="M119" t="n">
-        <v>0.001026500000079977</v>
+        <v>0.001257700001588091</v>
       </c>
     </row>
     <row r="120">
@@ -5617,13 +5617,13 @@
         <v>665</v>
       </c>
       <c r="C120" t="n">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="D120" t="n">
         <v>671</v>
       </c>
       <c r="E120" t="n">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="F120" t="n">
         <v>3</v>
@@ -5632,22 +5632,22 @@
         <v>3</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0001229000008606818</v>
+        <v>0.0001312999993388075</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0001238999993802281</v>
+        <v>0.0001322000007348834</v>
       </c>
       <c r="J120" t="n">
-        <v>0.000894299999345094</v>
+        <v>0.000912600000447128</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0009421000013389857</v>
+        <v>0.001019999999698484</v>
       </c>
       <c r="L120" t="n">
-        <v>0.001017200000205776</v>
+        <v>0.001043899999785936</v>
       </c>
       <c r="M120" t="n">
-        <v>0.001066000000719214</v>
+        <v>0.001152200000433368</v>
       </c>
     </row>
     <row r="121">
@@ -5660,37 +5660,37 @@
         <v>444346</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>465220</v>
+        <v>446099</v>
       </c>
       <c r="D121" s="3" t="n">
         <v>447366</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>467563</v>
+        <v>449089</v>
       </c>
       <c r="F121" s="3" t="n">
         <v>603</v>
       </c>
       <c r="G121" s="3" t="n">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>0.04107299999668612</v>
+        <v>0.03903989999707846</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>0.04904099999475875</v>
+        <v>0.04738570000517939</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>1.269656500006022</v>
+        <v>1.304861400003574</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>1.324188099999446</v>
+        <v>1.294011699994371</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>1.310729500002708</v>
+        <v>1.343901300000653</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>1.373229099994205</v>
+        <v>1.341397399999551</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000190499999007443</v>
+        <v>0.000230399999054498</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001721000007819384</v>
+        <v>0.0001862999997683801</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001570499998706509</v>
+        <v>0.001616899999135057</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001582700000653858</v>
+        <v>0.0015873999982432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001760999997713952</v>
+        <v>0.001847299998189555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001754800001435797</v>
+        <v>0.00177369999801158</v>
       </c>
     </row>
     <row r="3">
@@ -601,22 +601,22 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001648999987082789</v>
+        <v>0.0001494999996793922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001640999998926418</v>
+        <v>0.0002193000000261236</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00136220000058529</v>
+        <v>0.001376199999867822</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001923600000736769</v>
+        <v>0.002015699999901699</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001527099999293569</v>
+        <v>0.001525699999547214</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002087700000629411</v>
+        <v>0.002234999999927823</v>
       </c>
     </row>
     <row r="4">
@@ -644,22 +644,22 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002401000001555076</v>
+        <v>0.0002846000006684335</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001741999985824805</v>
+        <v>0.0002657000004546717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001668500000960194</v>
+        <v>0.001734299999952782</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001781099999789149</v>
+        <v>0.001833500000429922</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001908600001115701</v>
+        <v>0.002018900000621215</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001955299998371629</v>
+        <v>0.002099200000884593</v>
       </c>
     </row>
     <row r="5">
@@ -687,22 +687,22 @@
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002168999999412335</v>
+        <v>0.0001576000013301382</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002438999999867519</v>
+        <v>0.0002292999997735023</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003656000000773929</v>
+        <v>0.003722800000105053</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003777500000069267</v>
+        <v>0.00386869999965711</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003872900000715163</v>
+        <v>0.003880400001435191</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004021400000056019</v>
+        <v>0.004097999999430613</v>
       </c>
     </row>
     <row r="6">
@@ -730,22 +730,22 @@
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001675000003160676</v>
+        <v>0.0002210999991802964</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001651999991736375</v>
+        <v>0.0002358000001549954</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001952299999175011</v>
+        <v>0.002014900001086062</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002085000000079162</v>
+        <v>0.002125900000464753</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002119799999491079</v>
+        <v>0.002236000000266358</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0022501999992528</v>
+        <v>0.002361700000619749</v>
       </c>
     </row>
     <row r="7">
@@ -773,22 +773,22 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001613000003999332</v>
+        <v>0.000242199999775039</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001828999993449543</v>
+        <v>0.000225499999942258</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001246300000275369</v>
+        <v>0.001309799999944516</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001387299998896196</v>
+        <v>0.001435700000001816</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001407600000675302</v>
+        <v>0.001551999999719555</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001570199998241151</v>
+        <v>0.001661199999944074</v>
       </c>
     </row>
     <row r="8">
@@ -816,22 +816,22 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001740999996400205</v>
+        <v>0.0002432000001135748</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001721999997243984</v>
+        <v>0.0002745000001596054</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001726099999359576</v>
+        <v>0.001799899999241461</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001878200000646757</v>
+        <v>0.001906900000903988</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001900199998999597</v>
+        <v>0.002043099999355036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002050400000371155</v>
+        <v>0.002181400001063594</v>
       </c>
     </row>
     <row r="9">
@@ -859,22 +859,22 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001828999993449543</v>
+        <v>0.0002534999985073227</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001577000002725981</v>
+        <v>0.0002509000005375128</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001764700000421726</v>
+        <v>0.001803299999664887</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001925500000652391</v>
+        <v>0.001953799999682815</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00194759999976668</v>
+        <v>0.00205679999817221</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00208320000092499</v>
+        <v>0.002204700000220328</v>
       </c>
     </row>
     <row r="10">
@@ -902,22 +902,22 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000159400000484311</v>
+        <v>0.0001596999991306802</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001599999995960388</v>
+        <v>0.000177399999301997</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001456800000596559</v>
+        <v>0.001458400000046822</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001599499999429099</v>
+        <v>0.001656599999478203</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00161620000108087</v>
+        <v>0.001618099999177502</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001759499999025138</v>
+        <v>0.0018339999987802</v>
       </c>
     </row>
     <row r="11">
@@ -945,22 +945,22 @@
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001544000006106216</v>
+        <v>0.0001518999997642823</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001566000009916024</v>
+        <v>0.0002549000000726664</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001389400000334717</v>
+        <v>0.001420399999915389</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001530899999124813</v>
+        <v>0.001557899999170331</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001543800000945339</v>
+        <v>0.001572299999679672</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001687500000116415</v>
+        <v>0.001812799999242998</v>
       </c>
     </row>
     <row r="12">
@@ -988,22 +988,22 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001446000005671522</v>
+        <v>0.0001465999994252343</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001683000009506941</v>
+        <v>0.0002153999994334299</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001772800000253483</v>
+        <v>0.001806500000384403</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001935800000865129</v>
+        <v>0.001960100000360399</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001917400000820635</v>
+        <v>0.001953099999809638</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002104100001815823</v>
+        <v>0.002175499999793828</v>
       </c>
     </row>
     <row r="13">
@@ -1031,22 +1031,22 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001431000000593485</v>
+        <v>0.0002309999999852153</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001575999995111488</v>
+        <v>0.0002085999985865783</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001371500000459491</v>
+        <v>0.001416799999788054</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001524799999970128</v>
+        <v>0.001558600000862498</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00151460000051884</v>
+        <v>0.00164779999977327</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001682399999481277</v>
+        <v>0.001767199999449076</v>
       </c>
     </row>
     <row r="14">
@@ -1074,22 +1074,22 @@
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001465000004827743</v>
+        <v>0.0001611000006960239</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001831000008678529</v>
+        <v>0.0001630000006116461</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001726599999528844</v>
+        <v>0.001762500000040745</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001874800000223331</v>
+        <v>0.001911199999085511</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001873100000011618</v>
+        <v>0.001923600000736769</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002057900001091184</v>
+        <v>0.002074199999697157</v>
       </c>
     </row>
     <row r="15">
@@ -1117,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001431000000593485</v>
+        <v>0.000227999998969608</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001605000015842961</v>
+        <v>0.0001773000003595371</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001476400000683498</v>
+        <v>0.001499599999078782</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001624499998797546</v>
+        <v>0.001643500001591747</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001619500000742846</v>
+        <v>0.00172759999804839</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001785000000381842</v>
+        <v>0.001820800001951284</v>
       </c>
     </row>
     <row r="16">
@@ -1160,22 +1160,22 @@
         <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001369000001432141</v>
+        <v>0.0001754999993863748</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001663999992160825</v>
+        <v>0.0001952000002347631</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002081299999190378</v>
+        <v>0.002104799999870011</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002243000000817119</v>
+        <v>0.002288000001499313</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002218199999333592</v>
+        <v>0.002280299999256385</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002409400000033202</v>
+        <v>0.002483200001734076</v>
       </c>
     </row>
     <row r="17">
@@ -1203,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002062999992631376</v>
+        <v>0.0002318000006198417</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001836999999795808</v>
+        <v>0.0002415999988443218</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002448299999741721</v>
+        <v>0.002490499999112217</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002578900001026341</v>
+        <v>0.002675700001418591</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002654599999004859</v>
+        <v>0.002722299999732058</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002762600001005922</v>
+        <v>0.002917300000262912</v>
       </c>
     </row>
     <row r="18">
@@ -1246,22 +1246,22 @@
         <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001482000006944872</v>
+        <v>0.0002072999996016733</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002026000001933426</v>
+        <v>0.0001677999989624368</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00144209999962186</v>
+        <v>0.001467100000809296</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001575899999807007</v>
+        <v>0.001592399999935878</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001590300000316347</v>
+        <v>0.001674400000410969</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001778500000000349</v>
+        <v>0.001760199998898315</v>
       </c>
     </row>
     <row r="19">
@@ -1292,19 +1292,19 @@
         <v>0.0001499000009062001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001597000009496696</v>
+        <v>0.0001883000004454516</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001258500000403728</v>
+        <v>0.001296700000239071</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001391799998600618</v>
+        <v>0.001472500000090804</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001408400001309928</v>
+        <v>0.001446600001145271</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001551499999550288</v>
+        <v>0.001660800000536256</v>
       </c>
     </row>
     <row r="20">
@@ -1332,22 +1332,22 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001413000009051757</v>
+        <v>0.0002370000001974404</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001823000002332265</v>
+        <v>0.000245899998844834</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001279799998883391</v>
+        <v>0.001324300001215306</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001416299999618786</v>
+        <v>0.00149289999899338</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001421099999788566</v>
+        <v>0.001561300001412746</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001598599999852013</v>
+        <v>0.001738799997838214</v>
       </c>
     </row>
     <row r="21">
@@ -1375,22 +1375,22 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001639000001887325</v>
+        <v>0.0002507999997760635</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001618000005692011</v>
+        <v>0.0002494000000297092</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0009473000009165844</v>
+        <v>0.0009914000002027024</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001090199999453034</v>
+        <v>0.001111200001105317</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001111200001105317</v>
+        <v>0.001242199999978766</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001252000000022235</v>
+        <v>0.001360600001135026</v>
       </c>
     </row>
     <row r="22">
@@ -1418,22 +1418,22 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001627000001462875</v>
+        <v>0.000232000000323751</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001669000012043398</v>
+        <v>0.000262999999904423</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001557699999466422</v>
+        <v>0.001660600000832346</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001723800000036135</v>
+        <v>0.00176869999995688</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00172039999961271</v>
+        <v>0.001892600001156097</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001890700001240475</v>
+        <v>0.002031699999861303</v>
       </c>
     </row>
     <row r="23">
@@ -1461,22 +1461,22 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001462999989598757</v>
+        <v>0.0002335999997740146</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001565000002301531</v>
+        <v>0.000258100000792183</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001540000001114095</v>
+        <v>0.001612800000657444</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001705200000287732</v>
+        <v>0.001756100000420702</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00168630000007397</v>
+        <v>0.001846400000431458</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001861700000517885</v>
+        <v>0.002014200001212885</v>
       </c>
     </row>
     <row r="24">
@@ -1504,22 +1504,22 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0001554999998916173</v>
+        <v>0.0002829000004567206</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001765999986673705</v>
+        <v>0.0002554999991843943</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001421599999957834</v>
+        <v>0.001479099999414757</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001576900000145542</v>
+        <v>0.001622499999939464</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001577099999849452</v>
+        <v>0.001761999999871477</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001753499998812913</v>
+        <v>0.001877999999123858</v>
       </c>
     </row>
     <row r="25">
@@ -1547,22 +1547,22 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001539999993838137</v>
+        <v>0.0004829000008612638</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000165999999808264</v>
+        <v>0.0002746999998635147</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001922400000694324</v>
+        <v>0.002485099999830709</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002083999999740627</v>
+        <v>0.002163600000130828</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002076400000078138</v>
+        <v>0.002968000000691973</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002249999999548891</v>
+        <v>0.002438299999994342</v>
       </c>
     </row>
     <row r="26">
@@ -1590,22 +1590,22 @@
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001389000008202856</v>
+        <v>0.000232400001550559</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001710000015009427</v>
+        <v>0.0002064000000245869</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001252000000022235</v>
+        <v>0.001294899999265908</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001402600000801613</v>
+        <v>0.001443400000425754</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001390900000842521</v>
+        <v>0.001527300000816467</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001573600002302555</v>
+        <v>0.001649800000450341</v>
       </c>
     </row>
     <row r="27">
@@ -1633,22 +1633,22 @@
         <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0002158999996026978</v>
+        <v>0.0003246000014769379</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0003426000002946239</v>
+        <v>0.0003636000001279172</v>
       </c>
       <c r="J27" t="n">
-        <v>0.004814100000658073</v>
+        <v>0.004922300000544055</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005041500000515953</v>
+        <v>0.005232299999988754</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00503000000026077</v>
+        <v>0.005246900002020993</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005384100000810577</v>
+        <v>0.005595900000116671</v>
       </c>
     </row>
     <row r="28">
@@ -1676,22 +1676,22 @@
         <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002911999999923864</v>
+        <v>0.0003225000000384171</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0002943999988929136</v>
+        <v>0.0003780000006372575</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004368300000351155</v>
+        <v>0.004452999999557505</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00474239999857673</v>
+        <v>0.004827000000659609</v>
       </c>
       <c r="L28" t="n">
-        <v>0.004659500000343542</v>
+        <v>0.004775499999595922</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005036799997469643</v>
+        <v>0.005205000001296867</v>
       </c>
     </row>
     <row r="29">
@@ -1719,22 +1719,22 @@
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002349000005779089</v>
+        <v>0.000346200000421959</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0003554999984771712</v>
+        <v>0.0003711999997904059</v>
       </c>
       <c r="J29" t="n">
-        <v>0.003855700000713114</v>
+        <v>0.003928600001017912</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00413250000019616</v>
+        <v>0.004339799999797833</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004090600001291023</v>
+        <v>0.004274800001439871</v>
       </c>
       <c r="M29" t="n">
-        <v>0.004487999998673331</v>
+        <v>0.004710999999588239</v>
       </c>
     </row>
     <row r="30">
@@ -1762,22 +1762,22 @@
         <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0002355000015086262</v>
+        <v>0.0003452000000834232</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000312300000587129</v>
+        <v>0.0003952999995817663</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00423899999987043</v>
+        <v>0.004466200000024401</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004667400000471389</v>
+        <v>0.004947900000843219</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004474500001379056</v>
+        <v>0.004811400000107824</v>
       </c>
       <c r="M30" t="n">
-        <v>0.004979700001058518</v>
+        <v>0.005343200000424986</v>
       </c>
     </row>
     <row r="31">
@@ -1805,22 +1805,22 @@
         <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000287499999103602</v>
+        <v>0.0003741000000445638</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0003679000001284294</v>
+        <v>0.0003889999989041826</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005552099999476923</v>
+        <v>0.005907599999773083</v>
       </c>
       <c r="K31" t="n">
-        <v>0.005948599999101134</v>
+        <v>0.006218200000148499</v>
       </c>
       <c r="L31" t="n">
-        <v>0.005839599998580525</v>
+        <v>0.006281699999817647</v>
       </c>
       <c r="M31" t="n">
-        <v>0.006316499999229563</v>
+        <v>0.006607199999052682</v>
       </c>
     </row>
     <row r="32">
@@ -1848,22 +1848,22 @@
         <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0003381000005902024</v>
+        <v>0.000331900000674068</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0003643000000010943</v>
+        <v>0.0003835000006802147</v>
       </c>
       <c r="J32" t="n">
-        <v>0.00628099999994447</v>
+        <v>0.006442800000513671</v>
       </c>
       <c r="K32" t="n">
-        <v>0.006703799999741022</v>
+        <v>0.006836900000052992</v>
       </c>
       <c r="L32" t="n">
-        <v>0.006619100000534672</v>
+        <v>0.006774700001187739</v>
       </c>
       <c r="M32" t="n">
-        <v>0.007068099999742117</v>
+        <v>0.007220400000733207</v>
       </c>
     </row>
     <row r="33">
@@ -1891,22 +1891,22 @@
         <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0003249000001233071</v>
+        <v>0.0003565000006346963</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003799999994953396</v>
+        <v>0.0004027999984828057</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004496700001254794</v>
+        <v>0.00463089999902877</v>
       </c>
       <c r="K33" t="n">
-        <v>0.004802499999641441</v>
+        <v>0.004928700000164099</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004821600001378101</v>
+        <v>0.004987399999663467</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00518249999913678</v>
+        <v>0.005331499998646905</v>
       </c>
     </row>
     <row r="34">
@@ -1934,22 +1934,22 @@
         <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000309499999275431</v>
+        <v>0.0003620999996201135</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0003465000008873176</v>
+        <v>0.0004076999994140351</v>
       </c>
       <c r="J34" t="n">
-        <v>0.003950499998609303</v>
+        <v>0.0041203000000678</v>
       </c>
       <c r="K34" t="n">
-        <v>0.004271299998436007</v>
+        <v>0.004486899999392335</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004259999997884734</v>
+        <v>0.004482399999687914</v>
       </c>
       <c r="M34" t="n">
-        <v>0.004617799999323324</v>
+        <v>0.00489459999880637</v>
       </c>
     </row>
     <row r="35">
@@ -1977,22 +1977,22 @@
         <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0003119000011793105</v>
+        <v>0.0003608000006352086</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0003522000006341841</v>
+        <v>0.0003932999989046948</v>
       </c>
       <c r="J35" t="n">
-        <v>0.003613599999880535</v>
+        <v>0.003734400001121685</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003974299999754294</v>
+        <v>0.004012499999589636</v>
       </c>
       <c r="L35" t="n">
-        <v>0.003925500001059845</v>
+        <v>0.004095200001756893</v>
       </c>
       <c r="M35" t="n">
-        <v>0.004326500000388478</v>
+        <v>0.004405799998494331</v>
       </c>
     </row>
     <row r="36">
@@ -2020,22 +2020,22 @@
         <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0003042999996978324</v>
+        <v>0.0003633999986050185</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0003570999997464241</v>
+        <v>0.0003699999997479608</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005711300000257324</v>
+        <v>0.006090700000640936</v>
       </c>
       <c r="K36" t="n">
-        <v>0.006020100001478568</v>
+        <v>0.00623029999951541</v>
       </c>
       <c r="L36" t="n">
-        <v>0.006015599999955157</v>
+        <v>0.006454099999245955</v>
       </c>
       <c r="M36" t="n">
-        <v>0.006377200001224992</v>
+        <v>0.00660029999926337</v>
       </c>
     </row>
     <row r="37">
@@ -2063,22 +2063,22 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0002991000001202337</v>
+        <v>0.0003477999998722225</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0003753999990294687</v>
+        <v>0.0003832000002148561</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02141420000043581</v>
+        <v>0.02335629999834055</v>
       </c>
       <c r="K37" t="n">
-        <v>0.005175000000235741</v>
+        <v>0.005325500000253669</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02171330000055605</v>
+        <v>0.02370409999821277</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00555039999926521</v>
+        <v>0.005708700000468525</v>
       </c>
     </row>
     <row r="38">
@@ -2106,22 +2106,22 @@
         <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0003703999991557794</v>
+        <v>0.000503999999637017</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0004179000006843125</v>
+        <v>0.0004329000003053807</v>
       </c>
       <c r="J38" t="n">
-        <v>0.004876599999988684</v>
+        <v>0.005329200001142453</v>
       </c>
       <c r="K38" t="n">
-        <v>0.005085599999802071</v>
+        <v>0.005420600000434206</v>
       </c>
       <c r="L38" t="n">
-        <v>0.005246999999144464</v>
+        <v>0.00583320000077947</v>
       </c>
       <c r="M38" t="n">
-        <v>0.005503500000486383</v>
+        <v>0.005853500000739587</v>
       </c>
     </row>
     <row r="39">
@@ -2149,22 +2149,22 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0004190999989077682</v>
+        <v>0.000484800000776886</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0005578000000241445</v>
+        <v>0.0006052000007912284</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006757599998309161</v>
+        <v>0.007184300000517396</v>
       </c>
       <c r="K39" t="n">
-        <v>0.007366499999989173</v>
+        <v>0.00765289999981178</v>
       </c>
       <c r="L39" t="n">
-        <v>0.007176699997216929</v>
+        <v>0.007669100001294282</v>
       </c>
       <c r="M39" t="n">
-        <v>0.007924300000013318</v>
+        <v>0.008258100000603008</v>
       </c>
     </row>
     <row r="40">
@@ -2192,22 +2192,22 @@
         <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0003851999990729382</v>
+        <v>0.0004157999992457917</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000585900001169648</v>
+        <v>0.0005975000003672903</v>
       </c>
       <c r="J40" t="n">
-        <v>0.009831500001382665</v>
+        <v>0.01037520000136283</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01087499999994179</v>
+        <v>0.01124099999833561</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0102167000004556</v>
+        <v>0.01079100000060862</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01146090000111144</v>
+        <v>0.0118384999987029</v>
       </c>
     </row>
     <row r="41">
@@ -2235,22 +2235,22 @@
         <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0004625999990821583</v>
+        <v>0.0005008999996789498</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0004965999996784376</v>
+        <v>0.0005802000014227815</v>
       </c>
       <c r="J41" t="n">
-        <v>0.00589380000019446</v>
+        <v>0.006029400001352769</v>
       </c>
       <c r="K41" t="n">
-        <v>0.006152400001155911</v>
+        <v>0.00666790000104811</v>
       </c>
       <c r="L41" t="n">
-        <v>0.006356399999276618</v>
+        <v>0.006530300001031719</v>
       </c>
       <c r="M41" t="n">
-        <v>0.006649000000834349</v>
+        <v>0.007248100002470892</v>
       </c>
     </row>
     <row r="42">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0004062000007252209</v>
+        <v>0.0004422000001795823</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0005492000000231201</v>
+        <v>0.0005250000012892997</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005226999999649706</v>
+        <v>0.005422199999884469</v>
       </c>
       <c r="K42" t="n">
-        <v>0.005845199999384931</v>
+        <v>0.0060219999995752</v>
       </c>
       <c r="L42" t="n">
-        <v>0.005633200000374927</v>
+        <v>0.005864400000064052</v>
       </c>
       <c r="M42" t="n">
-        <v>0.006394399999408051</v>
+        <v>0.0065470000008645</v>
       </c>
     </row>
     <row r="43">
@@ -2321,22 +2321,22 @@
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0004637000001821434</v>
+        <v>0.000514600000315113</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0005036000002291985</v>
+        <v>0.000567699999010074</v>
       </c>
       <c r="J43" t="n">
-        <v>0.009536999999909312</v>
+        <v>0.009799100000236649</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008610300001237192</v>
+        <v>0.008982999999716412</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01000070000009146</v>
+        <v>0.01031370000055176</v>
       </c>
       <c r="M43" t="n">
-        <v>0.009113900001466391</v>
+        <v>0.009550699998726486</v>
       </c>
     </row>
     <row r="44">
@@ -2364,22 +2364,22 @@
         <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0004441000000952045</v>
+        <v>0.0005063999997219071</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0005142999998497544</v>
+        <v>0.000634899999568006</v>
       </c>
       <c r="J44" t="n">
-        <v>0.007390000000668806</v>
+        <v>0.00782950000029814</v>
       </c>
       <c r="K44" t="n">
-        <v>0.007848299999750452</v>
+        <v>0.008426300000792253</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00783410000076401</v>
+        <v>0.008335900000020047</v>
       </c>
       <c r="M44" t="n">
-        <v>0.008362599999600207</v>
+        <v>0.009061200000360259</v>
       </c>
     </row>
     <row r="45">
@@ -2407,22 +2407,22 @@
         <v>10</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0003775000004679896</v>
+        <v>0.0004495000011957018</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0004633000007743249</v>
+        <v>0.0005457999995996943</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01190950000091107</v>
+        <v>0.01235320000159845</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01250429999890912</v>
+        <v>0.01297229999909177</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01228700000137906</v>
+        <v>0.01280270000279415</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01296759999968344</v>
+        <v>0.01351809999869147</v>
       </c>
     </row>
     <row r="46">
@@ -2450,22 +2450,22 @@
         <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0004035999991174322</v>
+        <v>0.0004653000014513964</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0004854999988310738</v>
+        <v>0.0005523999989236472</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01025830000071437</v>
+        <v>0.01067930000135675</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01060189999952854</v>
+        <v>0.01133780000054685</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0106618999998318</v>
+        <v>0.01114460000280815</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01108739999835961</v>
+        <v>0.0118901999994705</v>
       </c>
     </row>
     <row r="47">
@@ -2493,22 +2493,22 @@
         <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0003876999999192776</v>
+        <v>0.0004657999998016749</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0004997999985789647</v>
+        <v>0.0007310000000870787</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01173630000084813</v>
+        <v>0.01455459999851882</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01366699999925913</v>
+        <v>0.01470719999997527</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01212400000076741</v>
+        <v>0.0150203999983205</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0141667999978381</v>
+        <v>0.01543820000006235</v>
       </c>
     </row>
     <row r="48">
@@ -2536,22 +2536,22 @@
         <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0004222999996272847</v>
+        <v>0.0005067000001872657</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0005447999992611585</v>
+        <v>0.0005807999987155199</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01389160000144329</v>
+        <v>0.01482180000130029</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01429559999996854</v>
+        <v>0.01605659999950149</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01431390000107058</v>
+        <v>0.01532850000148755</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0148403999992297</v>
+        <v>0.01663739999821701</v>
       </c>
     </row>
     <row r="49">
@@ -2579,22 +2579,22 @@
         <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0004109999990760116</v>
+        <v>0.0004871000001003267</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0005037999999331078</v>
+        <v>0.0005800999988423428</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02661929999885615</v>
+        <v>0.02992799999992712</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01225139999951352</v>
+        <v>0.01231290000032459</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02703029999793216</v>
+        <v>0.03041510000002745</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01275519999944663</v>
+        <v>0.01289299999916693</v>
       </c>
     </row>
     <row r="50">
@@ -2622,22 +2622,22 @@
         <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0004552999998850282</v>
+        <v>0.0004511000006459653</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0005512999996426515</v>
+        <v>0.0005078000012872508</v>
       </c>
       <c r="J50" t="n">
-        <v>0.009331799999927171</v>
+        <v>0.009316800000306102</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01030369999898539</v>
+        <v>0.01044569999976375</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009787099999812199</v>
+        <v>0.009767900000952068</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01085499999862805</v>
+        <v>0.010953500001051</v>
       </c>
     </row>
     <row r="51">
@@ -2665,22 +2665,22 @@
         <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0004828000000998145</v>
+        <v>0.000480799999422743</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0006315000009635696</v>
+        <v>0.0006338999992294703</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01948859999902197</v>
+        <v>0.01966110000103072</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02198529999986931</v>
+        <v>0.02216960000077961</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01997139999912179</v>
+        <v>0.02014190000045346</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02261680000083288</v>
+        <v>0.02280350000000908</v>
       </c>
     </row>
     <row r="52">
@@ -2708,22 +2708,22 @@
         <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>0.000504400000863825</v>
+        <v>0.0005065000004833564</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0006253000010474352</v>
+        <v>0.0007105000004230533</v>
       </c>
       <c r="J52" t="n">
-        <v>0.02184830000078364</v>
+        <v>0.0222976999993989</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02120560000003024</v>
+        <v>0.0221161999998003</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02235270000164746</v>
+        <v>0.02280419999988226</v>
       </c>
       <c r="M52" t="n">
-        <v>0.02183090000107768</v>
+        <v>0.02282670000022335</v>
       </c>
     </row>
     <row r="53">
@@ -2751,22 +2751,22 @@
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0005971000009594718</v>
+        <v>0.0006410000005416805</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0007627000013599172</v>
+        <v>0.0008030999997572508</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02715369999896211</v>
+        <v>0.02769749999970372</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02301249999982247</v>
+        <v>0.0235064999997121</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02775079999992158</v>
+        <v>0.0283385000002454</v>
       </c>
       <c r="M53" t="n">
-        <v>0.02377520000118238</v>
+        <v>0.02430959999946936</v>
       </c>
     </row>
     <row r="54">
@@ -2794,22 +2794,22 @@
         <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0005903000001126202</v>
+        <v>0.0006032999990566168</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000784100000601029</v>
+        <v>0.0007846999997127568</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01767690000087896</v>
+        <v>0.0180065000004106</v>
       </c>
       <c r="K54" t="n">
-        <v>0.02075180000065302</v>
+        <v>0.02061479999974836</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01826720000099158</v>
+        <v>0.01860979999946721</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02153590000125405</v>
+        <v>0.02139949999946111</v>
       </c>
     </row>
     <row r="55">
@@ -2837,22 +2837,22 @@
         <v>8</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0007420999991154531</v>
+        <v>0.000650399999358342</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0007721000001765788</v>
+        <v>0.0008340000003954628</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02575769999930344</v>
+        <v>0.02708609999899636</v>
       </c>
       <c r="K55" t="n">
-        <v>0.02673320000030799</v>
+        <v>0.02704610000000685</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02649979999841889</v>
+        <v>0.0277364999983547</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02750530000048457</v>
+        <v>0.02788010000040231</v>
       </c>
     </row>
     <row r="56">
@@ -2880,22 +2880,22 @@
         <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0006198999999469379</v>
+        <v>0.0006002999998599989</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0007538999998359941</v>
+        <v>0.0008173000005626818</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03864459999931569</v>
+        <v>0.03968100000020058</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0254464999998163</v>
+        <v>0.02625570000054722</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03926449999926263</v>
+        <v>0.04028130000006058</v>
       </c>
       <c r="M56" t="n">
-        <v>0.02620039999965229</v>
+        <v>0.0270730000011099</v>
       </c>
     </row>
     <row r="57">
@@ -2923,22 +2923,22 @@
         <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0005761000011261785</v>
+        <v>0.000638900000922149</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0007826000000932254</v>
+        <v>0.0007699000016145874</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02055789999940316</v>
+        <v>0.02087750000100641</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02177490000030957</v>
+        <v>0.02197259999957168</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02113400000052934</v>
+        <v>0.02151640000192856</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0225575000004028</v>
+        <v>0.02274250000118627</v>
       </c>
     </row>
     <row r="58">
@@ -2966,22 +2966,22 @@
         <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0006215000012161909</v>
+        <v>0.0006044000001566019</v>
       </c>
       <c r="I58" t="n">
-        <v>0.000740100000257371</v>
+        <v>0.0007604000002174871</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0230928999990283</v>
+        <v>0.02314249999835738</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02141389999997045</v>
+        <v>0.02134380000097735</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0237144000002445</v>
+        <v>0.02374689999851398</v>
       </c>
       <c r="M58" t="n">
-        <v>0.02215400000022782</v>
+        <v>0.02210420000119484</v>
       </c>
     </row>
     <row r="59">
@@ -3009,22 +3009,22 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0006365999997797189</v>
+        <v>0.0006192000000737607</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0007755000006000046</v>
+        <v>0.0007767999995849095</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01916969999911089</v>
+        <v>0.01888700000017707</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01917479999974603</v>
+        <v>0.0188386999998329</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01980629999889061</v>
+        <v>0.01950620000025083</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01995030000034603</v>
+        <v>0.01961549999941781</v>
       </c>
     </row>
     <row r="60">
@@ -3052,22 +3052,22 @@
         <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0006200000007083872</v>
+        <v>0.0006214000004547415</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0007851999998820247</v>
+        <v>0.0007730999986961251</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01907959999880404</v>
+        <v>0.01912710000033258</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02015399999982037</v>
+        <v>0.02011900000070455</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01969959999951243</v>
+        <v>0.01974850000078732</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0209391999997024</v>
+        <v>0.02089209999940067</v>
       </c>
     </row>
     <row r="61">
@@ -3095,22 +3095,22 @@
         <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0006355000004987232</v>
+        <v>0.0006855999999970663</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0007883999987825518</v>
+        <v>0.000865699999849312</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0127386000003753</v>
+        <v>0.01307359999918845</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02949879999869154</v>
+        <v>0.03367020000041521</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01337410000087402</v>
+        <v>0.01375919999918551</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03028719999747409</v>
+        <v>0.03453590000026452</v>
       </c>
     </row>
     <row r="62">
@@ -3138,22 +3138,22 @@
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0006217000009201001</v>
+        <v>0.0006735000006301561</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0007702000002609566</v>
+        <v>0.0008457999992970144</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01751440000043658</v>
+        <v>0.01948880000054487</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0187445999999909</v>
+        <v>0.0194324999993114</v>
       </c>
       <c r="L62" t="n">
-        <v>0.01813610000135668</v>
+        <v>0.02016230000117503</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01951480000025185</v>
+        <v>0.02027829999860842</v>
       </c>
     </row>
     <row r="63">
@@ -3181,22 +3181,22 @@
         <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0006609000010939781</v>
+        <v>0.0007183000016084407</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0008033000012801494</v>
+        <v>0.0007979000001796521</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01171240000076068</v>
+        <v>0.01259009999921545</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01314400000046589</v>
+        <v>0.01336650000121153</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01237330000185466</v>
+        <v>0.01330840000082389</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01394730000174604</v>
+        <v>0.01416440000139119</v>
       </c>
     </row>
     <row r="64">
@@ -3224,22 +3224,22 @@
         <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0005813000007037772</v>
+        <v>0.0006214000004547415</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0007669000005989801</v>
+        <v>0.0007986999989952892</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02664740000000165</v>
+        <v>0.02766469999914989</v>
       </c>
       <c r="K64" t="n">
-        <v>0.02294559999972989</v>
+        <v>0.02378159999898344</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02722870000070543</v>
+        <v>0.02828609999960463</v>
       </c>
       <c r="M64" t="n">
-        <v>0.02371250000032887</v>
+        <v>0.02458029999797873</v>
       </c>
     </row>
     <row r="65">
@@ -3267,22 +3267,22 @@
         <v>14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0006338000002870103</v>
+        <v>0.0006353999997372739</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0007777999999234453</v>
+        <v>0.0008182000001397682</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02756410000074538</v>
+        <v>0.02905190000092261</v>
       </c>
       <c r="K65" t="n">
-        <v>0.02635960000043269</v>
+        <v>0.02817879999929573</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02819790000103239</v>
+        <v>0.02968730000065989</v>
       </c>
       <c r="M65" t="n">
-        <v>0.02713740000035614</v>
+        <v>0.0289969999994355</v>
       </c>
     </row>
     <row r="66">
@@ -3310,22 +3310,22 @@
         <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0006246000011742581</v>
+        <v>0.0006955999997444451</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0007738999993307516</v>
+        <v>0.0009844000014709309</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01378740000109246</v>
+        <v>0.01453089999995427</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01465769999958866</v>
+        <v>0.01581329999862646</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01441200000226672</v>
+        <v>0.01522649999969872</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01543159999891941</v>
+        <v>0.01679770000009739</v>
       </c>
     </row>
     <row r="67">
@@ -3353,22 +3353,22 @@
         <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0006049999992683297</v>
+        <v>0.0006768999992345925</v>
       </c>
       <c r="I67" t="n">
-        <v>0.000807399999757763</v>
+        <v>0.0008146000000124332</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0216935000007652</v>
+        <v>0.02243349999844213</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03519450000021607</v>
+        <v>0.03721649999897636</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02229850000003353</v>
+        <v>0.02311039999767672</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03600189999997383</v>
+        <v>0.03803109999898879</v>
       </c>
     </row>
     <row r="68">
@@ -3396,22 +3396,22 @@
         <v>9</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0006149000000732485</v>
+        <v>0.000693299998602015</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0008790000010776566</v>
+        <v>0.0008248999984061811</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02076110000052722</v>
+        <v>0.021037399999841</v>
       </c>
       <c r="K68" t="n">
-        <v>0.02157460000125866</v>
+        <v>0.02134020000085002</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02137600000060047</v>
+        <v>0.02173069999844301</v>
       </c>
       <c r="M68" t="n">
-        <v>0.02245360000233632</v>
+        <v>0.0221650999992562</v>
       </c>
     </row>
     <row r="69">
@@ -3439,22 +3439,22 @@
         <v>5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0006445999988500262</v>
+        <v>0.0006405999993148725</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0008185000006051268</v>
+        <v>0.0009238000002369517</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01663730000109354</v>
+        <v>0.01629230000071402</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01549500000146509</v>
+        <v>0.0153214999991178</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01728189999994356</v>
+        <v>0.01693290000002889</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01631350000207021</v>
+        <v>0.01624529999935476</v>
       </c>
     </row>
     <row r="70">
@@ -3482,22 +3482,22 @@
         <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0005858999993506586</v>
+        <v>0.0006539000005432172</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0007380999995802995</v>
+        <v>0.0008101000003080117</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02177880000090227</v>
+        <v>0.02262879999943834</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02468679999947199</v>
+        <v>0.02554090000012366</v>
       </c>
       <c r="L70" t="n">
-        <v>0.02236470000025292</v>
+        <v>0.02328269999998156</v>
       </c>
       <c r="M70" t="n">
-        <v>0.02542489999905229</v>
+        <v>0.02635100000043167</v>
       </c>
     </row>
     <row r="71">
@@ -3525,22 +3525,22 @@
         <v>7</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0005906999995204387</v>
+        <v>0.0006357000002026325</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0007439000000886153</v>
+        <v>0.0007823999985703267</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01932669999951031</v>
+        <v>0.01991689999886148</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02083970000057889</v>
+        <v>0.02174110000123619</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01991739999903075</v>
+        <v>0.02055259999906411</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0215836000006675</v>
+        <v>0.02252349999980652</v>
       </c>
     </row>
     <row r="72">
@@ -3568,22 +3568,22 @@
         <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0005778000013378914</v>
+        <v>0.000610400000368827</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0007349999996222323</v>
+        <v>0.000747899999623769</v>
       </c>
       <c r="J72" t="n">
-        <v>0.019519899999068</v>
+        <v>0.0197853000008763</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02149589999862656</v>
+        <v>0.02055879999898025</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02009770000040589</v>
+        <v>0.02039570000124513</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02223089999824879</v>
+        <v>0.02130669999860402</v>
       </c>
     </row>
     <row r="73">
@@ -3611,22 +3611,22 @@
         <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0005924999986746116</v>
+        <v>0.0006060000014258549</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0008268000001407927</v>
+        <v>0.0007768999985273695</v>
       </c>
       <c r="J73" t="n">
-        <v>0.04448219999903813</v>
+        <v>0.04322060000049532</v>
       </c>
       <c r="K73" t="n">
-        <v>0.02346279999983381</v>
+        <v>0.02348309999979392</v>
       </c>
       <c r="L73" t="n">
-        <v>0.04507469999771274</v>
+        <v>0.04382660000192118</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0242895999999746</v>
+        <v>0.02425999999832129</v>
       </c>
     </row>
     <row r="74">
@@ -3654,22 +3654,22 @@
         <v>9</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0006064999997761333</v>
+        <v>0.0005898999988858122</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0007721000001765788</v>
+        <v>0.0007415999989461852</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02813459999924817</v>
+        <v>0.02943899999991118</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03310749999945983</v>
+        <v>0.02531660000022384</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0287410999990243</v>
+        <v>0.03002889999879699</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03387959999963641</v>
+        <v>0.02605819999917003</v>
       </c>
     </row>
     <row r="75">
@@ -3697,22 +3697,22 @@
         <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0005844999996043043</v>
+        <v>0.0006520999995700549</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0007390999999188352</v>
+        <v>0.0008051000004343223</v>
       </c>
       <c r="J75" t="n">
-        <v>0.02011990000028163</v>
+        <v>0.02061819999835279</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02153739999994286</v>
+        <v>0.02198990000033518</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02070439999988594</v>
+        <v>0.02127029999792285</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0222764999998617</v>
+        <v>0.02279500000076951</v>
       </c>
     </row>
     <row r="76">
@@ -3740,22 +3740,22 @@
         <v>9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0005462999997689622</v>
+        <v>0.0005684000007022405</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0007666000001336215</v>
+        <v>0.0007287999997060979</v>
       </c>
       <c r="J76" t="n">
-        <v>0.02101210000000719</v>
+        <v>0.02083429999947839</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0244566000001214</v>
+        <v>0.02422649999971327</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02155839999977616</v>
+        <v>0.02140270000018063</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02522320000025502</v>
+        <v>0.02495529999941937</v>
       </c>
     </row>
     <row r="77">
@@ -3783,22 +3783,22 @@
         <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0005910999989282573</v>
+        <v>0.0005987000004097354</v>
       </c>
       <c r="I77" t="n">
-        <v>0.0007397999997920124</v>
+        <v>0.0007444000002578832</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01886759999979404</v>
+        <v>0.01864920000116399</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01977259999875969</v>
+        <v>0.01971589999993739</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0194586999987223</v>
+        <v>0.01924790000157373</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0205123999985517</v>
+        <v>0.02046030000019528</v>
       </c>
     </row>
     <row r="78">
@@ -3826,22 +3826,22 @@
         <v>7</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0006257999993977137</v>
+        <v>0.000627199999144068</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0007726999992883066</v>
+        <v>0.0008391999999730615</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01522839999961434</v>
+        <v>0.01515350000045146</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01809730000059062</v>
+        <v>0.01866659999905096</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01585419999901205</v>
+        <v>0.01578069999959553</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01886999999987893</v>
+        <v>0.01950579999902402</v>
       </c>
     </row>
     <row r="79">
@@ -3869,22 +3869,22 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001187699999718461</v>
+        <v>0.001245299999936833</v>
       </c>
       <c r="I79" t="n">
-        <v>0.001374800000121468</v>
+        <v>0.001453700000638491</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02745320000030915</v>
+        <v>0.03202500000043074</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01249019999886514</v>
+        <v>0.01357979999920644</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02864090000002761</v>
+        <v>0.03327030000036757</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0138649999989866</v>
+        <v>0.01503349999984493</v>
       </c>
     </row>
     <row r="80">
@@ -3912,22 +3912,22 @@
         <v>9</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0008920000000216532</v>
+        <v>0.0009352000015496742</v>
       </c>
       <c r="I80" t="n">
-        <v>0.001219800000399118</v>
+        <v>0.001312400001552305</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07090339999922435</v>
+        <v>0.07508680000137247</v>
       </c>
       <c r="K80" t="n">
-        <v>0.060900299999048</v>
+        <v>0.06415300000116986</v>
       </c>
       <c r="L80" t="n">
-        <v>0.071795399999246</v>
+        <v>0.07602200000292214</v>
       </c>
       <c r="M80" t="n">
-        <v>0.06212009999944712</v>
+        <v>0.06546540000272216</v>
       </c>
     </row>
     <row r="81">
@@ -3955,22 +3955,22 @@
         <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0002623000000312459</v>
+        <v>0.000263400001131231</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0001087000000552507</v>
+        <v>0.0001018999992083991</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0001792000002751593</v>
+        <v>0.0001909999991767108</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0001664999999775318</v>
+        <v>0.0001744999990478391</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0004415000003064051</v>
+        <v>0.0004544000003079418</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0002752000000327826</v>
+        <v>0.0002763999982562382</v>
       </c>
     </row>
     <row r="82">
@@ -3998,22 +3998,22 @@
         <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0007855999992898433</v>
+        <v>0.000851400000101421</v>
       </c>
       <c r="I82" t="n">
-        <v>0.001141200000347453</v>
+        <v>0.001186700001198915</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03264599999965867</v>
+        <v>0.03477029999885417</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03880709999975807</v>
+        <v>0.04015210000034131</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03343159999894851</v>
+        <v>0.03562169999895559</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03994830000010552</v>
+        <v>0.04133880000154022</v>
       </c>
     </row>
     <row r="83">
@@ -4041,22 +4041,22 @@
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0009124999996856786</v>
+        <v>0.0009346999995614169</v>
       </c>
       <c r="I83" t="n">
-        <v>0.001244900000529015</v>
+        <v>0.001227700000526966</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07747249999920314</v>
+        <v>0.0784998999988602</v>
       </c>
       <c r="K83" t="n">
-        <v>0.05819030000020575</v>
+        <v>0.05828730000030191</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07838499999888882</v>
+        <v>0.07943459999842162</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05943520000073477</v>
+        <v>0.05951500000082888</v>
       </c>
     </row>
     <row r="84">
@@ -4084,22 +4084,22 @@
         <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001188700000056997</v>
+        <v>0.001394299999446957</v>
       </c>
       <c r="I84" t="n">
-        <v>0.001679500001046108</v>
+        <v>0.001642400000491762</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2224052999990818</v>
+        <v>0.2281377999988763</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2479042999984813</v>
+        <v>0.2425884000003862</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2235939999991388</v>
+        <v>0.2295320999983232</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2495837999995274</v>
+        <v>0.2442308000008779</v>
       </c>
     </row>
     <row r="85">
@@ -4127,22 +4127,22 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0002624999997351551</v>
+        <v>0.0002608000013424316</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0001128999992943136</v>
+        <v>0.0001158000013674609</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0003566999985196162</v>
+        <v>0.0003770000002987217</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0003524000003380934</v>
+        <v>0.0003634000004240079</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0006191999982547713</v>
+        <v>0.0006378000016411534</v>
       </c>
       <c r="M85" t="n">
-        <v>0.000465299999632407</v>
+        <v>0.0004792000017914688</v>
       </c>
     </row>
     <row r="86">
@@ -4170,22 +4170,22 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0001037999991240213</v>
+        <v>0.0001037000001815613</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000105200000689365</v>
+        <v>0.000104799999462557</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0003280000000813743</v>
+        <v>0.0003350999995745951</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0003426000002946239</v>
+        <v>0.0003581000000849599</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0004317999992053956</v>
+        <v>0.0004387999997561565</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0004478000009839889</v>
+        <v>0.0004628999995475169</v>
       </c>
     </row>
     <row r="87">
@@ -4213,22 +4213,22 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0001095999996323371</v>
+        <v>9.540000064589549e-05</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0001666999996814411</v>
+        <v>9.959999988495838e-05</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0003392000016901875</v>
+        <v>0.0003292000001238193</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0003538000000844477</v>
+        <v>0.0003477999998722225</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0004488000013225246</v>
+        <v>0.0004246000007697148</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0005204999997658888</v>
+        <v>0.0004473999997571809</v>
       </c>
     </row>
     <row r="88">
@@ -4256,22 +4256,22 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0001222000009875046</v>
+        <v>9.680000039224979e-05</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0001363999999739463</v>
+        <v>9.719999980006833e-05</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0003156000002491055</v>
+        <v>0.0002999000007548602</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0003435999988141702</v>
+        <v>0.0003399999986868352</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0004378000012366101</v>
+        <v>0.00039670000114711</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0004799999987881165</v>
+        <v>0.0004371999984869035</v>
       </c>
     </row>
     <row r="89">
@@ -4299,22 +4299,22 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0001381999991281191</v>
+        <v>0.0001029000013659243</v>
       </c>
       <c r="I89" t="n">
-        <v>0.00011129999984405</v>
+        <v>0.0001276000002690125</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0003164999998261919</v>
+        <v>0.0003147000006720191</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0003449999985605245</v>
+        <v>0.0003567999992810655</v>
       </c>
       <c r="L89" t="n">
-        <v>0.000454699998954311</v>
+        <v>0.0004176000020379433</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0004562999984045746</v>
+        <v>0.0004843999995500781</v>
       </c>
     </row>
     <row r="90">
@@ -4342,22 +4342,22 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>9.379999937664252e-05</v>
+        <v>9.900000077323057e-05</v>
       </c>
       <c r="I90" t="n">
-        <v>9.490000047662761e-05</v>
+        <v>0.0001015999987430405</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0002945999985968228</v>
+        <v>0.0003018000006704824</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0003266999992774799</v>
+        <v>0.0003388000004633795</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0003883999979734654</v>
+        <v>0.000400800001443713</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0004215999997541076</v>
+        <v>0.00044039999920642</v>
       </c>
     </row>
     <row r="91">
@@ -4385,22 +4385,22 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>9.750000026542693e-05</v>
+        <v>0.0001066000004357193</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0001095999996323371</v>
+        <v>0.0001196000011987053</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0003370000013092067</v>
+        <v>0.0003510000005917391</v>
       </c>
       <c r="K91" t="n">
-        <v>0.000355199999830802</v>
+        <v>0.0003810999987763353</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0004345000015746336</v>
+        <v>0.0004576000010274583</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0004647999994631391</v>
+        <v>0.0005006999999750406</v>
       </c>
     </row>
     <row r="92">
@@ -4428,22 +4428,22 @@
         <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>9.580000005371403e-05</v>
+        <v>0.0001542999998491723</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0001032000000122935</v>
+        <v>0.0001836999999795808</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0003411999987292802</v>
+        <v>0.0003725999995367602</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0003772999989450909</v>
+        <v>0.0004239999998389976</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0004369999987829942</v>
+        <v>0.0005268999993859325</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0004804999989573844</v>
+        <v>0.0006076999998185784</v>
       </c>
     </row>
     <row r="93">
@@ -4471,22 +4471,22 @@
         <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>9.449999924981967e-05</v>
+        <v>0.0001668999993853504</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0001179999999294523</v>
+        <v>0.0001492999999754829</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0003600000000005821</v>
+        <v>0.0003854000005958369</v>
       </c>
       <c r="K93" t="n">
-        <v>0.000386100000469014</v>
+        <v>0.0004103999999642838</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0004544999992504017</v>
+        <v>0.0005522999999811873</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0005041000003984664</v>
+        <v>0.0005596999999397667</v>
       </c>
     </row>
     <row r="94">
@@ -4514,22 +4514,22 @@
         <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>9.130000034929253e-05</v>
+        <v>0.0001134000012825709</v>
       </c>
       <c r="I94" t="n">
-        <v>9.549999958835542e-05</v>
+        <v>0.0001260999997612089</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0004016000002593501</v>
+        <v>0.0004306999999243999</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0004488000013225246</v>
+        <v>0.0004659999995055841</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0004929000006086426</v>
+        <v>0.0005441000012069708</v>
       </c>
       <c r="M94" t="n">
-        <v>0.00054430000091088</v>
+        <v>0.000592099999266793</v>
       </c>
     </row>
     <row r="95">
@@ -4557,22 +4557,22 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>9.73999995039776e-05</v>
+        <v>0.0001056999990396434</v>
       </c>
       <c r="I95" t="n">
-        <v>9.969999882741831e-05</v>
+        <v>0.0001001000000542263</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0003342999989399686</v>
+        <v>0.0003363000014360296</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0003565000006346963</v>
+        <v>0.0003684999992401572</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0004316999984439462</v>
+        <v>0.000442000000475673</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0004561999994621146</v>
+        <v>0.0004685999992943835</v>
       </c>
     </row>
     <row r="96">
@@ -4600,22 +4600,22 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>9.399999908055179e-05</v>
+        <v>9.520000094198622e-05</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0001003000015771249</v>
+        <v>0.0001057999998010928</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0003332000014779624</v>
+        <v>0.0003308000013930723</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0003522000006341841</v>
+        <v>0.0003686999989440665</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0004272000005585141</v>
+        <v>0.0004260000023350585</v>
       </c>
       <c r="M96" t="n">
-        <v>0.000452500002211309</v>
+        <v>0.0004744999987451592</v>
       </c>
     </row>
     <row r="97">
@@ -4643,22 +4643,22 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>9.640000098443124e-05</v>
+        <v>9.560000034980476e-05</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0001220000012835953</v>
+        <v>9.850000060396269e-05</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0003293000008852687</v>
+        <v>0.0003261000001657521</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0003562999991117977</v>
+        <v>0.000348600000506849</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0004257000018696999</v>
+        <v>0.0004217000005155569</v>
       </c>
       <c r="M97" t="n">
-        <v>0.000478300000395393</v>
+        <v>0.0004471000011108117</v>
       </c>
     </row>
     <row r="98">
@@ -4686,22 +4686,22 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>9.900000077323057e-05</v>
+        <v>0.0001026000009005656</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0001038999998854706</v>
+        <v>0.0001062999999703607</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0003228999994462356</v>
+        <v>0.0003264999995735707</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0003505999993649311</v>
+        <v>0.000352700000803452</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0004219000002194662</v>
+        <v>0.0004291000004741363</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0004544999992504017</v>
+        <v>0.0004590000007738126</v>
       </c>
     </row>
     <row r="99">
@@ -4729,22 +4729,22 @@
         <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>9.329999920737464e-05</v>
+        <v>9.76999999693362e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>9.589999899617396e-05</v>
+        <v>0.0001052999996318249</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0004067999998369487</v>
+        <v>0.000417199998992146</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0004374999989522621</v>
+        <v>0.0004545000010693911</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0005000999990443233</v>
+        <v>0.0005148999989614822</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0005333999979484361</v>
+        <v>0.000559800000701216</v>
       </c>
     </row>
     <row r="100">
@@ -4772,22 +4772,22 @@
         <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0001042000003508292</v>
+        <v>0.0001121000004786765</v>
       </c>
       <c r="I100" t="n">
-        <v>0.0001057999998010928</v>
+        <v>0.0001040000006469199</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0004487000005610753</v>
+        <v>0.0004535000007308554</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0005010999993828591</v>
+        <v>0.0005154999998921994</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0005529000009119045</v>
+        <v>0.0005656000012095319</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0006068999991839519</v>
+        <v>0.0006195000005391194</v>
       </c>
     </row>
     <row r="101">
@@ -4815,22 +4815,22 @@
         <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0001247999989573145</v>
+        <v>0.0001224999996338738</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0001185000000987202</v>
+        <v>0.0001362999992124969</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0006722000016452512</v>
+        <v>0.0006673999996564817</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0007296000003407244</v>
+        <v>0.0007224000000860542</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0007970000006025657</v>
+        <v>0.0007898999992903555</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0008481000004394446</v>
+        <v>0.0008586999992985511</v>
       </c>
     </row>
     <row r="102">
@@ -4858,22 +4858,22 @@
         <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0001066999993781792</v>
+        <v>0.0001080999991245335</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0001118999989557778</v>
+        <v>0.0001224000006914139</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0006469999989349162</v>
+        <v>0.0006529000002046814</v>
       </c>
       <c r="K102" t="n">
-        <v>0.0007715000010648509</v>
+        <v>0.0007341000000451459</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0007536999983130954</v>
+        <v>0.0007609999993292149</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0008834000000206288</v>
+        <v>0.0008565000007365597</v>
       </c>
     </row>
     <row r="103">
@@ -4901,22 +4901,22 @@
         <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0001747999995131977</v>
+        <v>0.0001227000011567725</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0001322000007348834</v>
+        <v>0.000129699999888544</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0007968000008986564</v>
+        <v>0.0007862999991630204</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0008422000009886688</v>
+        <v>0.0008705000000190921</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0009716000004118541</v>
+        <v>0.0009090000003197929</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0009744000017235521</v>
+        <v>0.001000199999907636</v>
       </c>
     </row>
     <row r="104">
@@ -4944,22 +4944,22 @@
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0001104000002669636</v>
+        <v>0.0001651000002311775</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0001327999998466112</v>
+        <v>0.0001294000012421748</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0006553000002895715</v>
+        <v>0.0006565000003320165</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0007562999999208841</v>
+        <v>0.0007552000006398885</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0007657000005565351</v>
+        <v>0.000821600000563194</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0008890999997674953</v>
+        <v>0.0008846000018820632</v>
       </c>
     </row>
     <row r="105">
@@ -4987,22 +4987,22 @@
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0001159000003099209</v>
+        <v>0.0001174999997601844</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0001307000002270797</v>
+        <v>0.0001278999989153817</v>
       </c>
       <c r="J105" t="n">
-        <v>0.001009900001008646</v>
+        <v>0.001015499999994063</v>
       </c>
       <c r="K105" t="n">
-        <v>0.001002700000753975</v>
+        <v>0.001019000001178938</v>
       </c>
       <c r="L105" t="n">
-        <v>0.001125800001318567</v>
+        <v>0.001132999999754247</v>
       </c>
       <c r="M105" t="n">
-        <v>0.001133400000981055</v>
+        <v>0.00114690000009432</v>
       </c>
     </row>
     <row r="106">
@@ -5030,22 +5030,22 @@
         <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0001092000002245186</v>
+        <v>0.0001136999999289401</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0001157999995484715</v>
+        <v>0.0001276999992114725</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0006905999998707557</v>
+        <v>0.0006938999995327322</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0007454999995388789</v>
+        <v>0.0007673000000067987</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0007998000000952743</v>
+        <v>0.0008075999994616723</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0008612999990873504</v>
+        <v>0.0008949999992182711</v>
       </c>
     </row>
     <row r="107">
@@ -5073,22 +5073,22 @@
         <v>5</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0001138000006903894</v>
+        <v>0.0001390999987052055</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0001200000006065238</v>
+        <v>0.0001405999992130091</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0008617999992566183</v>
+        <v>0.0008660000003146706</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0009449999997741543</v>
+        <v>0.0009468999996897765</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0009755999999470077</v>
+        <v>0.001005099999019876</v>
       </c>
       <c r="M107" t="n">
-        <v>0.001065000000380678</v>
+        <v>0.001087499998902786</v>
       </c>
     </row>
     <row r="108">
@@ -5116,22 +5116,22 @@
         <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0001102000005630543</v>
+        <v>0.0001403999995090999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0001150999996752944</v>
+        <v>0.0001315999998041661</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0007915999995020684</v>
+        <v>0.0008311999990837649</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0008817999987513758</v>
+        <v>0.0008875999992596917</v>
       </c>
       <c r="L108" t="n">
-        <v>0.0009018000000651227</v>
+        <v>0.0009715999985928647</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0009968999984266702</v>
+        <v>0.001019199999063858</v>
       </c>
     </row>
     <row r="109">
@@ -5159,22 +5159,22 @@
         <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0001474000000598608</v>
+        <v>0.000111700001070858</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0001205999997182516</v>
+        <v>0.000119099999210448</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0006928999991941964</v>
+        <v>0.0006873999991512392</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0007564000006823335</v>
+        <v>0.0007548000012320699</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0008402999992540572</v>
+        <v>0.0007991000002220972</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0008770000004005851</v>
+        <v>0.0008739000004425179</v>
       </c>
     </row>
     <row r="110">
@@ -5202,22 +5202,22 @@
         <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0001130000000557629</v>
+        <v>0.0001105999999708729</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0001286000006075483</v>
+        <v>0.000121900000522146</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0006596000002900837</v>
+        <v>0.0006527999994432321</v>
       </c>
       <c r="K110" t="n">
-        <v>0.000747899999623769</v>
+        <v>0.0007268999997904757</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0007726000003458466</v>
+        <v>0.000763399999414105</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0008765000002313172</v>
+        <v>0.0008488000003126217</v>
       </c>
     </row>
     <row r="111">
@@ -5245,22 +5245,22 @@
         <v>3</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0001558000003569759</v>
+        <v>0.000111700001070858</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0001279999996768311</v>
+        <v>0.0001509000012447359</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0007277999993675621</v>
+        <v>0.0007316999999602558</v>
       </c>
       <c r="K111" t="n">
-        <v>0.000787000000855187</v>
+        <v>0.0007927999995445134</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0008835999997245381</v>
+        <v>0.0008434000010311138</v>
       </c>
       <c r="M111" t="n">
-        <v>0.000915000000532018</v>
+        <v>0.0009437000007892493</v>
       </c>
     </row>
     <row r="112">
@@ -5288,22 +5288,22 @@
         <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>0.000116600000183098</v>
+        <v>0.0001295000001846347</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0001544999995530816</v>
+        <v>0.0001197999990836252</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0008185999995475868</v>
+        <v>0.0008277000015368685</v>
       </c>
       <c r="K112" t="n">
-        <v>0.00086610000107612</v>
+        <v>0.000885200000993791</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0009351999997306848</v>
+        <v>0.0009572000017215032</v>
       </c>
       <c r="M112" t="n">
-        <v>0.001020600000629202</v>
+        <v>0.001005000000077416</v>
       </c>
     </row>
     <row r="113">
@@ -5331,22 +5331,22 @@
         <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0001253999998880317</v>
+        <v>0.0001642999995965511</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0001312999993388075</v>
+        <v>0.000127200000861194</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0007129000005079433</v>
+        <v>0.0007230999999592314</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0007652000003872672</v>
+        <v>0.0007827999997971347</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0008383000003959751</v>
+        <v>0.0008873999995557824</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0008964999997260747</v>
+        <v>0.0009100000006583286</v>
       </c>
     </row>
     <row r="114">
@@ -5374,22 +5374,22 @@
         <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0001124999998864951</v>
+        <v>0.0001214000003528781</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0001394999999320135</v>
+        <v>0.0001272999998036539</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0006691999988106545</v>
+        <v>0.0006704999996145489</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0007334000001719687</v>
+        <v>0.0007325999995373422</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0007816999986971496</v>
+        <v>0.000791899999967427</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0008729000001039822</v>
+        <v>0.0008598999993409961</v>
       </c>
     </row>
     <row r="115">
@@ -5417,22 +5417,22 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0001216000000567874</v>
+        <v>0.0001262000005226582</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0001273999987461139</v>
+        <v>0.0001226000003953231</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0006216999991011107</v>
+        <v>0.000628800000413321</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0006692000006296439</v>
+        <v>0.0006735999995726161</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0007432999991578981</v>
+        <v>0.0007550000009359792</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0007965999993757578</v>
+        <v>0.0007961999999679392</v>
       </c>
     </row>
     <row r="116">
@@ -5460,22 +5460,22 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0001252999991265824</v>
+        <v>0.000116699999125558</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0001241999998455867</v>
+        <v>0.0001276999992114725</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0006265000010898802</v>
+        <v>0.0006473999983427348</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0006878000003780471</v>
+        <v>0.0006988000004639616</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0007518000002164626</v>
+        <v>0.0007640999974682927</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0008120000002236338</v>
+        <v>0.0008264999996754341</v>
       </c>
     </row>
     <row r="117">
@@ -5503,22 +5503,22 @@
         <v>4</v>
       </c>
       <c r="H117" t="n">
-        <v>0.000114200000098208</v>
+        <v>0.0001155999998445623</v>
       </c>
       <c r="I117" t="n">
-        <v>0.000129699999888544</v>
+        <v>0.0001267000006919261</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0008694000007380964</v>
+        <v>0.0008719999987079063</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0009373000011692056</v>
+        <v>0.0009583999999449588</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0009836000008363044</v>
+        <v>0.0009875999985524686</v>
       </c>
       <c r="M117" t="n">
-        <v>0.00106700000105775</v>
+        <v>0.001085100000636885</v>
       </c>
     </row>
     <row r="118">
@@ -5546,22 +5546,22 @@
         <v>5</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0001094999988708878</v>
+        <v>0.0001463000007788651</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0001221999991685152</v>
+        <v>0.000132099999973434</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0009198000007017981</v>
+        <v>0.0009430000009160722</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0009886999996524537</v>
+        <v>0.001012600001558894</v>
       </c>
       <c r="L118" t="n">
-        <v>0.001029299999572686</v>
+        <v>0.001089300001694937</v>
       </c>
       <c r="M118" t="n">
-        <v>0.001110899998820969</v>
+        <v>0.001144700001532328</v>
       </c>
     </row>
     <row r="119">
@@ -5589,22 +5589,22 @@
         <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0001103000013245037</v>
+        <v>0.0001156999987870222</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0001539000004413538</v>
+        <v>0.0001244999984919559</v>
       </c>
       <c r="J119" t="n">
-        <v>0.001035799999954179</v>
+        <v>0.001014599998597987</v>
       </c>
       <c r="K119" t="n">
-        <v>0.001103800001146737</v>
+        <v>0.001101699999708217</v>
       </c>
       <c r="L119" t="n">
-        <v>0.001146100001278683</v>
+        <v>0.001130299997385009</v>
       </c>
       <c r="M119" t="n">
-        <v>0.001257700001588091</v>
+        <v>0.001226199998200173</v>
       </c>
     </row>
     <row r="120">
@@ -5632,22 +5632,22 @@
         <v>3</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0001312999993388075</v>
+        <v>0.0001269999993382953</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0001322000007348834</v>
+        <v>0.0001238999993802281</v>
       </c>
       <c r="J120" t="n">
-        <v>0.000912600000447128</v>
+        <v>0.0009107999994739657</v>
       </c>
       <c r="K120" t="n">
-        <v>0.001019999999698484</v>
+        <v>0.001017000000501866</v>
       </c>
       <c r="L120" t="n">
-        <v>0.001043899999785936</v>
+        <v>0.001037799998812261</v>
       </c>
       <c r="M120" t="n">
-        <v>0.001152200000433368</v>
+        <v>0.001140899999882095</v>
       </c>
     </row>
     <row r="121">
@@ -5675,22 +5675,22 @@
         <v>591</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>0.03903989999707846</v>
+        <v>0.04321370001343894</v>
       </c>
       <c r="I121" s="3" t="n">
-        <v>0.04738570000517939</v>
+        <v>0.05096219998995366</v>
       </c>
       <c r="J121" s="3" t="n">
-        <v>1.304861400003574</v>
+        <v>1.351376400001755</v>
       </c>
       <c r="K121" s="3" t="n">
-        <v>1.294011699994371</v>
+        <v>1.311348400002316</v>
       </c>
       <c r="L121" s="3" t="n">
-        <v>1.343901300000653</v>
+        <v>1.394590100015193</v>
       </c>
       <c r="M121" s="3" t="n">
-        <v>1.341397399999551</v>
+        <v>1.36231059999227</v>
       </c>
     </row>
   </sheetData>
